--- a/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
+++ b/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/Twitter-Sentiment-Analysis-with-Streamlit/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5A1638-7DDE-C34D-8CE9-9FC687431D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2079AB-243D-C143-89FF-28C945A78113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11585" uniqueCount="5507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12495" uniqueCount="6020">
   <si>
     <t>tweetcreatedts</t>
   </si>
@@ -16541,6 +16541,1545 @@
   </si>
   <si>
     <t>central java governor ganjar pranowo is preparing a skilled human resource to build an electric vehicle electric vehicle ecosystem one of the resources that supports the ecosystem is a student of smk sahatganjar gangranpranowo ganjar</t>
+  </si>
+  <si>
+    <t>27/02/2023 23:52</t>
+  </si>
+  <si>
+    <t>aiyubilyas</t>
+  </si>
+  <si>
+    <t>tdk ada manusia dr psi yg omongin ini mereka udah pensiun ya hebat juga anis bisa buat psi kerja siang malam sampe kurang tidur</t>
+  </si>
+  <si>
+    <t>there is no human being from psi who talks about this they have retired so great anis can make psi work day and night until lack of sleep</t>
+  </si>
+  <si>
+    <t>27/02/2023 22:47</t>
+  </si>
+  <si>
+    <t>juje1504</t>
+  </si>
+  <si>
+    <t>heru budi tertawa karena dia tau dia gak bisa spt anies baswedan ga mampu buat jakarta keren hanya dpt warisan dr pak anies</t>
+  </si>
+  <si>
+    <t>heru budi laughed because he knew he could not like anies baswedan could not be able to make it cool jakarta only got a legacy from mr. ani</t>
+  </si>
+  <si>
+    <t>27/02/2023 22:15</t>
+  </si>
+  <si>
+    <t>WartaEkonomi</t>
+  </si>
+  <si>
+    <t>anies pakai slogan ciptaan heru budi hartono untuk kepentingan pilpres pendukung kok gak ribut</t>
+  </si>
+  <si>
+    <t>Warta Ekonomi</t>
+  </si>
+  <si>
+    <t>anies uses the slogan created by heru budi hartono for the benefit of the supporting presidential election, how come it's not noisi</t>
+  </si>
+  <si>
+    <t>27/02/2023 16:54</t>
+  </si>
+  <si>
+    <t>bianca125547620</t>
+  </si>
+  <si>
+    <t>heru budi gak becus kerja bisanya merusak karya anies heru budi kader pdip nyusahin rakyat genangan  meter terjang jakarta heru budi mudah mudahan cepat surut ya dirjenpajakbiangkorupsi dirjenpajakbiangkorupsi</t>
+  </si>
+  <si>
+    <t>heru budi gak becus kerja bisanya merusak karya anies heru budi kader pdip nyusahin rakyat genangan meter terjang jakarta heru budi mudah mudahan cepat surut ya dirjenpajakbiangkorupsi dirjenpajakbiangkorupsi</t>
+  </si>
+  <si>
+    <t>heru budi is not a work, usually the work of anies heru budi pdip cadre pitches people in the puddle of meter in jakarta heru budi hopefully quickly reced</t>
+  </si>
+  <si>
+    <t>27/02/2023 16:13</t>
+  </si>
+  <si>
+    <t>AwangSancaka</t>
+  </si>
+  <si>
+    <t>btp basuki heru budi retno ri sri mulyani jenderal aman lah</t>
+  </si>
+  <si>
+    <t>btp basuki heru budi retno ri sri mulyani general is saf</t>
+  </si>
+  <si>
+    <t>arx21</t>
+  </si>
+  <si>
+    <t>itulah yg disebut dengan menghargai kerja keras pak heru budi tagline nya ajh diadopsi apalagi gagasan kerennya</t>
+  </si>
+  <si>
+    <t>that's what is called respect for the hard work of mr. heru budi, the tagline is adopted especially his cool idea</t>
+  </si>
+  <si>
+    <t>27/02/2023 15:02</t>
+  </si>
+  <si>
+    <t>anto_cahaya</t>
+  </si>
+  <si>
+    <t>selain ahli ganti nama ternyata pintar jiplak slogannya pak heru budi hmmm begini amat pak sebagai orang yg pandai berkata kata semestinya mudah menciptakan sendiri bukan garpitnya ariel tatum david indra bekti syahril agnes</t>
+  </si>
+  <si>
+    <t>in addition to the expert, the name changes it turns out that the slogan is good at mr. heru budi hmmm like this, sir, as a good person who is good at saying the word should be easy to create his own not the fork ariel tatum david indra bekti syahril agn</t>
+  </si>
+  <si>
+    <t>HendiUnpad74</t>
+  </si>
+  <si>
+    <t>anies cuman bisa bikin slogan kerja no heru budi tertawa anies pakai slogan sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>anies can only make a job slogan no heru budi laugh anies using the successful slogan of jakarta for indonesia</t>
+  </si>
+  <si>
+    <t>IndonesiaKadrun</t>
+  </si>
+  <si>
+    <t>umbar hahaha gaada akhlak nih pak heru budi wan togog dikacangin mulu</t>
+  </si>
+  <si>
+    <t>umbar hahaha there is no morals, mr. heru budi wan togog was chanted first</t>
+  </si>
+  <si>
+    <t>tempodotco</t>
+  </si>
+  <si>
+    <t>terkini metro karangan bunga untuk pacar mario dandy heru budi tertawa soal anies baswedan tempometro</t>
+  </si>
+  <si>
+    <t>latest metro wreaths for mario dandy heru budi's girlfriend laughed about anies baswedan tempometro</t>
+  </si>
+  <si>
+    <t>affandiasry</t>
+  </si>
+  <si>
+    <t>smg cepat surutnya pak dumdum id ganesha</t>
+  </si>
+  <si>
+    <t>smg quickly receded mr. dumdum id ganesha</t>
+  </si>
+  <si>
+    <t>27/02/2023 13:22</t>
+  </si>
+  <si>
+    <t>RTriyogo68</t>
+  </si>
+  <si>
+    <t>heru budi tertawa anies pakai slogan sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>heru budi laughed anies using the successful slogan of jakarta for indonesia</t>
+  </si>
+  <si>
+    <t>27/02/2023 13:21</t>
+  </si>
+  <si>
+    <t>aiz_haryanto</t>
+  </si>
+  <si>
+    <t>memang harus kita ketawain aja tuh bocah</t>
+  </si>
+  <si>
+    <t>indeed we have to laugh at the boy</t>
+  </si>
+  <si>
+    <t>27/02/2023 12:45</t>
+  </si>
+  <si>
+    <t>rachell_za</t>
+  </si>
+  <si>
+    <t>saat heru budi tertawa anies baswedan pakai slogan sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>when heru budi laughed anies baswedan using the successful slogan of jakarta for indonesia</t>
+  </si>
+  <si>
+    <t>27/02/2023 12:38</t>
+  </si>
+  <si>
+    <t>tawa heru budi merespons anies baswedan sebut slogan sukses jakarta untuk indonesia tempometro</t>
+  </si>
+  <si>
+    <t>laughter heru budi responded to anies baswedan, call the success of jakarta sukses for indonesia tempometro</t>
+  </si>
+  <si>
+    <t>27/02/2023 12:10</t>
+  </si>
+  <si>
+    <t>KangDickyAjah</t>
+  </si>
+  <si>
+    <t>kemaren ditolak ma kuda skr diketawain ma pak heru bungul sih loe nies</t>
+  </si>
+  <si>
+    <t>yesterday was rejected ma now the horse was laughed at, mr. heru bungul</t>
+  </si>
+  <si>
+    <t>27/02/2023 12:02</t>
+  </si>
+  <si>
+    <t>NAsBtati</t>
+  </si>
+  <si>
+    <t>gak ganjar gak heru budi sama gak kerja selain pencitraan dengan iringan gonggongan para sundal bacot bandit bangsa</t>
+  </si>
+  <si>
+    <t>not ganjar gak gak heru budi and not working other than imaging with the happiness of the bacot bandit nation's bark</t>
+  </si>
+  <si>
+    <t>27/02/2023 11:40</t>
+  </si>
+  <si>
+    <t>SinthaS5</t>
+  </si>
+  <si>
+    <t>manusia ini jelas nihil ide amp inovasinya gak kepikir soal gagasan ambil gampangnya aja jiplak orang lain dengan seenaknya bukan cuma gak punya malu dicurigai moralnya pun sudah diambang batas minimal</t>
+  </si>
+  <si>
+    <t>this human is clearly nil the idea of the innovation not to think about the idea of taking the easy thing to just make another person.</t>
+  </si>
+  <si>
+    <t>27/02/2023 11:31</t>
+  </si>
+  <si>
+    <t>happymasterkt</t>
+  </si>
+  <si>
+    <t>heru budi tertawa anies pakai slogan sukses jakarta untuk indonesia detiknews</t>
+  </si>
+  <si>
+    <t>heru budi laughed anies using the successful slogan of jakarta for indonesia detiknew</t>
+  </si>
+  <si>
+    <t>IbrahimZ805</t>
+  </si>
+  <si>
+    <t>anies baswedan akan menggunakan tagline pemprov dki jakarta sukses jakarta untuk indonesia pj gubernur dki heru budi hartono memberi respons kasian diketawain</t>
+  </si>
+  <si>
+    <t>anies baswedan will use the dki jakarta provincial government's tagline success jakarta for indonesia acting governor of dki heru budi hartono responded to the ladi</t>
+  </si>
+  <si>
+    <t>27/02/2023 11:13</t>
+  </si>
+  <si>
+    <t>Alfianadhidara</t>
+  </si>
+  <si>
+    <t>seperti pak heru budi dahulunya mengaku miskin ketika menjadi pejabat sangat berhasil membohongi warga disekumpulannya bahkan puluhan juta demi menghidupkan keluarganya berakhir penyadaran diri ketika masa kesuksesan begitu terlihat heru semangat terus</t>
+  </si>
+  <si>
+    <t>like pak heru budi, he used to admit that he was poor when he became an official was very successful in lying to the residents in his gathering and even tens of millions in order to revive his family ended up awareness when the success was so visible, heru continu</t>
+  </si>
+  <si>
+    <t>liputan6dotcom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tawa heru budi soal anies pakai slogan sukses jakarta untuk indonesia di pilpres </t>
+  </si>
+  <si>
+    <t>tawa heru budi soal anies pakai slogan sukses jakarta untuk indonesia di pilpres</t>
+  </si>
+  <si>
+    <t>laughter heru budi about anies wearing a successful slogan of jakarta for indonesia in the presidential elect</t>
+  </si>
+  <si>
+    <t>FransSimo</t>
+  </si>
+  <si>
+    <t>dulu tagline ini keluar dibilang babyboomer ama tgupp dan fans skrang malah dicopy paste anies baswedan akan menggunakan tagline pemprov dki jakarta sukses jakarta untuk indonesia pj gubernur dki heru budi hartono memberi respons</t>
+  </si>
+  <si>
+    <t>in the past, this tagline came out, said that babyboomer and tgupp and fans now were copied paste anies baswedan will use the jakarta successful provincial government tagline for indonesia, the acting governor of dki heru budi hartono gave a respons</t>
+  </si>
+  <si>
+    <t>detikcom</t>
+  </si>
+  <si>
+    <t>anies baswedan akan gunakan tagline pemprov dki jakarta yaitu sukses jakarta untuk indonesia pj gubernur dki heru budi tertawa saat memberi respons</t>
+  </si>
+  <si>
+    <t>Echobox</t>
+  </si>
+  <si>
+    <t>anies baswedan will use the dki jakarta provincial government tagline, namely the success of jakarta for indonesia, the governor of dki heru budi laughed when respond</t>
+  </si>
+  <si>
+    <t>27/02/2023 10:45</t>
+  </si>
+  <si>
+    <t>anak_riau884</t>
+  </si>
+  <si>
+    <t>luar biasa pak heru budi luar biasa nggak ada inisiatifnya</t>
+  </si>
+  <si>
+    <t>incredible mr. heru budi is extraordinary there is no in</t>
+  </si>
+  <si>
+    <t>27/02/2023 10:42</t>
+  </si>
+  <si>
+    <t>Anu44575827</t>
+  </si>
+  <si>
+    <t>idha chotimah klau bilang anggaran dki  triliun emang lu lg nyindir pj heru budi ya</t>
+  </si>
+  <si>
+    <t>idha chotimah klau bilang anggaran dki triliun emang lu lg nyindir pj heru budi ya</t>
+  </si>
+  <si>
+    <t>idha chotimah if you say that the dki trillion budget is really touched by pj heru budi</t>
+  </si>
+  <si>
+    <t>27/02/2023 10:04</t>
+  </si>
+  <si>
+    <t>RusmawandiBint4</t>
+  </si>
+  <si>
+    <t>kalau lihat di media massa dan metro tv hujan ekstrim di jakarta yg parah di jaktim tapi sudah terjadi penurunan yg signifikan di bandingkan dg gubernur sebelum heru budi</t>
+  </si>
+  <si>
+    <t>if you look at the mass media and extreme rain tv in jakarta which is severe in east jakarta but there has been a significant decline compared to the governor before heru budi</t>
+  </si>
+  <si>
+    <t>DsSupriyady</t>
+  </si>
+  <si>
+    <t>statement paling nyeleneh dr gubernur rekomendasi jokowi</t>
+  </si>
+  <si>
+    <t>the most eccentric statement from the governor of jokowi's recommend</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:53</t>
+  </si>
+  <si>
+    <t>SonoraFM92</t>
+  </si>
+  <si>
+    <t>penjabat gubernur dki jakarta heru budi hartono meninjau layanan kependudukan di lembaga pemasyarakatan perempuan lpp jakarta amp rutan pondok bambu senin    heru menyerahkan bantuan kesehatan dan ktp pada napi yang akan segera bebas liputannsonora muspiroh</t>
+  </si>
+  <si>
+    <t>penjabat gubernur dki jakarta heru budi hartono meninjau layanan kependudukan di lembaga pemasyarakatan perempuan lpp jakarta amp rutan pondok bambu senin heru menyerahkan bantuan kesehatan dan ktp pada napi yang akan segera bebas liputannsonora muspiroh</t>
+  </si>
+  <si>
+    <t>acting governor of dki jakarta heru budi hartono reviewed population services at the lpp jakarta amp pondok bambu penitentiary penitentiary in pondok bambu monday heru handed over health assistance and ktp to prisoners who would soon be free of liputannsonora muspiroh</t>
+  </si>
+  <si>
+    <t>QodryAmir</t>
+  </si>
+  <si>
+    <t>setahun jelang habis masa jabatan anies baswedan banjir di dki waktu surutnya tdk melebihi  jam artinya mitigasi banjirnya top markotop di bawah kepemimpinan heru budi banjir sudah masuk hari ke  malah makin meluas dan para penyembah sang pj gubernur auto mingkem</t>
+  </si>
+  <si>
+    <t>setahun jelang habis masa jabatan anies baswedan banjir di dki waktu surutnya tdk melebihi jam artinya mitigasi banjirnya top markotop di bawah kepemimpinan heru budi banjir sudah masuk hari ke malah makin meluas dan para penyembah sang pj gubernur auto mingkem</t>
+  </si>
+  <si>
+    <t>a year before the term of office anies baswedan flooded in dki, the time receded not to exceed the hour, meaning that the mitigation of the flood was top markotop under the leadership of heru budi flood had entered the day and even more widespread and the worship</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:23</t>
+  </si>
+  <si>
+    <t>SAMSUDI49034456</t>
+  </si>
+  <si>
+    <t>mudah an heru budi cepat surut dari jakarta banjirnya</t>
+  </si>
+  <si>
+    <t>easy an heru budi quickly receded from jakarta.</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:22</t>
+  </si>
+  <si>
+    <t>liputansonora meninjau layanan kependudukan di lapas dan rutan pondok bambu pj gubernur dki jakarta heru budi hartono serahkan bantuan kesehatan dan ktp pada napi yang akan segera bebas by muspiroh</t>
+  </si>
+  <si>
+    <t>liputansonora reviewed population services in pondok bambu pjak pj governor dki jakarta governor heru budi hartono handed over health assistance and ktp in prisoners who would soon be free by muspiroh</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:19</t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur dki jakarta heru budi hartono merespons beberapa wilayah yang tergenang banjir heru mengklaim banjir di jakarta hanya sebentar dan cepat surut setuju ga nih sobat medcom dengan pernyataan pak heru banjir jakarta herubudi</t>
+  </si>
+  <si>
+    <t>acting acting governor of dki jakarta heru budi hartono responded to several areas that were flooded heru claimed the flood in jakarta was only brief and quickly agreed to my friend medcom with the statement of mr. heru flood jakarta herubudi</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:05</t>
+  </si>
+  <si>
+    <t>anies baswedan pakai slogan sukses jakarta untuk indonesia pj gubernur dki heru budi boleh boleh aja</t>
+  </si>
+  <si>
+    <t>anies baswedan uses the successful slogan of jakarta for indonesia acting governor heru budi is allow</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:04</t>
+  </si>
+  <si>
+    <t>Darna03645146</t>
+  </si>
+  <si>
+    <t>cebong untung ada pak heru budi penerus jokowi ahok konyol</t>
+  </si>
+  <si>
+    <t>luckily, there is pak heru budi, the successor of jokowi ahok, silli</t>
+  </si>
+  <si>
+    <t>27/02/2023 08:56</t>
+  </si>
+  <si>
+    <t>BSipoel</t>
+  </si>
+  <si>
+    <t>genangan sekali lagi genangan  meter terjang jakarta heru budi mudah mudahan cepat surut ya</t>
+  </si>
+  <si>
+    <t>genangan sekali lagi genangan meter terjang jakarta heru budi mudah mudahan cepat surut ya</t>
+  </si>
+  <si>
+    <t>puddle once again a puddle of a meter lunge jakarta heru budi hopefully quickly reced</t>
+  </si>
+  <si>
+    <t>27/02/2023 08:23</t>
+  </si>
+  <si>
+    <t>antaranews</t>
+  </si>
+  <si>
+    <t>untuk mengatasi kemacetan di pintu perlintasan kereta stasiun kalideres heru menginstruksikan tiga strategi yakni rekayasa lalu lintas perbaikan jalan dan pembangunan crossing saluran air berita selengkapnya</t>
+  </si>
+  <si>
+    <t>to overcome the traffic jam at the kalideres station railroad crossing door, instructing three strategies, namely road engineering and construction of the complete news channel</t>
+  </si>
+  <si>
+    <t>27/02/2023 08:08</t>
+  </si>
+  <si>
+    <t>tapi pks enggak terima kata mereka slogan jakarta karya heru budi kurang menarik dan tidak milenial</t>
+  </si>
+  <si>
+    <t>but pks doesn't accept their words the jakarta slogan by heru budi is less attractive and not millenni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pemprov dki menjelaskan pergantian slogan ini dilakukan menyesuaikan visi gubernur dki yang memimpin pada periode yang berjalan dalam hal ini slogan sukses jakarta untuk indonesia ditetapkan sesuai dengan visi heru budi periode  </t>
+  </si>
+  <si>
+    <t>pemprov dki menjelaskan pergantian slogan ini dilakukan menyesuaikan visi gubernur dki yang memimpin pada periode yang berjalan dalam hal ini slogan sukses jakarta untuk indonesia ditetapkan sesuai dengan visi heru budi periode</t>
+  </si>
+  <si>
+    <t>the dki jakarta provincial government explained that the change of slogan was carried out to adjust the vision of the governor of dki who led in the period that runs in this case the successful slogan of jakarta for indonesia is determined in accordance with the vision of heru budi period</t>
+  </si>
+  <si>
+    <t>heru budi hartono santai saja dikritik seperti itu kata dia perubahan slogan setiap pergantian kepemimpinan kepala daerah bukan suatu masalah yang besar kan boleh boleh aja enggak masalah kata heru di balai kota dki jakarta rabu  desember</t>
+  </si>
+  <si>
+    <t>heru budi hartono santai saja dikritik seperti itu kata dia perubahan slogan setiap pergantian kepemimpinan kepala daerah bukan suatu masalah yang besar kan boleh boleh aja enggak masalah kata heru di balai kota dki jakarta rabu desember</t>
+  </si>
+  <si>
+    <t>heru budi hartono was just relaxed criticized like that he said the change of the slogan every change of leadership of the regional head was not a big problem, right?</t>
+  </si>
+  <si>
+    <t>sebuah utas dulu partai pendukung anies baswedan ramai ramai mengkritik pj gubernur dki heru budi yang mengganti slogan jakarta heru mengganti kota kolaborasi karya anies baswedan menjadi sukses jakarta untuk indonesia eh ternyata from this to this</t>
+  </si>
+  <si>
+    <t>a thread of the party supporting anies baswedan was busy criticizing the acting governor of dki, heru budi, who replaced the slogan of jakarta heru, replaced the collaboration city of anies baswedan to be a successful jakarta for indonesia, it turned out that from this to thi</t>
+  </si>
+  <si>
+    <t>27/02/2023 08:05</t>
+  </si>
+  <si>
+    <t>AHMDYSRALKF</t>
+  </si>
+  <si>
+    <t>untung kau heru budi coba anies kau di bully sama buzzer anak haram</t>
+  </si>
+  <si>
+    <t>luckily you are heru budi, try anies, you're bullied with a buzz</t>
+  </si>
+  <si>
+    <t>yani_purwoko</t>
+  </si>
+  <si>
+    <t>senin pagi   saya mendampingi penjabat pj gubernur provinsi dki jakarta bapak heru budi hartono bersama anggota dprd dki jakarta bapak lukmanul hakim dalam meninjau jalan semanan raya tepatnya di persimpangan stasiun kalideres jakarta barat</t>
+  </si>
+  <si>
+    <t>senin pagi saya mendampingi penjabat pj gubernur provinsi dki jakarta bapak heru budi hartono bersama anggota dprd dki jakarta bapak lukmanul hakim dalam meninjau jalan semanan raya tepatnya di persimpangan stasiun kalideres jakarta barat</t>
+  </si>
+  <si>
+    <t>monday morning i accompanied the acting acting governor of dki jakarta province mr. heru budi hartono together with dki jakarta dprd member mr. lukmanul hakim in reviewing jalan semanan raya precisely at the intersection of kalideres station, west jakarta</t>
+  </si>
+  <si>
+    <t>soal banjir jakarta heru budi semoga cepet surut yang penting airnya bisa ngalir</t>
+  </si>
+  <si>
+    <t>about the jakarta flood heru budi, hopefully the important receding water can be ngalir</t>
+  </si>
+  <si>
+    <t>27/02/2023 06:16</t>
+  </si>
+  <si>
+    <t>geloraco</t>
+  </si>
+  <si>
+    <t>genangan  meter terjang jakarta heru budi mudah mudahan cepat surut ya</t>
+  </si>
+  <si>
+    <t>genangan meter terjang jakarta heru budi mudah mudahan cepat surut ya</t>
+  </si>
+  <si>
+    <t>puddle meter lunge jakarta heru budi hopefully quickly reced</t>
+  </si>
+  <si>
+    <t>idha cebong untung ada pak heru budi penerus jokowi ahok</t>
+  </si>
+  <si>
+    <t>idha cebong fortunately there is mr. heru budi successor jokowi ahok</t>
+  </si>
+  <si>
+    <t>BeritaJakarta</t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur provinsi dki jakarta heru budi hartono meninjau jalan semanan raya tepatnya persimpangan stasiun kalideres jakarta barat senin   pagi bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur provinsi dki jakarta heru budi hartono meninjau jalan semanan raya tepatnya persimpangan stasiun kalideres jakarta barat senin pagi bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>acting acting governor of dki jakarta province heru budi hartono reviewed jalan semanan raya precisely the intersection of kalideres station west jakarta monday morning bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>27/02/2023 04:54</t>
+  </si>
+  <si>
+    <t>CNNIndonesia</t>
+  </si>
+  <si>
+    <t>heru budi soal banjir jakarta capai  meter mudah mudahan cepat surut</t>
+  </si>
+  <si>
+    <t>detikcommunity</t>
+  </si>
+  <si>
+    <t>heru budi soal banjir jakarta capai meter mudah mudahan cepat surut</t>
+  </si>
+  <si>
+    <t>heru budi about the jakarta floods reach meter hopefully fast rebut</t>
+  </si>
+  <si>
+    <t>27/02/2023 04:38</t>
+  </si>
+  <si>
+    <t>caritaucom</t>
+  </si>
+  <si>
+    <t>anies mengaku akan membawa tagline sukseskan jakarta untuk indonesia milik heru budi akan ia bawa dalam memenangkan pemilu  ini tanggapan heru budi</t>
+  </si>
+  <si>
+    <t>anies mengaku akan membawa tagline sukseskan jakarta untuk indonesia milik heru budi akan ia bawa dalam memenangkan pemilu ini tanggapan heru budi</t>
+  </si>
+  <si>
+    <t>anies claimed that he would bring the success tagline of jakarta to heru budi's indonesia, he would bring in winning this elect</t>
+  </si>
+  <si>
+    <t>27/02/2023 03:27</t>
+  </si>
+  <si>
+    <t>SuwandaBen</t>
+  </si>
+  <si>
+    <t>asmara  feb  banjir setinggi  cm terjang kota jakarta  rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>asmara feb banjir setinggi cm terjang kota jakarta rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>asmara feb floods as high as cm lunge the city of jakarta is flooded where the work of foster children jokowi which is regulated from the heru budi prak pj governor is not the choice of the people of his work not yet tested for the citizens of dki</t>
+  </si>
+  <si>
+    <t>27/02/2023 03:19</t>
+  </si>
+  <si>
+    <t>didu  feb  banjir setinggi  cm terjang kota jakarta  rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>didu feb banjir setinggi cm terjang kota jakarta rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>didu feb floods as high as cm lunched the city of jakarta the house was flooded where the work of foster children who were regulated from the palace of heru budi pj governor was not the choice of the people of his work not yet tested for the citizens of dki</t>
+  </si>
+  <si>
+    <t>27/02/2023 03:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> feb  banjir setinggi  cm terjang kota jakarta  rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>feb banjir setinggi cm terjang kota jakarta rumah terendam banjir mana kerjanya anak asuh jokowi yang diatur dari istana heru budi pj gubernur bukan pilihan rakyat kerjanya belum teruji utk warga dki</t>
+  </si>
+  <si>
+    <t>feb floods as high as cm lunge jakarta the house is flooded where the work of foster children who are regulated from the palace of heru budi pj governor is not the choic</t>
+  </si>
+  <si>
+    <t>tagline jakarta era heru budi bakal anies baswedan bawa di pilpres  sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>tagline jakarta era heru budi bakal anies baswedan bawa di pilpres sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>tagline jakarta era heru budi will anies baswedan bringing at the jakarta successful presidential election for indonesia</t>
+  </si>
+  <si>
+    <t>RadioElshinta</t>
+  </si>
+  <si>
+    <t>pj gubernur dki jakarta heru budi meninjau pemukiman penduduk di sekitar stasiun kalideres jakarta barat yang mengalami genangan air meluap dari selokan senin   pagi srr beritaelshinta</t>
+  </si>
+  <si>
+    <t>pj gubernur dki jakarta heru budi meninjau pemukiman penduduk di sekitar stasiun kalideres jakarta barat yang mengalami genangan air meluap dari selokan senin pagi srr beritaelshinta</t>
+  </si>
+  <si>
+    <t>acting governor of dki jakarta heru budi reviewed residential areas around kalideres station, west jakarta, which experienced a puddle of water overflowing from the ditch monday morning srr bernelshinta</t>
+  </si>
+  <si>
+    <t>27/02/2023 01:37</t>
+  </si>
+  <si>
+    <t>radaraktual</t>
+  </si>
+  <si>
+    <t>pinjam tagline baru heru budi anies gaungkan sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>borrowing the new tagline heru budi anies gaped success in jakarta for indonesia</t>
+  </si>
+  <si>
+    <t>26/02/2023 17:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenang kejayaan pimpin jakarta anies pakai slogan heru budi sukses jakarta untuk indonesia di pilpres </t>
+  </si>
+  <si>
+    <t>kenang kejayaan pimpin jakarta anies pakai slogan heru budi sukses jakarta untuk indonesia di pilpres</t>
+  </si>
+  <si>
+    <t>remember the glory of the leaders of jakarta anies using the slogan heru budi sukses jakarta for indonesia in the presidential elect</t>
+  </si>
+  <si>
+    <t>TIGORaja</t>
+  </si>
+  <si>
+    <t>anies baswedan menjiplak slogan jakarta sukses jakarta untuk indonesia yang dibuat oleh gubernur jakarta heru budi hartono aniesbaswedanmenjiplaksloganjakarta</t>
+  </si>
+  <si>
+    <t>anies baswedan claims jakarta successful slogan jakarta for indonesia made by jakarta governor heru budi hartono aniesbaswedanmenjiplaksloganjakarta</t>
+  </si>
+  <si>
+    <t>tawarkan rekam jejak keberhasilan pimpin jakarta anies baswedan bakal bawa tagline era heru budi sukses jakarta untuk indonesia</t>
+  </si>
+  <si>
+    <t>offer a track record of the success of the leader of jakarta anies baswedan will bring the tagline of the era of heru budi sukses jakarta for indonesia</t>
+  </si>
+  <si>
+    <t>26/02/2023 11:23</t>
+  </si>
+  <si>
+    <t>RoesliPrasetijo</t>
+  </si>
+  <si>
+    <t>jadi menurut para fansnya yohanies yg berk pak heru budi yg disuruh cebkin amnjaaaay nanti tambah ngelunjak minta lagi rumah dp gratisin oke oce diwujudkan</t>
+  </si>
+  <si>
+    <t>so according to the fans of yohanies who have mr. heru budi, who was told to get amnjaaaay, later, we will be more likely to ask for another dp house, okay oce is r</t>
+  </si>
+  <si>
+    <t>26/02/2023 08:27</t>
+  </si>
+  <si>
+    <t>Beritasatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anies gunakan tagline heru budi sukses jakarta untuk indonesia di pilpres </t>
+  </si>
+  <si>
+    <t>beritasatu</t>
+  </si>
+  <si>
+    <t>anies gunakan tagline heru budi sukses jakarta untuk indonesia di pilpres</t>
+  </si>
+  <si>
+    <t>anies use the heru budi sukses jakarta tagline for indonesia in the presidential elect</t>
+  </si>
+  <si>
+    <t>26/02/2023 05:30</t>
+  </si>
+  <si>
+    <t>suaradotcom</t>
+  </si>
+  <si>
+    <t>selama  tahun perjalanan mengemban amanah di dki jakarta pks selalu mendampingi selalu mendukung selalu mengawal erat usaha</t>
+  </si>
+  <si>
+    <t>selama tahun perjalanan mengemban amanah di dki jakarta pks selalu mendampingi selalu mendukung selalu mengawal erat usaha</t>
+  </si>
+  <si>
+    <t>during the year the trip carrying the mandate in dki jakarta pks always accompanies always supporting the business clos</t>
+  </si>
+  <si>
+    <t>keren melalui gubernur heru budi hartono berkolaborasi dengan pemerintah pusat program yang mangkrak di masa anies secara perlahan normalisasi sungai di dki mulai membuahkan hasilnya innalillahi anissa aziza agnes umur  bocahedewe</t>
+  </si>
+  <si>
+    <t>keren melalui gubernur heru budi hartono berkolaborasi dengan pemerintah pusat program yang mangkrak di masa anies secara perlahan normalisasi sungai di dki mulai membuahkan hasilnya innalillahi anissa aziza agnes umur bocahedewe</t>
+  </si>
+  <si>
+    <t>cool through governor heru budi hartono collaborated with the central government of the program that stalled in the anies era slowly normalizing the river in dki began to produce the results of innalillahi anissa aziza agnes age bocahedwe</t>
+  </si>
+  <si>
+    <t>26/02/2023 01:14</t>
+  </si>
+  <si>
+    <t>para cebong dan buzzerrp bkn main bangganya untung ada pak heru budi pengganti jokowi ahok</t>
+  </si>
+  <si>
+    <t>the cebong and buzzerrp bkn play proud</t>
+  </si>
+  <si>
+    <t>25/02/2023 16:39</t>
+  </si>
+  <si>
+    <t>riaunewsmedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heru budi pernah dipuji bisa atasi banjir eh kini jakarta malah terendam lebih luas riaunews fuji bocahedewe risih pengacara rafael lapakcot malam minggu nikah  smp umur </t>
+  </si>
+  <si>
+    <t>heru budi pernah dipuji bisa atasi banjir eh kini jakarta malah terendam lebih luas riaunews fuji bocahedewe risih pengacara rafael lapakcot malam minggu nikah smp umur</t>
+  </si>
+  <si>
+    <t>heru budi was praised to be able to overcome the flood eh now jakarta is even submerged more broadly riaunews fuji bocahedewe rafael lawyer lapakcot saturday night marriage middle school ag</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:51</t>
+  </si>
+  <si>
+    <t>masaryaduta</t>
+  </si>
+  <si>
+    <t>heru budi pernah dipuji bisa atasi banjir eh kini banjir jakarta malah meluas</t>
+  </si>
+  <si>
+    <t>heru budi was praised to be able to overcome the flood eh now the flood of jakarta is even widespread</t>
+  </si>
+  <si>
+    <t>OposisiCerdas</t>
+  </si>
+  <si>
+    <t>heru budi pernah dipuji bisa atasi banjir di dki kini banjir dimana mana anies lagi yang bakal diserang</t>
+  </si>
+  <si>
+    <t>heru budi was praised to be able to overcome floods in dki now floods where anies will be attack</t>
+  </si>
+  <si>
+    <t>25/02/2023 12:34</t>
+  </si>
+  <si>
+    <t>heru budi pernah dipuji bisa atasi banjir eh kini banjir jakarta meluas warganet ayo bong</t>
+  </si>
+  <si>
+    <t>heru budi was praised to be able to overcome flood</t>
+  </si>
+  <si>
+    <t>25/02/2023 08:23</t>
+  </si>
+  <si>
+    <t>WidodoJogja2</t>
+  </si>
+  <si>
+    <t>daripada anies heru budi disebut sebut berhasil atasi banjir di dki warganet kasih bukti bantahan sampai bikin kicep</t>
+  </si>
+  <si>
+    <t>instead of anies heru budi, it is said that it was said to be successful in the flood in dki citizens giving proof of rebuttal to make kicep</t>
+  </si>
+  <si>
+    <t>25/02/2023 02:13</t>
+  </si>
+  <si>
+    <t>rubis105</t>
+  </si>
+  <si>
+    <t>heru budi terima laporan ada indikasi permainan di kecamatan penjaringan di era onta yaman umur  narnia agnes kuda morningg anissa aziza pagiii cs misterius bca tolol cakep banget zelenskyy respectgiselle taxidriverep myschoolpresidentfinalep</t>
+  </si>
+  <si>
+    <t>heru budi terima laporan ada indikasi permainan di kecamatan penjaringan di era onta yaman umur narnia agnes kuda morningg anissa aziza pagiii cs misterius bca tolol cakep banget zelenskyy respectgiselle taxidriverep myschoolpresidentfinalep</t>
+  </si>
+  <si>
+    <t>heru budi received a report there was an indication of the game in penjaringan district in the yemeni onta era narnia agnes horse morningg anissa aziza pagiii cs mysterious bca really cute zelenskyy respect</t>
+  </si>
+  <si>
+    <t>25/02/2023 00:50</t>
+  </si>
+  <si>
+    <t>Sis89370263</t>
+  </si>
+  <si>
+    <t>apa benar begitu banyak penduduk sudah pindah tapi tetap ktp dki heru budi bakal lakukan akurasi data kependudukan</t>
+  </si>
+  <si>
+    <t>is it true that so many residents have moved but still dki ktp heru budi will do the accuracy of population data</t>
+  </si>
+  <si>
+    <t>24/02/2023 17:44</t>
+  </si>
+  <si>
+    <t>NegeriJajahan3l</t>
+  </si>
+  <si>
+    <t>yang cacat diangkat supaya mudah dikendalikan kalau meleng kpk atau hukum dimainkan gaya rezim pki begitu terseret kasus reklamasi maki minta heru budi dipecat ungkapkebiadabankm ungkapkebiadabankm</t>
+  </si>
+  <si>
+    <t>the disabled is appointed so that it is easily controlled if the kpk or the law is played by the pki regime so that the maki reclamation case is dragged asking heru budi to be fired by the issu</t>
+  </si>
+  <si>
+    <t>24/02/2023 11:10</t>
+  </si>
+  <si>
+    <t>kotajaktim</t>
+  </si>
+  <si>
+    <t>pj gubernur dki jakarta heru budi hartono mengapresiasi  kelurahan yang mewujudkan penataan kawasan  kelurahan di antaranya berada di jakarta timur dimana saja tempat penataan kawasan itu yuk simak penelusuran berikut ini kotajakartatimur suksesjakartauntukindonesia</t>
+  </si>
+  <si>
+    <t>pj gubernur dki jakarta heru budi hartono mengapresiasi kelurahan yang mewujudkan penataan kawasan kelurahan di antaranya berada di jakarta timur dimana saja tempat penataan kawasan itu yuk simak penelusuran berikut ini kotajakartatimur suksesjakartauntukindonesia</t>
+  </si>
+  <si>
+    <t>acting governor of dki jakarta heru budi hartono appreciated the village which realized the arrangement of the kelurahan area including located in east jakarta anywhere the area arrangement of the area let's refer to the following search kotajakartatimur suksesjakarta for indonesia</t>
+  </si>
+  <si>
+    <t>24/02/2023 10:37</t>
+  </si>
+  <si>
+    <t>majalahjakita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jakarta jadi tuan rumah ktt asean  penjabat pj gubernur dki jakarta heru budi hartono menegaskan jakarta siap menjadi tuan rumah pertemuan konferensi tingkat tinggi ktt asean </t>
+  </si>
+  <si>
+    <t>jakarta jadi tuan rumah ktt asean penjabat pj gubernur dki jakarta heru budi hartono menegaskan jakarta siap menjadi tuan rumah pertemuan konferensi tingkat tinggi ktt asean</t>
+  </si>
+  <si>
+    <t>jakarta is the host of the asean summit acting acting governor of dki jakarta heru budi hartono stressed that jakarta is ready to host the asean summit high level conference meet</t>
+  </si>
+  <si>
+    <t>24/02/2023 09:50</t>
+  </si>
+  <si>
+    <t>pj gubernur dki heru budi hartono mengungkapkan dalam waktu dekat pihaknya akan mengadakan pertemuan khusus dengan tpid terkait upaya pengendalian inflasi</t>
+  </si>
+  <si>
+    <t>micom</t>
+  </si>
+  <si>
+    <t>acting dki governor heru budi hartono revealed that in the near future his party would hold a special meeting with tpid regarding efforts to control infl</t>
+  </si>
+  <si>
+    <t>saya nggak tahu kok ada perilaku seperti ini nggak tahu juga tapi harus ditingkatin pengamanannya kata heru di grand hyyat hotel jakarta pusat kamis   kuatbaca kuatbacacom transjakarta busway pelecehan</t>
+  </si>
+  <si>
+    <t>saya nggak tahu kok ada perilaku seperti ini nggak tahu juga tapi harus ditingkatin pengamanannya kata heru di grand hyyat hotel jakarta pusat kamis kuatbaca kuatbacacom transjakarta busway pelecehan</t>
+  </si>
+  <si>
+    <t>i don't know how come there is a behavior like this, i don't know either, but it must be abandoned by the safety, said heru at the grand hyyat hotel, central jakarta, strong reading bacacom transjakarta busway, harass</t>
+  </si>
+  <si>
+    <t>24/02/2023 08:35</t>
+  </si>
+  <si>
+    <t>ipoldotid</t>
+  </si>
+  <si>
+    <t>ipol id penjabat pj gubernur dki jakarta heru budi hartono turut menghadiri pengukuhan kepala kantor perwakilan bank indonesia dki jakarta arlyana abubakar oleh deputi gubernur bank indonesia juda agung baca selengkapnya di</t>
+  </si>
+  <si>
+    <t>ipol id acting acting governor of dki jakarta heru budi hartono also attended the inauguration of the head of the dki jakarta bank indonesia representative office arlyana abubakar by deputy governor of bank indonesia juda agung read in full in</t>
+  </si>
+  <si>
+    <t>24/02/2023 08:22</t>
+  </si>
+  <si>
+    <t>pelecehan seksual rentan terjadi di transportasi umum gubernur dki heru budi hartono meminta manajemen transjakarta meningkatkan untuk mencegah pelecehan seksual merahputihcom pelecehan transjakarta</t>
+  </si>
+  <si>
+    <t>vulnerable sexual harassment occurs in dki governor's public transportation heru budi hartono asked transjakarta management to increase to prevent red sexual harassment of transjakarta harass</t>
+  </si>
+  <si>
+    <t>24/02/2023 07:30</t>
+  </si>
+  <si>
+    <t>pj gubernur dki heru budi hartono menyarankan masyarakat beramai ramai menggunakan bus transjakarta untuk atasi kemacetan langkah yang tepat kah elshintanews</t>
+  </si>
+  <si>
+    <t>TweetDeck Web App</t>
+  </si>
+  <si>
+    <t>acting dki governor heru budi hartono suggested that the community was crowded using transjakarta buses to overcome the exact traffic jam</t>
+  </si>
+  <si>
+    <t>24/02/2023 04:19</t>
+  </si>
+  <si>
+    <t>RickyKardjono</t>
+  </si>
+  <si>
+    <t>mugi teu banjir yah sekarang mah keliatannya aman aja setelah diganti sama pak heru budi h ya teh</t>
+  </si>
+  <si>
+    <t>mugi teu flooded now it looks safe after being replaced by mr. heru budi h ya tea</t>
+  </si>
+  <si>
+    <t>24/02/2023 02:02</t>
+  </si>
+  <si>
+    <t>KevinCh84889504</t>
+  </si>
+  <si>
+    <t>dki hujan berhari hari dgn curah yg cukup tinggi beruntung sekali gubernurnya sudah bukan yohanes anies lagi pak heru budi berhasil mengurangi bgt banyak titik banjir jk sodetan ciliwung sdh rampung di bln april warga dki bs berharap tdk kebanjiran lg bravo pak heru budi</t>
+  </si>
+  <si>
+    <t>dki rain for days with a fairly high bulk very lucky the governor is no longer yohanes anies, mr. heru budi succeeded in reducing so many flooding points jk sodetan ciliwung has been completed in april dki bs bs hopes not to be flooded with lg bravo mr. heru budi</t>
+  </si>
+  <si>
+    <t>24/02/2023 00:28</t>
+  </si>
+  <si>
+    <t>pedi_fabianus</t>
+  </si>
+  <si>
+    <t>terimakasih pak heru budi hartono pj gubernur dki yang telah membuat warga jakarta nyaman amp bebas dari banjir kebiasaan tahun sebelumnya hujan semalaman seperti ini warga selalu waspada akan banjir</t>
+  </si>
+  <si>
+    <t>thank you mr. heru budi hartono acting governor of dki who has made jakarta residents comfortable amp free from flooding the previous year's habits rain like this residents are always alert to flood</t>
+  </si>
+  <si>
+    <t>23/02/2023 23:07</t>
+  </si>
+  <si>
+    <t>jawapos</t>
+  </si>
+  <si>
+    <t>pesan heru budi buat transjakarta soal maraknya pelecehan seksual</t>
+  </si>
+  <si>
+    <t>Jawapos.com auto tweet</t>
+  </si>
+  <si>
+    <t>order heru budi for transjakarta about the rise of sexual harass</t>
+  </si>
+  <si>
+    <t>23/02/2023 14:45</t>
+  </si>
+  <si>
+    <t>OmHardiman</t>
+  </si>
+  <si>
+    <t>tenang sabar jika pak heru budi hartono tdk mau meneruskan tunggu setelah pilpres kabinet indonesia sejahtera terbentuk segera di rampungkan rumah susun kampung bayam</t>
+  </si>
+  <si>
+    <t>calm down if mr. heru budi hartono does not want to continue the wait after the prosperous indonesian cabinet presidential election is formed immediately completed the flats kampung bayam</t>
+  </si>
+  <si>
+    <t>23/02/2023 14:10</t>
+  </si>
+  <si>
+    <t>fraksinasdemjkt</t>
+  </si>
+  <si>
+    <t>pemprov berencana membeli  mobil dinas listrik untuk para pejabat dki pada  mobil dinas baru itu akan digunakan pj gubernur dki heru budi hartono sekda dki joko agus setyono para asisten pemerintahan inspektorat dan dinas lainnya id</t>
+  </si>
+  <si>
+    <t>pemprov berencana membeli mobil dinas listrik untuk para pejabat dki pada mobil dinas baru itu akan digunakan pj gubernur dki heru budi hartono sekda dki joko agus setyono para asisten pemerintahan inspektorat dan dinas lainnya id</t>
+  </si>
+  <si>
+    <t>the provincial government plans to buy an electric service car for dki officials in the new official car will be used by dki jakarta governor heru budi hartono secretary of dki jakarta agus setyono, the assistant of the inspectorate and other dinas id id</t>
+  </si>
+  <si>
+    <t>23/02/2023 09:06</t>
+  </si>
+  <si>
+    <t>InfoJktCom</t>
+  </si>
+  <si>
+    <t>heru budi respons peringkat jakarta di daftar kota termacet dunia cnn indonesia</t>
+  </si>
+  <si>
+    <t>heru budi response to jakarta ranking on the list of world most social cities cnn indonesia</t>
+  </si>
+  <si>
+    <t>23/02/2023 08:00</t>
+  </si>
+  <si>
+    <t>TirtoID</t>
+  </si>
+  <si>
+    <t>pj gubernur dki jakarta heru budi hartono meminta kepada pt transjakarta meningkatkan pengawasan dan pengamanan untuk mencegah kasus pelecehan seksual</t>
+  </si>
+  <si>
+    <t>acting governor of dki jakarta heru budi hartono asked pt transjakarta to increase supervision and security to prevent cases of sexual harass</t>
+  </si>
+  <si>
+    <t>23/02/2023 07:16</t>
+  </si>
+  <si>
+    <t>heru budi hartono mencoret   juta orang penerima bansos di dki jakarta karena punya mobil dan rumah</t>
+  </si>
+  <si>
+    <t>heru budi hartono mencoret juta orang penerima bansos di dki jakarta karena punya mobil dan rumah</t>
+  </si>
+  <si>
+    <t>heru budi hartono crossed millions of social assistance recipients in dki jakarta because he had cars and hom</t>
+  </si>
+  <si>
+    <t>23/02/2023 06:16</t>
+  </si>
+  <si>
+    <t>pelecehan seksual terjadi di transjakarta heru budi minta pengamanan ditingkatkan</t>
+  </si>
+  <si>
+    <t>sexual harassment occurs at transjakarta heru budi asking for security to be increas</t>
+  </si>
+  <si>
+    <t>23/02/2023 01:36</t>
+  </si>
+  <si>
+    <t>radioboosfm</t>
+  </si>
+  <si>
+    <t>mentari momen berbagi berita di pagi hari heru budi respons peringkat jakarta di daftar kota termacet dunia</t>
+  </si>
+  <si>
+    <t>mentari moment sharing news in the morning heru budi response to jakarta ranking on the list of world's most set c</t>
+  </si>
+  <si>
+    <t>23/02/2023 01:18</t>
+  </si>
+  <si>
+    <t>menkes budi gunadi sadikin bersama pj gubernur dki jakarta heru budi hartono saat mengunjungi posyandu kelurahan cempaka putih untuk memonitor secara langsung penanganan stunting di jakarta rabu    liputansonora by</t>
+  </si>
+  <si>
+    <t>menkes budi gunadi sadikin bersama pj gubernur dki jakarta heru budi hartono saat mengunjungi posyandu kelurahan cempaka putih untuk memonitor secara langsung penanganan stunting di jakarta rabu liputansonora by</t>
+  </si>
+  <si>
+    <t>minister of health budi gunadi sadikin together with acting governor of dki jakarta heru budi hartono when visiting posyandu cempaka putih village to directly monitor the handling of stunting in jakarta wednesday liputansonora bi</t>
+  </si>
+  <si>
+    <t>23/02/2023 00:39</t>
+  </si>
+  <si>
+    <t>mmtcradiojogja</t>
+  </si>
+  <si>
+    <t>heru budi respons peringkat jakarta di daftar kota termacet dunia via topreport nasional ananta</t>
+  </si>
+  <si>
+    <t>heru budi response to jakarta ranking on the list of world most family via ananta national topreport</t>
+  </si>
+  <si>
+    <t>22/02/2023 23:48</t>
+  </si>
+  <si>
+    <t>peringkat kemacetan jakarta naik ke posisi  pada  heru budi kami bereskan tempometro</t>
+  </si>
+  <si>
+    <t>peringkat kemacetan jakarta naik ke posisi pada heru budi kami bereskan tempometro</t>
+  </si>
+  <si>
+    <t>the ranking of jakarta's traffic jams rose to the position of heru budi, we took the tempometro</t>
+  </si>
+  <si>
+    <t>22/02/2023 22:50</t>
+  </si>
+  <si>
+    <t>hc_poirot</t>
+  </si>
+  <si>
+    <t>mungkin karena pernyataan anies inilah maka karya beliau di jakarta mau diberangus oleh pejabat titipan istana si heru budi untuk merusak reputasi gemilang seorang anies baswedan</t>
+  </si>
+  <si>
+    <t>maybe because of anies's statement, his work in jakarta wants to be suppressed by the official entrusted by the palace of si heru budi to damage the brilliant reputation of an anies baswedan</t>
+  </si>
+  <si>
+    <t>22/02/2023 22:25</t>
+  </si>
+  <si>
+    <t>heru budi respons peringkat jakarta di daftar kota termacet dunia</t>
+  </si>
+  <si>
+    <t>heru budi response to jakarta ranking on the list of world most</t>
+  </si>
+  <si>
+    <t>22/02/2023 13:44</t>
+  </si>
+  <si>
+    <t>hariankompas</t>
+  </si>
+  <si>
+    <t>penjabat gubernur dki jakarta heru budi hartono akan menyelesaikan status tanah dan kode sertifikat area bantaran kali ciliwung selanjutnya membayar ganti rugi membongkar bangunan dan melanjutkan normalisasi metropolitan adadikompas</t>
+  </si>
+  <si>
+    <t>Microsoft Power Platform</t>
+  </si>
+  <si>
+    <t>acting governor of dki jakarta heru budi hartono will complete the status of the land and code of certificate of the ciliwung river area then pay compensation to dismantle the building and continue the normalization of metropolitan or</t>
+  </si>
+  <si>
+    <t>22/02/2023 12:53</t>
+  </si>
+  <si>
+    <t>MashaNdeber</t>
+  </si>
+  <si>
+    <t>hadir juga wakil presiden ke  ri try sutrisno seskab pramono anung panglima tni jenderal andika perkasa kapolri jenderal listyo sigit prabowo dan pj gubernur dki heru budi hartono prabowo subianto prabowopemersatu bangkitbersama</t>
+  </si>
+  <si>
+    <t>hadir juga wakil presiden ke ri try sutrisno seskab pramono anung panglima tni jenderal andika perkasa kapolri jenderal listyo sigit prabowo dan pj gubernur dki heru budi hartono prabowo subianto prabowopemersatu bangkitbersama</t>
+  </si>
+  <si>
+    <t>also attending the vice president to ri try sutrisno seskab pramono anung tni commander general andika perkasa national police chief gen. listyo sigit prabowo and acting governor of dki heru budi hartono prabowo subianto prabowopmersatu bangkitbersama</t>
+  </si>
+  <si>
+    <t>22/02/2023 12:43</t>
+  </si>
+  <si>
+    <t>pemprov dki siap melakukan penganggaran sesuai dengan wilayah yang akan dibebaskan</t>
+  </si>
+  <si>
+    <t>dki jakarta provincial government is ready to conduct budgeting in accordance with the area to be releas</t>
+  </si>
+  <si>
+    <t>22/02/2023 12:34</t>
+  </si>
+  <si>
+    <t>anomtea</t>
+  </si>
+  <si>
+    <t>hebat heran juga kenapa dia gak dipilih jadi capres  bulan banjir jakarta langsung beres kalo dia jadi presiden gak perlu waktu lama untuk mengatasi banjir di seluruh indonesia bahkan di dunia</t>
+  </si>
+  <si>
+    <t>hebat heran juga kenapa dia gak dipilih jadi capres bulan banjir jakarta langsung beres kalo dia jadi presiden gak perlu waktu lama untuk mengatasi banjir di seluruh indonesia bahkan di dunia</t>
+  </si>
+  <si>
+    <t>great also surprised why he was not chosen as a jakarta flood candidate immediately settled if he became president did not need long time to overcome floods throughout indonesia even in the world</t>
+  </si>
+  <si>
+    <t>22/02/2023 11:54</t>
+  </si>
+  <si>
+    <t>IDCorner</t>
+  </si>
+  <si>
+    <t>heru budi soal jokowi mau normalisasi ciliwung kelar akhir  tunggu bpn idcorner indonesia</t>
+  </si>
+  <si>
+    <t>IDCorner.Co.iD</t>
+  </si>
+  <si>
+    <t>heru budi soal jokowi mau normalisasi ciliwung kelar akhir tunggu bpn idcorner indonesia</t>
+  </si>
+  <si>
+    <t>heru budi about jokowi wants to normalize ciliwung after the end of bpn idcorner indonesia</t>
+  </si>
+  <si>
+    <t>22/02/2023 11:51</t>
+  </si>
+  <si>
+    <t>merdekadotcom</t>
+  </si>
+  <si>
+    <t>banyak terima kasih kami ucapkan kepada bapak heru budi hartono selaku pj gubernur dki jakarta doa yang diberikan kepada kami tentunya menjadi penyemangat untuk terus menjadi media online terbaik pilihan masyarakat indonesia merdekadotcomselaras lebihpaham</t>
+  </si>
+  <si>
+    <t>many thanks we say to mr. heru budi hartono as the acting governor of dki jakarta prayer given to us is certainly an encouragement to continue to be the best online media of the indonesian people's choic</t>
+  </si>
+  <si>
+    <t>22/02/2023 11:12</t>
+  </si>
+  <si>
+    <t>21BeritaTerkini</t>
+  </si>
+  <si>
+    <t>peringkat kemacetan jakarta naik ke posisi  dunia ini respons heru budi</t>
+  </si>
+  <si>
+    <t>peringkat kemacetan jakarta naik ke posisi dunia ini respons heru budi</t>
+  </si>
+  <si>
+    <t>the ranking of jakarta's traffic jams rose to this world position response heru budi</t>
+  </si>
+  <si>
+    <t>22/02/2023 11:09</t>
+  </si>
+  <si>
+    <t>kotajakpus</t>
+  </si>
+  <si>
+    <t>sementara itu pj gubernur dki jakarta heru budi hartono menambahkan pemprov dki telah memiliki data penanganan tengkes berdasarkan nama dan alamat by name by address dengan adanya aplikasi pemantauan stunting tersebut ia yakin akan menghasilkan data lebih akurat</t>
+  </si>
+  <si>
+    <t>meanwhile, acting governor of dki jakarta heru budi hartono added that the dki jakarta provincial government already has data handling tengkes based on name and address by name by address with the stunting monitoring application he believes he will produce more accurate data</t>
+  </si>
+  <si>
+    <t>22/02/2023 10:29</t>
+  </si>
+  <si>
+    <t>kumparan</t>
+  </si>
+  <si>
+    <t>heru bilang cara cepat biar jakarta enggak macet ramai ramai naik transjakarta newsupdate update news text</t>
+  </si>
+  <si>
+    <t>heru said the fast way to make jakarta not jammed crowded riding a transjakarta newsupdate update news text</t>
+  </si>
+  <si>
+    <t>democrazymedia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fakta pemprov dki mau beli mobil dinas rp  juta heru budi hartono kebagian</t>
+  </si>
+  <si>
+    <t>fakta pemprov dki mau beli mobil dinas rp juta heru budi hartono kebagian</t>
+  </si>
+  <si>
+    <t>the fact that the dki jakarta provincial government wants to buy official cars of rp</t>
+  </si>
+  <si>
+    <t>22/02/2023 06:31</t>
+  </si>
+  <si>
+    <t>kata pdip dki jakarta heru budi hartono the best top markotop pejabat gubernur yg hebat</t>
+  </si>
+  <si>
+    <t>said pdip dki jakarta heru budi hartono the best top markotop great governor offici</t>
+  </si>
+  <si>
+    <t>22/02/2023 06:04</t>
+  </si>
+  <si>
+    <t>Adriana4688</t>
+  </si>
+  <si>
+    <t>pengamat ekosistem dan lingkungan hidup ari sumarto taslim mengatakan pemprov dki bisa membenahi bantaran kali ciliwung sehingga menjadi destinasi wisata baru menurut ari heru budi bisa meniru yg sukses menata kawasan sungai kalimalang</t>
+  </si>
+  <si>
+    <t>ecosystem and environment observer ari sumarto taslim said the dki jakarta provincial government could fix the banks of the ciliwung river so that it became a new tourist destination according to ari heru budi to be able to imitate the success of the kalimalang river area</t>
+  </si>
+  <si>
+    <t>22/02/2023 04:30</t>
+  </si>
+  <si>
+    <t>telah terbit majalah jakita edisi  tahun  edisi ini jakita membahas laporan utama mengenai  hari kerja pertama yang dilalui pj gubernur dki jakarta heru budi hartono mulai dari mengatasi persoalan banjir kemacetan hingga antisipasi dampak resesi ekonomi</t>
+  </si>
+  <si>
+    <t>telah terbit majalah jakita edisi tahun edisi ini jakita membahas laporan utama mengenai hari kerja pertama yang dilalui pj gubernur dki jakarta heru budi hartono mulai dari mengatasi persoalan banjir kemacetan hingga antisipasi dampak resesi ekonomi</t>
+  </si>
+  <si>
+    <t>the jakarta edition of the edition of the jakarta magazine has discussed the main report on the first working day that was passed by the acting governor of dki jakarta heru budi hartono, starting from overcoming the problem of flooding congestion to anticipation of the impact of economic recess</t>
+  </si>
+  <si>
+    <t>22/02/2023 03:52</t>
+  </si>
+  <si>
+    <t>perwakilan intelligent transport system its indonesia melakukan audiensi dengan penjabat pj gubernur dki jakarta heru budi hartono di balai kota selasa   bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>perwakilan intelligent transport system its indonesia melakukan audiensi dengan penjabat pj gubernur dki jakarta heru budi hartono di balai kota selasa bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>its indonesia intelligent transport system representative conduct an audience with the acting acting governor of dki jakarta heru budi hartono at tuesday bacadibj city hall dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>22/02/2023 03:48</t>
+  </si>
+  <si>
+    <t>KantahSijunjung</t>
+  </si>
+  <si>
+    <t>rakyat pupr basuki hadimuljono sekretaris kabinet pramono anung serta pj gubernur dki jakarta heru budi hartono ys yz kementerianatrbpn melayaniprofesionalterpercaya majudanmodern menujupelayanankelasdunia biro hubungan masyarakat kementerian agraria dan tata</t>
+  </si>
+  <si>
+    <t>pupr rakyat basuki hadimuljono cabinet secretary pramono anung and acting governor of dki jakarta heru budi hartono ys yz ministry of ministry of religion serves professional devotion majudanmodern trusting services of classroom</t>
+  </si>
+  <si>
+    <t>22/02/2023 02:39</t>
+  </si>
+  <si>
+    <t>heru budi mau beli mobil listrik untuk pejabat dki politikus nasdem sebut belum efisien tempometro</t>
+  </si>
+  <si>
+    <t>heru budi wants to buy an electric car for dki politics officials nasdem said that it is not effici</t>
+  </si>
+  <si>
+    <t>22/02/2023 02:29</t>
+  </si>
+  <si>
+    <t>mamang_opik</t>
+  </si>
+  <si>
+    <t>selevel mukidi macet dan banjir akan mudah diatasi kalau pindah ibu kota</t>
+  </si>
+  <si>
+    <t>at the level of traffic jams and floods will be easy to overcome if you move the capital c</t>
+  </si>
+  <si>
+    <t>21/02/2023 23:50</t>
+  </si>
+  <si>
+    <t>okezonenews</t>
+  </si>
+  <si>
+    <t>heru budi dampingi jokowi tinjau normalisasi ciliwung kolaborasi percepatan penanggulangan banjir lengkapcepatberitanya beritaterkini beritaterkini newsupdate</t>
+  </si>
+  <si>
+    <t>OkezoneMobile</t>
+  </si>
+  <si>
+    <t>heru budi accompanied jokowi reviewed the normalization of the ciliwung collaboration for the acceleration of complete flood manag</t>
+  </si>
+  <si>
+    <t>21/02/2023 23:35</t>
+  </si>
+  <si>
+    <t>pdip ungkap peluang majukan heru budi di pilkada dki  pengamat sarankan lebih baik jangan berat pasti kalah</t>
+  </si>
+  <si>
+    <t>pdip ungkap peluang majukan heru budi di pilkada dki pengamat sarankan lebih baik jangan berat pasti kalah</t>
+  </si>
+  <si>
+    <t>pdip revealed the opportunity to advance heru budi in the dki pilkada observer suggested that it would be better not to be hard to los</t>
+  </si>
+  <si>
+    <t>21/02/2023 18:10</t>
+  </si>
+  <si>
+    <t>Rafatartr</t>
+  </si>
+  <si>
+    <t>hal itu ditandai dengan penandatanganan kesepakatan bersama antara gubernur jawa barat ridwan kamil dengan penjabat gubernur dki heru budi hartono dan plt bersamajuara rkgolkar</t>
+  </si>
+  <si>
+    <t>this was marked by the signing of a joint agreement between west java governor ridwan kamil and acting dki governor heru budi hartono and plt with rkgolkar</t>
+  </si>
+  <si>
+    <t>21/02/2023 16:59</t>
+  </si>
+  <si>
+    <t>iron_steel12</t>
+  </si>
+  <si>
+    <t>untung yah bapak gak menjabat gubernur lagi</t>
+  </si>
+  <si>
+    <t>fortunately, you're not governor anymor</t>
+  </si>
+  <si>
+    <t>21/02/2023 13:13</t>
+  </si>
+  <si>
+    <t>moeslim_choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penjabat pj gubernur dki jakarta heru budi hartono menjadi pembina upacara di sekolah menengah atas negeri sman  duren sawit jakarta timur senin   </t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur dki jakarta heru budi hartono menjadi pembina upacara di sekolah menengah atas negeri sman duren sawit jakarta timur senin</t>
+  </si>
+  <si>
+    <t>acting acting governor of dki jakarta heru budi hartono became a ceremonial coach at the state high school of sman duren sawit, east jakarta monday</t>
+  </si>
+  <si>
+    <t>21/02/2023 11:36</t>
+  </si>
+  <si>
+    <t>Paskalises17</t>
+  </si>
+  <si>
+    <t>sajak woy monyet sunter anjing lo lo bilang lancar sampe sekarang itu sejak pj heru budi jabat woy</t>
+  </si>
+  <si>
+    <t>woy monkey sunter sunter dog you said smoothly until now since pj heru budi jabat woy</t>
+  </si>
+  <si>
+    <t>21/02/2023 11:06</t>
+  </si>
+  <si>
+    <t>Delon_Mask</t>
+  </si>
+  <si>
+    <t>pengamat ekosistem dan lingkungan hidup ari sumarto taslim mengatakan pemprov dki bisa membenahi bantaran kali ciliwung sehingga menjadi destinasi wisata baru menurut ari heru budi bisa meniru gub jabar ridwan yg sukses menata kawasan sungai kalimalang</t>
+  </si>
+  <si>
+    <t>ecosystem and environment observer ari sumarto taslim said the dki jakarta provincial government could fix the banks of the ciliwung river so that it became a new tourist destination according to ari heru budi to imitate the governor of west java ridwan who successfully organized the kalimalang river area</t>
+  </si>
+  <si>
+    <t>21/02/2023 10:58</t>
+  </si>
+  <si>
+    <t>AllenWa51704921</t>
+  </si>
+  <si>
+    <t>klo gubernurnya bisa diajak kerja sama normalisasi sungai jelas bisa mudah diatasi heru budi yg kerja baru   bulan malah lebih bagus kinerjanya dibandingkan anies</t>
+  </si>
+  <si>
+    <t>klo gubernurnya bisa diajak kerja sama normalisasi sungai jelas bisa mudah diatasi heru budi yg kerja baru bulan malah lebih bagus kinerjanya dibandingkan anies</t>
+  </si>
+  <si>
+    <t>if the governor can be invited to cooperate with river normalization clearly can be easily overcome by heru budi, the new work of the moon is even better than ani</t>
+  </si>
+  <si>
+    <t>21/02/2023 10:42</t>
+  </si>
+  <si>
+    <t>dndtirani</t>
+  </si>
+  <si>
+    <t>program penting yang hilang dalam apbd dki  terungkap kepemimpinan heru budi dikritik tajam</t>
+  </si>
+  <si>
+    <t>program penting yang hilang dalam apbd dki terungkap kepemimpinan heru budi dikritik tajam</t>
+  </si>
+  <si>
+    <t>the important program that was lost in the dki apbd was revealed by heru budi's leadership to be sharply critic</t>
+  </si>
+  <si>
+    <t>21/02/2023 07:48</t>
+  </si>
+  <si>
+    <t>eradotid</t>
+  </si>
+  <si>
+    <t>sehingga normalisasi sungai ciliwung betul betul rampung kata jokowi</t>
+  </si>
+  <si>
+    <t>Era.ID</t>
+  </si>
+  <si>
+    <t>so that the normalization of the ciliwung river is really complet</t>
+  </si>
+  <si>
+    <t>21/02/2023 05:49</t>
+  </si>
+  <si>
+    <t>kopihpbi</t>
+  </si>
+  <si>
+    <t>heru budi pastikan tak ada lagi pembebasan lahan sodetan ciliwung beritasatu mediainformasi kamidi opsiminfo</t>
+  </si>
+  <si>
+    <t>heru budi confirmed that there was no more land acquisition for ciliwung sodetan beritasatu mediainformation kamidi opsiminfo</t>
+  </si>
+  <si>
+    <t>21/02/2023 03:12</t>
+  </si>
+  <si>
+    <t>GhibliSlan</t>
+  </si>
+  <si>
+    <t>kelakuannya lagi ni asal bunyi asal bunyi</t>
+  </si>
+  <si>
+    <t>his behavior is the original sound of the original sound</t>
+  </si>
+  <si>
+    <t>21/02/2023 01:58</t>
+  </si>
+  <si>
+    <t>anakbaukencurrr</t>
+  </si>
+  <si>
+    <t>sama min hasil bangun manusia ada yang minta diperhatikan gubernur karena kasih sayang gubernur yang lama sudah hilang</t>
+  </si>
+  <si>
+    <t>the same as the results of human building, there are those who ask to be noticed by the governor because the long governor's love has been lost</t>
+  </si>
+  <si>
+    <t>21/02/2023 01:47</t>
+  </si>
+  <si>
+    <t>pak gubernur kita rasa tabah dan sabar bang apalagi ada yang lagi lucu lucunya minta diperhatikan sama gubernur terus</t>
+  </si>
+  <si>
+    <t>mr. governor we feel steadfast and patient, especially if there is something funny, the funny thing is to pay attention to the governor.</t>
+  </si>
+  <si>
+    <t>21/02/2023 01:06</t>
+  </si>
+  <si>
+    <t>TofikHi85890660</t>
+  </si>
+  <si>
+    <t>kasihan mereka korban gusur semoga pj heru budi memberi solusi yg terbaik</t>
+  </si>
+  <si>
+    <t>sorry for them the victims of the evidence hopefully pj heru budi will give the best solut</t>
+  </si>
+  <si>
+    <t>20/02/2023 15:23</t>
+  </si>
+  <si>
+    <t>lulumaniszlpan</t>
+  </si>
+  <si>
+    <t>emang sukanya cari perhatian terus kaya gini jakarta herubudihartono ansordki vina</t>
+  </si>
+  <si>
+    <t>it really likes to find attention to the jakarta herubudihartono ansordki vina</t>
+  </si>
+  <si>
+    <t>20/02/2023 11:04</t>
+  </si>
+  <si>
+    <t>warga kampung bayam terlantar lbh jakarta ingatkan heru budi soal hak atas tempat tinggal yang layak tempometro</t>
+  </si>
+  <si>
+    <t>residents of kampung bayam displayed lbh jakarta reminded heru budi about the right to a decent plac</t>
+  </si>
+  <si>
+    <t>20/02/2023 10:27</t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur dki jakarta heru budi hartono menjadi pembina upacara di sekolah menengah atas negeri sman  duren sawit jakarta timur senin   bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>penjabat pj gubernur dki jakarta heru budi hartono menjadi pembina upacara di sekolah menengah atas negeri sman duren sawit jakarta timur senin bacadibj beritajakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>acting acting governor of dki jakarta heru budi hartono became a ceremonial coach at the state high school of sman duren sawit, east jakarta monday, bacadibjkakarta dkijakarta jaki welovejakarta</t>
+  </si>
+  <si>
+    <t>20/02/2023 08:47</t>
+  </si>
+  <si>
+    <t>JelitaThalita67</t>
+  </si>
+  <si>
+    <t>momen ini terjadi saat emil sapaan akrab ridwan kamil dan heru budi menandatangani kesepakatan bersama soal dukungan pembangunan mass rapid transit mrt fase  stage  di gedung sate bersamajuara</t>
+  </si>
+  <si>
+    <t>momen ini terjadi saat emil sapaan akrab ridwan kamil dan heru budi menandatangani kesepakatan bersama soal dukungan pembangunan mass rapid transit mrt fase stage di gedung sate bersamajuara</t>
+  </si>
+  <si>
+    <t>this moment occurs when emil is the familiar greeting of ridwan kamil and heru budi signed a joint agreement on the support of the construction of mass rapid transit mrt phase stage at gedung sate bersamahara</t>
   </si>
 </sst>
 </file>
@@ -16903,10 +18442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1655"/>
+  <dimension ref="A1:G1785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1447" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A1464" sqref="A1464:G1464"/>
+    <sheetView tabSelected="1" topLeftCell="A1158" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1174" sqref="C1174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -54981,6 +56520,2996 @@
         <v>21</v>
       </c>
     </row>
+    <row r="1656" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1656" t="s">
+        <v>5507</v>
+      </c>
+      <c r="B1656" t="s">
+        <v>5508</v>
+      </c>
+      <c r="C1656" t="s">
+        <v>5509</v>
+      </c>
+      <c r="D1656" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1656" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F1656" t="s">
+        <v>5510</v>
+      </c>
+      <c r="G1656" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1657" t="s">
+        <v>5511</v>
+      </c>
+      <c r="B1657" t="s">
+        <v>5512</v>
+      </c>
+      <c r="C1657" t="s">
+        <v>5513</v>
+      </c>
+      <c r="D1657" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1657" t="s">
+        <v>5513</v>
+      </c>
+      <c r="F1657" t="s">
+        <v>5514</v>
+      </c>
+      <c r="G1657" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1658" t="s">
+        <v>5515</v>
+      </c>
+      <c r="B1658" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C1658" t="s">
+        <v>5517</v>
+      </c>
+      <c r="D1658" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E1658" t="s">
+        <v>5517</v>
+      </c>
+      <c r="F1658" t="s">
+        <v>5519</v>
+      </c>
+      <c r="G1658" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1659" t="s">
+        <v>5520</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>5521</v>
+      </c>
+      <c r="C1659" t="s">
+        <v>5522</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>5523</v>
+      </c>
+      <c r="F1659" t="s">
+        <v>5524</v>
+      </c>
+      <c r="G1659" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1660" t="s">
+        <v>5525</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>5526</v>
+      </c>
+      <c r="C1660" t="s">
+        <v>5527</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>5527</v>
+      </c>
+      <c r="F1660" t="s">
+        <v>5528</v>
+      </c>
+      <c r="G1660" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1661" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>5529</v>
+      </c>
+      <c r="C1661" t="s">
+        <v>5530</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>5530</v>
+      </c>
+      <c r="F1661" t="s">
+        <v>5531</v>
+      </c>
+      <c r="G1661" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1662" t="s">
+        <v>5532</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C1662" t="s">
+        <v>5534</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>5534</v>
+      </c>
+      <c r="F1662" t="s">
+        <v>5535</v>
+      </c>
+      <c r="G1662" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1663" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C1663" t="s">
+        <v>5537</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>5537</v>
+      </c>
+      <c r="F1663" t="s">
+        <v>5538</v>
+      </c>
+      <c r="G1663" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1664" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>5539</v>
+      </c>
+      <c r="C1664" t="s">
+        <v>5540</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>5540</v>
+      </c>
+      <c r="F1664" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G1664" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1665" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1665" t="s">
+        <v>5543</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>5543</v>
+      </c>
+      <c r="F1665" t="s">
+        <v>5544</v>
+      </c>
+      <c r="G1665" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1666" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>5545</v>
+      </c>
+      <c r="C1666" t="s">
+        <v>5546</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>5546</v>
+      </c>
+      <c r="F1666" t="s">
+        <v>5547</v>
+      </c>
+      <c r="G1666" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1667" t="s">
+        <v>5548</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>5549</v>
+      </c>
+      <c r="C1667" t="s">
+        <v>5550</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>5550</v>
+      </c>
+      <c r="F1667" t="s">
+        <v>5551</v>
+      </c>
+      <c r="G1667" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1668" t="s">
+        <v>5552</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C1668" t="s">
+        <v>5554</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>5554</v>
+      </c>
+      <c r="F1668" t="s">
+        <v>5555</v>
+      </c>
+      <c r="G1668" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1669" t="s">
+        <v>5556</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>5557</v>
+      </c>
+      <c r="C1669" t="s">
+        <v>5558</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>5558</v>
+      </c>
+      <c r="F1669" t="s">
+        <v>5559</v>
+      </c>
+      <c r="G1669" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1670" t="s">
+        <v>5560</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1670" t="s">
+        <v>5561</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>5561</v>
+      </c>
+      <c r="F1670" t="s">
+        <v>5562</v>
+      </c>
+      <c r="G1670" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1671" t="s">
+        <v>5563</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>5564</v>
+      </c>
+      <c r="C1671" t="s">
+        <v>5565</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>5565</v>
+      </c>
+      <c r="F1671" t="s">
+        <v>5566</v>
+      </c>
+      <c r="G1671" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1672" t="s">
+        <v>5567</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>5568</v>
+      </c>
+      <c r="C1672" t="s">
+        <v>5569</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>5569</v>
+      </c>
+      <c r="F1672" t="s">
+        <v>5570</v>
+      </c>
+      <c r="G1672" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1673" t="s">
+        <v>5571</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>5572</v>
+      </c>
+      <c r="C1673" t="s">
+        <v>5573</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>5573</v>
+      </c>
+      <c r="F1673" t="s">
+        <v>5574</v>
+      </c>
+      <c r="G1673" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1674" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C1674" t="s">
+        <v>5577</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>5577</v>
+      </c>
+      <c r="F1674" t="s">
+        <v>5578</v>
+      </c>
+      <c r="G1674" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1675" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C1675" t="s">
+        <v>5580</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>5580</v>
+      </c>
+      <c r="F1675" t="s">
+        <v>5581</v>
+      </c>
+      <c r="G1675" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1676" t="s">
+        <v>5582</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>5583</v>
+      </c>
+      <c r="C1676" t="s">
+        <v>5584</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>5584</v>
+      </c>
+      <c r="F1676" t="s">
+        <v>5585</v>
+      </c>
+      <c r="G1676" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1677" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1677" t="s">
+        <v>5586</v>
+      </c>
+      <c r="C1677" t="s">
+        <v>5587</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1677" t="s">
+        <v>5588</v>
+      </c>
+      <c r="F1677" t="s">
+        <v>5589</v>
+      </c>
+      <c r="G1677" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1678" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B1678" t="s">
+        <v>5590</v>
+      </c>
+      <c r="C1678" t="s">
+        <v>5591</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1678" t="s">
+        <v>5591</v>
+      </c>
+      <c r="F1678" t="s">
+        <v>5592</v>
+      </c>
+      <c r="G1678" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1679" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1679" t="s">
+        <v>5593</v>
+      </c>
+      <c r="C1679" t="s">
+        <v>5594</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>5595</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>5594</v>
+      </c>
+      <c r="F1679" t="s">
+        <v>5596</v>
+      </c>
+      <c r="G1679" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1680" t="s">
+        <v>5597</v>
+      </c>
+      <c r="B1680" t="s">
+        <v>5598</v>
+      </c>
+      <c r="C1680" t="s">
+        <v>5599</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>5599</v>
+      </c>
+      <c r="F1680" t="s">
+        <v>5600</v>
+      </c>
+      <c r="G1680" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1681" t="s">
+        <v>5601</v>
+      </c>
+      <c r="B1681" t="s">
+        <v>5602</v>
+      </c>
+      <c r="C1681" t="s">
+        <v>5603</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>5604</v>
+      </c>
+      <c r="F1681" t="s">
+        <v>5605</v>
+      </c>
+      <c r="G1681" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1682" t="s">
+        <v>5606</v>
+      </c>
+      <c r="B1682" t="s">
+        <v>5607</v>
+      </c>
+      <c r="C1682" t="s">
+        <v>5608</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>5608</v>
+      </c>
+      <c r="F1682" t="s">
+        <v>5609</v>
+      </c>
+      <c r="G1682" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1683" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B1683" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C1683" t="s">
+        <v>5611</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>5611</v>
+      </c>
+      <c r="F1683" t="s">
+        <v>5612</v>
+      </c>
+      <c r="G1683" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1684" t="s">
+        <v>5613</v>
+      </c>
+      <c r="B1684" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C1684" t="s">
+        <v>5615</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>5616</v>
+      </c>
+      <c r="F1684" t="s">
+        <v>5617</v>
+      </c>
+      <c r="G1684" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1685" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1685" t="s">
+        <v>5618</v>
+      </c>
+      <c r="C1685" t="s">
+        <v>5619</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>5620</v>
+      </c>
+      <c r="F1685" t="s">
+        <v>5621</v>
+      </c>
+      <c r="G1685" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1686" t="s">
+        <v>5622</v>
+      </c>
+      <c r="B1686" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C1686" t="s">
+        <v>5624</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>5624</v>
+      </c>
+      <c r="F1686" t="s">
+        <v>5625</v>
+      </c>
+      <c r="G1686" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1687" t="s">
+        <v>5626</v>
+      </c>
+      <c r="B1687" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C1687" t="s">
+        <v>5627</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>5627</v>
+      </c>
+      <c r="F1687" t="s">
+        <v>5628</v>
+      </c>
+      <c r="G1687" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1688" t="s">
+        <v>5629</v>
+      </c>
+      <c r="B1688" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1688" t="s">
+        <v>5630</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>5630</v>
+      </c>
+      <c r="F1688" t="s">
+        <v>5631</v>
+      </c>
+      <c r="G1688" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1689" t="s">
+        <v>5632</v>
+      </c>
+      <c r="B1689" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1689" t="s">
+        <v>5633</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>5633</v>
+      </c>
+      <c r="F1689" t="s">
+        <v>5634</v>
+      </c>
+      <c r="G1689" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1690" t="s">
+        <v>5635</v>
+      </c>
+      <c r="B1690" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C1690" t="s">
+        <v>5637</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>5637</v>
+      </c>
+      <c r="F1690" t="s">
+        <v>5638</v>
+      </c>
+      <c r="G1690" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1691" t="s">
+        <v>5639</v>
+      </c>
+      <c r="B1691" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C1691" t="s">
+        <v>5641</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>5642</v>
+      </c>
+      <c r="F1691" t="s">
+        <v>5643</v>
+      </c>
+      <c r="G1691" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1692" t="s">
+        <v>5644</v>
+      </c>
+      <c r="B1692" t="s">
+        <v>5645</v>
+      </c>
+      <c r="C1692" t="s">
+        <v>5646</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>5646</v>
+      </c>
+      <c r="F1692" t="s">
+        <v>5647</v>
+      </c>
+      <c r="G1692" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1693" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B1693" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1693" t="s">
+        <v>5649</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>5649</v>
+      </c>
+      <c r="F1693" t="s">
+        <v>5650</v>
+      </c>
+      <c r="G1693" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1694" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B1694" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1694" t="s">
+        <v>5651</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>5652</v>
+      </c>
+      <c r="F1694" t="s">
+        <v>5653</v>
+      </c>
+      <c r="G1694" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1695" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B1695" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1695" t="s">
+        <v>5654</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>5655</v>
+      </c>
+      <c r="F1695" t="s">
+        <v>5656</v>
+      </c>
+      <c r="G1695" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1696" t="s">
+        <v>5648</v>
+      </c>
+      <c r="B1696" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1696" t="s">
+        <v>5657</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>5657</v>
+      </c>
+      <c r="F1696" t="s">
+        <v>5658</v>
+      </c>
+      <c r="G1696" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1697" t="s">
+        <v>5659</v>
+      </c>
+      <c r="B1697" t="s">
+        <v>5660</v>
+      </c>
+      <c r="C1697" t="s">
+        <v>5661</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>5661</v>
+      </c>
+      <c r="F1697" t="s">
+        <v>5662</v>
+      </c>
+      <c r="G1697" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1698" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B1698" t="s">
+        <v>5663</v>
+      </c>
+      <c r="C1698" t="s">
+        <v>5664</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>5665</v>
+      </c>
+      <c r="F1698" t="s">
+        <v>5666</v>
+      </c>
+      <c r="G1698" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1699" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1699" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1699" t="s">
+        <v>5667</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>5667</v>
+      </c>
+      <c r="F1699" t="s">
+        <v>5668</v>
+      </c>
+      <c r="G1699" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1700" t="s">
+        <v>5669</v>
+      </c>
+      <c r="B1700" t="s">
+        <v>5670</v>
+      </c>
+      <c r="C1700" t="s">
+        <v>5671</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>5672</v>
+      </c>
+      <c r="F1700" t="s">
+        <v>5673</v>
+      </c>
+      <c r="G1700" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1701" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>5674</v>
+      </c>
+      <c r="D1701" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1701" t="s">
+        <v>5674</v>
+      </c>
+      <c r="F1701" t="s">
+        <v>5675</v>
+      </c>
+      <c r="G1701" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1702" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>5677</v>
+      </c>
+      <c r="D1702" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1702" t="s">
+        <v>5678</v>
+      </c>
+      <c r="F1702" t="s">
+        <v>5679</v>
+      </c>
+      <c r="G1702" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1703" t="s">
+        <v>5680</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>5682</v>
+      </c>
+      <c r="D1703" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>5684</v>
+      </c>
+      <c r="F1703" t="s">
+        <v>5685</v>
+      </c>
+      <c r="G1703" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1704" t="s">
+        <v>5686</v>
+      </c>
+      <c r="B1704" t="s">
+        <v>5687</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>5688</v>
+      </c>
+      <c r="D1704" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>5689</v>
+      </c>
+      <c r="F1704" t="s">
+        <v>5690</v>
+      </c>
+      <c r="G1704" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1705" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B1705" t="s">
+        <v>5692</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D1705" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>5694</v>
+      </c>
+      <c r="F1705" t="s">
+        <v>5695</v>
+      </c>
+      <c r="G1705" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1706" t="s">
+        <v>5696</v>
+      </c>
+      <c r="B1706" t="s">
+        <v>5692</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>5697</v>
+      </c>
+      <c r="D1706" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>5698</v>
+      </c>
+      <c r="F1706" t="s">
+        <v>5699</v>
+      </c>
+      <c r="G1706" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1707" t="s">
+        <v>5700</v>
+      </c>
+      <c r="B1707" t="s">
+        <v>5692</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>5701</v>
+      </c>
+      <c r="D1707" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>5702</v>
+      </c>
+      <c r="F1707" t="s">
+        <v>5703</v>
+      </c>
+      <c r="G1707" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1708" t="s">
+        <v>3234</v>
+      </c>
+      <c r="B1708" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>5704</v>
+      </c>
+      <c r="D1708" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>5705</v>
+      </c>
+      <c r="F1708" t="s">
+        <v>5706</v>
+      </c>
+      <c r="G1708" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1709" t="s">
+        <v>4466</v>
+      </c>
+      <c r="B1709" t="s">
+        <v>5707</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>5708</v>
+      </c>
+      <c r="D1709" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>5709</v>
+      </c>
+      <c r="F1709" t="s">
+        <v>5710</v>
+      </c>
+      <c r="G1709" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1710" t="s">
+        <v>5711</v>
+      </c>
+      <c r="B1710" t="s">
+        <v>5712</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>5713</v>
+      </c>
+      <c r="D1710" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>5713</v>
+      </c>
+      <c r="F1710" t="s">
+        <v>5714</v>
+      </c>
+      <c r="G1710" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1711" t="s">
+        <v>5715</v>
+      </c>
+      <c r="B1711" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>5716</v>
+      </c>
+      <c r="D1711" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>5717</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>5718</v>
+      </c>
+      <c r="G1711" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1712" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1712" t="s">
+        <v>5719</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>5720</v>
+      </c>
+      <c r="D1712" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>5720</v>
+      </c>
+      <c r="F1712" t="s">
+        <v>5721</v>
+      </c>
+      <c r="G1712" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1713" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B1713" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>5722</v>
+      </c>
+      <c r="D1713" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>5722</v>
+      </c>
+      <c r="F1713" t="s">
+        <v>5723</v>
+      </c>
+      <c r="G1713" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1714" t="s">
+        <v>5724</v>
+      </c>
+      <c r="B1714" t="s">
+        <v>5725</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>5726</v>
+      </c>
+      <c r="D1714" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>5726</v>
+      </c>
+      <c r="F1714" t="s">
+        <v>5727</v>
+      </c>
+      <c r="G1714" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1715" t="s">
+        <v>5728</v>
+      </c>
+      <c r="B1715" t="s">
+        <v>5729</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D1715" t="s">
+        <v>5731</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>5732</v>
+      </c>
+      <c r="F1715" t="s">
+        <v>5733</v>
+      </c>
+      <c r="G1715" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1716" t="s">
+        <v>5734</v>
+      </c>
+      <c r="B1716" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>5736</v>
+      </c>
+      <c r="D1716" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>5737</v>
+      </c>
+      <c r="F1716" t="s">
+        <v>5738</v>
+      </c>
+      <c r="G1716" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1717" t="s">
+        <v>936</v>
+      </c>
+      <c r="B1717" t="s">
+        <v>5533</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D1717" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>5740</v>
+      </c>
+      <c r="F1717" t="s">
+        <v>5741</v>
+      </c>
+      <c r="G1717" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1718" t="s">
+        <v>5742</v>
+      </c>
+      <c r="B1718" t="s">
+        <v>5636</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>5743</v>
+      </c>
+      <c r="D1718" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>5743</v>
+      </c>
+      <c r="F1718" t="s">
+        <v>5744</v>
+      </c>
+      <c r="G1718" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1719" t="s">
+        <v>5745</v>
+      </c>
+      <c r="B1719" t="s">
+        <v>5746</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>5747</v>
+      </c>
+      <c r="D1719" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>5748</v>
+      </c>
+      <c r="F1719" t="s">
+        <v>5749</v>
+      </c>
+      <c r="G1719" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1720" t="s">
+        <v>5750</v>
+      </c>
+      <c r="B1720" t="s">
+        <v>5751</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>5752</v>
+      </c>
+      <c r="D1720" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>5752</v>
+      </c>
+      <c r="F1720" t="s">
+        <v>5753</v>
+      </c>
+      <c r="G1720" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1721" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1721" t="s">
+        <v>5754</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D1721" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>5755</v>
+      </c>
+      <c r="F1721" t="s">
+        <v>5756</v>
+      </c>
+      <c r="G1721" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1722" t="s">
+        <v>5757</v>
+      </c>
+      <c r="B1722" t="s">
+        <v>5670</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D1722" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>5758</v>
+      </c>
+      <c r="F1722" t="s">
+        <v>5759</v>
+      </c>
+      <c r="G1722" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1723" t="s">
+        <v>5760</v>
+      </c>
+      <c r="B1723" t="s">
+        <v>5761</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D1723" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>5762</v>
+      </c>
+      <c r="F1723" t="s">
+        <v>5763</v>
+      </c>
+      <c r="G1723" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1724" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>5767</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>5768</v>
+      </c>
+      <c r="G1724" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1725" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>5771</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>5772</v>
+      </c>
+      <c r="G1725" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1726" t="s">
+        <v>5773</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>5774</v>
+      </c>
+      <c r="C1726" t="s">
+        <v>5775</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>5775</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>5776</v>
+      </c>
+      <c r="G1726" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1727" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>5778</v>
+      </c>
+      <c r="C1727" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>5780</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>5781</v>
+      </c>
+      <c r="G1727" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1728" t="s">
+        <v>5782</v>
+      </c>
+      <c r="B1728" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C1728" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D1728" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>5785</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>5786</v>
+      </c>
+      <c r="G1728" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1729" t="s">
+        <v>5787</v>
+      </c>
+      <c r="B1729" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1729" t="s">
+        <v>5788</v>
+      </c>
+      <c r="D1729" t="s">
+        <v>5789</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>5788</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>5790</v>
+      </c>
+      <c r="G1729" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1730" t="s">
+        <v>5787</v>
+      </c>
+      <c r="B1730" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1730" t="s">
+        <v>5791</v>
+      </c>
+      <c r="D1730" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>5792</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>5793</v>
+      </c>
+      <c r="G1730" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1731" t="s">
+        <v>5794</v>
+      </c>
+      <c r="B1731" t="s">
+        <v>5795</v>
+      </c>
+      <c r="C1731" t="s">
+        <v>5796</v>
+      </c>
+      <c r="D1731" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>5796</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>5797</v>
+      </c>
+      <c r="G1731" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1732" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B1732" t="s">
+        <v>809</v>
+      </c>
+      <c r="C1732" t="s">
+        <v>5799</v>
+      </c>
+      <c r="D1732" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>5799</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>5800</v>
+      </c>
+      <c r="G1732" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1733" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B1733" t="s">
+        <v>5707</v>
+      </c>
+      <c r="C1733" t="s">
+        <v>5802</v>
+      </c>
+      <c r="D1733" t="s">
+        <v>5803</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>5802</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>5804</v>
+      </c>
+      <c r="G1733" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1734" t="s">
+        <v>5805</v>
+      </c>
+      <c r="B1734" t="s">
+        <v>5806</v>
+      </c>
+      <c r="C1734" t="s">
+        <v>5807</v>
+      </c>
+      <c r="D1734" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>5807</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>5808</v>
+      </c>
+      <c r="G1734" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1735" t="s">
+        <v>5809</v>
+      </c>
+      <c r="B1735" t="s">
+        <v>5810</v>
+      </c>
+      <c r="C1735" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D1735" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>5811</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>5812</v>
+      </c>
+      <c r="G1735" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1736" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B1736" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C1736" t="s">
+        <v>5815</v>
+      </c>
+      <c r="D1736" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>5815</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>5816</v>
+      </c>
+      <c r="G1736" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1737" t="s">
+        <v>5817</v>
+      </c>
+      <c r="B1737" t="s">
+        <v>5818</v>
+      </c>
+      <c r="C1737" t="s">
+        <v>5819</v>
+      </c>
+      <c r="D1737" t="s">
+        <v>5820</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>5819</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>5821</v>
+      </c>
+      <c r="G1737" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1738" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B1738" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C1738" t="s">
+        <v>5824</v>
+      </c>
+      <c r="D1738" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>5824</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>5825</v>
+      </c>
+      <c r="G1738" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1739" t="s">
+        <v>5826</v>
+      </c>
+      <c r="B1739" t="s">
+        <v>5827</v>
+      </c>
+      <c r="C1739" t="s">
+        <v>5828</v>
+      </c>
+      <c r="D1739" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>5829</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>5830</v>
+      </c>
+      <c r="G1739" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1740" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B1740" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C1740" t="s">
+        <v>5833</v>
+      </c>
+      <c r="D1740" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>5833</v>
+      </c>
+      <c r="F1740" t="s">
+        <v>5834</v>
+      </c>
+      <c r="G1740" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1741" t="s">
+        <v>5835</v>
+      </c>
+      <c r="B1741" t="s">
+        <v>5836</v>
+      </c>
+      <c r="C1741" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D1741" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>5837</v>
+      </c>
+      <c r="F1741" t="s">
+        <v>5838</v>
+      </c>
+      <c r="G1741" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1742" t="s">
+        <v>5839</v>
+      </c>
+      <c r="B1742" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1742" t="s">
+        <v>5840</v>
+      </c>
+      <c r="D1742" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1742" t="s">
+        <v>5841</v>
+      </c>
+      <c r="F1742" t="s">
+        <v>5842</v>
+      </c>
+      <c r="G1742" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1743" t="s">
+        <v>5843</v>
+      </c>
+      <c r="B1743" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1743" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D1743" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1743" t="s">
+        <v>5844</v>
+      </c>
+      <c r="F1743" t="s">
+        <v>5845</v>
+      </c>
+      <c r="G1743" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1744" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B1744" t="s">
+        <v>5847</v>
+      </c>
+      <c r="C1744" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D1744" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>5848</v>
+      </c>
+      <c r="F1744" t="s">
+        <v>5849</v>
+      </c>
+      <c r="G1744" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1745" t="s">
+        <v>5850</v>
+      </c>
+      <c r="B1745" t="s">
+        <v>5614</v>
+      </c>
+      <c r="C1745" t="s">
+        <v>5851</v>
+      </c>
+      <c r="D1745" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>5852</v>
+      </c>
+      <c r="F1745" t="s">
+        <v>5853</v>
+      </c>
+      <c r="G1745" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1746" t="s">
+        <v>5854</v>
+      </c>
+      <c r="B1746" t="s">
+        <v>5855</v>
+      </c>
+      <c r="C1746" t="s">
+        <v>5856</v>
+      </c>
+      <c r="D1746" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>5856</v>
+      </c>
+      <c r="F1746" t="s">
+        <v>5857</v>
+      </c>
+      <c r="G1746" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1747" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B1747" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1747" t="s">
+        <v>5859</v>
+      </c>
+      <c r="D1747" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>5860</v>
+      </c>
+      <c r="F1747" t="s">
+        <v>5861</v>
+      </c>
+      <c r="G1747" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1748" t="s">
+        <v>5862</v>
+      </c>
+      <c r="B1748" t="s">
+        <v>5863</v>
+      </c>
+      <c r="C1748" t="s">
+        <v>5864</v>
+      </c>
+      <c r="D1748" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>5864</v>
+      </c>
+      <c r="F1748" t="s">
+        <v>5865</v>
+      </c>
+      <c r="G1748" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1749" t="s">
+        <v>5866</v>
+      </c>
+      <c r="B1749" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C1749" t="s">
+        <v>5867</v>
+      </c>
+      <c r="D1749" t="s">
+        <v>5683</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>5867</v>
+      </c>
+      <c r="F1749" t="s">
+        <v>5868</v>
+      </c>
+      <c r="G1749" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1750" t="s">
+        <v>5869</v>
+      </c>
+      <c r="B1750" t="s">
+        <v>5870</v>
+      </c>
+      <c r="C1750" t="s">
+        <v>5871</v>
+      </c>
+      <c r="D1750" t="s">
+        <v>5872</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>5871</v>
+      </c>
+      <c r="F1750" t="s">
+        <v>5873</v>
+      </c>
+      <c r="G1750" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1751" t="s">
+        <v>5874</v>
+      </c>
+      <c r="B1751" t="s">
+        <v>5875</v>
+      </c>
+      <c r="C1751" t="s">
+        <v>5876</v>
+      </c>
+      <c r="D1751" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>5877</v>
+      </c>
+      <c r="F1751" t="s">
+        <v>5878</v>
+      </c>
+      <c r="G1751" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1752" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B1752" t="s">
+        <v>5735</v>
+      </c>
+      <c r="C1752" t="s">
+        <v>5880</v>
+      </c>
+      <c r="D1752" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>5880</v>
+      </c>
+      <c r="F1752" t="s">
+        <v>5881</v>
+      </c>
+      <c r="G1752" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1753" t="s">
+        <v>5882</v>
+      </c>
+      <c r="B1753" t="s">
+        <v>5883</v>
+      </c>
+      <c r="C1753" t="s">
+        <v>5884</v>
+      </c>
+      <c r="D1753" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>5885</v>
+      </c>
+      <c r="F1753" t="s">
+        <v>5886</v>
+      </c>
+      <c r="G1753" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1754" t="s">
+        <v>5887</v>
+      </c>
+      <c r="B1754" t="s">
+        <v>5888</v>
+      </c>
+      <c r="C1754" t="s">
+        <v>5889</v>
+      </c>
+      <c r="D1754" t="s">
+        <v>5890</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>5891</v>
+      </c>
+      <c r="F1754" t="s">
+        <v>5892</v>
+      </c>
+      <c r="G1754" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1755" t="s">
+        <v>5893</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>5894</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>5895</v>
+      </c>
+      <c r="D1755" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>5895</v>
+      </c>
+      <c r="F1755" t="s">
+        <v>5896</v>
+      </c>
+      <c r="G1755" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1756" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B1756" t="s">
+        <v>5898</v>
+      </c>
+      <c r="C1756" t="s">
+        <v>5899</v>
+      </c>
+      <c r="D1756" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>5900</v>
+      </c>
+      <c r="F1756" t="s">
+        <v>5901</v>
+      </c>
+      <c r="G1756" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1757" t="s">
+        <v>5902</v>
+      </c>
+      <c r="B1757" t="s">
+        <v>5903</v>
+      </c>
+      <c r="C1757" t="s">
+        <v>5904</v>
+      </c>
+      <c r="D1757" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>5904</v>
+      </c>
+      <c r="F1757" t="s">
+        <v>5905</v>
+      </c>
+      <c r="G1757" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1758" t="s">
+        <v>5906</v>
+      </c>
+      <c r="B1758" t="s">
+        <v>5907</v>
+      </c>
+      <c r="C1758" t="s">
+        <v>5908</v>
+      </c>
+      <c r="D1758" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>5908</v>
+      </c>
+      <c r="F1758" t="s">
+        <v>5909</v>
+      </c>
+      <c r="G1758" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1759" t="s">
+        <v>2514</v>
+      </c>
+      <c r="B1759" t="s">
+        <v>5910</v>
+      </c>
+      <c r="C1759" t="s">
+        <v>5911</v>
+      </c>
+      <c r="D1759" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>5912</v>
+      </c>
+      <c r="F1759" t="s">
+        <v>5913</v>
+      </c>
+      <c r="G1759" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1760" t="s">
+        <v>5914</v>
+      </c>
+      <c r="B1760" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C1760" t="s">
+        <v>5915</v>
+      </c>
+      <c r="D1760" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>5915</v>
+      </c>
+      <c r="F1760" t="s">
+        <v>5916</v>
+      </c>
+      <c r="G1760" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1761" t="s">
+        <v>5917</v>
+      </c>
+      <c r="B1761" t="s">
+        <v>5918</v>
+      </c>
+      <c r="C1761" t="s">
+        <v>5919</v>
+      </c>
+      <c r="D1761" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>5919</v>
+      </c>
+      <c r="F1761" t="s">
+        <v>5920</v>
+      </c>
+      <c r="G1761" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1762" t="s">
+        <v>5921</v>
+      </c>
+      <c r="B1762" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C1762" t="s">
+        <v>5922</v>
+      </c>
+      <c r="D1762" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>5923</v>
+      </c>
+      <c r="F1762" t="s">
+        <v>5924</v>
+      </c>
+      <c r="G1762" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1763" t="s">
+        <v>5925</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>5926</v>
+      </c>
+      <c r="D1763" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>5927</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>5928</v>
+      </c>
+      <c r="G1763" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1764" t="s">
+        <v>5929</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>5930</v>
+      </c>
+      <c r="C1764" t="s">
+        <v>5931</v>
+      </c>
+      <c r="D1764" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>5931</v>
+      </c>
+      <c r="F1764" t="s">
+        <v>5932</v>
+      </c>
+      <c r="G1764" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1765" t="s">
+        <v>5933</v>
+      </c>
+      <c r="B1765" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1765" t="s">
+        <v>5934</v>
+      </c>
+      <c r="D1765" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>5934</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>5935</v>
+      </c>
+      <c r="G1765" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1766" t="s">
+        <v>5936</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>5937</v>
+      </c>
+      <c r="C1766" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D1766" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>5938</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>5939</v>
+      </c>
+      <c r="G1766" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1767" t="s">
+        <v>5940</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>5941</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>5942</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>5943</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>5942</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>5944</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1768" t="s">
+        <v>5945</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>5516</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>5946</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>5947</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>5948</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1769" t="s">
+        <v>5949</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>5950</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>5951</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>5951</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>5952</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1770" t="s">
+        <v>5953</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>5954</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>5955</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>5955</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>5956</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1771" t="s">
+        <v>5957</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>5958</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>5960</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>5961</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1772" t="s">
+        <v>5962</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>5963</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>5964</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>5964</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>5965</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1773" t="s">
+        <v>5966</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>5967</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>5968</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>5968</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>5969</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1774" t="s">
+        <v>5970</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>5971</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>5972</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>5973</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>5974</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1775" t="s">
+        <v>5975</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>5976</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>5977</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>5978</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>5979</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1776" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>5981</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>5983</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>5982</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>5984</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1777" t="s">
+        <v>5985</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>5986</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>5987</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>5987</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>5988</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1778" t="s">
+        <v>5989</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>5990</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>5991</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>5991</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>5992</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1779" t="s">
+        <v>5993</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>5994</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>5995</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>5995</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>5996</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1780" t="s">
+        <v>5997</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>5994</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>5998</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>5998</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>5999</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1781" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>6001</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>6002</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>6002</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>6003</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1782" t="s">
+        <v>6004</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>6005</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>6006</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>6006</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>6007</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1783" t="s">
+        <v>6008</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>5542</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>6009</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>6009</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>6010</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1784" t="s">
+        <v>6011</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>5676</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>6012</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>6013</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>6014</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1785" t="s">
+        <v>6015</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>6016</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>6017</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>6018</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>6019</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
+++ b/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/Twitter-Sentiment-Analysis-with-Streamlit/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2079AB-243D-C143-89FF-28C945A78113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596558C-60B8-8240-9E14-37C9917FE3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12495" uniqueCount="6020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13678" uniqueCount="6677">
   <si>
     <t>tweetcreatedts</t>
   </si>
@@ -18080,6 +18080,1977 @@
   </si>
   <si>
     <t>this moment occurs when emil is the familiar greeting of ridwan kamil and heru budi signed a joint agreement on the support of the construction of mass rapid transit mrt phase stage at gedung sate bersamahara</t>
+  </si>
+  <si>
+    <t>28/02/2023 23:32</t>
+  </si>
+  <si>
+    <t>masmascadel</t>
+  </si>
+  <si>
+    <t>jadi penasaran ama mie gacoan enak gak sih</t>
+  </si>
+  <si>
+    <t>so curious about the delicious gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 21:27</t>
+  </si>
+  <si>
+    <t>Ezgvrl69</t>
+  </si>
+  <si>
+    <t>bisa beneran dapet weh maksutnya duit lu yang recehan tadi bakal dituker ama duit kertas terus lu juga dapet free mie gacoan</t>
+  </si>
+  <si>
+    <t>can really get the maximum money that you are in the coins will be led by paper money and you will also get free gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 18:16</t>
+  </si>
+  <si>
+    <t>itsulun</t>
+  </si>
+  <si>
+    <t>dah seminggu ini mkn gacoan suit ampe x buset enak bgt ternyata kek gurih gmn gt kek mie yamin tp gadipakein saos</t>
+  </si>
+  <si>
+    <t>this week, mkn gacoan suit ame x is really good, it turns out that it is tasty gt gt kek noodle yamin but gadipakein sauc</t>
+  </si>
+  <si>
+    <t>28/02/2023 17:20</t>
+  </si>
+  <si>
+    <t>beautyrviw</t>
+  </si>
+  <si>
+    <t>yaampun jd inget di rumah banyak bgt sumpit gacoan smpe kyk koleksi gara udh ga pernah pesen mie nya aku udh ga makan mie setahunan lebih tp sering bgt mesen dimsumnya doang dan dpt sumpit alhasil ga kepake</t>
+  </si>
+  <si>
+    <t>ya, so remember at home a lot of chopsticks are chopped, because i have never ordered the noodles, i haven't eaten the noodles more than more, but often mes</t>
+  </si>
+  <si>
+    <t>28/02/2023 17:11</t>
+  </si>
+  <si>
+    <t>sodakallah_</t>
+  </si>
+  <si>
+    <t>hayang ngadegungkeun sirahna sakirana mbung lada nya pesen level  mun lada keneh meli mie sakura ulah gacoan kaluman</t>
+  </si>
+  <si>
+    <t>hayang ngadegungkeun sirahna sakirana mbung lada nya pesen level mun lada keneh meli mie sakura ulah gacoan kaluman</t>
+  </si>
+  <si>
+    <t>wants to establish his head of the lady's messages level to meli mie sakura don't give up the submiss</t>
+  </si>
+  <si>
+    <t>28/02/2023 17:08</t>
+  </si>
+  <si>
+    <t>arunatweet_</t>
+  </si>
+  <si>
+    <t>waduh harus cepet tidur kamunya mah bener fast food lebih tepatnya mie gacoan karena makanan tersayang</t>
+  </si>
+  <si>
+    <t>alright, i have to sleep quickly, the fast food banner is more precisely a gacoan noodle becaus</t>
+  </si>
+  <si>
+    <t>28/02/2023 16:32</t>
+  </si>
+  <si>
+    <t>irresisteible</t>
+  </si>
+  <si>
+    <t>boleh kapan kapan kita makan mie gacoan yang di tebet abis pulang kerja sumpah aku mau kesanaaaaaaaa belum pernah makan itu tapi mau makan langsung aja dine in kesana yuk temenin rame nggak ya kira kira</t>
+  </si>
+  <si>
+    <t>it is okay when when we eat gacoan noodles that are taken home after work i swear i want to go thereaaaaaaaaa i have never eaten that but just want to eat directly dine in there let's friends, don't think about it</t>
+  </si>
+  <si>
+    <t>28/02/2023 16:19</t>
+  </si>
+  <si>
+    <t>PeriJahatz</t>
+  </si>
+  <si>
+    <t>gapapa nder kan ga ngrugiin orang lain jadi diri sendiri aja btw sini jdi temen aku aku lek mam gacoan setengah porsi udh kenyang bgt mayan kan nder makin banyak mie e wkwk simbiosis mitualisme hahaha</t>
+  </si>
+  <si>
+    <t>it's okay, right?</t>
+  </si>
+  <si>
+    <t>28/02/2023 16:08</t>
+  </si>
+  <si>
+    <t>AnfaAnalda</t>
+  </si>
+  <si>
+    <t>gacoan keburu diisi mixue wkwkwk</t>
+  </si>
+  <si>
+    <t>gacoan hurriedly filled with mixue wkwkwk</t>
+  </si>
+  <si>
+    <t>28/02/2023 15:46</t>
+  </si>
+  <si>
+    <t>rahmasuperiot</t>
+  </si>
+  <si>
+    <t>nasi panas campur bubuk cabe telor goreng memang lebih enak daripada mie gacoan</t>
+  </si>
+  <si>
+    <t>hot rice mixed with fried egg chili powder is indeed better than gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 15:16</t>
+  </si>
+  <si>
+    <t>rizkmln</t>
+  </si>
+  <si>
+    <t>bilang aja tuker cewenya pake mie gacoan satu porsi lagi aja</t>
+  </si>
+  <si>
+    <t>just say the girl is using the gacoan noodles in one more port</t>
+  </si>
+  <si>
+    <t>28/02/2023 15:08</t>
+  </si>
+  <si>
+    <t>princeholland99</t>
+  </si>
+  <si>
+    <t>orang mana kok kaya asing sekali dengan mie gacoan</t>
+  </si>
+  <si>
+    <t>which person is so rich in gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 15:07</t>
+  </si>
+  <si>
+    <t>Nasipad31473707</t>
+  </si>
+  <si>
+    <t>gacoan makan an nya enak pelayanan nya gak deh gak ada etitude nya</t>
+  </si>
+  <si>
+    <t>gacoan eating the service is delicious, the service doesn't have any etitud</t>
+  </si>
+  <si>
+    <t>gacoan sop nya gitu ya customer masuk di kasih pelayanan ala karen s diner pake nada sentak ke customer kalo alasan nya cape mending jangan di kasih kerjaan sama yg kaya gitu</t>
+  </si>
+  <si>
+    <t>the soup is like that, the customer is in the style of service, because he uses a tone to the customer, if the reason is better, don't give me a work with the rich work like that</t>
+  </si>
+  <si>
+    <t>28/02/2023 14:38</t>
+  </si>
+  <si>
+    <t>manusiyahaha</t>
+  </si>
+  <si>
+    <t>gacoan kasih ide ini coba sumpitnya dikasih barcode or gambar apa gitu ntr kumpulin berapa terbanyak ditukerin udangan gacoan gacoan</t>
+  </si>
+  <si>
+    <t>gacoan give this idea try to chopsticks given a barcode or what image is like that, ntr collects how much is the most liked the gacoan gacoan invit</t>
+  </si>
+  <si>
+    <t>28/02/2023 14:13</t>
+  </si>
+  <si>
+    <t>destinawah</t>
+  </si>
+  <si>
+    <t>wkwk aku level  ni tadi yg mie gacoan nya mie iblis level  lebih pedes lg tadi aku nyicip</t>
+  </si>
+  <si>
+    <t>wkwk aku level ni tadi yg mie gacoan nya mie iblis level lebih pedes lg tadi aku nyicip</t>
+  </si>
+  <si>
+    <t>wkwk i was the level of this who was the noodle of the gacoan noodle devil noodle level more spicy again i tast</t>
+  </si>
+  <si>
+    <t>28/02/2023 13:46</t>
+  </si>
+  <si>
+    <t>gacoan dulu kalian biasa pesen mie yang mana level berapa</t>
+  </si>
+  <si>
+    <t>gacoan first you used to order noodles which level</t>
+  </si>
+  <si>
+    <t>28/02/2023 13:38</t>
+  </si>
+  <si>
+    <t>Skyfn03</t>
+  </si>
+  <si>
+    <t>apakah ini tanda saya akan jadi ba mie gacoan boleh kali mie gacoan gratis seumur idup wkwkwk</t>
+  </si>
+  <si>
+    <t>is this a sign that i will be a ba noodle gacoan may be free of gacoan noodles for life wkwkwk</t>
+  </si>
+  <si>
+    <t>28/02/2023 13:22</t>
+  </si>
+  <si>
+    <t>smgalucky</t>
+  </si>
+  <si>
+    <t>ian tapi mie gacoan mie iblis lebih enak sih bul apalagi lvl yg bnr pedes haha</t>
+  </si>
+  <si>
+    <t>ian but the gacoan noodle devil noodles are better, especially bul, especially lvl, who are spicy haha</t>
+  </si>
+  <si>
+    <t>28/02/2023 12:47</t>
+  </si>
+  <si>
+    <t>mourbee</t>
+  </si>
+  <si>
+    <t>hari ini gacoan lagi enak soalnya mie nya basah</t>
+  </si>
+  <si>
+    <t>today the gacoan is delicious because the noodles are wet</t>
+  </si>
+  <si>
+    <t>28/02/2023 12:22</t>
+  </si>
+  <si>
+    <t>sakuraaxxi</t>
+  </si>
+  <si>
+    <t>honestly aku suka banget makan mie tapi udah aku latih badanku untuk mengurangi itu jadi aku makan miean udah jarang banget mungkin  bulan sekali beli kober atau gacoan klo lg pengen banget tp skrg bukan fav ku lagi kalo pengen mie aku beli mie yg gluten free</t>
+  </si>
+  <si>
+    <t>honestly aku suka banget makan mie tapi udah aku latih badanku untuk mengurangi itu jadi aku makan miean udah jarang banget mungkin bulan sekali beli kober atau gacoan klo lg pengen banget tp skrg bukan fav ku lagi kalo pengen mie aku beli mie yg gluten free</t>
+  </si>
+  <si>
+    <t>honestly i really like eating noodles but i have trained my body to reduce it so i eat noodles, it's very rare, maybe once the month bought kober or gacoan if i really want to be my fav anymore if i want to buy noodles i bought gluten free noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 12:17</t>
+  </si>
+  <si>
+    <t>jikeumwoo</t>
+  </si>
+  <si>
+    <t>hari ini cukup baik karna habis makan mie gacoan tadi kamu sendiri gimna harinya</t>
+  </si>
+  <si>
+    <t>today is quite good because you eaten the gacoan noodles, you're the same day</t>
+  </si>
+  <si>
+    <t>28/02/2023 12:12</t>
+  </si>
+  <si>
+    <t>balleriekzh</t>
+  </si>
+  <si>
+    <t>kayanya kmrn makan mie gacoan level  masih kuat kok skrng dah ga kuat</t>
+  </si>
+  <si>
+    <t>kayanya kmrn makan mie gacoan level masih kuat kok skrng dah ga kuat</t>
+  </si>
+  <si>
+    <t>it seems like eating gacoan level noodles is still strong, how come it's not strong now</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:54</t>
+  </si>
+  <si>
+    <t>alamsyah_0004</t>
+  </si>
+  <si>
+    <t>mbak mie gacoan emang pedes tes dulu gitu sblm beli masnya kalo sebel semprot aja pake ini bisa juga buat perlindungan diri</t>
+  </si>
+  <si>
+    <t>ms. gacoan noodles are spicy to test first before buying the mas if you just resent this spray can also be for self -protect</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:48</t>
+  </si>
+  <si>
+    <t>terbibil</t>
+  </si>
+  <si>
+    <t>iyaa kek mainan pls tp yg iblis ttp mie gacoan kan ya</t>
+  </si>
+  <si>
+    <t>yes, pls toy, but the devil is the noodle, right?</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:40</t>
+  </si>
+  <si>
+    <t>chyntiaase</t>
+  </si>
+  <si>
+    <t>siangnya makan mie gacoan sorenya makan seblak beuhh selamat datang deh kamar mandi</t>
+  </si>
+  <si>
+    <t>in the afternoon, eating noodles in the afternoon eating seblak beuhh welcome to the bathroom</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:36</t>
+  </si>
+  <si>
+    <t>AESTHEDRE</t>
+  </si>
+  <si>
+    <t>salam kenal mas abram mie ayam emang enak banget kalau aku sih mie gacoan paling favorite</t>
+  </si>
+  <si>
+    <t>greetings mas abram chicken noodle is really good if i'm the most favorite gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:24</t>
+  </si>
+  <si>
+    <t>sooyoung6ehs</t>
+  </si>
+  <si>
+    <t>kalian udah pernah nyobain makan mie gacoan pake udah keju sama lumpia udang nya belum enak banget parah apalagi sambil minut chatime choco hazelnut l gila sih jadi pengen nambah enak banget parah udah gitu sikat gigi pake pepsodent biar gihi berkilau</t>
+  </si>
+  <si>
+    <t>you've tried eating gacoan noodles using cheese and shrimp spring rolls, not really bad, especially while minut chatime choco hazelnut l crazy, so i want to add really good, so brush your teeth using pepsodent so that it is gihi sparkl</t>
+  </si>
+  <si>
+    <t>28/02/2023 11:18</t>
+  </si>
+  <si>
+    <t>haninaaabl</t>
+  </si>
+  <si>
+    <t>tapiii tiba tiba dosen matkul kedua ngasih info kl matkulnya kosongg sebel bangett padahal hari ini aku effort banget buat makeup ke kampus terus akhirnyaa aku sama thita ke mie gacoan first time dine in gacoan syukur bangett ga antri</t>
+  </si>
+  <si>
+    <t>but suddenly the second matkul lecturer gave the info kl matkul empty, even though today i was very effort to makeup to campus and finally i was with thita to the first time dine in gacoan noodles.</t>
+  </si>
+  <si>
+    <t>28/02/2023 10:48</t>
+  </si>
+  <si>
+    <t>pulau69ofc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">padahal mie gacoan ga sepedes itu tau mimin aja suka lt </t>
+  </si>
+  <si>
+    <t>padahal mie gacoan ga sepedes itu tau mimin aja suka lt</t>
+  </si>
+  <si>
+    <t>even though the gacoan noodles aren't as good as that, you know, just like it</t>
+  </si>
+  <si>
+    <t>28/02/2023 10:00</t>
+  </si>
+  <si>
+    <t>mie_gacoan</t>
+  </si>
+  <si>
+    <t>ekspresi saat habis gajian langsung cus makbar mie gacoan bareng bestiee o</t>
+  </si>
+  <si>
+    <t>expressions when finished paying directly cus makbar mie gacoan with bestiee o</t>
+  </si>
+  <si>
+    <t>28/02/2023 09:46</t>
+  </si>
+  <si>
+    <t>hylalaaa</t>
+  </si>
+  <si>
+    <t>ntar kalau ini berhasil selesai dalam sehari reward mie gacoan</t>
+  </si>
+  <si>
+    <t>later if this was successful in a day of reward noodle gacoan</t>
+  </si>
+  <si>
+    <t>28/02/2023 09:38</t>
+  </si>
+  <si>
+    <t>tabul_ian</t>
+  </si>
+  <si>
+    <t>ohh gini rasanya mie gacoan b aja sih bener tapi perudangannya enak banget</t>
+  </si>
+  <si>
+    <t>ohh like this it feels like a gacoan n noodle it's really right but the youth is really good</t>
+  </si>
+  <si>
+    <t>28/02/2023 09:07</t>
+  </si>
+  <si>
+    <t>ssebatangkara</t>
+  </si>
+  <si>
+    <t>keinget temen kelompok pkl ku itu ultah trs yg ngucapin banyak bgt smpe ke ortu ny trs di surprise in di kos an sama tante nya dia dan dibawain kue ultah kfc mie gacoan dkk pas liat itu gue kek gue kpn yhhh bisa ngerasain itu jg tpi yaudahlh ya mau gmna lgi</t>
+  </si>
+  <si>
+    <t>keinget friends of my street vendors group that is a birthday that says a lot so much to my parents, then in the house in boarding house with his aunt and was brought to the birthday cake kfc noodles, gacoan, right when i saw that, i can do it, but i can feel it, buti want to do it</t>
+  </si>
+  <si>
+    <t>28/02/2023 08:08</t>
+  </si>
+  <si>
+    <t>LokerCirebon</t>
+  </si>
+  <si>
+    <t>lowongan kerja mie gacoan cabang cirebon  halo sobat jobseekers lokercirebon untuk info lebih jelasnya bisa cek di website official kami</t>
+  </si>
+  <si>
+    <t>lowongan kerja mie gacoan cabang cirebon halo sobat jobseekers lokercirebon untuk info lebih jelasnya bisa cek di website official kami</t>
+  </si>
+  <si>
+    <t>job vacancies for cirebon branch gacoan halo buddy jobseekers lokercirebon for more details, you can check on our official websit</t>
+  </si>
+  <si>
+    <t>28/02/2023 07:04</t>
+  </si>
+  <si>
+    <t>TangerangLoker</t>
+  </si>
+  <si>
+    <t>lowongan mie gacoan untuk informasi lebih lengkap dan pendaftaran silahkan cek di website info lebih update silahkan gabung ke channel telegram lokertangerang lokerjakarta</t>
+  </si>
+  <si>
+    <t>gacoan noodle vacancies for more complete information and registration please check on the more updated information website please join the lokerjakarta lokerjakarta telegram telegram channel</t>
+  </si>
+  <si>
+    <t>28/02/2023 06:58</t>
+  </si>
+  <si>
+    <t>1922files</t>
+  </si>
+  <si>
+    <t>drpd preloved sumpit mending kumpulin uang koin  an sampe jumlahnya   bisa dituker di gacoan veteran ntar dpt gratisan mie gacoan</t>
+  </si>
+  <si>
+    <t>drpd preloved sumpit mending kumpulin uang koin an sampe jumlahnya bisa dituker di gacoan veteran ntar dpt gratisan mie gacoan</t>
+  </si>
+  <si>
+    <t>drpd preloved chopsticks better gather coins until the amount can be used in veteran gacoan or free gacoan noodl</t>
+  </si>
+  <si>
+    <t>28/02/2023 05:11</t>
+  </si>
+  <si>
+    <t>Imcloudysun</t>
+  </si>
+  <si>
+    <t>itu jadi mie gacoan kak tinggal kasih toping aja</t>
+  </si>
+  <si>
+    <t>it is so the noodles, sis, just give a top</t>
+  </si>
+  <si>
+    <t>28/02/2023 05:10</t>
+  </si>
+  <si>
+    <t>wdyrtst_</t>
+  </si>
+  <si>
+    <t>kamu kumpulin sampe  nder nnti dapet mie gratis ke gacoan wkwkk</t>
+  </si>
+  <si>
+    <t>kamu kumpulin sampe nder nnti dapet mie gratis ke gacoan wkwkk</t>
+  </si>
+  <si>
+    <t>you collect until you get free noodles to gacoan wkwkk</t>
+  </si>
+  <si>
+    <t>28/02/2023 04:30</t>
+  </si>
+  <si>
+    <t>ampass_klopo</t>
+  </si>
+  <si>
+    <t>apa enak sih mbak gacoan kmrin makan level  cuma mie sama sambel doang</t>
+  </si>
+  <si>
+    <t>apa enak sih mbak gacoan kmrin makan level cuma mie sama sambel doang</t>
+  </si>
+  <si>
+    <t>is it good, ms. gacoan kmrin eats levels, just noodles and sauc</t>
+  </si>
+  <si>
+    <t>28/02/2023 03:46</t>
+  </si>
+  <si>
+    <t>xxxdimcall</t>
+  </si>
+  <si>
+    <t>tadi sekitar jam   di lampu lalu lintas jl mayjend depan mie gacoan ada cowo i think his body so hot pake motor vario klo ga salah pake celana pendek hitam kaos abu cerah agak biru maybe pake headset dan topi helm full face pake sandal pake sling bag hitam notice me wkw</t>
+  </si>
+  <si>
+    <t>tadi sekitar jam di lampu lalu lintas jl mayjend depan mie gacoan ada cowo i think his body so hot pake motor vario klo ga salah pake celana pendek hitam kaos abu cerah agak biru maybe pake headset dan topi helm full face pake sandal pake sling bag hitam notice me wkw</t>
+  </si>
+  <si>
+    <t>earlier around the hour at the traffic lights jl mayjend in front of the gacoan noodle there was a guy i think his body so hot using a vario motorbike if i didn't use the black shorts of bright gray t -shirts rather blue using a headset and a full face helmet hat using sandals using black notice sling bagsme wkw</t>
+  </si>
+  <si>
+    <t>28/02/2023 01:27</t>
+  </si>
+  <si>
+    <t>heartg</t>
+  </si>
+  <si>
+    <t>wkwk secandu itu emang makan mie gacoan</t>
+  </si>
+  <si>
+    <t>wkwk secandu it really eats gacoan noodl</t>
+  </si>
+  <si>
+    <t>27/02/2023 17:19</t>
+  </si>
+  <si>
+    <t>rimarsmawti</t>
+  </si>
+  <si>
+    <t>open jastip mie gacoan khusus kamu yanh di daerah tangerang kota opslot  orang yuk zonauang zonajajan jastip miegacoan zonauang</t>
+  </si>
+  <si>
+    <t>open jastip mie gacoan khusus kamu yanh di daerah tangerang kota opslot orang yuk zonauang zonajajan jastip miegacoan zonauang</t>
+  </si>
+  <si>
+    <t>open jastip your special gacoan noodle in tangerang city opslot opposite people yuk zonauang zonajajan jastip miegacoan zonauang</t>
+  </si>
+  <si>
+    <t>27/02/2023 17:08</t>
+  </si>
+  <si>
+    <t>aku mau buka jastip gacoan khusus daerah tangerang kota ada yang mau gak yaa mie k udh ongkir buat yg lain k rep dong mau cek ombak zonauang jastip gacoan</t>
+  </si>
+  <si>
+    <t>i want to open jastip gacoan special tangerang city, there are those who want noodles or not, the postage for others, if you want to check the waves of zonauang jastip gacoan</t>
+  </si>
+  <si>
+    <t>27/02/2023 16:43</t>
+  </si>
+  <si>
+    <t>nanashylaa</t>
+  </si>
+  <si>
+    <t>sok an makan mie gacoan level paling pedes yg ada perut gaa karuan hhh</t>
+  </si>
+  <si>
+    <t>soan eats the most spicy level of gacoan noodles that have stomach gaa karuan hhh</t>
+  </si>
+  <si>
+    <t>samarrooo</t>
+  </si>
+  <si>
+    <t>hal manis martabak bangka ayam gajebo mie dok dok mie ayam gacoan nasi bakar krewedan soto pak iwan bernafas setiap hari sehat semua dan bahagia</t>
+  </si>
+  <si>
+    <t>sweet things martabak bangka chicken gajebo noodle doc doc noodle gacoan nasi bakar krewedan soto pak iwan breathe every day healthy all and happi</t>
+  </si>
+  <si>
+    <t>27/02/2023 14:53</t>
+  </si>
+  <si>
+    <t>kevin_natio</t>
+  </si>
+  <si>
+    <t>pengn bener makan mie gacoan</t>
+  </si>
+  <si>
+    <t>pengn is really eating gacoan noodl</t>
+  </si>
+  <si>
+    <t>nadefghijklol</t>
+  </si>
+  <si>
+    <t>seriusnanya orang yg mam mie gacoan itu beneran karena laper atau mengisi kekosongan waktu mereka aja ya bukan sarkas tapi beneran nanya mie gacoan dimana antriannya</t>
+  </si>
+  <si>
+    <t>seriously, people who mam gacoan noodles are really because they are hungry or fill the vacant time they are not sarcasm but really ask the gacoan noodles where the queue i</t>
+  </si>
+  <si>
+    <t>27/02/2023 14:43</t>
+  </si>
+  <si>
+    <t>DraftUINJKT</t>
+  </si>
+  <si>
+    <t>warga uwin yang pada ngekos klo udh aktif kuliah kalian minat ga klo aku open jastip mie gacoan trs dianter sampe depan kos</t>
+  </si>
+  <si>
+    <t>AutoBaseUwinJKT</t>
+  </si>
+  <si>
+    <t>uwin residents who are not active if you're active in college, you don't have to be interested if i open jastip noodles gacoan then delivered until the front of the boarding hous</t>
+  </si>
+  <si>
+    <t>27/02/2023 14:29</t>
+  </si>
+  <si>
+    <t>cupsscake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupu bangett maag kumat cuman gara gara mie gacoan level </t>
+  </si>
+  <si>
+    <t>cupu bangett maag kumat cuman gara gara mie gacoan level</t>
+  </si>
+  <si>
+    <t>cupu really ulang ulcer only because of gacoan level noodl</t>
+  </si>
+  <si>
+    <t>27/02/2023 14:05</t>
+  </si>
+  <si>
+    <t>burgersmooch</t>
+  </si>
+  <si>
+    <t>playlist di mie gacoan kok enak hehehe habis  mi level   biji dimsum udang keju  minuman rasa matcha bledos wetengku</t>
+  </si>
+  <si>
+    <t>playlist di mie gacoan kok enak hehehe habis mi level biji dimsum udang keju minuman rasa matcha bledos wetengku</t>
+  </si>
+  <si>
+    <t>playlist in gacoan noodles how delicious hehehe after noodles dimsum seed level cheese shrimp beverage matcha bledos wetengku beverage beverag</t>
+  </si>
+  <si>
+    <t>27/02/2023 14:04</t>
+  </si>
+  <si>
+    <t>akuyaaaaa</t>
+  </si>
+  <si>
+    <t>mie gacoan mba fit</t>
+  </si>
+  <si>
+    <t>mba fit's gacoan noodl</t>
+  </si>
+  <si>
+    <t>Kithliy</t>
+  </si>
+  <si>
+    <t>dipejeng anu gue di muka umum terus dirujak abis tp gaoaoa sumoah gaoaoa semuanya better karena mie gacoan</t>
+  </si>
+  <si>
+    <t>i was kicked in public and continued to be reliabed after gaoaioa sumoah gaoaioa was all better because of the gacoan noodl</t>
+  </si>
+  <si>
+    <t>27/02/2023 13:40</t>
+  </si>
+  <si>
+    <t>uwuuzi</t>
+  </si>
+  <si>
+    <t>shout out to udang keju mie gacoan anjing enak bgt dimakan anget anget</t>
+  </si>
+  <si>
+    <t>shout out to shrimp cheese noodle gacoan dogs delicious dog</t>
+  </si>
+  <si>
+    <t>27/02/2023 11:35</t>
+  </si>
+  <si>
+    <t>FOODFESS2</t>
+  </si>
+  <si>
+    <t>fess ak makan gacoan  hari yg lalu yay or nay sekarang beli lagi lagi pengen bgt mie tp gamau mie instantt ty</t>
+  </si>
+  <si>
+    <t>FOODIE FESS</t>
+  </si>
+  <si>
+    <t>fess ak makan gacoan hari yg lalu yay or nay sekarang beli lagi lagi pengen bgt mie tp gamau mie instantt ty</t>
+  </si>
+  <si>
+    <t>fess i will eat a gacoan last day yay or nay now buy again, i want to be really noodles, but i don't have noodles, instantt noodl</t>
+  </si>
+  <si>
+    <t>27/02/2023 11:15</t>
+  </si>
+  <si>
+    <t>kimmoonchild321</t>
+  </si>
+  <si>
+    <t>ga lucu kan lagi makan mie gacoan jdi netes aer mata</t>
+  </si>
+  <si>
+    <t>it's not funny, right?</t>
+  </si>
+  <si>
+    <t>shunnieosh</t>
+  </si>
+  <si>
+    <t>samping spbu kakk deket burger king atau citywalk pas bgt di perempatan hyundai</t>
+  </si>
+  <si>
+    <t>beside the gas station, near the burger king or citywalk right at the hyundai intersect</t>
+  </si>
+  <si>
+    <t>27/02/2023 10:10</t>
+  </si>
+  <si>
+    <t>dankrisnaa</t>
+  </si>
+  <si>
+    <t>yg kanan iphone soalnya iphone selalu keteteran kalau ngadepin flare atau cahaya berpendar kaya logo mie gacoan pixel jg agak masalah di over saturated sebenarnya</t>
+  </si>
+  <si>
+    <t>the right iphone because the iphone is always stuck when you face flare or light -glowing light like the pixel gacoan noodle logo is also a bit of a problem in the actual over satur</t>
+  </si>
+  <si>
+    <t>ketika si doi ke mie gacoan nggak bilang bilang bikin esmosi banget tag orang orang yang ngehianatin kalian waktu ke mie gacoan nggak ngajak ngajak</t>
+  </si>
+  <si>
+    <t>when the doi go to the gacoan noodles, don't say that it makes esmosi really tag people who want you to go to gacoan noodles not invit</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:28</t>
+  </si>
+  <si>
+    <t>janinihhh</t>
+  </si>
+  <si>
+    <t>enak makan mie gacoan apa seblak</t>
+  </si>
+  <si>
+    <t>delicious eating gacoan noodles what seblak</t>
+  </si>
+  <si>
+    <t>27/02/2023 09:21</t>
+  </si>
+  <si>
+    <t>yukifirasy</t>
+  </si>
+  <si>
+    <t>mie gacoan emang nagih sih di bali kemarin aku beli mie gacoan dua kali sebelum bobo jam  mam lagi tiduran di pantai pun mam udang rambutannya best</t>
+  </si>
+  <si>
+    <t>mie gacoan emang nagih sih di bali kemarin aku beli mie gacoan dua kali sebelum bobo jam mam lagi tiduran di pantai pun mam udang rambutannya best</t>
+  </si>
+  <si>
+    <t>gacoan noodles are really collecting in bali yesterday i bought gacoan noodles twice before bobo mam's hour was lying on the beach and the best shrimp mam</t>
+  </si>
+  <si>
+    <t>27/02/2023 08:12</t>
+  </si>
+  <si>
+    <t>kala gabut melanda seseorang bisa melakukan hal hal tak terduga seperti cewek ini yang menyusun biji cabe di piring setelah makan di gerai mie gacoan</t>
+  </si>
+  <si>
+    <t>when gabuan struck someone to do unexpected things like this girl who arranged chili seeds on a plate after eating at the gacoan noodle outlet</t>
+  </si>
+  <si>
+    <t>27/02/2023 07:40</t>
+  </si>
+  <si>
+    <t>unnesmenfess</t>
+  </si>
+  <si>
+    <t>ness maap maap ini di mie judes di gang nakula kalimasada ya guys enak pol rb doang bisa ngerasain gacoan di gunpat</t>
+  </si>
+  <si>
+    <t>Semangat kuliahnya guys!</t>
+  </si>
+  <si>
+    <t>ness sorry for this in bitchy noodles in the nakula kalimasada gang, guys, it is delicious, he can feel the gacoan in gunpat</t>
+  </si>
+  <si>
+    <t>vytaprils</t>
+  </si>
+  <si>
+    <t>yg bener aja sahur pake mie gacoan kalo dimsumnya mungkin oke lah tapi kalo mie nya apa nanti gak kehabisan tenaga grgr mencret</t>
+  </si>
+  <si>
+    <t>the one who is really sahur uses gacoan noodles if the dimsum might be okay but if the noodles will not run out</t>
+  </si>
+  <si>
+    <t>27/02/2023 06:58</t>
+  </si>
+  <si>
+    <t>txtdarisukabumi</t>
+  </si>
+  <si>
+    <t>gacoan nah iya cocok disitu masih banyak lahan terbuka dan ruko kosong juga bagus buat angkot  kalo mau muter kesitu</t>
+  </si>
+  <si>
+    <t>gacoan nah iya cocok disitu masih banyak lahan terbuka dan ruko kosong juga bagus buat angkot kalo mau muter kesitu</t>
+  </si>
+  <si>
+    <t>gacoan, well, it suits there, there is still a lot of open land and empty shophouses are also good for public transportation if you want to go ther</t>
+  </si>
+  <si>
+    <t>gacoan betul sekali orang sukabumi lebih memilih ngantri mie gacoan daripada ngantri bansos</t>
+  </si>
+  <si>
+    <t>gacoan really sukabumi people prefer to queue for gacoan noodles rather than queue for social assist</t>
+  </si>
+  <si>
+    <t>kacamata_langka</t>
+  </si>
+  <si>
+    <t>gk pernah nyoba si cuman tau aja karna emang ndak suka mie gacoan v</t>
+  </si>
+  <si>
+    <t>i've never tried it, just know because i don't really like vacan noodles v</t>
+  </si>
+  <si>
+    <t>27/02/2023 06:37</t>
+  </si>
+  <si>
+    <t>TeguhpratamaS</t>
+  </si>
+  <si>
+    <t>cocok buka di sukabumi karena orang sukabumi itu rata rata orangnya konsumtif gacoan</t>
+  </si>
+  <si>
+    <t>suitable to open in sukabumi because sukabumi people are on average consumptive gacoan</t>
+  </si>
+  <si>
+    <t>27/02/2023 06:19</t>
+  </si>
+  <si>
+    <t>eieijustin</t>
+  </si>
+  <si>
+    <t>gue manasin roti pake pan yg trnyt abis dipake manasin mie gacoan gue makan roti biar sakit perut gue reda malah makin mules tau gak</t>
+  </si>
+  <si>
+    <t>i manasin bread using pan which turned out to be used by manasin gacoan noodles i eat bread so that my stomach hurts even more mules know or not</t>
+  </si>
+  <si>
+    <t>Riskinurdiansya</t>
+  </si>
+  <si>
+    <t>kalian tau nggak sih kalau mie gacoan sekarang sudah ada label halalnya lho sebelumnya tidak ada dikarenakan nama menu dari mie gacoan sendiri yang terkesan menyeramkan nah sekarang sudah memakai nama yang lebih ceria btw menu fav kalian yang mana nih</t>
+  </si>
+  <si>
+    <t>do you know if the gacoan noodles now have a halal label before you don't have it because the menu names from the gacoan noodles themselves that seem scary now are now using a more cheerful name that your fav menu i</t>
+  </si>
+  <si>
+    <t>butter96_</t>
+  </si>
+  <si>
+    <t>fess mau nnya dong mie gacoan ini tuh mie ny pke mie instan atau bikin sendiri sih</t>
+  </si>
+  <si>
+    <t>fess wants this gacoan noodle, ny ny nomal noodles or make your own</t>
+  </si>
+  <si>
+    <t>gacoan iya survey dulu aja ya ga min biar ga kaget wkwk mungkin bisa di jalur aja biar ada kendaraan umum yg dibikin aktif arah kesana ytta</t>
+  </si>
+  <si>
+    <t>gacoan, yes, the survey first, don't you, so it's not surprised, maybe it can be on the lane so that there are public transportation that are made actively ther</t>
+  </si>
+  <si>
+    <t>27/02/2023 05:28</t>
+  </si>
+  <si>
+    <t>gacoan wah terimakasih mimin gacoan udah dikasih rekomendasi lokasi nih sama warga sukabumi bisa kali survey dulu kesini hehe</t>
+  </si>
+  <si>
+    <t>gacoan wow, thank you, mimin gacoan, has been given a recommendation for the location with the residents of sukabumi, you can survey the first time heh</t>
+  </si>
+  <si>
+    <t>27/02/2023 05:25</t>
+  </si>
+  <si>
+    <t>gacoan mungkin bisa cari yg kriteria lingkungannya kaya di gacoan depan kampus uns mesen boleh lah itu aman wkwk</t>
+  </si>
+  <si>
+    <t>gacoan might be able to find the criteria for the environment rich in the gacoan in front of the uns campus, it may be saf</t>
+  </si>
+  <si>
+    <t>Akbarrivaldy5</t>
+  </si>
+  <si>
+    <t>bagi aku sih mie gacoan nothing special mendingan mie sp</t>
+  </si>
+  <si>
+    <t>for me, nothing special gacoan noodles are bett</t>
+  </si>
+  <si>
+    <t>alekupdate</t>
+  </si>
+  <si>
+    <t>mie gacoan njir gatau knp langsung kek sdbfbvfe</t>
+  </si>
+  <si>
+    <t>gacoan noodle anjir gatau why go straight to dbfbf</t>
+  </si>
+  <si>
+    <t>gacoan aamiin sangat kita tunggu ya kak sukses terus buat mie gacoan</t>
+  </si>
+  <si>
+    <t>we are waiting for aamiin gacoan, sis, sis, keep successful for gacoan noodl</t>
+  </si>
+  <si>
+    <t>27/02/2023 03:10</t>
+  </si>
+  <si>
+    <t>pingin banget buka di sukabumi doain ya kak semoga mie gacoan bisa segera buka disana</t>
+  </si>
+  <si>
+    <t>i really want to open in sukabumi, pray, sis, i hope that the gacoan noodles can open it soon</t>
+  </si>
+  <si>
+    <t>hai kak pingin banget loh mimin buka disana doain ya semoga mie gacoan bisa segera buka di manado</t>
+  </si>
+  <si>
+    <t>hi sis, i really want to open there, pray there, hopefully the gacoan noodles can be opened in manado soon</t>
+  </si>
+  <si>
+    <t>27/02/2023 01:35</t>
+  </si>
+  <si>
+    <t>mimin hari ini pindahan gaess mie gacoan solo manahan akan pindah ke colomadu yuk ramein grand openingnya senin  februari      wib jl adi sucipto colomadu kab karanganyar dine in take away grabfood shopeefood dan gofood gacoansolo</t>
+  </si>
+  <si>
+    <t>mimin hari ini pindahan gaess mie gacoan solo manahan akan pindah ke colomadu yuk ramein grand openingnya senin februari wib jl adi sucipto colomadu kab karanganyar dine in take away grabfood shopeefood dan gofood gacoansolo</t>
+  </si>
+  <si>
+    <t>mimin today moving gaess mie gacoan solo manahan will move to colomadu yuk ramein grand opening monday, jl adi sucipto colomadu karanganyar dine in take away grabfood shopeefood and gofood gacoansolo</t>
+  </si>
+  <si>
+    <t>debbytrii</t>
+  </si>
+  <si>
+    <t>sekarang tiap habis makan pedes ga lama pasti sakit perut ah skg uda ga bisa makan pedes lagi huaaa sadd bye mie gacoan mie setan samyang buldak</t>
+  </si>
+  <si>
+    <t>now every time you eat spicy, you will definitely have a stomachache, right now, i can't eat spicy anymore, huaaa sadd bye noodles gacoan noodles devil samyang buldak</t>
+  </si>
+  <si>
+    <t>27/02/2023 01:08</t>
+  </si>
+  <si>
+    <t>lpgallbase</t>
+  </si>
+  <si>
+    <t>all mie dupe gacoan di balam yg enak dmana yaaaaa</t>
+  </si>
+  <si>
+    <t>all noodles dupe gacoan in a delicious balam where yaaaaa</t>
+  </si>
+  <si>
+    <t>27/02/2023 00:48</t>
+  </si>
+  <si>
+    <t>KediriFess</t>
+  </si>
+  <si>
+    <t>enaknya beli seblak atau mie gacoan cah</t>
+  </si>
+  <si>
+    <t>Harmoni Kediri Lagi</t>
+  </si>
+  <si>
+    <t>it's good to buy seblak or cah gacoan noodl</t>
+  </si>
+  <si>
+    <t>huihuimoon96</t>
+  </si>
+  <si>
+    <t>udah lamaaaa beberapa bulan yang lalu honestly mie semacam mie gacoan di tempatku buanyak rasanya jujur gak jauh beda makanya aku sekali nyoba gacoan udah gak penasaran soalnya aku bisa order sendiri deket rumah yang rasanya sama enaknya</t>
+  </si>
+  <si>
+    <t>it's been a long time a few months ago honestly noodles such as gacoan noodles in my place, a lot of it feels honest not much different, so i tried the gacoan, it's not curious because i can order myself near the house that feels the same delici</t>
+  </si>
+  <si>
+    <t>26/02/2023 16:38</t>
+  </si>
+  <si>
+    <t>bubuyyni</t>
+  </si>
+  <si>
+    <t>doi ngasih tau mie gacoan deket bgt dari rumah dia</t>
+  </si>
+  <si>
+    <t>doi tells me to get a gacoan noodle near his hous</t>
+  </si>
+  <si>
+    <t>26/02/2023 16:26</t>
+  </si>
+  <si>
+    <t>tea22542200</t>
+  </si>
+  <si>
+    <t>tb aku lupa tanggalnya ak ingat hanyalah kejadiannya terimakasih sdah mencoba mie gacoan malam itu panjang banget yaaa mmm malam itu aku jadi tau sisi jogja yang lain dan bagus banget citylight nya aku jadi tau kalau ada gunung lain yg kelihatan selain gunung merapi</t>
+  </si>
+  <si>
+    <t>tb i forgot the date i remember just the incident, thank you for trying the noodle noodles that night was really long, huh that night i knew the other side of jogja and the citylight was really good.</t>
+  </si>
+  <si>
+    <t>26/02/2023 16:22</t>
+  </si>
+  <si>
+    <t>ginamayori98</t>
+  </si>
+  <si>
+    <t>ku lvl  suamiku lvl  haha emg ga suka pedes sih btw ini cobain cabang baru di dom ku mie yg gacoan kurang kecap sama pol sih bumbunya ga kaya di cabang lama</t>
+  </si>
+  <si>
+    <t>ku lvl suamiku lvl haha emg ga suka pedes sih btw ini cobain cabang baru di dom ku mie yg gacoan kurang kecap sama pol sih bumbunya ga kaya di cabang lama</t>
+  </si>
+  <si>
+    <t>i lvl my husband lvl haha, i don't like spicy, but i try this new branch in my dom, the noodles are not soy sauce with the pol.</t>
+  </si>
+  <si>
+    <t>26/02/2023 16:15</t>
+  </si>
+  <si>
+    <t>redrousesz</t>
+  </si>
+  <si>
+    <t>samaaaan enak kan aku juga suka mie gacoan dilihat lihat kayanya kita suka makanan yang pedas pedas kamu kalau makan mie gacoan yang level berapa dre</t>
+  </si>
+  <si>
+    <t>it's good, i also like gacoan noodles, seen seeing it, we like your spicy food if you eat gacoan noodles.</t>
+  </si>
+  <si>
+    <t>26/02/2023 16:04</t>
+  </si>
+  <si>
+    <t>sumpah dulu aku sering makan indomie mie aceh itu sekarang jarang puas banget itu kamu dipakein  telor kalo aku sih paling suka mie gacoan kamu suka juga nggak</t>
+  </si>
+  <si>
+    <t>sumpah dulu aku sering makan indomie mie aceh itu sekarang jarang puas banget itu kamu dipakein telor kalo aku sih paling suka mie gacoan kamu suka juga nggak</t>
+  </si>
+  <si>
+    <t>i swear i often eat indomie aceh noodles, now it's rarely satisfied, you are using egg</t>
+  </si>
+  <si>
+    <t>bucindrum</t>
+  </si>
+  <si>
+    <t>di sawangan mau ada mie gacoan makin macet aja hhhhhh</t>
+  </si>
+  <si>
+    <t>in sawangan, i want a gacoan noodle to get more jammed hhhhhh</t>
+  </si>
+  <si>
+    <t>1stmilkkisses</t>
+  </si>
+  <si>
+    <t>ini dibandingin pedesnya sama mie apa nder samyang atau gacoan biar lebih mudengg pedesnya segimana</t>
+  </si>
+  <si>
+    <t>this is compared to the spicy noodles with samyang or gacoan to make it more spici</t>
+  </si>
+  <si>
+    <t>aldigunawanreal</t>
+  </si>
+  <si>
+    <t>fess yg org makan mie gacoan aja aneh mending bikin mie sendiri buat kreasi sendiri lebih memuaskan</t>
+  </si>
+  <si>
+    <t>fess who eats gacoan noodles is weird, it's better to make your own noodles for your own creations more satisfi</t>
+  </si>
+  <si>
+    <t>26/02/2023 15:04</t>
+  </si>
+  <si>
+    <t>moonzhong_</t>
+  </si>
+  <si>
+    <t>eh aku belum pernah coba ituu mie gacoan enak nggak</t>
+  </si>
+  <si>
+    <t>eh, i've never tried that, it's a good gacoan noodl</t>
+  </si>
+  <si>
+    <t>26/02/2023 14:39</t>
+  </si>
+  <si>
+    <t>isarewho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gapapaa wkwkwkw kabupatenku berbeda soalnya justru di sini serba ada banget mana bener bener deket banget juga mall bioskop wingz o wingz richeese chatime xiboba mie gacoan mcd pizza hut kopi kenangan janji jiwa domino pizza crisbar minimart gt  mixue </t>
+  </si>
+  <si>
+    <t>gapapaa wkwkwkw kabupatenku berbeda soalnya justru di sini serba ada banget mana bener bener deket banget juga mall bioskop wingz o wingz richeese chatime xiboba mie gacoan mcd pizza hut kopi kenangan janji jiwa domino pizza crisbar minimart gt mixue</t>
+  </si>
+  <si>
+    <t>it's okay, my district is different, because it's really all there.</t>
+  </si>
+  <si>
+    <t>26/02/2023 14:14</t>
+  </si>
+  <si>
+    <t>shiniczhiro</t>
+  </si>
+  <si>
+    <t>iya emang ya lumayan bgt lah buat harga  ribuan udh dapet mie pangsit yg bikin kenyang makanya suka agak gimana gtu kalau liat di tl orang orang pada bilang overrated jadi ngerasa kaya apa gue aneh ya suka gacoan kok yg lain banyak yg gasuka</t>
+  </si>
+  <si>
+    <t>iya emang ya lumayan bgt lah buat harga ribuan udh dapet mie pangsit yg bikin kenyang makanya suka agak gimana gtu kalau liat di tl orang orang pada bilang overrated jadi ngerasa kaya apa gue aneh ya suka gacoan kok yg lain banyak yg gasuka</t>
+  </si>
+  <si>
+    <t>yes, it's really pretty much for the price of thousands of dumpling noodles that make you full, so i like it a bit like that if you see in tl, people say overrate so i feel like i am weird, i like gacoan, how many others are gasuka</t>
+  </si>
+  <si>
+    <t>26/02/2023 14:00</t>
+  </si>
+  <si>
+    <t>mtprsdn_</t>
+  </si>
+  <si>
+    <t>tadi makan mie gacoan lvl  hahaa langsung nyeri ulu hati</t>
+  </si>
+  <si>
+    <t>tadi makan mie gacoan lvl hahaa langsung nyeri ulu hati</t>
+  </si>
+  <si>
+    <t>eating gacoan noodles level hahaha immediately heartburn</t>
+  </si>
+  <si>
+    <t>satuurdaychill</t>
+  </si>
+  <si>
+    <t>mie gacoan enak gaksih jujur nanya</t>
+  </si>
+  <si>
+    <t>gacoan noodle delicious gaksih honest ask</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:54</t>
+  </si>
+  <si>
+    <t>TheLicensedWeeb</t>
+  </si>
+  <si>
+    <t>terlalu banyak makan gacoan dan kayaknya untuk sementara ini gua ga mau nyentuh hal hal yang berbentuk mie dah gumoh aeng</t>
+  </si>
+  <si>
+    <t>eating too much gacoan and i think for the time being i don't want to touch things in the form of noodles and spit up</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:49</t>
+  </si>
+  <si>
+    <t>kiosyoshi</t>
+  </si>
+  <si>
+    <t>tp q gak terlalu suka gacoan enakan mie ayam biasa gt yg boros di kopi q pusing klo g ngopi</t>
+  </si>
+  <si>
+    <t>but i don't really like the gacoan, it's good for ordinary chicken noodles to be wasteful in coffee q dizzy if i don't have coffe</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:39</t>
+  </si>
+  <si>
+    <t>auliarahmah99</t>
+  </si>
+  <si>
+    <t>bukan ges ada tuh mie mie an di pbg mirip gacoan gitu endul pol bumbunya kyk rich bgt worth to try sih kataku wkwk</t>
+  </si>
+  <si>
+    <t>it's not ges, there is a noodle noodle in pbg similar to a gacoan so the spice polish is like a rich worth to tri</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:33</t>
+  </si>
+  <si>
+    <t>renascenne</t>
+  </si>
+  <si>
+    <t>mie gacoan jujur abang lagi pingin banget itu tapi kagak ada disini</t>
+  </si>
+  <si>
+    <t>gacoan noodles honestly brother really want to be like that but not her</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:31</t>
+  </si>
+  <si>
+    <t>fauzyputra90</t>
+  </si>
+  <si>
+    <t>baru mau ke mie gacoan malah ujan deres banget</t>
+  </si>
+  <si>
+    <t>i just wanted to go to the gacoan noodles, instead it was very test</t>
+  </si>
+  <si>
+    <t>26/02/2023 13:13</t>
+  </si>
+  <si>
+    <t>AGX15S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apalagi ama kripik ghost pepper pedesnya nagih klo aku sih kecuali mie ghost papper trauma bgt pas lihat org makan mie ghost pepper aja pedesnya nylekit serasa makan mie gacoan lvl </t>
+  </si>
+  <si>
+    <t>apalagi ama kripik ghost pepper pedesnya nagih klo aku sih kecuali mie ghost papper trauma bgt pas lihat org makan mie ghost pepper aja pedesnya nylekit serasa makan mie gacoan lvl</t>
+  </si>
+  <si>
+    <t>moreover, the name of the spicy pepper ghost chips is nagging if i am except for the ghost papper noodles, it's really good when i see people eating ghost pepper noodles, spici</t>
+  </si>
+  <si>
+    <t>4vitrii</t>
+  </si>
+  <si>
+    <t>udang keju mie gacoan enak bgt why</t>
+  </si>
+  <si>
+    <t>gacoan noodle cheese shrimp, really good</t>
+  </si>
+  <si>
+    <t>26/02/2023 12:30</t>
+  </si>
+  <si>
+    <t>medanfess_</t>
+  </si>
+  <si>
+    <t>wak kata kawan kawan lah ya mie gacoan itu enak kali kira kira untuk orang yang first time nyobak enak nya beli dimana ya wak</t>
+  </si>
+  <si>
+    <t>wak said my friend was mie gacoan that was a good idea for the first time he was good at buying where he wa</t>
+  </si>
+  <si>
+    <t>26/02/2023 12:16</t>
+  </si>
+  <si>
+    <t>pardonwwn</t>
+  </si>
+  <si>
+    <t>gue rela bayar ongkir  rb buat ojol daripada harus stres ngeliatin pemandangan staff crew gacoan ngeracik mie mondar mandir berharap cemas nama gue dipanggil</t>
+  </si>
+  <si>
+    <t>gue rela bayar ongkir rb buat ojol daripada harus stres ngeliatin pemandangan staff crew gacoan ngeracik mie mondar mandir berharap cemas nama gue dipanggil</t>
+  </si>
+  <si>
+    <t>i am willing to pay rb postage for ojol instead of having to stress looking at the view of the staff crew gacoan chicking noodl</t>
+  </si>
+  <si>
+    <t>26/02/2023 11:51</t>
+  </si>
+  <si>
+    <t>rwacundunia</t>
+  </si>
+  <si>
+    <t>jujur gua baru tau gacoan itu buka jam tp siapa yg mau mkan mie pedes jam subuh ya</t>
+  </si>
+  <si>
+    <t>honestly, i just found out that the gacoan was open, but who wanted to be spicy noodles at dawn</t>
+  </si>
+  <si>
+    <t>llina_0ju</t>
+  </si>
+  <si>
+    <t>fess pergi aja nder gacoan ga se worthit itu kalo harus nunggu ber jam jam emangsih harganya murah dan mie nya lumayan enak tapi kalo sampe nunggu ber jam jam rasanya hah cuma dapet ini doang wkwkw</t>
+  </si>
+  <si>
+    <t>fess just go, nder gacoan isn't worth it if you have to wait for the hour time, it's cheap and the noodles are pretty good, but if you wait for the hour, it feels like you just get this, it's onli</t>
+  </si>
+  <si>
+    <t>sbqux</t>
+  </si>
+  <si>
+    <t>mie gacoan ganti jeneng jeneng mie amp minuman e ben entuk sertifikasi halal po</t>
+  </si>
+  <si>
+    <t>mie free name of mie amp drink e ben gets halal po certif</t>
+  </si>
+  <si>
+    <t>26/02/2023 10:47</t>
+  </si>
+  <si>
+    <t>Grldy5</t>
+  </si>
+  <si>
+    <t>syalom cil nanti malem sibuk ga kalo ngga mau ngajak ke mie gacoan hehe</t>
+  </si>
+  <si>
+    <t>syalom kl tonight is busy if you don't want to invite to the gacoan noodles heh</t>
+  </si>
+  <si>
+    <t>auliaaherdiana</t>
+  </si>
+  <si>
+    <t>mamapapa dagang mie ala gacoan gue bsa makan itu tiap hari krna emang enaak tapi si adek diperut sangat ga toleran pedes bahkan cuma sambel secolek aja besoknya bener diare</t>
+  </si>
+  <si>
+    <t>i am a trading noodle -style gacoan i can eat it every day because it's really good but the stomach is very spicy and even just a sauce is just the next day diarrhea</t>
+  </si>
+  <si>
+    <t>26/02/2023 10:34</t>
+  </si>
+  <si>
+    <t>vandy_46</t>
+  </si>
+  <si>
+    <t>itu udang rambutan ya wajib banget tuh kalo ke gacoan lalu beli mie gacoannya level  aja</t>
+  </si>
+  <si>
+    <t>itu udang rambutan ya wajib banget tuh kalo ke gacoan lalu beli mie gacoannya level aja</t>
+  </si>
+  <si>
+    <t>rambutan shrimp is really mandatory if you go to the gacoan then buy the gaco noodles.</t>
+  </si>
+  <si>
+    <t>26/02/2023 10:15</t>
+  </si>
+  <si>
+    <t>sukasamakamu07</t>
+  </si>
+  <si>
+    <t>bye makanan pedes bye mie bye semuanya hihi sebel harusnya kemarin aku makan mie gacoan dulu untung udah makan ramen haha</t>
+  </si>
+  <si>
+    <t>bye spicy food bye mike bye everything hihi resentful i should have eaten gacoan noodles first, fortunately i eaten ramen haha</t>
+  </si>
+  <si>
+    <t>26/02/2023 10:06</t>
+  </si>
+  <si>
+    <t>feidhu</t>
+  </si>
+  <si>
+    <t>iya dari keliatannya porsi lebih banyak n mie juga gak bikin sakit tenggorokan gacoan minyaknya tumpah yaampun enak banget ini foundernya gak mau buka cabang di kediamanku kah</t>
+  </si>
+  <si>
+    <t>yes, from it looks more portion n noodles also don't make the sore throat of the oil spill over, this is really good, the founder doesn't want to open a branch in my resid</t>
+  </si>
+  <si>
+    <t>26/02/2023 09:59</t>
+  </si>
+  <si>
+    <t>Rose_RTL</t>
+  </si>
+  <si>
+    <t>belum pernah klo mau makan mie gacoan mesti ke pwt jaraknya km sering ke pwt tapi blm punya keinginan untuk mampir karena antrinya aku tipe yang males antri hanya karena sebuah makanan enak sekalipun</t>
+  </si>
+  <si>
+    <t>i have never wanted to eat gacoan noodles, you have to go to pwt, the distance is often to pwt, but i don't have the desire to stop by because of the queue i am the type who is lazy to queue just because of a good food</t>
+  </si>
+  <si>
+    <t>26/02/2023 09:54</t>
+  </si>
+  <si>
+    <t>ceripuffs</t>
+  </si>
+  <si>
+    <t>sebel banget sama mie gacoan tebet kalau weekend suka tutup di grabfood</t>
+  </si>
+  <si>
+    <t>really resentful of tebet gacoan noodles if the weekend likes to close in grabfood</t>
+  </si>
+  <si>
+    <t>26/02/2023 09:49</t>
+  </si>
+  <si>
+    <t>devridaa</t>
+  </si>
+  <si>
+    <t>dan temen temen juga sering bilang gini loh kamu gamau ke micue karna belum ada logo halalnya tapi kamu sering ke gacoan btw kalau mie gacoan sudah banyak yang bahas ya dari para guswaning nawaning serta orang orang yg lebih faham</t>
+  </si>
+  <si>
+    <t>and my friends also often say this you guys go to micue because there is no halal logo but you often go to btw's gacoan if many gacoan noodles have discussed from the nawaning guswaning and people who are more familiar</t>
+  </si>
+  <si>
+    <t>steropic</t>
+  </si>
+  <si>
+    <t>halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh  responden lagi makasiiih</t>
+  </si>
+  <si>
+    <t>Tweetdecks Web App</t>
+  </si>
+  <si>
+    <t>halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh responden lagi makasiiih</t>
+  </si>
+  <si>
+    <t>hello, someone wants to help the contents of my questionnaire about gacoan noodles please rep, because they need respondents again</t>
+  </si>
+  <si>
+    <t>Askrlfess</t>
+  </si>
+  <si>
+    <t>askrl halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh  responden lagi makasiiih</t>
+  </si>
+  <si>
+    <t>askrl halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh responden lagi makasiiih</t>
+  </si>
+  <si>
+    <t>askrl hello, anyone wants to help the contents of my questionnaire about gacoan noodles please rep, because they need respondents again, then</t>
+  </si>
+  <si>
+    <t>nyantai sore hari enaknya sambil ngasah tipis tipis otak yuk gampang banget ada yang tau dibawah ini jadi kalimat apa</t>
+  </si>
+  <si>
+    <t>relax in the afternoon the delicious day while gone thinly the brain is really easy to know what the sentence is below</t>
+  </si>
+  <si>
+    <t>26/02/2023 09:09</t>
+  </si>
+  <si>
+    <t>ojikayanya</t>
+  </si>
+  <si>
+    <t>fess gacoan cuma nama resto nya aja mie modelan gitu banyak ditempat lain juga</t>
+  </si>
+  <si>
+    <t>fess gacoan is just the name of the restaurant, there are many modelan noodles in other places too</t>
+  </si>
+  <si>
+    <t>26/02/2023 08:56</t>
+  </si>
+  <si>
+    <t>Ajik_s_w</t>
+  </si>
+  <si>
+    <t>adek adek macak racing touring itu perlu diedukasi dalam berkendara jalan depan mie gacoan itu macet lo parkir kanan kiri udah jalan sempit dipenuhi ama mereka sambil geber arogan blok</t>
+  </si>
+  <si>
+    <t>adek adek macak racing touring needs to be educated in driving the road in front of the gacoan noodles, the traffic jam is jammed right and left, the narrow road is filled with them while the arrogant block</t>
+  </si>
+  <si>
+    <t>emang ganti sih tapi enakan nyebut nama itu masa diganti mie gacoan sama mie hompimpa kurang sreg namanya</t>
+  </si>
+  <si>
+    <t>it's really handsome but it's good to mention that name when it was replaced by gacoan noodles with hompimpa noodles not comfort</t>
+  </si>
+  <si>
+    <t>Ayurinaaa</t>
+  </si>
+  <si>
+    <t>tumben beli mie gacoan masih panas jd enak bgt gak ky karet</t>
+  </si>
+  <si>
+    <t>tumben buy gacoan noodles is still hot so it's really good</t>
+  </si>
+  <si>
+    <t>26/02/2023 07:09</t>
+  </si>
+  <si>
+    <t>seishcu</t>
+  </si>
+  <si>
+    <t>bersenang smbil kepedesan makan mie gacoan</t>
+  </si>
+  <si>
+    <t>have fun</t>
+  </si>
+  <si>
+    <t>Nizuichi_id</t>
+  </si>
+  <si>
+    <t>ga tau kenapa sekarang mie gacoan rasanya lebih ke pedes nya doang padahal cuma pesen lvl  tapi tetep udang keju nya the best sih</t>
+  </si>
+  <si>
+    <t>ga tau kenapa sekarang mie gacoan rasanya lebih ke pedes nya doang padahal cuma pesen lvl tapi tetep udang keju nya the best sih</t>
+  </si>
+  <si>
+    <t>i don't know why now the gacoan noodles taste more spicy even though it's just ordering lvl but still the best cheese shrimp</t>
+  </si>
+  <si>
+    <t>26/02/2023 05:57</t>
+  </si>
+  <si>
+    <t>gimrl</t>
+  </si>
+  <si>
+    <t>mie pedes gacoan yg udah dicicip disuru tuker yg baru</t>
+  </si>
+  <si>
+    <t>gacoan spicy noodles that have been tasted are told to exchange new</t>
+  </si>
+  <si>
+    <t>26/02/2023 05:32</t>
+  </si>
+  <si>
+    <t>topeng_mony3t</t>
+  </si>
+  <si>
+    <t>enakan mie gacoan</t>
+  </si>
+  <si>
+    <t>it's good to be a gacoan noodl</t>
+  </si>
+  <si>
+    <t>26/02/2023 05:26</t>
+  </si>
+  <si>
+    <t>kumsaja</t>
+  </si>
+  <si>
+    <t>fess terserah sender sih tp kalau aku pilih pergi kalau emang pengen banget mie gacoan tinggal pesen pake ojol</t>
+  </si>
+  <si>
+    <t>fess is up to the sender, but if i choose to go if i really want to want to order the noodles, just order using ojol</t>
+  </si>
+  <si>
+    <t>26/02/2023 05:10</t>
+  </si>
+  <si>
+    <t>UNSILMENFESS</t>
+  </si>
+  <si>
+    <t>us ada yang mau bantu isi kuesioner akuu gaaa tentang mie gacoan makasiiihhh</t>
+  </si>
+  <si>
+    <t>Twitter for UNSIL Autobase</t>
+  </si>
+  <si>
+    <t>us anyone who wants to help the contents of the questionnaire akuu gaaa about the noodles of gacoan makasiiihhh</t>
+  </si>
+  <si>
+    <t>convomf</t>
+  </si>
+  <si>
+    <t>haloo boleh tolong bantu aku isi kuesioner ttg mie gacoan butuh  responden lagii sementara deadlinenya malam ini nanti aku qrt yaa guyss makasiihh</t>
+  </si>
+  <si>
+    <t>Hey, ayo minum air putih dulu😤</t>
+  </si>
+  <si>
+    <t>haloo boleh tolong bantu aku isi kuesioner ttg mie gacoan butuh responden lagii sementara deadlinenya malam ini nanti aku qrt yaa guyss makasiihh</t>
+  </si>
+  <si>
+    <t>hello may please help me fill in the questionnaire about gacoan noodles, need more respondents while the deadline tonight will be qrt, guys, then</t>
+  </si>
+  <si>
+    <t>26/02/2023 04:44</t>
+  </si>
+  <si>
+    <t>manusiaduawaktu</t>
+  </si>
+  <si>
+    <t>ic fess aku baru makan mie gacoan x u menghilangkan rasa penasaranku dan setelah makan menurutku u mie nya si sama seperti mie pada umum nya awalnya aku pikir mie nya khas harga terjangkau porsi normal si u rasa menurut ku ngga deh cuma kyk mie dikasih cabe yg di uleg gitu aja</t>
+  </si>
+  <si>
+    <t>ic fess i just ate gacoan x u noodles to get rid of my curiosity and after eating i think the noodles are the same as the noodles in general, at first i thought the noodles were typical of the normal portion of the taste, the taste in my opinion was not just like the noodles were given chili that was uleg chilijust like that</t>
+  </si>
+  <si>
+    <t>mie gacoan nya sungguh menggiurkan banget apalagi udang rambutan</t>
+  </si>
+  <si>
+    <t>gacoan noodles are really tempting especially rambutan shrimp</t>
+  </si>
+  <si>
+    <t>jenoncityx</t>
+  </si>
+  <si>
+    <t>ini enak deh buat nyoba mie gacoan</t>
+  </si>
+  <si>
+    <t>this is good for trying gacoan noodl</t>
+  </si>
+  <si>
+    <t>26/02/2023 04:29</t>
+  </si>
+  <si>
+    <t>vivi3284</t>
+  </si>
+  <si>
+    <t>hahahaha yg baru aku amp stephanus bahas paska mie gacoan</t>
+  </si>
+  <si>
+    <t>hahahaha the new i am amp stephanus discussed after the noodle gacoan</t>
+  </si>
+  <si>
+    <t>26/02/2023 04:23</t>
+  </si>
+  <si>
+    <t>ada gasi yg klo makan mie gacoan kek diare mulu pdhl cmn level  dan gak pedes jatohnya gacoan jadi obat pencahar</t>
+  </si>
+  <si>
+    <t>ada gasi yg klo makan mie gacoan kek diare mulu pdhl cmn level dan gak pedes jatohnya gacoan jadi obat pencahar</t>
+  </si>
+  <si>
+    <t>there is a gasi who eats noodles gacoan kek diarrhea first pdhl cmn level and not spicy fell gacoan so a lax</t>
+  </si>
+  <si>
+    <t>aldigustiw</t>
+  </si>
+  <si>
+    <t>fess ini bukan tentang mie gacoan kan</t>
+  </si>
+  <si>
+    <t>this fess is not about gacoan noodles right</t>
+  </si>
+  <si>
+    <t>Jinggamuuu</t>
+  </si>
+  <si>
+    <t>my st gacoan cuma brani level  dann ini pun udah pedesss tp enakkkk paling suka makanan pedes manis jd inget mie setan di sma dulu akhirnya nemuin versi kekiniannya bakal jd pilihan sih ini pas lg puyeng dan pengen makan pedess</t>
+  </si>
+  <si>
+    <t>my st gacoan cuma brani level dann ini pun udah pedesss tp enakkkk paling suka makanan pedes manis jd inget mie setan di sma dulu akhirnya nemuin versi kekiniannya bakal jd pilihan sih ini pas lg puyeng dan pengen makan pedess</t>
+  </si>
+  <si>
+    <t>my st gacoan is just a brani level and this is already pedesss but it's good to like the sweet spicy food so i remember the devil noodles in high school, finally find the current version of the choice, it will be a choice right when i was panting and want to eat pedess</t>
+  </si>
+  <si>
+    <t>DewiFricilia1</t>
+  </si>
+  <si>
+    <t>yg td nya mau beli gacoan tak tahan dan inget harus hidup frugal jdi beli lah sayur telor mie cuma abis k udah bisa masak porsi ngenyangin lg maklum anak koss gabole sering selfreward</t>
+  </si>
+  <si>
+    <t>those who used to buy a gacoan can't stand and remember to live in frugal so buying vegetable noodles, just after you can cook the portion of the koss gabole, you know, often selfreward</t>
+  </si>
+  <si>
+    <t>26/02/2023 03:22</t>
+  </si>
+  <si>
+    <t>AirAntaka</t>
+  </si>
+  <si>
+    <t>pertama kali makan mie gacoan ya ampun pedes banget mo nangis</t>
+  </si>
+  <si>
+    <t>the first time i eat gacoan noodles, so it's really spici</t>
+  </si>
+  <si>
+    <t>26/02/2023 03:19</t>
+  </si>
+  <si>
+    <t>mingiricarica</t>
+  </si>
+  <si>
+    <t>fess pergi ga seenak itu asli mending cobain dry ramyeon nya mujigae dh mie goreng modelan gacoan tp korean ver gt</t>
+  </si>
+  <si>
+    <t>fess leaves not as good as that original better try the dry ramyeon dh dh fried noodles modelan gacoan but korean ver gt</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:56</t>
+  </si>
+  <si>
+    <t>mie yang kaya mie gacoan di tasik dimana ya bm mie gacoan tapi disini ga ada</t>
+  </si>
+  <si>
+    <t>noodles rich in gacoan noodles in tasik where are bm gacoan noodles but there is no her</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:51</t>
+  </si>
+  <si>
+    <t>djamtjoek</t>
+  </si>
+  <si>
+    <t>nyobain semua menu mie gacoan yg direkomendasi sama teteh cashier mienya pesan mie gacoan level  unfortunately rasanya meh gorengannya enak apalagi yg udang keju minumannya cukup niat dgn harga cm rb ok lah definitely will go back to eat gorengan only</t>
+  </si>
+  <si>
+    <t>nyobain semua menu mie gacoan yg direkomendasi sama teteh cashier mienya pesan mie gacoan level unfortunately rasanya meh gorengannya enak apalagi yg udang keju minumannya cukup niat dgn harga cm rb ok lah definitely will go back to eat gorengan only</t>
+  </si>
+  <si>
+    <t>try all of the recommended gacoan noodle menus with cashier noodles ordered gacoan noodles unfortunately it tastes good, especially the cheese shrimp, the beverage cheese is intentions with the price of cm rb ok, definitely will go back to eat fried food onli</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:49</t>
+  </si>
+  <si>
+    <t>bubblej999</t>
+  </si>
+  <si>
+    <t>bukan mie ayam sih tp kl kamu pgn makan mie ala gacoan gt harganya murah di mie judes aja kalimasada</t>
+  </si>
+  <si>
+    <t>it's not chicken noodles, but if you eat, you eat gaco -style noodles, the price is cheap in judicial noodles.</t>
+  </si>
+  <si>
+    <t>looktheseaa</t>
+  </si>
+  <si>
+    <t>gue sbg mantan babu gacoan kadang masih nggak habis pikir kok bisa mereka rela antri segitu panjang buat mie doang bahkan kadang toko belum buka kasir aja udah ada yg antri</t>
+  </si>
+  <si>
+    <t>i as a former babu gacoan sometimes i still can't help thinking how can they be willing to queue that long for noodles even sometimes the shop hasn't opened the cashier, there is already a queu</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:26</t>
+  </si>
+  <si>
+    <t>shidqifiras</t>
+  </si>
+  <si>
+    <t>msh gapaham sm org yg rela ngantri panjang demi sebongkah mie gacoan yg bukannya gaenak tp ga se spektakuler itu utk pengorbanan mengantri berjam</t>
+  </si>
+  <si>
+    <t>still do not understand people who are willing to queue long for a lump of gacoan noodles that are not gaenak but not as spectacular for sacrific</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:25</t>
+  </si>
+  <si>
+    <t>IonSyukron</t>
+  </si>
+  <si>
+    <t>fess banyak makannan enak selain mie gacoan rame kayak gitu ngabisin waktu</t>
+  </si>
+  <si>
+    <t>stool a lot of delicious food besides gacoan noodles like that like spending tim</t>
+  </si>
+  <si>
+    <t>26/02/2023 02:21</t>
+  </si>
+  <si>
+    <t>dznadr99</t>
+  </si>
+  <si>
+    <t>ada  alasan kenapa gua ga pernah beli mie gacoan pertama pedes kedua belum bersertifikat halal mui</t>
+  </si>
+  <si>
+    <t>ada alasan kenapa gua ga pernah beli mie gacoan pertama pedes kedua belum bersertifikat halal mui</t>
+  </si>
+  <si>
+    <t>there is a reason why i never bought the first spicy gacoan noodle not certified halal mui</t>
+  </si>
+  <si>
+    <t>collegemenfess</t>
+  </si>
+  <si>
+    <t>cm guyssss boleh minta tolong isi kuesioner aku tentang mie gacoan gaaaa deadlinenya hari inii krn besok senin harus udah diolah tapi masih kurang  responden lagiiii nanti aku qrt makasiihh guysss</t>
+  </si>
+  <si>
+    <t>Pakai masker! Stay safe! -Bot-</t>
+  </si>
+  <si>
+    <t>cm guyssss boleh minta tolong isi kuesioner aku tentang mie gacoan gaaaa deadlinenya hari inii krn besok senin harus udah diolah tapi masih kurang responden lagiiii nanti aku qrt makasiihh guysss</t>
+  </si>
+  <si>
+    <t>cm guyssss may ask for help filling my questionnaire about the gacoan noodles gaaaa deadline today because tomorrow monday must be processed but still lacking respondents again later i will be qrt thanks guysss</t>
+  </si>
+  <si>
+    <t>26/02/2023 01:36</t>
+  </si>
+  <si>
+    <t>gueissaya</t>
+  </si>
+  <si>
+    <t>mie gacoan emang enak hyung seret kagak sih makan itu gua liatnya seret</t>
+  </si>
+  <si>
+    <t>gacoan noodles are really good, hyung, i drag it up, i don't eat it, i see it drag</t>
+  </si>
+  <si>
+    <t>25/02/2023 23:11</t>
+  </si>
+  <si>
+    <t>sunyisenyum</t>
+  </si>
+  <si>
+    <t>ini sama banget sih menurut gua gacoan b aja cuman mie gurih ketambahan cabe ekspektasi gua ketinggian enak tapi bukan yg spesial bgt</t>
+  </si>
+  <si>
+    <t>this is really the same, according to me, it's just a tasty noodle, the addition of chili expectations is good but not really speci</t>
+  </si>
+  <si>
+    <t>25/02/2023 21:14</t>
+  </si>
+  <si>
+    <t>leeteukyuta</t>
+  </si>
+  <si>
+    <t>gacoan enak tp gak seenak itu buat antre sepanjang ini sumpah better ke warmindo mie tek tek makan mie nyemek</t>
+  </si>
+  <si>
+    <t>gacoan is delicious but it's not as good as it is to queue as long as i swear better to warmindo noodles tek tek eating noodle noodl</t>
+  </si>
+  <si>
+    <t>25/02/2023 18:29</t>
+  </si>
+  <si>
+    <t>alyatrutmi</t>
+  </si>
+  <si>
+    <t>trs tbtb kepikiran apa enakny cb mie gacoan</t>
+  </si>
+  <si>
+    <t>trs tbtb thinks what is delicious cb gacoan noodl</t>
+  </si>
+  <si>
+    <t>25/02/2023 18:14</t>
+  </si>
+  <si>
+    <t>habibiealwi</t>
+  </si>
+  <si>
+    <t>fess enak sih gacoan tapi kalo gitu kaya gak rela aja buat buang buang waktu demi sebuah mie</t>
+  </si>
+  <si>
+    <t>fess is good, but if it's like that, it's not willing to waste time for a noodl</t>
+  </si>
+  <si>
+    <t>25/02/2023 17:56</t>
+  </si>
+  <si>
+    <t>CLASS1CS_</t>
+  </si>
+  <si>
+    <t>fess pergi keknya sekarang udah banyak deh warung yg jual mie level begini gacoan enak tapi yaudah cukup sekali aja deh makan disitu udang keju nya sih enak asin lada gituu</t>
+  </si>
+  <si>
+    <t>fess goes, now there are many stalls that sell noodles like this, this is delicious, but it's enough, just eating there, the cheese shrimp is delicious, it's salty pepp</t>
+  </si>
+  <si>
+    <t>25/02/2023 17:39</t>
+  </si>
+  <si>
+    <t>h0neymilktea_</t>
+  </si>
+  <si>
+    <t>iyah saosnya beda mie nya enak gacoan tp jiaaa</t>
+  </si>
+  <si>
+    <t>yeah, the sauce is different, the noodles are good</t>
+  </si>
+  <si>
+    <t>25/02/2023 17:30</t>
+  </si>
+  <si>
+    <t>nobodyknowsaiz</t>
+  </si>
+  <si>
+    <t>fess bentar lagi akan muncul quotes lebih baik pergi atau tetap berjuang tapi ini bukan tentang mie gacoan</t>
+  </si>
+  <si>
+    <t>fess will soon appear quotes better or keep struggling but this is not about gacoan noodl</t>
+  </si>
+  <si>
+    <t>25/02/2023 17:08</t>
+  </si>
+  <si>
+    <t>Jageroar</t>
+  </si>
+  <si>
+    <t>gue makan gacoan tadi asli apa gue makan mie lagi ya besok</t>
+  </si>
+  <si>
+    <t>i ate the original gacoan, what did i eat noodles again tomorrow</t>
+  </si>
+  <si>
+    <t>25/02/2023 16:56</t>
+  </si>
+  <si>
+    <t>rismasamsudin_</t>
+  </si>
+  <si>
+    <t>aku pernah kok pas hamil keluar jam  malem saking emosinya daripada ngereog dirumah teriak teriak akhirnya sejaman disusulin suamiku amp ditraktir mie gacoan biar nggak ngereog</t>
+  </si>
+  <si>
+    <t>aku pernah kok pas hamil keluar jam malem saking emosinya daripada ngereog dirumah teriak teriak akhirnya sejaman disusulin suamiku amp ditraktir mie gacoan biar nggak ngereog</t>
+  </si>
+  <si>
+    <t>i once when i got pregnant came out of the evening clock so emotional rather than releasing at home shouting, finally the exclusion followed by my husband amp is tr</t>
+  </si>
+  <si>
+    <t>iciiiw</t>
+  </si>
+  <si>
+    <t>awalnya tuh mo jalan sampe mie gacoan aja cuma dipikir the night still young masih punya spare time banyak sebelum jam biasanya pulang akhirnya w extend lah jaraknya</t>
+  </si>
+  <si>
+    <t>at first, i just walked until the noodles were just thinking about the night still young still had a lot of spare time before the clock usually came home, finally the distance was the dist</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:59</t>
+  </si>
+  <si>
+    <t>new achievement unlocked hari ini judulnya bener jalan karena w jalan kaki dari belokan bubat mie gacoan gt starbak bubat udah itu jalan kaki dari starbak bubat gt samsat bener sih ini estimasinya setengah jam lebih buat yg ke samsat</t>
+  </si>
+  <si>
+    <t>new achievement unlocked today the title is right because i walk from the bubat gt starbak bubak bubat bubat bubak bubat already walking from starbak bubat gt samsat right, this is the estimated more than half an hour for samsat</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:55</t>
+  </si>
+  <si>
+    <t>deeterousin</t>
+  </si>
+  <si>
+    <t>fess weuy ini tempat kaya ga asing nder mie gacoan cabang pamulang ya ini</t>
+  </si>
+  <si>
+    <t>fess weuy this is a familiar place for this pamulang branch gacoan noodl</t>
+  </si>
+  <si>
+    <t>Glibenclamid</t>
+  </si>
+  <si>
+    <t>gatau ya kl skrg bisa cepet tp dulu kl ojol ambil order di mie gacoan bisa  jaman loh kl skrg cepet si alhamdulillah dah</t>
+  </si>
+  <si>
+    <t>gatau ya kl skrg bisa cepet tp dulu kl ojol ambil order di mie gacoan bisa jaman loh kl skrg cepet si alhamdulillah dah</t>
+  </si>
+  <si>
+    <t>i don't know if i can quickly get fast but first if you take an order in the gacoan noodles, you can do it now</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:36</t>
+  </si>
+  <si>
+    <t>luweiwe</t>
+  </si>
+  <si>
+    <t>fess pergi di ytb bnyk cara buat mie gacoan sendiri</t>
+  </si>
+  <si>
+    <t>fess goes on ytb, how many ways to make your own gacoan noodl</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:28</t>
+  </si>
+  <si>
+    <t>uchiha_itachee</t>
+  </si>
+  <si>
+    <t>fess mie gacoan tiap cabang rasanya beda pertama kali makan gacoan di cabang tembalang semarang pesen mie iblis warna nya beneran coklat kecap banyak mie ga tebel ga tipis udang keju gede pangsit crispy bgt pas makan di cabang jakarta kualitasnya beda jauh</t>
+  </si>
+  <si>
+    <t>fess gacoan noodle each branch tastes different first time eating gacoan at tembalang branch semarang ordered the demon noodles in the color of the chocolate soy sauce, lot</t>
+  </si>
+  <si>
+    <t>riantisebayang</t>
+  </si>
+  <si>
+    <t>kemaren orderin mie gacoan buat temen di medan soalnya ga terlalu jauh dari rumah nya nahhhh sekarang aing kepengen juga tapi jauhhhh terus di ojol tutup sementara terus gacoan nya</t>
+  </si>
+  <si>
+    <t>yesterday orderin gacoan noodles for friends in medan because it's not too far from his house, now i want to want to go, but far away, it continues to be closed while the gacoan continu</t>
+  </si>
+  <si>
+    <t>25/02/2023 15:05</t>
+  </si>
+  <si>
+    <t>ardhinkaraya</t>
+  </si>
+  <si>
+    <t>hah untung di citra ada mie semacam ini meskipun brandnya bukan gacoan sedikit mengobatilah yaa pernah mau ke gacoan daerah tebet beuhh ngantri auto bye</t>
+  </si>
+  <si>
+    <t>hah fortunately in citra there is this kind of noodles even though the brand is not a little gacoan to treat you ever want to go to the gacoan area of tebet beuhh ngantri auto by</t>
+  </si>
+  <si>
+    <t>25/02/2023 14:46</t>
+  </si>
+  <si>
+    <t>kartikanormals_</t>
+  </si>
+  <si>
+    <t>udah kebayang grand opening nya mie gacoan bakal se rame apa</t>
+  </si>
+  <si>
+    <t>already imagine the grand opening of the gacoan noodles will be as crowd</t>
+  </si>
+  <si>
+    <t>25/02/2023 14:33</t>
+  </si>
+  <si>
+    <t>scarlet_aya404</t>
+  </si>
+  <si>
+    <t>jujur menurut gw mie gacoan enak tp gak seenak itu buat ampe ngantri berjam</t>
+  </si>
+  <si>
+    <t>honestly, according to me, the gacoan noodles are delicious but it's not as good</t>
   </si>
 </sst>
 </file>
@@ -18442,10 +20413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1785"/>
+  <dimension ref="A1:G1954"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1158" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1174" sqref="C1174"/>
+    <sheetView tabSelected="1" topLeftCell="A1791" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A1786" sqref="A1786:G1786"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -59510,6 +61481,3893 @@
         <v>21</v>
       </c>
     </row>
+    <row r="1786" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1786" t="s">
+        <v>6020</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>6021</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>6022</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>6022</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>6023</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1787" t="s">
+        <v>6024</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>6025</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>6026</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>6026</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>6027</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1788" t="s">
+        <v>6028</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>6029</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>6030</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>6030</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>6031</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1789" t="s">
+        <v>6032</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>6033</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>6034</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>6034</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>6035</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1790" t="s">
+        <v>6036</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>6037</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>6038</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>6039</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>6040</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1791" t="s">
+        <v>6041</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>6042</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>6043</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>6043</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>6044</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1792" t="s">
+        <v>6045</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>6047</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>6048</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1793" t="s">
+        <v>6049</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>6050</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>6051</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>6051</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>6052</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1794" t="s">
+        <v>6053</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>6054</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>6055</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>6055</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>6056</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1795" t="s">
+        <v>6057</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>6058</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>6059</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>6059</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>6060</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1796" t="s">
+        <v>6061</v>
+      </c>
+      <c r="B1796" t="s">
+        <v>6062</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>6063</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>6063</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>6064</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1797" t="s">
+        <v>6065</v>
+      </c>
+      <c r="B1797" t="s">
+        <v>6066</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>6067</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>6067</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>6068</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1798" t="s">
+        <v>6069</v>
+      </c>
+      <c r="B1798" t="s">
+        <v>6070</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>6071</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>6071</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>6072</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1799" t="s">
+        <v>6069</v>
+      </c>
+      <c r="B1799" t="s">
+        <v>6070</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>6073</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>6073</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>6074</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1800" t="s">
+        <v>6075</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>6076</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>6077</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>6077</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>6078</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1801" t="s">
+        <v>6079</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>6080</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>6081</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>6082</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>6083</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1802" t="s">
+        <v>6084</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>6080</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>6085</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>6085</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>6086</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1803" t="s">
+        <v>6087</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>6088</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>6089</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>6089</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>6090</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1804" t="s">
+        <v>6091</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>6092</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>6093</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>6093</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>6094</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1805" t="s">
+        <v>6095</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>6096</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>6097</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>6097</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>6098</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1806" t="s">
+        <v>6099</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>6100</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>6101</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>6102</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>6103</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1807" t="s">
+        <v>6104</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>6105</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>6106</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>6106</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>6107</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1808" t="s">
+        <v>6108</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>6109</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>6110</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>6111</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>6112</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1809" t="s">
+        <v>6113</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>6114</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>6115</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>6115</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>6116</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1810" t="s">
+        <v>6117</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>6118</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>6119</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>6119</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>6120</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1811" t="s">
+        <v>6121</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>6122</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>6123</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>6123</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>6124</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1812" t="s">
+        <v>6125</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>6126</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>6127</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>6127</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>6128</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1813" t="s">
+        <v>6129</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>6130</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>6131</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>6131</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>6132</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1814" t="s">
+        <v>6133</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>6134</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>6135</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>6135</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>6136</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1815" t="s">
+        <v>6137</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>6138</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>6139</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>6140</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>6141</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1816" t="s">
+        <v>6142</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>6144</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>6144</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>6145</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1817" t="s">
+        <v>6146</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>6147</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>6148</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>6148</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>6149</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1818" t="s">
+        <v>6150</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>6151</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>6152</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>6152</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>6153</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1819" t="s">
+        <v>6154</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>6155</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>6156</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>6156</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>6157</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1820" t="s">
+        <v>6158</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>6159</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>6160</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>6161</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>6162</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1821" t="s">
+        <v>6163</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>6164</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>6165</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>6165</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>6166</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1822" t="s">
+        <v>6167</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>6168</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>6169</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>6170</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>6171</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1823" t="s">
+        <v>6172</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>6173</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>6174</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>6174</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>6175</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1824" t="s">
+        <v>6176</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>6177</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>6178</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>6179</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>6180</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1825" t="s">
+        <v>6181</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>6182</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>6183</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>6184</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>6185</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1826" t="s">
+        <v>6186</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>6187</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>6188</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>6189</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>6190</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1827" t="s">
+        <v>6191</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>6192</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>6193</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>6193</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>6194</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1828" t="s">
+        <v>6195</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>6197</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>6198</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>6199</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1829" t="s">
+        <v>6200</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>6196</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>6201</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>6201</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>6202</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1830" t="s">
+        <v>6203</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>6204</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>6205</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>6205</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>6206</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1831" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>6207</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>6208</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>6208</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>6209</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1832" t="s">
+        <v>6210</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>6211</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>6212</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>6212</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>6213</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1833" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>6214</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>6215</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>6215</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>6216</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1834" t="s">
+        <v>6217</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>6218</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>6219</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>6220</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>6219</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>6221</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1835" t="s">
+        <v>6222</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>6223</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>6224</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>6225</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>6226</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1836" t="s">
+        <v>6227</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>6228</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>6229</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>6230</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>6231</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1837" t="s">
+        <v>6232</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>6233</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>6234</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>6234</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>6235</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1838" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>6236</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>6237</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>6237</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>6238</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1839" t="s">
+        <v>6239</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>6240</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>6241</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>6241</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>6242</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1840" t="s">
+        <v>6243</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>6244</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>6245</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>6246</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>6247</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>6248</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1841" t="s">
+        <v>6249</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>6250</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>6251</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>6251</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>6252</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1842" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>6253</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>6254</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>6254</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>6255</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1843" t="s">
+        <v>6256</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>6257</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>6258</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>6258</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>6259</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1844" t="s">
+        <v>5052</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>6260</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>6260</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>6261</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1845" t="s">
+        <v>6262</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>6263</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>6264</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>6264</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>6265</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1846" t="s">
+        <v>6266</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>6267</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>6268</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>6269</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>6270</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1847" t="s">
+        <v>6271</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>5117</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>6272</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>6272</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>6273</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1848" t="s">
+        <v>6274</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>6275</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>6276</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>6277</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>6276</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>6278</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1849" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>6279</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>6280</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>6280</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>6281</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1850" t="s">
+        <v>6282</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>6284</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>6285</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>6286</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1851" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>6287</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>6287</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>6288</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1852" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>6289</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>6290</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>6290</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>6291</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1853" t="s">
+        <v>6292</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>6293</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>6294</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>6294</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>6295</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1854" t="s">
+        <v>6296</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>6297</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>6298</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>6298</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>6299</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1855" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>6300</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>6301</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>6301</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>6302</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1856" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>6303</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>6304</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>6304</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>6305</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1857" t="s">
+        <v>4439</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>6054</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>6306</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>6306</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>6307</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1858" t="s">
+        <v>6308</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>6309</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>6309</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>6310</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1859" t="s">
+        <v>6311</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>6054</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>6312</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>6312</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>6313</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1860" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>6314</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>6315</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>6315</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>6316</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1861" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>6317</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>6318</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>6318</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>6319</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1862" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>6283</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>6320</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>6320</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>6321</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1863" t="s">
+        <v>6322</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>6323</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>6323</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>6324</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1864" t="s">
+        <v>511</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>6325</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>6325</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>6326</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1865" t="s">
+        <v>6327</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>6328</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>6329</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>6330</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1866" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>6331</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>6332</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>6332</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>6333</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1867" t="s">
+        <v>6334</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>6335</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>6336</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>6336</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>6337</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1868" t="s">
+        <v>6338</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>6339</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>6340</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>6341</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>6340</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>6342</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1869" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>6343</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>6344</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>6344</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>6345</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1870" t="s">
+        <v>6346</v>
+      </c>
+      <c r="B1870" t="s">
+        <v>6347</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>6348</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>6348</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>6349</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1871" t="s">
+        <v>6350</v>
+      </c>
+      <c r="B1871" t="s">
+        <v>6351</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>6352</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>6352</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>6353</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1872" t="s">
+        <v>6354</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>6355</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>6356</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>6357</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>6358</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1873" t="s">
+        <v>6359</v>
+      </c>
+      <c r="B1873" t="s">
+        <v>6360</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>6361</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>6361</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>6362</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1874" t="s">
+        <v>6363</v>
+      </c>
+      <c r="B1874" t="s">
+        <v>6126</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>6364</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>6365</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>6366</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1875" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>6367</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>6368</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>6368</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>6369</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1876" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>6370</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>6371</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>6371</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>6372</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1877" t="s">
+        <v>604</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>6373</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>6374</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>6374</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>6375</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1878" t="s">
+        <v>6376</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>6377</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>6378</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>6378</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>6379</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1879" t="s">
+        <v>6380</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>6381</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>6382</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>6383</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>6384</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1880" t="s">
+        <v>6385</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>6386</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>6387</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>6388</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>6389</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1881" t="s">
+        <v>6390</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>6391</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>6392</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>6393</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>6394</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1882" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>6395</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>6396</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>6396</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>6397</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1883" t="s">
+        <v>6398</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>6399</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>6400</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>6400</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>6401</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1884" t="s">
+        <v>6402</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>6403</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>6404</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>6404</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>6405</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1885" t="s">
+        <v>6406</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>6407</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>6408</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>6408</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>6409</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1886" t="s">
+        <v>6410</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>6411</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>6412</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>6412</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>6413</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1887" t="s">
+        <v>6414</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>6415</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>6416</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>6416</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>6417</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1888" t="s">
+        <v>6418</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>6419</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>6420</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>6421</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>6422</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1889" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>6423</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>6424</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>6424</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>6425</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1890" t="s">
+        <v>6426</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>6427</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>6428</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>6428</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>6429</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1891" t="s">
+        <v>6430</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>6431</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>6432</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>6433</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>6434</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1892" t="s">
+        <v>6435</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>6436</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>6437</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>6437</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>6438</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1893" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>6439</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>6440</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>6440</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>6441</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1894" t="s">
+        <v>710</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>6442</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>6443</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>6443</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>6444</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1895" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>6446</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>6447</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>6447</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>6448</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1896" t="s">
+        <v>6445</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>6449</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>6450</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>6450</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>6451</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1897" t="s">
+        <v>6452</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>6453</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>6454</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>6455</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>6456</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1898" t="s">
+        <v>6457</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>6458</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>6459</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>6459</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>6460</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1899" t="s">
+        <v>6461</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>6462</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>6463</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>6463</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>6464</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1900" t="s">
+        <v>6465</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>6466</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>6467</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>6467</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>6468</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1901" t="s">
+        <v>6469</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>6470</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>6471</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>6471</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>6472</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1902" t="s">
+        <v>6473</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>6474</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>6475</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>6475</v>
+      </c>
+      <c r="F1902" t="s">
+        <v>6476</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1903" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>6477</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>6478</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>6479</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>6480</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>6481</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1904" t="s">
+        <v>748</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>6482</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>6483</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>6482</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>6484</v>
+      </c>
+      <c r="F1904" t="s">
+        <v>6485</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1905" t="s">
+        <v>764</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>6143</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>6486</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>6486</v>
+      </c>
+      <c r="F1905" t="s">
+        <v>6487</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1906" t="s">
+        <v>6488</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>6489</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>6490</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>6490</v>
+      </c>
+      <c r="F1906" t="s">
+        <v>6491</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1907" t="s">
+        <v>6492</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>6493</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>6494</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>6494</v>
+      </c>
+      <c r="F1907" t="s">
+        <v>6495</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1908" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B1908" t="s">
+        <v>6126</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>6496</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>6496</v>
+      </c>
+      <c r="F1908" t="s">
+        <v>6497</v>
+      </c>
+      <c r="G1908" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1909" t="s">
+        <v>5728</v>
+      </c>
+      <c r="B1909" t="s">
+        <v>6498</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>6499</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>6499</v>
+      </c>
+      <c r="F1909" t="s">
+        <v>6500</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1910" t="s">
+        <v>6501</v>
+      </c>
+      <c r="B1910" t="s">
+        <v>6502</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>6503</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>6503</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>6504</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1911" t="s">
+        <v>878</v>
+      </c>
+      <c r="B1911" t="s">
+        <v>6505</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>6506</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>6507</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>6508</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1912" t="s">
+        <v>6509</v>
+      </c>
+      <c r="B1912" t="s">
+        <v>6510</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>6511</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>6511</v>
+      </c>
+      <c r="F1912" t="s">
+        <v>6512</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1913" t="s">
+        <v>6513</v>
+      </c>
+      <c r="B1913" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>6515</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>6515</v>
+      </c>
+      <c r="F1913" t="s">
+        <v>6516</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1914" t="s">
+        <v>6517</v>
+      </c>
+      <c r="B1914" t="s">
+        <v>6518</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>6519</v>
+      </c>
+      <c r="F1914" t="s">
+        <v>6520</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1915" t="s">
+        <v>6521</v>
+      </c>
+      <c r="B1915" t="s">
+        <v>6522</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>6523</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>6524</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>6523</v>
+      </c>
+      <c r="F1915" t="s">
+        <v>6525</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1916" t="s">
+        <v>914</v>
+      </c>
+      <c r="B1916" t="s">
+        <v>6526</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>6527</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>6528</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>6529</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>6530</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1917" t="s">
+        <v>6531</v>
+      </c>
+      <c r="B1917" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>6533</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>6533</v>
+      </c>
+      <c r="F1917" t="s">
+        <v>6534</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1918" t="s">
+        <v>3512</v>
+      </c>
+      <c r="B1918" t="s">
+        <v>6453</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>6535</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>6535</v>
+      </c>
+      <c r="F1918" t="s">
+        <v>6536</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1919" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B1919" t="s">
+        <v>6537</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>6538</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>6538</v>
+      </c>
+      <c r="F1919" t="s">
+        <v>6539</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1920" t="s">
+        <v>6540</v>
+      </c>
+      <c r="B1920" t="s">
+        <v>6541</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>6542</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>6542</v>
+      </c>
+      <c r="F1920" t="s">
+        <v>6543</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1921" t="s">
+        <v>6544</v>
+      </c>
+      <c r="B1921" t="s">
+        <v>6514</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>6545</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>6546</v>
+      </c>
+      <c r="F1921" t="s">
+        <v>6547</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1922" t="s">
+        <v>940</v>
+      </c>
+      <c r="B1922" t="s">
+        <v>6548</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>6549</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>6549</v>
+      </c>
+      <c r="F1922" t="s">
+        <v>6550</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1923" t="s">
+        <v>3520</v>
+      </c>
+      <c r="B1923" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>6552</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>6553</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>6554</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1924" t="s">
+        <v>5498</v>
+      </c>
+      <c r="B1924" t="s">
+        <v>6555</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>6556</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>6556</v>
+      </c>
+      <c r="F1924" t="s">
+        <v>6557</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1925" t="s">
+        <v>6558</v>
+      </c>
+      <c r="B1925" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>6560</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>6560</v>
+      </c>
+      <c r="F1925" t="s">
+        <v>6561</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1926" t="s">
+        <v>6562</v>
+      </c>
+      <c r="B1926" t="s">
+        <v>6563</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>6564</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>6564</v>
+      </c>
+      <c r="F1926" t="s">
+        <v>6565</v>
+      </c>
+      <c r="G1926" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1927" t="s">
+        <v>6566</v>
+      </c>
+      <c r="B1927" t="s">
+        <v>6522</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>6567</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>6524</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>6567</v>
+      </c>
+      <c r="F1927" t="s">
+        <v>6568</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1928" t="s">
+        <v>6569</v>
+      </c>
+      <c r="B1928" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>6571</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>6572</v>
+      </c>
+      <c r="F1928" t="s">
+        <v>6573</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1929" t="s">
+        <v>6574</v>
+      </c>
+      <c r="B1929" t="s">
+        <v>6575</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>6576</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>6576</v>
+      </c>
+      <c r="F1929" t="s">
+        <v>6577</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1930" t="s">
+        <v>980</v>
+      </c>
+      <c r="B1930" t="s">
+        <v>6578</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>6579</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>6579</v>
+      </c>
+      <c r="F1930" t="s">
+        <v>6580</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1931" t="s">
+        <v>6581</v>
+      </c>
+      <c r="B1931" t="s">
+        <v>6582</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>6583</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>6583</v>
+      </c>
+      <c r="F1931" t="s">
+        <v>6584</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1932" t="s">
+        <v>6585</v>
+      </c>
+      <c r="B1932" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>6587</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>6587</v>
+      </c>
+      <c r="F1932" t="s">
+        <v>6588</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1933" t="s">
+        <v>6589</v>
+      </c>
+      <c r="B1933" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>6591</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>6592</v>
+      </c>
+      <c r="F1933" t="s">
+        <v>6593</v>
+      </c>
+      <c r="G1933" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1934" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B1934" t="s">
+        <v>6594</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>6595</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>6596</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>6597</v>
+      </c>
+      <c r="F1934" t="s">
+        <v>6598</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1935" t="s">
+        <v>6599</v>
+      </c>
+      <c r="B1935" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>6601</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>6601</v>
+      </c>
+      <c r="F1935" t="s">
+        <v>6602</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1936" t="s">
+        <v>6603</v>
+      </c>
+      <c r="B1936" t="s">
+        <v>6604</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>6605</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>6605</v>
+      </c>
+      <c r="F1936" t="s">
+        <v>6606</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1937" t="s">
+        <v>6607</v>
+      </c>
+      <c r="B1937" t="s">
+        <v>6608</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>6609</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>6609</v>
+      </c>
+      <c r="F1937" t="s">
+        <v>6610</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1938" t="s">
+        <v>6611</v>
+      </c>
+      <c r="B1938" t="s">
+        <v>6612</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>6613</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>6613</v>
+      </c>
+      <c r="F1938" t="s">
+        <v>6614</v>
+      </c>
+      <c r="G1938" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1939" t="s">
+        <v>6615</v>
+      </c>
+      <c r="B1939" t="s">
+        <v>6616</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>6617</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>6617</v>
+      </c>
+      <c r="F1939" t="s">
+        <v>6618</v>
+      </c>
+      <c r="G1939" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1940" t="s">
+        <v>6619</v>
+      </c>
+      <c r="B1940" t="s">
+        <v>6620</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>6621</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>6621</v>
+      </c>
+      <c r="F1940" t="s">
+        <v>6622</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1941" t="s">
+        <v>6623</v>
+      </c>
+      <c r="B1941" t="s">
+        <v>6624</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>6625</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>6625</v>
+      </c>
+      <c r="F1941" t="s">
+        <v>6626</v>
+      </c>
+      <c r="G1941" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1942" t="s">
+        <v>6627</v>
+      </c>
+      <c r="B1942" t="s">
+        <v>6628</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>6629</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>6629</v>
+      </c>
+      <c r="F1942" t="s">
+        <v>6630</v>
+      </c>
+      <c r="G1942" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1943" t="s">
+        <v>6631</v>
+      </c>
+      <c r="B1943" t="s">
+        <v>6632</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>6633</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>6633</v>
+      </c>
+      <c r="F1943" t="s">
+        <v>6634</v>
+      </c>
+      <c r="G1943" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1944" t="s">
+        <v>6635</v>
+      </c>
+      <c r="B1944" t="s">
+        <v>6636</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>6637</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>6638</v>
+      </c>
+      <c r="F1944" t="s">
+        <v>6639</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1945" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B1945" t="s">
+        <v>6640</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>6641</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>6641</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>6642</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1946" t="s">
+        <v>6643</v>
+      </c>
+      <c r="B1946" t="s">
+        <v>6640</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>6644</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>6644</v>
+      </c>
+      <c r="F1946" t="s">
+        <v>6645</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1947" t="s">
+        <v>6646</v>
+      </c>
+      <c r="B1947" t="s">
+        <v>6647</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>6648</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>6648</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>6649</v>
+      </c>
+      <c r="G1947" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1948" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B1948" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>6651</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>6652</v>
+      </c>
+      <c r="F1948" t="s">
+        <v>6653</v>
+      </c>
+      <c r="G1948" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1949" t="s">
+        <v>6654</v>
+      </c>
+      <c r="B1949" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>6656</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>6656</v>
+      </c>
+      <c r="F1949" t="s">
+        <v>6657</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1950" t="s">
+        <v>6658</v>
+      </c>
+      <c r="B1950" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>6660</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>6660</v>
+      </c>
+      <c r="F1950" t="s">
+        <v>6661</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1951" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B1951" t="s">
+        <v>6662</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>6663</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>6663</v>
+      </c>
+      <c r="F1951" t="s">
+        <v>6664</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1952" t="s">
+        <v>6665</v>
+      </c>
+      <c r="B1952" t="s">
+        <v>6666</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>6667</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>6667</v>
+      </c>
+      <c r="F1952" t="s">
+        <v>6668</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1953" t="s">
+        <v>6669</v>
+      </c>
+      <c r="B1953" t="s">
+        <v>6670</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>6671</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>6671</v>
+      </c>
+      <c r="F1953" t="s">
+        <v>6672</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1954" t="s">
+        <v>6673</v>
+      </c>
+      <c r="B1954" t="s">
+        <v>6674</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>6675</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>6675</v>
+      </c>
+      <c r="F1954" t="s">
+        <v>6676</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
+++ b/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/Twitter-Sentiment-Analysis-with-Streamlit/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3596558C-60B8-8240-9E14-37C9917FE3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0163F3E2-B003-5A4B-8191-9E5C8F0586D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13678" uniqueCount="6677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13055" uniqueCount="6331">
   <si>
     <t>tweetcreatedts</t>
   </si>
@@ -19013,1044 +19013,6 @@
   </si>
   <si>
     <t>mimin today moving gaess mie gacoan solo manahan will move to colomadu yuk ramein grand opening monday, jl adi sucipto colomadu karanganyar dine in take away grabfood shopeefood and gofood gacoansolo</t>
-  </si>
-  <si>
-    <t>debbytrii</t>
-  </si>
-  <si>
-    <t>sekarang tiap habis makan pedes ga lama pasti sakit perut ah skg uda ga bisa makan pedes lagi huaaa sadd bye mie gacoan mie setan samyang buldak</t>
-  </si>
-  <si>
-    <t>now every time you eat spicy, you will definitely have a stomachache, right now, i can't eat spicy anymore, huaaa sadd bye noodles gacoan noodles devil samyang buldak</t>
-  </si>
-  <si>
-    <t>27/02/2023 01:08</t>
-  </si>
-  <si>
-    <t>lpgallbase</t>
-  </si>
-  <si>
-    <t>all mie dupe gacoan di balam yg enak dmana yaaaaa</t>
-  </si>
-  <si>
-    <t>all noodles dupe gacoan in a delicious balam where yaaaaa</t>
-  </si>
-  <si>
-    <t>27/02/2023 00:48</t>
-  </si>
-  <si>
-    <t>KediriFess</t>
-  </si>
-  <si>
-    <t>enaknya beli seblak atau mie gacoan cah</t>
-  </si>
-  <si>
-    <t>Harmoni Kediri Lagi</t>
-  </si>
-  <si>
-    <t>it's good to buy seblak or cah gacoan noodl</t>
-  </si>
-  <si>
-    <t>huihuimoon96</t>
-  </si>
-  <si>
-    <t>udah lamaaaa beberapa bulan yang lalu honestly mie semacam mie gacoan di tempatku buanyak rasanya jujur gak jauh beda makanya aku sekali nyoba gacoan udah gak penasaran soalnya aku bisa order sendiri deket rumah yang rasanya sama enaknya</t>
-  </si>
-  <si>
-    <t>it's been a long time a few months ago honestly noodles such as gacoan noodles in my place, a lot of it feels honest not much different, so i tried the gacoan, it's not curious because i can order myself near the house that feels the same delici</t>
-  </si>
-  <si>
-    <t>26/02/2023 16:38</t>
-  </si>
-  <si>
-    <t>bubuyyni</t>
-  </si>
-  <si>
-    <t>doi ngasih tau mie gacoan deket bgt dari rumah dia</t>
-  </si>
-  <si>
-    <t>doi tells me to get a gacoan noodle near his hous</t>
-  </si>
-  <si>
-    <t>26/02/2023 16:26</t>
-  </si>
-  <si>
-    <t>tea22542200</t>
-  </si>
-  <si>
-    <t>tb aku lupa tanggalnya ak ingat hanyalah kejadiannya terimakasih sdah mencoba mie gacoan malam itu panjang banget yaaa mmm malam itu aku jadi tau sisi jogja yang lain dan bagus banget citylight nya aku jadi tau kalau ada gunung lain yg kelihatan selain gunung merapi</t>
-  </si>
-  <si>
-    <t>tb i forgot the date i remember just the incident, thank you for trying the noodle noodles that night was really long, huh that night i knew the other side of jogja and the citylight was really good.</t>
-  </si>
-  <si>
-    <t>26/02/2023 16:22</t>
-  </si>
-  <si>
-    <t>ginamayori98</t>
-  </si>
-  <si>
-    <t>ku lvl  suamiku lvl  haha emg ga suka pedes sih btw ini cobain cabang baru di dom ku mie yg gacoan kurang kecap sama pol sih bumbunya ga kaya di cabang lama</t>
-  </si>
-  <si>
-    <t>ku lvl suamiku lvl haha emg ga suka pedes sih btw ini cobain cabang baru di dom ku mie yg gacoan kurang kecap sama pol sih bumbunya ga kaya di cabang lama</t>
-  </si>
-  <si>
-    <t>i lvl my husband lvl haha, i don't like spicy, but i try this new branch in my dom, the noodles are not soy sauce with the pol.</t>
-  </si>
-  <si>
-    <t>26/02/2023 16:15</t>
-  </si>
-  <si>
-    <t>redrousesz</t>
-  </si>
-  <si>
-    <t>samaaaan enak kan aku juga suka mie gacoan dilihat lihat kayanya kita suka makanan yang pedas pedas kamu kalau makan mie gacoan yang level berapa dre</t>
-  </si>
-  <si>
-    <t>it's good, i also like gacoan noodles, seen seeing it, we like your spicy food if you eat gacoan noodles.</t>
-  </si>
-  <si>
-    <t>26/02/2023 16:04</t>
-  </si>
-  <si>
-    <t>sumpah dulu aku sering makan indomie mie aceh itu sekarang jarang puas banget itu kamu dipakein  telor kalo aku sih paling suka mie gacoan kamu suka juga nggak</t>
-  </si>
-  <si>
-    <t>sumpah dulu aku sering makan indomie mie aceh itu sekarang jarang puas banget itu kamu dipakein telor kalo aku sih paling suka mie gacoan kamu suka juga nggak</t>
-  </si>
-  <si>
-    <t>i swear i often eat indomie aceh noodles, now it's rarely satisfied, you are using egg</t>
-  </si>
-  <si>
-    <t>bucindrum</t>
-  </si>
-  <si>
-    <t>di sawangan mau ada mie gacoan makin macet aja hhhhhh</t>
-  </si>
-  <si>
-    <t>in sawangan, i want a gacoan noodle to get more jammed hhhhhh</t>
-  </si>
-  <si>
-    <t>1stmilkkisses</t>
-  </si>
-  <si>
-    <t>ini dibandingin pedesnya sama mie apa nder samyang atau gacoan biar lebih mudengg pedesnya segimana</t>
-  </si>
-  <si>
-    <t>this is compared to the spicy noodles with samyang or gacoan to make it more spici</t>
-  </si>
-  <si>
-    <t>aldigunawanreal</t>
-  </si>
-  <si>
-    <t>fess yg org makan mie gacoan aja aneh mending bikin mie sendiri buat kreasi sendiri lebih memuaskan</t>
-  </si>
-  <si>
-    <t>fess who eats gacoan noodles is weird, it's better to make your own noodles for your own creations more satisfi</t>
-  </si>
-  <si>
-    <t>26/02/2023 15:04</t>
-  </si>
-  <si>
-    <t>moonzhong_</t>
-  </si>
-  <si>
-    <t>eh aku belum pernah coba ituu mie gacoan enak nggak</t>
-  </si>
-  <si>
-    <t>eh, i've never tried that, it's a good gacoan noodl</t>
-  </si>
-  <si>
-    <t>26/02/2023 14:39</t>
-  </si>
-  <si>
-    <t>isarewho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gapapaa wkwkwkw kabupatenku berbeda soalnya justru di sini serba ada banget mana bener bener deket banget juga mall bioskop wingz o wingz richeese chatime xiboba mie gacoan mcd pizza hut kopi kenangan janji jiwa domino pizza crisbar minimart gt  mixue </t>
-  </si>
-  <si>
-    <t>gapapaa wkwkwkw kabupatenku berbeda soalnya justru di sini serba ada banget mana bener bener deket banget juga mall bioskop wingz o wingz richeese chatime xiboba mie gacoan mcd pizza hut kopi kenangan janji jiwa domino pizza crisbar minimart gt mixue</t>
-  </si>
-  <si>
-    <t>it's okay, my district is different, because it's really all there.</t>
-  </si>
-  <si>
-    <t>26/02/2023 14:14</t>
-  </si>
-  <si>
-    <t>shiniczhiro</t>
-  </si>
-  <si>
-    <t>iya emang ya lumayan bgt lah buat harga  ribuan udh dapet mie pangsit yg bikin kenyang makanya suka agak gimana gtu kalau liat di tl orang orang pada bilang overrated jadi ngerasa kaya apa gue aneh ya suka gacoan kok yg lain banyak yg gasuka</t>
-  </si>
-  <si>
-    <t>iya emang ya lumayan bgt lah buat harga ribuan udh dapet mie pangsit yg bikin kenyang makanya suka agak gimana gtu kalau liat di tl orang orang pada bilang overrated jadi ngerasa kaya apa gue aneh ya suka gacoan kok yg lain banyak yg gasuka</t>
-  </si>
-  <si>
-    <t>yes, it's really pretty much for the price of thousands of dumpling noodles that make you full, so i like it a bit like that if you see in tl, people say overrate so i feel like i am weird, i like gacoan, how many others are gasuka</t>
-  </si>
-  <si>
-    <t>26/02/2023 14:00</t>
-  </si>
-  <si>
-    <t>mtprsdn_</t>
-  </si>
-  <si>
-    <t>tadi makan mie gacoan lvl  hahaa langsung nyeri ulu hati</t>
-  </si>
-  <si>
-    <t>tadi makan mie gacoan lvl hahaa langsung nyeri ulu hati</t>
-  </si>
-  <si>
-    <t>eating gacoan noodles level hahaha immediately heartburn</t>
-  </si>
-  <si>
-    <t>satuurdaychill</t>
-  </si>
-  <si>
-    <t>mie gacoan enak gaksih jujur nanya</t>
-  </si>
-  <si>
-    <t>gacoan noodle delicious gaksih honest ask</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:54</t>
-  </si>
-  <si>
-    <t>TheLicensedWeeb</t>
-  </si>
-  <si>
-    <t>terlalu banyak makan gacoan dan kayaknya untuk sementara ini gua ga mau nyentuh hal hal yang berbentuk mie dah gumoh aeng</t>
-  </si>
-  <si>
-    <t>eating too much gacoan and i think for the time being i don't want to touch things in the form of noodles and spit up</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:49</t>
-  </si>
-  <si>
-    <t>kiosyoshi</t>
-  </si>
-  <si>
-    <t>tp q gak terlalu suka gacoan enakan mie ayam biasa gt yg boros di kopi q pusing klo g ngopi</t>
-  </si>
-  <si>
-    <t>but i don't really like the gacoan, it's good for ordinary chicken noodles to be wasteful in coffee q dizzy if i don't have coffe</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:39</t>
-  </si>
-  <si>
-    <t>auliarahmah99</t>
-  </si>
-  <si>
-    <t>bukan ges ada tuh mie mie an di pbg mirip gacoan gitu endul pol bumbunya kyk rich bgt worth to try sih kataku wkwk</t>
-  </si>
-  <si>
-    <t>it's not ges, there is a noodle noodle in pbg similar to a gacoan so the spice polish is like a rich worth to tri</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:33</t>
-  </si>
-  <si>
-    <t>renascenne</t>
-  </si>
-  <si>
-    <t>mie gacoan jujur abang lagi pingin banget itu tapi kagak ada disini</t>
-  </si>
-  <si>
-    <t>gacoan noodles honestly brother really want to be like that but not her</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:31</t>
-  </si>
-  <si>
-    <t>fauzyputra90</t>
-  </si>
-  <si>
-    <t>baru mau ke mie gacoan malah ujan deres banget</t>
-  </si>
-  <si>
-    <t>i just wanted to go to the gacoan noodles, instead it was very test</t>
-  </si>
-  <si>
-    <t>26/02/2023 13:13</t>
-  </si>
-  <si>
-    <t>AGX15S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apalagi ama kripik ghost pepper pedesnya nagih klo aku sih kecuali mie ghost papper trauma bgt pas lihat org makan mie ghost pepper aja pedesnya nylekit serasa makan mie gacoan lvl </t>
-  </si>
-  <si>
-    <t>apalagi ama kripik ghost pepper pedesnya nagih klo aku sih kecuali mie ghost papper trauma bgt pas lihat org makan mie ghost pepper aja pedesnya nylekit serasa makan mie gacoan lvl</t>
-  </si>
-  <si>
-    <t>moreover, the name of the spicy pepper ghost chips is nagging if i am except for the ghost papper noodles, it's really good when i see people eating ghost pepper noodles, spici</t>
-  </si>
-  <si>
-    <t>4vitrii</t>
-  </si>
-  <si>
-    <t>udang keju mie gacoan enak bgt why</t>
-  </si>
-  <si>
-    <t>gacoan noodle cheese shrimp, really good</t>
-  </si>
-  <si>
-    <t>26/02/2023 12:30</t>
-  </si>
-  <si>
-    <t>medanfess_</t>
-  </si>
-  <si>
-    <t>wak kata kawan kawan lah ya mie gacoan itu enak kali kira kira untuk orang yang first time nyobak enak nya beli dimana ya wak</t>
-  </si>
-  <si>
-    <t>wak said my friend was mie gacoan that was a good idea for the first time he was good at buying where he wa</t>
-  </si>
-  <si>
-    <t>26/02/2023 12:16</t>
-  </si>
-  <si>
-    <t>pardonwwn</t>
-  </si>
-  <si>
-    <t>gue rela bayar ongkir  rb buat ojol daripada harus stres ngeliatin pemandangan staff crew gacoan ngeracik mie mondar mandir berharap cemas nama gue dipanggil</t>
-  </si>
-  <si>
-    <t>gue rela bayar ongkir rb buat ojol daripada harus stres ngeliatin pemandangan staff crew gacoan ngeracik mie mondar mandir berharap cemas nama gue dipanggil</t>
-  </si>
-  <si>
-    <t>i am willing to pay rb postage for ojol instead of having to stress looking at the view of the staff crew gacoan chicking noodl</t>
-  </si>
-  <si>
-    <t>26/02/2023 11:51</t>
-  </si>
-  <si>
-    <t>rwacundunia</t>
-  </si>
-  <si>
-    <t>jujur gua baru tau gacoan itu buka jam tp siapa yg mau mkan mie pedes jam subuh ya</t>
-  </si>
-  <si>
-    <t>honestly, i just found out that the gacoan was open, but who wanted to be spicy noodles at dawn</t>
-  </si>
-  <si>
-    <t>llina_0ju</t>
-  </si>
-  <si>
-    <t>fess pergi aja nder gacoan ga se worthit itu kalo harus nunggu ber jam jam emangsih harganya murah dan mie nya lumayan enak tapi kalo sampe nunggu ber jam jam rasanya hah cuma dapet ini doang wkwkw</t>
-  </si>
-  <si>
-    <t>fess just go, nder gacoan isn't worth it if you have to wait for the hour time, it's cheap and the noodles are pretty good, but if you wait for the hour, it feels like you just get this, it's onli</t>
-  </si>
-  <si>
-    <t>sbqux</t>
-  </si>
-  <si>
-    <t>mie gacoan ganti jeneng jeneng mie amp minuman e ben entuk sertifikasi halal po</t>
-  </si>
-  <si>
-    <t>mie free name of mie amp drink e ben gets halal po certif</t>
-  </si>
-  <si>
-    <t>26/02/2023 10:47</t>
-  </si>
-  <si>
-    <t>Grldy5</t>
-  </si>
-  <si>
-    <t>syalom cil nanti malem sibuk ga kalo ngga mau ngajak ke mie gacoan hehe</t>
-  </si>
-  <si>
-    <t>syalom kl tonight is busy if you don't want to invite to the gacoan noodles heh</t>
-  </si>
-  <si>
-    <t>auliaaherdiana</t>
-  </si>
-  <si>
-    <t>mamapapa dagang mie ala gacoan gue bsa makan itu tiap hari krna emang enaak tapi si adek diperut sangat ga toleran pedes bahkan cuma sambel secolek aja besoknya bener diare</t>
-  </si>
-  <si>
-    <t>i am a trading noodle -style gacoan i can eat it every day because it's really good but the stomach is very spicy and even just a sauce is just the next day diarrhea</t>
-  </si>
-  <si>
-    <t>26/02/2023 10:34</t>
-  </si>
-  <si>
-    <t>vandy_46</t>
-  </si>
-  <si>
-    <t>itu udang rambutan ya wajib banget tuh kalo ke gacoan lalu beli mie gacoannya level  aja</t>
-  </si>
-  <si>
-    <t>itu udang rambutan ya wajib banget tuh kalo ke gacoan lalu beli mie gacoannya level aja</t>
-  </si>
-  <si>
-    <t>rambutan shrimp is really mandatory if you go to the gacoan then buy the gaco noodles.</t>
-  </si>
-  <si>
-    <t>26/02/2023 10:15</t>
-  </si>
-  <si>
-    <t>sukasamakamu07</t>
-  </si>
-  <si>
-    <t>bye makanan pedes bye mie bye semuanya hihi sebel harusnya kemarin aku makan mie gacoan dulu untung udah makan ramen haha</t>
-  </si>
-  <si>
-    <t>bye spicy food bye mike bye everything hihi resentful i should have eaten gacoan noodles first, fortunately i eaten ramen haha</t>
-  </si>
-  <si>
-    <t>26/02/2023 10:06</t>
-  </si>
-  <si>
-    <t>feidhu</t>
-  </si>
-  <si>
-    <t>iya dari keliatannya porsi lebih banyak n mie juga gak bikin sakit tenggorokan gacoan minyaknya tumpah yaampun enak banget ini foundernya gak mau buka cabang di kediamanku kah</t>
-  </si>
-  <si>
-    <t>yes, from it looks more portion n noodles also don't make the sore throat of the oil spill over, this is really good, the founder doesn't want to open a branch in my resid</t>
-  </si>
-  <si>
-    <t>26/02/2023 09:59</t>
-  </si>
-  <si>
-    <t>Rose_RTL</t>
-  </si>
-  <si>
-    <t>belum pernah klo mau makan mie gacoan mesti ke pwt jaraknya km sering ke pwt tapi blm punya keinginan untuk mampir karena antrinya aku tipe yang males antri hanya karena sebuah makanan enak sekalipun</t>
-  </si>
-  <si>
-    <t>i have never wanted to eat gacoan noodles, you have to go to pwt, the distance is often to pwt, but i don't have the desire to stop by because of the queue i am the type who is lazy to queue just because of a good food</t>
-  </si>
-  <si>
-    <t>26/02/2023 09:54</t>
-  </si>
-  <si>
-    <t>ceripuffs</t>
-  </si>
-  <si>
-    <t>sebel banget sama mie gacoan tebet kalau weekend suka tutup di grabfood</t>
-  </si>
-  <si>
-    <t>really resentful of tebet gacoan noodles if the weekend likes to close in grabfood</t>
-  </si>
-  <si>
-    <t>26/02/2023 09:49</t>
-  </si>
-  <si>
-    <t>devridaa</t>
-  </si>
-  <si>
-    <t>dan temen temen juga sering bilang gini loh kamu gamau ke micue karna belum ada logo halalnya tapi kamu sering ke gacoan btw kalau mie gacoan sudah banyak yang bahas ya dari para guswaning nawaning serta orang orang yg lebih faham</t>
-  </si>
-  <si>
-    <t>and my friends also often say this you guys go to micue because there is no halal logo but you often go to btw's gacoan if many gacoan noodles have discussed from the nawaning guswaning and people who are more familiar</t>
-  </si>
-  <si>
-    <t>steropic</t>
-  </si>
-  <si>
-    <t>halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh  responden lagi makasiiih</t>
-  </si>
-  <si>
-    <t>Tweetdecks Web App</t>
-  </si>
-  <si>
-    <t>halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh responden lagi makasiiih</t>
-  </si>
-  <si>
-    <t>hello, someone wants to help the contents of my questionnaire about gacoan noodles please rep, because they need respondents again</t>
-  </si>
-  <si>
-    <t>Askrlfess</t>
-  </si>
-  <si>
-    <t>askrl halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh  responden lagi makasiiih</t>
-  </si>
-  <si>
-    <t>askrl halooo ada yang mau bantu isi kuesioner aku tentang mie gacoan please rep karna butuh responden lagi makasiiih</t>
-  </si>
-  <si>
-    <t>askrl hello, anyone wants to help the contents of my questionnaire about gacoan noodles please rep, because they need respondents again, then</t>
-  </si>
-  <si>
-    <t>nyantai sore hari enaknya sambil ngasah tipis tipis otak yuk gampang banget ada yang tau dibawah ini jadi kalimat apa</t>
-  </si>
-  <si>
-    <t>relax in the afternoon the delicious day while gone thinly the brain is really easy to know what the sentence is below</t>
-  </si>
-  <si>
-    <t>26/02/2023 09:09</t>
-  </si>
-  <si>
-    <t>ojikayanya</t>
-  </si>
-  <si>
-    <t>fess gacoan cuma nama resto nya aja mie modelan gitu banyak ditempat lain juga</t>
-  </si>
-  <si>
-    <t>fess gacoan is just the name of the restaurant, there are many modelan noodles in other places too</t>
-  </si>
-  <si>
-    <t>26/02/2023 08:56</t>
-  </si>
-  <si>
-    <t>Ajik_s_w</t>
-  </si>
-  <si>
-    <t>adek adek macak racing touring itu perlu diedukasi dalam berkendara jalan depan mie gacoan itu macet lo parkir kanan kiri udah jalan sempit dipenuhi ama mereka sambil geber arogan blok</t>
-  </si>
-  <si>
-    <t>adek adek macak racing touring needs to be educated in driving the road in front of the gacoan noodles, the traffic jam is jammed right and left, the narrow road is filled with them while the arrogant block</t>
-  </si>
-  <si>
-    <t>emang ganti sih tapi enakan nyebut nama itu masa diganti mie gacoan sama mie hompimpa kurang sreg namanya</t>
-  </si>
-  <si>
-    <t>it's really handsome but it's good to mention that name when it was replaced by gacoan noodles with hompimpa noodles not comfort</t>
-  </si>
-  <si>
-    <t>Ayurinaaa</t>
-  </si>
-  <si>
-    <t>tumben beli mie gacoan masih panas jd enak bgt gak ky karet</t>
-  </si>
-  <si>
-    <t>tumben buy gacoan noodles is still hot so it's really good</t>
-  </si>
-  <si>
-    <t>26/02/2023 07:09</t>
-  </si>
-  <si>
-    <t>seishcu</t>
-  </si>
-  <si>
-    <t>bersenang smbil kepedesan makan mie gacoan</t>
-  </si>
-  <si>
-    <t>have fun</t>
-  </si>
-  <si>
-    <t>Nizuichi_id</t>
-  </si>
-  <si>
-    <t>ga tau kenapa sekarang mie gacoan rasanya lebih ke pedes nya doang padahal cuma pesen lvl  tapi tetep udang keju nya the best sih</t>
-  </si>
-  <si>
-    <t>ga tau kenapa sekarang mie gacoan rasanya lebih ke pedes nya doang padahal cuma pesen lvl tapi tetep udang keju nya the best sih</t>
-  </si>
-  <si>
-    <t>i don't know why now the gacoan noodles taste more spicy even though it's just ordering lvl but still the best cheese shrimp</t>
-  </si>
-  <si>
-    <t>26/02/2023 05:57</t>
-  </si>
-  <si>
-    <t>gimrl</t>
-  </si>
-  <si>
-    <t>mie pedes gacoan yg udah dicicip disuru tuker yg baru</t>
-  </si>
-  <si>
-    <t>gacoan spicy noodles that have been tasted are told to exchange new</t>
-  </si>
-  <si>
-    <t>26/02/2023 05:32</t>
-  </si>
-  <si>
-    <t>topeng_mony3t</t>
-  </si>
-  <si>
-    <t>enakan mie gacoan</t>
-  </si>
-  <si>
-    <t>it's good to be a gacoan noodl</t>
-  </si>
-  <si>
-    <t>26/02/2023 05:26</t>
-  </si>
-  <si>
-    <t>kumsaja</t>
-  </si>
-  <si>
-    <t>fess terserah sender sih tp kalau aku pilih pergi kalau emang pengen banget mie gacoan tinggal pesen pake ojol</t>
-  </si>
-  <si>
-    <t>fess is up to the sender, but if i choose to go if i really want to want to order the noodles, just order using ojol</t>
-  </si>
-  <si>
-    <t>26/02/2023 05:10</t>
-  </si>
-  <si>
-    <t>UNSILMENFESS</t>
-  </si>
-  <si>
-    <t>us ada yang mau bantu isi kuesioner akuu gaaa tentang mie gacoan makasiiihhh</t>
-  </si>
-  <si>
-    <t>Twitter for UNSIL Autobase</t>
-  </si>
-  <si>
-    <t>us anyone who wants to help the contents of the questionnaire akuu gaaa about the noodles of gacoan makasiiihhh</t>
-  </si>
-  <si>
-    <t>convomf</t>
-  </si>
-  <si>
-    <t>haloo boleh tolong bantu aku isi kuesioner ttg mie gacoan butuh  responden lagii sementara deadlinenya malam ini nanti aku qrt yaa guyss makasiihh</t>
-  </si>
-  <si>
-    <t>Hey, ayo minum air putih dulu😤</t>
-  </si>
-  <si>
-    <t>haloo boleh tolong bantu aku isi kuesioner ttg mie gacoan butuh responden lagii sementara deadlinenya malam ini nanti aku qrt yaa guyss makasiihh</t>
-  </si>
-  <si>
-    <t>hello may please help me fill in the questionnaire about gacoan noodles, need more respondents while the deadline tonight will be qrt, guys, then</t>
-  </si>
-  <si>
-    <t>26/02/2023 04:44</t>
-  </si>
-  <si>
-    <t>manusiaduawaktu</t>
-  </si>
-  <si>
-    <t>ic fess aku baru makan mie gacoan x u menghilangkan rasa penasaranku dan setelah makan menurutku u mie nya si sama seperti mie pada umum nya awalnya aku pikir mie nya khas harga terjangkau porsi normal si u rasa menurut ku ngga deh cuma kyk mie dikasih cabe yg di uleg gitu aja</t>
-  </si>
-  <si>
-    <t>ic fess i just ate gacoan x u noodles to get rid of my curiosity and after eating i think the noodles are the same as the noodles in general, at first i thought the noodles were typical of the normal portion of the taste, the taste in my opinion was not just like the noodles were given chili that was uleg chilijust like that</t>
-  </si>
-  <si>
-    <t>mie gacoan nya sungguh menggiurkan banget apalagi udang rambutan</t>
-  </si>
-  <si>
-    <t>gacoan noodles are really tempting especially rambutan shrimp</t>
-  </si>
-  <si>
-    <t>jenoncityx</t>
-  </si>
-  <si>
-    <t>ini enak deh buat nyoba mie gacoan</t>
-  </si>
-  <si>
-    <t>this is good for trying gacoan noodl</t>
-  </si>
-  <si>
-    <t>26/02/2023 04:29</t>
-  </si>
-  <si>
-    <t>vivi3284</t>
-  </si>
-  <si>
-    <t>hahahaha yg baru aku amp stephanus bahas paska mie gacoan</t>
-  </si>
-  <si>
-    <t>hahahaha the new i am amp stephanus discussed after the noodle gacoan</t>
-  </si>
-  <si>
-    <t>26/02/2023 04:23</t>
-  </si>
-  <si>
-    <t>ada gasi yg klo makan mie gacoan kek diare mulu pdhl cmn level  dan gak pedes jatohnya gacoan jadi obat pencahar</t>
-  </si>
-  <si>
-    <t>ada gasi yg klo makan mie gacoan kek diare mulu pdhl cmn level dan gak pedes jatohnya gacoan jadi obat pencahar</t>
-  </si>
-  <si>
-    <t>there is a gasi who eats noodles gacoan kek diarrhea first pdhl cmn level and not spicy fell gacoan so a lax</t>
-  </si>
-  <si>
-    <t>aldigustiw</t>
-  </si>
-  <si>
-    <t>fess ini bukan tentang mie gacoan kan</t>
-  </si>
-  <si>
-    <t>this fess is not about gacoan noodles right</t>
-  </si>
-  <si>
-    <t>Jinggamuuu</t>
-  </si>
-  <si>
-    <t>my st gacoan cuma brani level  dann ini pun udah pedesss tp enakkkk paling suka makanan pedes manis jd inget mie setan di sma dulu akhirnya nemuin versi kekiniannya bakal jd pilihan sih ini pas lg puyeng dan pengen makan pedess</t>
-  </si>
-  <si>
-    <t>my st gacoan cuma brani level dann ini pun udah pedesss tp enakkkk paling suka makanan pedes manis jd inget mie setan di sma dulu akhirnya nemuin versi kekiniannya bakal jd pilihan sih ini pas lg puyeng dan pengen makan pedess</t>
-  </si>
-  <si>
-    <t>my st gacoan is just a brani level and this is already pedesss but it's good to like the sweet spicy food so i remember the devil noodles in high school, finally find the current version of the choice, it will be a choice right when i was panting and want to eat pedess</t>
-  </si>
-  <si>
-    <t>DewiFricilia1</t>
-  </si>
-  <si>
-    <t>yg td nya mau beli gacoan tak tahan dan inget harus hidup frugal jdi beli lah sayur telor mie cuma abis k udah bisa masak porsi ngenyangin lg maklum anak koss gabole sering selfreward</t>
-  </si>
-  <si>
-    <t>those who used to buy a gacoan can't stand and remember to live in frugal so buying vegetable noodles, just after you can cook the portion of the koss gabole, you know, often selfreward</t>
-  </si>
-  <si>
-    <t>26/02/2023 03:22</t>
-  </si>
-  <si>
-    <t>AirAntaka</t>
-  </si>
-  <si>
-    <t>pertama kali makan mie gacoan ya ampun pedes banget mo nangis</t>
-  </si>
-  <si>
-    <t>the first time i eat gacoan noodles, so it's really spici</t>
-  </si>
-  <si>
-    <t>26/02/2023 03:19</t>
-  </si>
-  <si>
-    <t>mingiricarica</t>
-  </si>
-  <si>
-    <t>fess pergi ga seenak itu asli mending cobain dry ramyeon nya mujigae dh mie goreng modelan gacoan tp korean ver gt</t>
-  </si>
-  <si>
-    <t>fess leaves not as good as that original better try the dry ramyeon dh dh fried noodles modelan gacoan but korean ver gt</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:56</t>
-  </si>
-  <si>
-    <t>mie yang kaya mie gacoan di tasik dimana ya bm mie gacoan tapi disini ga ada</t>
-  </si>
-  <si>
-    <t>noodles rich in gacoan noodles in tasik where are bm gacoan noodles but there is no her</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:51</t>
-  </si>
-  <si>
-    <t>djamtjoek</t>
-  </si>
-  <si>
-    <t>nyobain semua menu mie gacoan yg direkomendasi sama teteh cashier mienya pesan mie gacoan level  unfortunately rasanya meh gorengannya enak apalagi yg udang keju minumannya cukup niat dgn harga cm rb ok lah definitely will go back to eat gorengan only</t>
-  </si>
-  <si>
-    <t>nyobain semua menu mie gacoan yg direkomendasi sama teteh cashier mienya pesan mie gacoan level unfortunately rasanya meh gorengannya enak apalagi yg udang keju minumannya cukup niat dgn harga cm rb ok lah definitely will go back to eat gorengan only</t>
-  </si>
-  <si>
-    <t>try all of the recommended gacoan noodle menus with cashier noodles ordered gacoan noodles unfortunately it tastes good, especially the cheese shrimp, the beverage cheese is intentions with the price of cm rb ok, definitely will go back to eat fried food onli</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:49</t>
-  </si>
-  <si>
-    <t>bubblej999</t>
-  </si>
-  <si>
-    <t>bukan mie ayam sih tp kl kamu pgn makan mie ala gacoan gt harganya murah di mie judes aja kalimasada</t>
-  </si>
-  <si>
-    <t>it's not chicken noodles, but if you eat, you eat gaco -style noodles, the price is cheap in judicial noodles.</t>
-  </si>
-  <si>
-    <t>looktheseaa</t>
-  </si>
-  <si>
-    <t>gue sbg mantan babu gacoan kadang masih nggak habis pikir kok bisa mereka rela antri segitu panjang buat mie doang bahkan kadang toko belum buka kasir aja udah ada yg antri</t>
-  </si>
-  <si>
-    <t>i as a former babu gacoan sometimes i still can't help thinking how can they be willing to queue that long for noodles even sometimes the shop hasn't opened the cashier, there is already a queu</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:26</t>
-  </si>
-  <si>
-    <t>shidqifiras</t>
-  </si>
-  <si>
-    <t>msh gapaham sm org yg rela ngantri panjang demi sebongkah mie gacoan yg bukannya gaenak tp ga se spektakuler itu utk pengorbanan mengantri berjam</t>
-  </si>
-  <si>
-    <t>still do not understand people who are willing to queue long for a lump of gacoan noodles that are not gaenak but not as spectacular for sacrific</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:25</t>
-  </si>
-  <si>
-    <t>IonSyukron</t>
-  </si>
-  <si>
-    <t>fess banyak makannan enak selain mie gacoan rame kayak gitu ngabisin waktu</t>
-  </si>
-  <si>
-    <t>stool a lot of delicious food besides gacoan noodles like that like spending tim</t>
-  </si>
-  <si>
-    <t>26/02/2023 02:21</t>
-  </si>
-  <si>
-    <t>dznadr99</t>
-  </si>
-  <si>
-    <t>ada  alasan kenapa gua ga pernah beli mie gacoan pertama pedes kedua belum bersertifikat halal mui</t>
-  </si>
-  <si>
-    <t>ada alasan kenapa gua ga pernah beli mie gacoan pertama pedes kedua belum bersertifikat halal mui</t>
-  </si>
-  <si>
-    <t>there is a reason why i never bought the first spicy gacoan noodle not certified halal mui</t>
-  </si>
-  <si>
-    <t>collegemenfess</t>
-  </si>
-  <si>
-    <t>cm guyssss boleh minta tolong isi kuesioner aku tentang mie gacoan gaaaa deadlinenya hari inii krn besok senin harus udah diolah tapi masih kurang  responden lagiiii nanti aku qrt makasiihh guysss</t>
-  </si>
-  <si>
-    <t>Pakai masker! Stay safe! -Bot-</t>
-  </si>
-  <si>
-    <t>cm guyssss boleh minta tolong isi kuesioner aku tentang mie gacoan gaaaa deadlinenya hari inii krn besok senin harus udah diolah tapi masih kurang responden lagiiii nanti aku qrt makasiihh guysss</t>
-  </si>
-  <si>
-    <t>cm guyssss may ask for help filling my questionnaire about the gacoan noodles gaaaa deadline today because tomorrow monday must be processed but still lacking respondents again later i will be qrt thanks guysss</t>
-  </si>
-  <si>
-    <t>26/02/2023 01:36</t>
-  </si>
-  <si>
-    <t>gueissaya</t>
-  </si>
-  <si>
-    <t>mie gacoan emang enak hyung seret kagak sih makan itu gua liatnya seret</t>
-  </si>
-  <si>
-    <t>gacoan noodles are really good, hyung, i drag it up, i don't eat it, i see it drag</t>
-  </si>
-  <si>
-    <t>25/02/2023 23:11</t>
-  </si>
-  <si>
-    <t>sunyisenyum</t>
-  </si>
-  <si>
-    <t>ini sama banget sih menurut gua gacoan b aja cuman mie gurih ketambahan cabe ekspektasi gua ketinggian enak tapi bukan yg spesial bgt</t>
-  </si>
-  <si>
-    <t>this is really the same, according to me, it's just a tasty noodle, the addition of chili expectations is good but not really speci</t>
-  </si>
-  <si>
-    <t>25/02/2023 21:14</t>
-  </si>
-  <si>
-    <t>leeteukyuta</t>
-  </si>
-  <si>
-    <t>gacoan enak tp gak seenak itu buat antre sepanjang ini sumpah better ke warmindo mie tek tek makan mie nyemek</t>
-  </si>
-  <si>
-    <t>gacoan is delicious but it's not as good as it is to queue as long as i swear better to warmindo noodles tek tek eating noodle noodl</t>
-  </si>
-  <si>
-    <t>25/02/2023 18:29</t>
-  </si>
-  <si>
-    <t>alyatrutmi</t>
-  </si>
-  <si>
-    <t>trs tbtb kepikiran apa enakny cb mie gacoan</t>
-  </si>
-  <si>
-    <t>trs tbtb thinks what is delicious cb gacoan noodl</t>
-  </si>
-  <si>
-    <t>25/02/2023 18:14</t>
-  </si>
-  <si>
-    <t>habibiealwi</t>
-  </si>
-  <si>
-    <t>fess enak sih gacoan tapi kalo gitu kaya gak rela aja buat buang buang waktu demi sebuah mie</t>
-  </si>
-  <si>
-    <t>fess is good, but if it's like that, it's not willing to waste time for a noodl</t>
-  </si>
-  <si>
-    <t>25/02/2023 17:56</t>
-  </si>
-  <si>
-    <t>CLASS1CS_</t>
-  </si>
-  <si>
-    <t>fess pergi keknya sekarang udah banyak deh warung yg jual mie level begini gacoan enak tapi yaudah cukup sekali aja deh makan disitu udang keju nya sih enak asin lada gituu</t>
-  </si>
-  <si>
-    <t>fess goes, now there are many stalls that sell noodles like this, this is delicious, but it's enough, just eating there, the cheese shrimp is delicious, it's salty pepp</t>
-  </si>
-  <si>
-    <t>25/02/2023 17:39</t>
-  </si>
-  <si>
-    <t>h0neymilktea_</t>
-  </si>
-  <si>
-    <t>iyah saosnya beda mie nya enak gacoan tp jiaaa</t>
-  </si>
-  <si>
-    <t>yeah, the sauce is different, the noodles are good</t>
-  </si>
-  <si>
-    <t>25/02/2023 17:30</t>
-  </si>
-  <si>
-    <t>nobodyknowsaiz</t>
-  </si>
-  <si>
-    <t>fess bentar lagi akan muncul quotes lebih baik pergi atau tetap berjuang tapi ini bukan tentang mie gacoan</t>
-  </si>
-  <si>
-    <t>fess will soon appear quotes better or keep struggling but this is not about gacoan noodl</t>
-  </si>
-  <si>
-    <t>25/02/2023 17:08</t>
-  </si>
-  <si>
-    <t>Jageroar</t>
-  </si>
-  <si>
-    <t>gue makan gacoan tadi asli apa gue makan mie lagi ya besok</t>
-  </si>
-  <si>
-    <t>i ate the original gacoan, what did i eat noodles again tomorrow</t>
-  </si>
-  <si>
-    <t>25/02/2023 16:56</t>
-  </si>
-  <si>
-    <t>rismasamsudin_</t>
-  </si>
-  <si>
-    <t>aku pernah kok pas hamil keluar jam  malem saking emosinya daripada ngereog dirumah teriak teriak akhirnya sejaman disusulin suamiku amp ditraktir mie gacoan biar nggak ngereog</t>
-  </si>
-  <si>
-    <t>aku pernah kok pas hamil keluar jam malem saking emosinya daripada ngereog dirumah teriak teriak akhirnya sejaman disusulin suamiku amp ditraktir mie gacoan biar nggak ngereog</t>
-  </si>
-  <si>
-    <t>i once when i got pregnant came out of the evening clock so emotional rather than releasing at home shouting, finally the exclusion followed by my husband amp is tr</t>
-  </si>
-  <si>
-    <t>iciiiw</t>
-  </si>
-  <si>
-    <t>awalnya tuh mo jalan sampe mie gacoan aja cuma dipikir the night still young masih punya spare time banyak sebelum jam biasanya pulang akhirnya w extend lah jaraknya</t>
-  </si>
-  <si>
-    <t>at first, i just walked until the noodles were just thinking about the night still young still had a lot of spare time before the clock usually came home, finally the distance was the dist</t>
-  </si>
-  <si>
-    <t>25/02/2023 15:59</t>
-  </si>
-  <si>
-    <t>new achievement unlocked hari ini judulnya bener jalan karena w jalan kaki dari belokan bubat mie gacoan gt starbak bubat udah itu jalan kaki dari starbak bubat gt samsat bener sih ini estimasinya setengah jam lebih buat yg ke samsat</t>
-  </si>
-  <si>
-    <t>new achievement unlocked today the title is right because i walk from the bubat gt starbak bubak bubat bubat bubak bubat already walking from starbak bubat gt samsat right, this is the estimated more than half an hour for samsat</t>
-  </si>
-  <si>
-    <t>25/02/2023 15:55</t>
-  </si>
-  <si>
-    <t>deeterousin</t>
-  </si>
-  <si>
-    <t>fess weuy ini tempat kaya ga asing nder mie gacoan cabang pamulang ya ini</t>
-  </si>
-  <si>
-    <t>fess weuy this is a familiar place for this pamulang branch gacoan noodl</t>
-  </si>
-  <si>
-    <t>Glibenclamid</t>
-  </si>
-  <si>
-    <t>gatau ya kl skrg bisa cepet tp dulu kl ojol ambil order di mie gacoan bisa  jaman loh kl skrg cepet si alhamdulillah dah</t>
-  </si>
-  <si>
-    <t>gatau ya kl skrg bisa cepet tp dulu kl ojol ambil order di mie gacoan bisa jaman loh kl skrg cepet si alhamdulillah dah</t>
-  </si>
-  <si>
-    <t>i don't know if i can quickly get fast but first if you take an order in the gacoan noodles, you can do it now</t>
-  </si>
-  <si>
-    <t>25/02/2023 15:36</t>
-  </si>
-  <si>
-    <t>luweiwe</t>
-  </si>
-  <si>
-    <t>fess pergi di ytb bnyk cara buat mie gacoan sendiri</t>
-  </si>
-  <si>
-    <t>fess goes on ytb, how many ways to make your own gacoan noodl</t>
-  </si>
-  <si>
-    <t>25/02/2023 15:28</t>
-  </si>
-  <si>
-    <t>uchiha_itachee</t>
-  </si>
-  <si>
-    <t>fess mie gacoan tiap cabang rasanya beda pertama kali makan gacoan di cabang tembalang semarang pesen mie iblis warna nya beneran coklat kecap banyak mie ga tebel ga tipis udang keju gede pangsit crispy bgt pas makan di cabang jakarta kualitasnya beda jauh</t>
-  </si>
-  <si>
-    <t>fess gacoan noodle each branch tastes different first time eating gacoan at tembalang branch semarang ordered the demon noodles in the color of the chocolate soy sauce, lot</t>
-  </si>
-  <si>
-    <t>riantisebayang</t>
-  </si>
-  <si>
-    <t>kemaren orderin mie gacoan buat temen di medan soalnya ga terlalu jauh dari rumah nya nahhhh sekarang aing kepengen juga tapi jauhhhh terus di ojol tutup sementara terus gacoan nya</t>
-  </si>
-  <si>
-    <t>yesterday orderin gacoan noodles for friends in medan because it's not too far from his house, now i want to want to go, but far away, it continues to be closed while the gacoan continu</t>
-  </si>
-  <si>
-    <t>25/02/2023 15:05</t>
-  </si>
-  <si>
-    <t>ardhinkaraya</t>
-  </si>
-  <si>
-    <t>hah untung di citra ada mie semacam ini meskipun brandnya bukan gacoan sedikit mengobatilah yaa pernah mau ke gacoan daerah tebet beuhh ngantri auto bye</t>
-  </si>
-  <si>
-    <t>hah fortunately in citra there is this kind of noodles even though the brand is not a little gacoan to treat you ever want to go to the gacoan area of tebet beuhh ngantri auto by</t>
-  </si>
-  <si>
-    <t>25/02/2023 14:46</t>
-  </si>
-  <si>
-    <t>kartikanormals_</t>
-  </si>
-  <si>
-    <t>udah kebayang grand opening nya mie gacoan bakal se rame apa</t>
-  </si>
-  <si>
-    <t>already imagine the grand opening of the gacoan noodles will be as crowd</t>
-  </si>
-  <si>
-    <t>25/02/2023 14:33</t>
-  </si>
-  <si>
-    <t>scarlet_aya404</t>
-  </si>
-  <si>
-    <t>jujur menurut gw mie gacoan enak tp gak seenak itu buat ampe ngantri berjam</t>
-  </si>
-  <si>
-    <t>honestly, according to me, the gacoan noodles are delicious but it's not as good</t>
   </si>
 </sst>
 </file>
@@ -20413,10 +19375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1954"/>
+  <dimension ref="A1:G1865"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1791" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A1786" sqref="A1786:G1786"/>
+    <sheetView tabSelected="1" topLeftCell="A1717" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A1866" sqref="A1866:G1892"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -63321,2053 +62283,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="1866" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1866" t="s">
-        <v>517</v>
-      </c>
-      <c r="B1866" t="s">
-        <v>6331</v>
-      </c>
-      <c r="C1866" t="s">
-        <v>6332</v>
-      </c>
-      <c r="D1866" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1866" t="s">
-        <v>6332</v>
-      </c>
-      <c r="F1866" t="s">
-        <v>6333</v>
-      </c>
-      <c r="G1866" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1867" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1867" t="s">
-        <v>6334</v>
-      </c>
-      <c r="B1867" t="s">
-        <v>6335</v>
-      </c>
-      <c r="C1867" t="s">
-        <v>6336</v>
-      </c>
-      <c r="D1867" t="s">
-        <v>4310</v>
-      </c>
-      <c r="E1867" t="s">
-        <v>6336</v>
-      </c>
-      <c r="F1867" t="s">
-        <v>6337</v>
-      </c>
-      <c r="G1867" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1868" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1868" t="s">
-        <v>6338</v>
-      </c>
-      <c r="B1868" t="s">
-        <v>6339</v>
-      </c>
-      <c r="C1868" t="s">
-        <v>6340</v>
-      </c>
-      <c r="D1868" t="s">
-        <v>6341</v>
-      </c>
-      <c r="E1868" t="s">
-        <v>6340</v>
-      </c>
-      <c r="F1868" t="s">
-        <v>6342</v>
-      </c>
-      <c r="G1868" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1869" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1869" t="s">
-        <v>3312</v>
-      </c>
-      <c r="B1869" t="s">
-        <v>6343</v>
-      </c>
-      <c r="C1869" t="s">
-        <v>6344</v>
-      </c>
-      <c r="D1869" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1869" t="s">
-        <v>6344</v>
-      </c>
-      <c r="F1869" t="s">
-        <v>6345</v>
-      </c>
-      <c r="G1869" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1870" t="s">
-        <v>6346</v>
-      </c>
-      <c r="B1870" t="s">
-        <v>6347</v>
-      </c>
-      <c r="C1870" t="s">
-        <v>6348</v>
-      </c>
-      <c r="D1870" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1870" t="s">
-        <v>6348</v>
-      </c>
-      <c r="F1870" t="s">
-        <v>6349</v>
-      </c>
-      <c r="G1870" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1871" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1871" t="s">
-        <v>6350</v>
-      </c>
-      <c r="B1871" t="s">
-        <v>6351</v>
-      </c>
-      <c r="C1871" t="s">
-        <v>6352</v>
-      </c>
-      <c r="D1871" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1871" t="s">
-        <v>6352</v>
-      </c>
-      <c r="F1871" t="s">
-        <v>6353</v>
-      </c>
-      <c r="G1871" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1872" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1872" t="s">
-        <v>6354</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>6355</v>
-      </c>
-      <c r="C1872" t="s">
-        <v>6356</v>
-      </c>
-      <c r="D1872" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1872" t="s">
-        <v>6357</v>
-      </c>
-      <c r="F1872" t="s">
-        <v>6358</v>
-      </c>
-      <c r="G1872" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1873" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1873" t="s">
-        <v>6359</v>
-      </c>
-      <c r="B1873" t="s">
-        <v>6360</v>
-      </c>
-      <c r="C1873" t="s">
-        <v>6361</v>
-      </c>
-      <c r="D1873" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1873" t="s">
-        <v>6361</v>
-      </c>
-      <c r="F1873" t="s">
-        <v>6362</v>
-      </c>
-      <c r="G1873" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1874" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1874" t="s">
-        <v>6363</v>
-      </c>
-      <c r="B1874" t="s">
-        <v>6126</v>
-      </c>
-      <c r="C1874" t="s">
-        <v>6364</v>
-      </c>
-      <c r="D1874" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1874" t="s">
-        <v>6365</v>
-      </c>
-      <c r="F1874" t="s">
-        <v>6366</v>
-      </c>
-      <c r="G1874" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1875" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1875" t="s">
-        <v>3332</v>
-      </c>
-      <c r="B1875" t="s">
-        <v>6367</v>
-      </c>
-      <c r="C1875" t="s">
-        <v>6368</v>
-      </c>
-      <c r="D1875" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1875" t="s">
-        <v>6368</v>
-      </c>
-      <c r="F1875" t="s">
-        <v>6369</v>
-      </c>
-      <c r="G1875" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1876" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1876" t="s">
-        <v>4516</v>
-      </c>
-      <c r="B1876" t="s">
-        <v>6370</v>
-      </c>
-      <c r="C1876" t="s">
-        <v>6371</v>
-      </c>
-      <c r="D1876" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1876" t="s">
-        <v>6371</v>
-      </c>
-      <c r="F1876" t="s">
-        <v>6372</v>
-      </c>
-      <c r="G1876" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1877" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1877" t="s">
-        <v>604</v>
-      </c>
-      <c r="B1877" t="s">
-        <v>6373</v>
-      </c>
-      <c r="C1877" t="s">
-        <v>6374</v>
-      </c>
-      <c r="D1877" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1877" t="s">
-        <v>6374</v>
-      </c>
-      <c r="F1877" t="s">
-        <v>6375</v>
-      </c>
-      <c r="G1877" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1878" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1878" t="s">
-        <v>6376</v>
-      </c>
-      <c r="B1878" t="s">
-        <v>6377</v>
-      </c>
-      <c r="C1878" t="s">
-        <v>6378</v>
-      </c>
-      <c r="D1878" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1878" t="s">
-        <v>6378</v>
-      </c>
-      <c r="F1878" t="s">
-        <v>6379</v>
-      </c>
-      <c r="G1878" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1879" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1879" t="s">
-        <v>6380</v>
-      </c>
-      <c r="B1879" t="s">
-        <v>6381</v>
-      </c>
-      <c r="C1879" t="s">
-        <v>6382</v>
-      </c>
-      <c r="D1879" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1879" t="s">
-        <v>6383</v>
-      </c>
-      <c r="F1879" t="s">
-        <v>6384</v>
-      </c>
-      <c r="G1879" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1880" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1880" t="s">
-        <v>6385</v>
-      </c>
-      <c r="B1880" t="s">
-        <v>6386</v>
-      </c>
-      <c r="C1880" t="s">
-        <v>6387</v>
-      </c>
-      <c r="D1880" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1880" t="s">
-        <v>6388</v>
-      </c>
-      <c r="F1880" t="s">
-        <v>6389</v>
-      </c>
-      <c r="G1880" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1881" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1881" t="s">
-        <v>6390</v>
-      </c>
-      <c r="B1881" t="s">
-        <v>6391</v>
-      </c>
-      <c r="C1881" t="s">
-        <v>6392</v>
-      </c>
-      <c r="D1881" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1881" t="s">
-        <v>6393</v>
-      </c>
-      <c r="F1881" t="s">
-        <v>6394</v>
-      </c>
-      <c r="G1881" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1882" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1882" t="s">
-        <v>5320</v>
-      </c>
-      <c r="B1882" t="s">
-        <v>6395</v>
-      </c>
-      <c r="C1882" t="s">
-        <v>6396</v>
-      </c>
-      <c r="D1882" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1882" t="s">
-        <v>6396</v>
-      </c>
-      <c r="F1882" t="s">
-        <v>6397</v>
-      </c>
-      <c r="G1882" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1883" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1883" t="s">
-        <v>6398</v>
-      </c>
-      <c r="B1883" t="s">
-        <v>6399</v>
-      </c>
-      <c r="C1883" t="s">
-        <v>6400</v>
-      </c>
-      <c r="D1883" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1883" t="s">
-        <v>6400</v>
-      </c>
-      <c r="F1883" t="s">
-        <v>6401</v>
-      </c>
-      <c r="G1883" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1884" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1884" t="s">
-        <v>6402</v>
-      </c>
-      <c r="B1884" t="s">
-        <v>6403</v>
-      </c>
-      <c r="C1884" t="s">
-        <v>6404</v>
-      </c>
-      <c r="D1884" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1884" t="s">
-        <v>6404</v>
-      </c>
-      <c r="F1884" t="s">
-        <v>6405</v>
-      </c>
-      <c r="G1884" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1885" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1885" t="s">
-        <v>6406</v>
-      </c>
-      <c r="B1885" t="s">
-        <v>6407</v>
-      </c>
-      <c r="C1885" t="s">
-        <v>6408</v>
-      </c>
-      <c r="D1885" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1885" t="s">
-        <v>6408</v>
-      </c>
-      <c r="F1885" t="s">
-        <v>6409</v>
-      </c>
-      <c r="G1885" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1886" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1886" t="s">
-        <v>6410</v>
-      </c>
-      <c r="B1886" t="s">
-        <v>6411</v>
-      </c>
-      <c r="C1886" t="s">
-        <v>6412</v>
-      </c>
-      <c r="D1886" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1886" t="s">
-        <v>6412</v>
-      </c>
-      <c r="F1886" t="s">
-        <v>6413</v>
-      </c>
-      <c r="G1886" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1887" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1887" t="s">
-        <v>6414</v>
-      </c>
-      <c r="B1887" t="s">
-        <v>6415</v>
-      </c>
-      <c r="C1887" t="s">
-        <v>6416</v>
-      </c>
-      <c r="D1887" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1887" t="s">
-        <v>6416</v>
-      </c>
-      <c r="F1887" t="s">
-        <v>6417</v>
-      </c>
-      <c r="G1887" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1888" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1888" t="s">
-        <v>6418</v>
-      </c>
-      <c r="B1888" t="s">
-        <v>6419</v>
-      </c>
-      <c r="C1888" t="s">
-        <v>6420</v>
-      </c>
-      <c r="D1888" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1888" t="s">
-        <v>6421</v>
-      </c>
-      <c r="F1888" t="s">
-        <v>6422</v>
-      </c>
-      <c r="G1888" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1889" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1889" t="s">
-        <v>637</v>
-      </c>
-      <c r="B1889" t="s">
-        <v>6423</v>
-      </c>
-      <c r="C1889" t="s">
-        <v>6424</v>
-      </c>
-      <c r="D1889" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1889" t="s">
-        <v>6424</v>
-      </c>
-      <c r="F1889" t="s">
-        <v>6425</v>
-      </c>
-      <c r="G1889" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1890" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1890" t="s">
-        <v>6426</v>
-      </c>
-      <c r="B1890" t="s">
-        <v>6427</v>
-      </c>
-      <c r="C1890" t="s">
-        <v>6428</v>
-      </c>
-      <c r="D1890" t="s">
-        <v>4310</v>
-      </c>
-      <c r="E1890" t="s">
-        <v>6428</v>
-      </c>
-      <c r="F1890" t="s">
-        <v>6429</v>
-      </c>
-      <c r="G1890" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1891" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1891" t="s">
-        <v>6430</v>
-      </c>
-      <c r="B1891" t="s">
-        <v>6431</v>
-      </c>
-      <c r="C1891" t="s">
-        <v>6432</v>
-      </c>
-      <c r="D1891" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1891" t="s">
-        <v>6433</v>
-      </c>
-      <c r="F1891" t="s">
-        <v>6434</v>
-      </c>
-      <c r="G1891" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1892" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1892" t="s">
-        <v>6435</v>
-      </c>
-      <c r="B1892" t="s">
-        <v>6436</v>
-      </c>
-      <c r="C1892" t="s">
-        <v>6437</v>
-      </c>
-      <c r="D1892" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1892" t="s">
-        <v>6437</v>
-      </c>
-      <c r="F1892" t="s">
-        <v>6438</v>
-      </c>
-      <c r="G1892" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1893" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1893" t="s">
-        <v>704</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>6439</v>
-      </c>
-      <c r="C1893" t="s">
-        <v>6440</v>
-      </c>
-      <c r="D1893" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1893" t="s">
-        <v>6440</v>
-      </c>
-      <c r="F1893" t="s">
-        <v>6441</v>
-      </c>
-      <c r="G1893" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1894" t="s">
-        <v>710</v>
-      </c>
-      <c r="B1894" t="s">
-        <v>6442</v>
-      </c>
-      <c r="C1894" t="s">
-        <v>6443</v>
-      </c>
-      <c r="D1894" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1894" t="s">
-        <v>6443</v>
-      </c>
-      <c r="F1894" t="s">
-        <v>6444</v>
-      </c>
-      <c r="G1894" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1895" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1895" t="s">
-        <v>6445</v>
-      </c>
-      <c r="B1895" t="s">
-        <v>6446</v>
-      </c>
-      <c r="C1895" t="s">
-        <v>6447</v>
-      </c>
-      <c r="D1895" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1895" t="s">
-        <v>6447</v>
-      </c>
-      <c r="F1895" t="s">
-        <v>6448</v>
-      </c>
-      <c r="G1895" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1896" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1896" t="s">
-        <v>6445</v>
-      </c>
-      <c r="B1896" t="s">
-        <v>6449</v>
-      </c>
-      <c r="C1896" t="s">
-        <v>6450</v>
-      </c>
-      <c r="D1896" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1896" t="s">
-        <v>6450</v>
-      </c>
-      <c r="F1896" t="s">
-        <v>6451</v>
-      </c>
-      <c r="G1896" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1897" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1897" t="s">
-        <v>6452</v>
-      </c>
-      <c r="B1897" t="s">
-        <v>6453</v>
-      </c>
-      <c r="C1897" t="s">
-        <v>6454</v>
-      </c>
-      <c r="D1897" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1897" t="s">
-        <v>6455</v>
-      </c>
-      <c r="F1897" t="s">
-        <v>6456</v>
-      </c>
-      <c r="G1897" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1898" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1898" t="s">
-        <v>6457</v>
-      </c>
-      <c r="B1898" t="s">
-        <v>6458</v>
-      </c>
-      <c r="C1898" t="s">
-        <v>6459</v>
-      </c>
-      <c r="D1898" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1898" t="s">
-        <v>6459</v>
-      </c>
-      <c r="F1898" t="s">
-        <v>6460</v>
-      </c>
-      <c r="G1898" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1899" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1899" t="s">
-        <v>6461</v>
-      </c>
-      <c r="B1899" t="s">
-        <v>6462</v>
-      </c>
-      <c r="C1899" t="s">
-        <v>6463</v>
-      </c>
-      <c r="D1899" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1899" t="s">
-        <v>6463</v>
-      </c>
-      <c r="F1899" t="s">
-        <v>6464</v>
-      </c>
-      <c r="G1899" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1900" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1900" t="s">
-        <v>6465</v>
-      </c>
-      <c r="B1900" t="s">
-        <v>6466</v>
-      </c>
-      <c r="C1900" t="s">
-        <v>6467</v>
-      </c>
-      <c r="D1900" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1900" t="s">
-        <v>6467</v>
-      </c>
-      <c r="F1900" t="s">
-        <v>6468</v>
-      </c>
-      <c r="G1900" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1901" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1901" t="s">
-        <v>6469</v>
-      </c>
-      <c r="B1901" t="s">
-        <v>6470</v>
-      </c>
-      <c r="C1901" t="s">
-        <v>6471</v>
-      </c>
-      <c r="D1901" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1901" t="s">
-        <v>6471</v>
-      </c>
-      <c r="F1901" t="s">
-        <v>6472</v>
-      </c>
-      <c r="G1901" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1902" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1902" t="s">
-        <v>6473</v>
-      </c>
-      <c r="B1902" t="s">
-        <v>6474</v>
-      </c>
-      <c r="C1902" t="s">
-        <v>6475</v>
-      </c>
-      <c r="D1902" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1902" t="s">
-        <v>6475</v>
-      </c>
-      <c r="F1902" t="s">
-        <v>6476</v>
-      </c>
-      <c r="G1902" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1903" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1903" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1903" t="s">
-        <v>6477</v>
-      </c>
-      <c r="C1903" t="s">
-        <v>6478</v>
-      </c>
-      <c r="D1903" t="s">
-        <v>6479</v>
-      </c>
-      <c r="E1903" t="s">
-        <v>6480</v>
-      </c>
-      <c r="F1903" t="s">
-        <v>6481</v>
-      </c>
-      <c r="G1903" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1904" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1904" t="s">
-        <v>748</v>
-      </c>
-      <c r="B1904" t="s">
-        <v>6482</v>
-      </c>
-      <c r="C1904" t="s">
-        <v>6483</v>
-      </c>
-      <c r="D1904" t="s">
-        <v>6482</v>
-      </c>
-      <c r="E1904" t="s">
-        <v>6484</v>
-      </c>
-      <c r="F1904" t="s">
-        <v>6485</v>
-      </c>
-      <c r="G1904" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1905" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1905" t="s">
-        <v>764</v>
-      </c>
-      <c r="B1905" t="s">
-        <v>6143</v>
-      </c>
-      <c r="C1905" t="s">
-        <v>6486</v>
-      </c>
-      <c r="D1905" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1905" t="s">
-        <v>6486</v>
-      </c>
-      <c r="F1905" t="s">
-        <v>6487</v>
-      </c>
-      <c r="G1905" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1906" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1906" t="s">
-        <v>6488</v>
-      </c>
-      <c r="B1906" t="s">
-        <v>6489</v>
-      </c>
-      <c r="C1906" t="s">
-        <v>6490</v>
-      </c>
-      <c r="D1906" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1906" t="s">
-        <v>6490</v>
-      </c>
-      <c r="F1906" t="s">
-        <v>6491</v>
-      </c>
-      <c r="G1906" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1907" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1907" t="s">
-        <v>6492</v>
-      </c>
-      <c r="B1907" t="s">
-        <v>6493</v>
-      </c>
-      <c r="C1907" t="s">
-        <v>6494</v>
-      </c>
-      <c r="D1907" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1907" t="s">
-        <v>6494</v>
-      </c>
-      <c r="F1907" t="s">
-        <v>6495</v>
-      </c>
-      <c r="G1907" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1908" t="s">
-        <v>5425</v>
-      </c>
-      <c r="B1908" t="s">
-        <v>6126</v>
-      </c>
-      <c r="C1908" t="s">
-        <v>6496</v>
-      </c>
-      <c r="D1908" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1908" t="s">
-        <v>6496</v>
-      </c>
-      <c r="F1908" t="s">
-        <v>6497</v>
-      </c>
-      <c r="G1908" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1909" t="s">
-        <v>5728</v>
-      </c>
-      <c r="B1909" t="s">
-        <v>6498</v>
-      </c>
-      <c r="C1909" t="s">
-        <v>6499</v>
-      </c>
-      <c r="D1909" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1909" t="s">
-        <v>6499</v>
-      </c>
-      <c r="F1909" t="s">
-        <v>6500</v>
-      </c>
-      <c r="G1909" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1910" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1910" t="s">
-        <v>6501</v>
-      </c>
-      <c r="B1910" t="s">
-        <v>6502</v>
-      </c>
-      <c r="C1910" t="s">
-        <v>6503</v>
-      </c>
-      <c r="D1910" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1910" t="s">
-        <v>6503</v>
-      </c>
-      <c r="F1910" t="s">
-        <v>6504</v>
-      </c>
-      <c r="G1910" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1911" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1911" t="s">
-        <v>878</v>
-      </c>
-      <c r="B1911" t="s">
-        <v>6505</v>
-      </c>
-      <c r="C1911" t="s">
-        <v>6506</v>
-      </c>
-      <c r="D1911" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1911" t="s">
-        <v>6507</v>
-      </c>
-      <c r="F1911" t="s">
-        <v>6508</v>
-      </c>
-      <c r="G1911" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1912" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1912" t="s">
-        <v>6509</v>
-      </c>
-      <c r="B1912" t="s">
-        <v>6510</v>
-      </c>
-      <c r="C1912" t="s">
-        <v>6511</v>
-      </c>
-      <c r="D1912" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1912" t="s">
-        <v>6511</v>
-      </c>
-      <c r="F1912" t="s">
-        <v>6512</v>
-      </c>
-      <c r="G1912" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1913" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1913" t="s">
-        <v>6513</v>
-      </c>
-      <c r="B1913" t="s">
-        <v>6514</v>
-      </c>
-      <c r="C1913" t="s">
-        <v>6515</v>
-      </c>
-      <c r="D1913" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1913" t="s">
-        <v>6515</v>
-      </c>
-      <c r="F1913" t="s">
-        <v>6516</v>
-      </c>
-      <c r="G1913" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1914" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1914" t="s">
-        <v>6517</v>
-      </c>
-      <c r="B1914" t="s">
-        <v>6518</v>
-      </c>
-      <c r="C1914" t="s">
-        <v>6519</v>
-      </c>
-      <c r="D1914" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1914" t="s">
-        <v>6519</v>
-      </c>
-      <c r="F1914" t="s">
-        <v>6520</v>
-      </c>
-      <c r="G1914" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1915" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1915" t="s">
-        <v>6521</v>
-      </c>
-      <c r="B1915" t="s">
-        <v>6522</v>
-      </c>
-      <c r="C1915" t="s">
-        <v>6523</v>
-      </c>
-      <c r="D1915" t="s">
-        <v>6524</v>
-      </c>
-      <c r="E1915" t="s">
-        <v>6523</v>
-      </c>
-      <c r="F1915" t="s">
-        <v>6525</v>
-      </c>
-      <c r="G1915" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1916" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1916" t="s">
-        <v>914</v>
-      </c>
-      <c r="B1916" t="s">
-        <v>6526</v>
-      </c>
-      <c r="C1916" t="s">
-        <v>6527</v>
-      </c>
-      <c r="D1916" t="s">
-        <v>6528</v>
-      </c>
-      <c r="E1916" t="s">
-        <v>6529</v>
-      </c>
-      <c r="F1916" t="s">
-        <v>6530</v>
-      </c>
-      <c r="G1916" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1917" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1917" t="s">
-        <v>6531</v>
-      </c>
-      <c r="B1917" t="s">
-        <v>6532</v>
-      </c>
-      <c r="C1917" t="s">
-        <v>6533</v>
-      </c>
-      <c r="D1917" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1917" t="s">
-        <v>6533</v>
-      </c>
-      <c r="F1917" t="s">
-        <v>6534</v>
-      </c>
-      <c r="G1917" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1918" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1918" t="s">
-        <v>3512</v>
-      </c>
-      <c r="B1918" t="s">
-        <v>6453</v>
-      </c>
-      <c r="C1918" t="s">
-        <v>6535</v>
-      </c>
-      <c r="D1918" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1918" t="s">
-        <v>6535</v>
-      </c>
-      <c r="F1918" t="s">
-        <v>6536</v>
-      </c>
-      <c r="G1918" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1919" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1919" t="s">
-        <v>4587</v>
-      </c>
-      <c r="B1919" t="s">
-        <v>6537</v>
-      </c>
-      <c r="C1919" t="s">
-        <v>6538</v>
-      </c>
-      <c r="D1919" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1919" t="s">
-        <v>6538</v>
-      </c>
-      <c r="F1919" t="s">
-        <v>6539</v>
-      </c>
-      <c r="G1919" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1920" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1920" t="s">
-        <v>6540</v>
-      </c>
-      <c r="B1920" t="s">
-        <v>6541</v>
-      </c>
-      <c r="C1920" t="s">
-        <v>6542</v>
-      </c>
-      <c r="D1920" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1920" t="s">
-        <v>6542</v>
-      </c>
-      <c r="F1920" t="s">
-        <v>6543</v>
-      </c>
-      <c r="G1920" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1921" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1921" t="s">
-        <v>6544</v>
-      </c>
-      <c r="B1921" t="s">
-        <v>6514</v>
-      </c>
-      <c r="C1921" t="s">
-        <v>6545</v>
-      </c>
-      <c r="D1921" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1921" t="s">
-        <v>6546</v>
-      </c>
-      <c r="F1921" t="s">
-        <v>6547</v>
-      </c>
-      <c r="G1921" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1922" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1922" t="s">
-        <v>940</v>
-      </c>
-      <c r="B1922" t="s">
-        <v>6548</v>
-      </c>
-      <c r="C1922" t="s">
-        <v>6549</v>
-      </c>
-      <c r="D1922" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1922" t="s">
-        <v>6549</v>
-      </c>
-      <c r="F1922" t="s">
-        <v>6550</v>
-      </c>
-      <c r="G1922" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1923" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1923" t="s">
-        <v>3520</v>
-      </c>
-      <c r="B1923" t="s">
-        <v>6551</v>
-      </c>
-      <c r="C1923" t="s">
-        <v>6552</v>
-      </c>
-      <c r="D1923" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1923" t="s">
-        <v>6553</v>
-      </c>
-      <c r="F1923" t="s">
-        <v>6554</v>
-      </c>
-      <c r="G1923" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1924" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1924" t="s">
-        <v>5498</v>
-      </c>
-      <c r="B1924" t="s">
-        <v>6555</v>
-      </c>
-      <c r="C1924" t="s">
-        <v>6556</v>
-      </c>
-      <c r="D1924" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1924" t="s">
-        <v>6556</v>
-      </c>
-      <c r="F1924" t="s">
-        <v>6557</v>
-      </c>
-      <c r="G1924" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1925" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1925" t="s">
-        <v>6558</v>
-      </c>
-      <c r="B1925" t="s">
-        <v>6559</v>
-      </c>
-      <c r="C1925" t="s">
-        <v>6560</v>
-      </c>
-      <c r="D1925" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1925" t="s">
-        <v>6560</v>
-      </c>
-      <c r="F1925" t="s">
-        <v>6561</v>
-      </c>
-      <c r="G1925" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1926" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1926" t="s">
-        <v>6562</v>
-      </c>
-      <c r="B1926" t="s">
-        <v>6563</v>
-      </c>
-      <c r="C1926" t="s">
-        <v>6564</v>
-      </c>
-      <c r="D1926" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1926" t="s">
-        <v>6564</v>
-      </c>
-      <c r="F1926" t="s">
-        <v>6565</v>
-      </c>
-      <c r="G1926" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1927" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1927" t="s">
-        <v>6566</v>
-      </c>
-      <c r="B1927" t="s">
-        <v>6522</v>
-      </c>
-      <c r="C1927" t="s">
-        <v>6567</v>
-      </c>
-      <c r="D1927" t="s">
-        <v>6524</v>
-      </c>
-      <c r="E1927" t="s">
-        <v>6567</v>
-      </c>
-      <c r="F1927" t="s">
-        <v>6568</v>
-      </c>
-      <c r="G1927" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1928" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1928" t="s">
-        <v>6569</v>
-      </c>
-      <c r="B1928" t="s">
-        <v>6570</v>
-      </c>
-      <c r="C1928" t="s">
-        <v>6571</v>
-      </c>
-      <c r="D1928" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1928" t="s">
-        <v>6572</v>
-      </c>
-      <c r="F1928" t="s">
-        <v>6573</v>
-      </c>
-      <c r="G1928" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1929" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1929" t="s">
-        <v>6574</v>
-      </c>
-      <c r="B1929" t="s">
-        <v>6575</v>
-      </c>
-      <c r="C1929" t="s">
-        <v>6576</v>
-      </c>
-      <c r="D1929" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1929" t="s">
-        <v>6576</v>
-      </c>
-      <c r="F1929" t="s">
-        <v>6577</v>
-      </c>
-      <c r="G1929" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1930" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1930" t="s">
-        <v>980</v>
-      </c>
-      <c r="B1930" t="s">
-        <v>6578</v>
-      </c>
-      <c r="C1930" t="s">
-        <v>6579</v>
-      </c>
-      <c r="D1930" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1930" t="s">
-        <v>6579</v>
-      </c>
-      <c r="F1930" t="s">
-        <v>6580</v>
-      </c>
-      <c r="G1930" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1931" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1931" t="s">
-        <v>6581</v>
-      </c>
-      <c r="B1931" t="s">
-        <v>6582</v>
-      </c>
-      <c r="C1931" t="s">
-        <v>6583</v>
-      </c>
-      <c r="D1931" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1931" t="s">
-        <v>6583</v>
-      </c>
-      <c r="F1931" t="s">
-        <v>6584</v>
-      </c>
-      <c r="G1931" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1932" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1932" t="s">
-        <v>6585</v>
-      </c>
-      <c r="B1932" t="s">
-        <v>6586</v>
-      </c>
-      <c r="C1932" t="s">
-        <v>6587</v>
-      </c>
-      <c r="D1932" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1932" t="s">
-        <v>6587</v>
-      </c>
-      <c r="F1932" t="s">
-        <v>6588</v>
-      </c>
-      <c r="G1932" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1933" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1933" t="s">
-        <v>6589</v>
-      </c>
-      <c r="B1933" t="s">
-        <v>6590</v>
-      </c>
-      <c r="C1933" t="s">
-        <v>6591</v>
-      </c>
-      <c r="D1933" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1933" t="s">
-        <v>6592</v>
-      </c>
-      <c r="F1933" t="s">
-        <v>6593</v>
-      </c>
-      <c r="G1933" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1934" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1934" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B1934" t="s">
-        <v>6594</v>
-      </c>
-      <c r="C1934" t="s">
-        <v>6595</v>
-      </c>
-      <c r="D1934" t="s">
-        <v>6596</v>
-      </c>
-      <c r="E1934" t="s">
-        <v>6597</v>
-      </c>
-      <c r="F1934" t="s">
-        <v>6598</v>
-      </c>
-      <c r="G1934" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1935" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1935" t="s">
-        <v>6599</v>
-      </c>
-      <c r="B1935" t="s">
-        <v>6600</v>
-      </c>
-      <c r="C1935" t="s">
-        <v>6601</v>
-      </c>
-      <c r="D1935" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1935" t="s">
-        <v>6601</v>
-      </c>
-      <c r="F1935" t="s">
-        <v>6602</v>
-      </c>
-      <c r="G1935" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1936" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1936" t="s">
-        <v>6603</v>
-      </c>
-      <c r="B1936" t="s">
-        <v>6604</v>
-      </c>
-      <c r="C1936" t="s">
-        <v>6605</v>
-      </c>
-      <c r="D1936" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1936" t="s">
-        <v>6605</v>
-      </c>
-      <c r="F1936" t="s">
-        <v>6606</v>
-      </c>
-      <c r="G1936" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1937" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1937" t="s">
-        <v>6607</v>
-      </c>
-      <c r="B1937" t="s">
-        <v>6608</v>
-      </c>
-      <c r="C1937" t="s">
-        <v>6609</v>
-      </c>
-      <c r="D1937" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1937" t="s">
-        <v>6609</v>
-      </c>
-      <c r="F1937" t="s">
-        <v>6610</v>
-      </c>
-      <c r="G1937" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1938" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1938" t="s">
-        <v>6611</v>
-      </c>
-      <c r="B1938" t="s">
-        <v>6612</v>
-      </c>
-      <c r="C1938" t="s">
-        <v>6613</v>
-      </c>
-      <c r="D1938" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1938" t="s">
-        <v>6613</v>
-      </c>
-      <c r="F1938" t="s">
-        <v>6614</v>
-      </c>
-      <c r="G1938" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1939" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1939" t="s">
-        <v>6615</v>
-      </c>
-      <c r="B1939" t="s">
-        <v>6616</v>
-      </c>
-      <c r="C1939" t="s">
-        <v>6617</v>
-      </c>
-      <c r="D1939" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1939" t="s">
-        <v>6617</v>
-      </c>
-      <c r="F1939" t="s">
-        <v>6618</v>
-      </c>
-      <c r="G1939" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1940" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1940" t="s">
-        <v>6619</v>
-      </c>
-      <c r="B1940" t="s">
-        <v>6620</v>
-      </c>
-      <c r="C1940" t="s">
-        <v>6621</v>
-      </c>
-      <c r="D1940" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1940" t="s">
-        <v>6621</v>
-      </c>
-      <c r="F1940" t="s">
-        <v>6622</v>
-      </c>
-      <c r="G1940" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1941" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1941" t="s">
-        <v>6623</v>
-      </c>
-      <c r="B1941" t="s">
-        <v>6624</v>
-      </c>
-      <c r="C1941" t="s">
-        <v>6625</v>
-      </c>
-      <c r="D1941" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1941" t="s">
-        <v>6625</v>
-      </c>
-      <c r="F1941" t="s">
-        <v>6626</v>
-      </c>
-      <c r="G1941" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1942" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1942" t="s">
-        <v>6627</v>
-      </c>
-      <c r="B1942" t="s">
-        <v>6628</v>
-      </c>
-      <c r="C1942" t="s">
-        <v>6629</v>
-      </c>
-      <c r="D1942" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1942" t="s">
-        <v>6629</v>
-      </c>
-      <c r="F1942" t="s">
-        <v>6630</v>
-      </c>
-      <c r="G1942" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1943" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1943" t="s">
-        <v>6631</v>
-      </c>
-      <c r="B1943" t="s">
-        <v>6632</v>
-      </c>
-      <c r="C1943" t="s">
-        <v>6633</v>
-      </c>
-      <c r="D1943" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1943" t="s">
-        <v>6633</v>
-      </c>
-      <c r="F1943" t="s">
-        <v>6634</v>
-      </c>
-      <c r="G1943" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1944" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1944" t="s">
-        <v>6635</v>
-      </c>
-      <c r="B1944" t="s">
-        <v>6636</v>
-      </c>
-      <c r="C1944" t="s">
-        <v>6637</v>
-      </c>
-      <c r="D1944" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1944" t="s">
-        <v>6638</v>
-      </c>
-      <c r="F1944" t="s">
-        <v>6639</v>
-      </c>
-      <c r="G1944" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1945" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1945" t="s">
-        <v>4636</v>
-      </c>
-      <c r="B1945" t="s">
-        <v>6640</v>
-      </c>
-      <c r="C1945" t="s">
-        <v>6641</v>
-      </c>
-      <c r="D1945" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1945" t="s">
-        <v>6641</v>
-      </c>
-      <c r="F1945" t="s">
-        <v>6642</v>
-      </c>
-      <c r="G1945" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1946" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1946" t="s">
-        <v>6643</v>
-      </c>
-      <c r="B1946" t="s">
-        <v>6640</v>
-      </c>
-      <c r="C1946" t="s">
-        <v>6644</v>
-      </c>
-      <c r="D1946" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1946" t="s">
-        <v>6644</v>
-      </c>
-      <c r="F1946" t="s">
-        <v>6645</v>
-      </c>
-      <c r="G1946" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1947" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1947" t="s">
-        <v>6646</v>
-      </c>
-      <c r="B1947" t="s">
-        <v>6647</v>
-      </c>
-      <c r="C1947" t="s">
-        <v>6648</v>
-      </c>
-      <c r="D1947" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1947" t="s">
-        <v>6648</v>
-      </c>
-      <c r="F1947" t="s">
-        <v>6649</v>
-      </c>
-      <c r="G1947" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1948" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1948" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B1948" t="s">
-        <v>6650</v>
-      </c>
-      <c r="C1948" t="s">
-        <v>6651</v>
-      </c>
-      <c r="D1948" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1948" t="s">
-        <v>6652</v>
-      </c>
-      <c r="F1948" t="s">
-        <v>6653</v>
-      </c>
-      <c r="G1948" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1949" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1949" t="s">
-        <v>6654</v>
-      </c>
-      <c r="B1949" t="s">
-        <v>6655</v>
-      </c>
-      <c r="C1949" t="s">
-        <v>6656</v>
-      </c>
-      <c r="D1949" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1949" t="s">
-        <v>6656</v>
-      </c>
-      <c r="F1949" t="s">
-        <v>6657</v>
-      </c>
-      <c r="G1949" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1950" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1950" t="s">
-        <v>6658</v>
-      </c>
-      <c r="B1950" t="s">
-        <v>6659</v>
-      </c>
-      <c r="C1950" t="s">
-        <v>6660</v>
-      </c>
-      <c r="D1950" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1950" t="s">
-        <v>6660</v>
-      </c>
-      <c r="F1950" t="s">
-        <v>6661</v>
-      </c>
-      <c r="G1950" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1951" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1951" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B1951" t="s">
-        <v>6662</v>
-      </c>
-      <c r="C1951" t="s">
-        <v>6663</v>
-      </c>
-      <c r="D1951" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1951" t="s">
-        <v>6663</v>
-      </c>
-      <c r="F1951" t="s">
-        <v>6664</v>
-      </c>
-      <c r="G1951" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1952" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1952" t="s">
-        <v>6665</v>
-      </c>
-      <c r="B1952" t="s">
-        <v>6666</v>
-      </c>
-      <c r="C1952" t="s">
-        <v>6667</v>
-      </c>
-      <c r="D1952" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1952" t="s">
-        <v>6667</v>
-      </c>
-      <c r="F1952" t="s">
-        <v>6668</v>
-      </c>
-      <c r="G1952" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1953" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1953" t="s">
-        <v>6669</v>
-      </c>
-      <c r="B1953" t="s">
-        <v>6670</v>
-      </c>
-      <c r="C1953" t="s">
-        <v>6671</v>
-      </c>
-      <c r="D1953" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1953" t="s">
-        <v>6671</v>
-      </c>
-      <c r="F1953" t="s">
-        <v>6672</v>
-      </c>
-      <c r="G1953" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="1954" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1954" t="s">
-        <v>6673</v>
-      </c>
-      <c r="B1954" t="s">
-        <v>6674</v>
-      </c>
-      <c r="C1954" t="s">
-        <v>6675</v>
-      </c>
-      <c r="D1954" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1954" t="s">
-        <v>6675</v>
-      </c>
-      <c r="F1954" t="s">
-        <v>6676</v>
-      </c>
-      <c r="G1954" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
+++ b/Dataset/Data-hasil-klasifikasi-positif-negatif.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Faddli-Lindra-Wibowo/MyProject/Twitter-Sentiment-Analysis-with-Streamlit/Dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C65C031-AD1C-0D41-95B3-BD5823FE39D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822AE320-40C2-F947-96BA-EB90219FCF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="600" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9058" uniqueCount="4489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10848" uniqueCount="5358">
   <si>
     <t>text</t>
   </si>
@@ -13487,6 +13487,2613 @@
   </si>
   <si>
     <t>Sandiaga: Bangun Rumah DP 0% Lebih Simpel Dibanding Tol Cipali #AniesSandiJawaraJakarta #GubernurGu3 #OkeOce #DP0%</t>
+  </si>
+  <si>
+    <t>puas belanja shopee diskon gratis ongkir jual kurir sopan</t>
+  </si>
+  <si>
+    <t>aplikasi bagus bantu</t>
+  </si>
+  <si>
+    <t>kecewa shopee eror checkout aja susah</t>
+  </si>
+  <si>
+    <t>shope bagus suka banget shopee</t>
+  </si>
+  <si>
+    <t>kecewa gratis ongkir mahal bayar</t>
+  </si>
+  <si>
+    <t>kecewa ubah ekspedisi kirim cepat ongkirnya murah mahal</t>
+  </si>
+  <si>
+    <t>bagus banget puas emas rapi banget makasih ya seller</t>
+  </si>
+  <si>
+    <t>aplikasi bagus bonus</t>
+  </si>
+  <si>
+    <t>aplikasi eror bikin pusing susah bayar susah cari</t>
+  </si>
+  <si>
+    <t>kecewa banget uang pesan</t>
+  </si>
+  <si>
+    <t>shopee emang keren banget sayang shopee later pakai</t>
+  </si>
+  <si>
+    <t>bagus tahan ya</t>
+  </si>
+  <si>
+    <t>bagus tingkat ya shopee</t>
+  </si>
+  <si>
+    <t>shopee keren cuman jual mahal barang mesti ken</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi</t>
+  </si>
+  <si>
+    <t>lebih barang jual lengkap luat negeri proses bayar mudah aman kurang loading banget cuman masukin barang keranjang sih chace nya tambah versi baru plus clear chace admin aja loulasan lengkap</t>
+  </si>
+  <si>
+    <t>makasih shopee mantap kali pesan bravo shopee masker untuh halang virus korona dunia wabil khusus indonesia raya cinta hehe</t>
+  </si>
+  <si>
+    <t>suka barang nya kirim nya kadang</t>
+  </si>
+  <si>
+    <t>barang cari</t>
+  </si>
+  <si>
+    <t>terimakasih shopee</t>
+  </si>
+  <si>
+    <t>barang sesuai gambar</t>
+  </si>
+  <si>
+    <t>suka moga aman amanah ya terimakasih shopee</t>
+  </si>
+  <si>
+    <t>mesan program perintah rumah aja enak</t>
+  </si>
+  <si>
+    <t>jaga percaya langgan</t>
+  </si>
+  <si>
+    <t>belanja online mudah</t>
+  </si>
+  <si>
+    <t>layan muas</t>
+  </si>
+  <si>
+    <t>moga</t>
+  </si>
+  <si>
+    <t>pantau kualitas dr produsenterutama barang elektronik</t>
+  </si>
+  <si>
+    <t>mantap harga murah bikin pasar ofline ngadat</t>
+  </si>
+  <si>
+    <t>suka belanja shopee nya hidup virus covid ongkir harga produk tolong potong murah beli</t>
+  </si>
+  <si>
+    <t>tolong baik performa aplikasi masak beli alat elektronik total belanja ya ribu hitung manual ya paksa kurang bintang</t>
+  </si>
+  <si>
+    <t>nyaman belanja shopejadi ribet</t>
+  </si>
+  <si>
+    <t>makasih shopee belanja mudah tinggal nunggu rumah pesan deh</t>
+  </si>
+  <si>
+    <t>bagus tambah</t>
+  </si>
+  <si>
+    <t>free ongkir disc belanja ratus ribu shopee paylater teman gw jarang beli shopee paylater</t>
+  </si>
+  <si>
+    <t>baik aman nyaman</t>
+  </si>
+  <si>
+    <t>beli barang share lokasi nya beli online</t>
+  </si>
+  <si>
+    <t>tingkat aman shopeepay nya</t>
+  </si>
+  <si>
+    <t>shopee keren</t>
+  </si>
+  <si>
+    <t>pinter milih toko barang murah bagus suka free ongkir toko nya shopee ya bikin promo free ongkir nya karenaa kirim lokasi mahal banget kalo ongkirnya</t>
+  </si>
+  <si>
+    <t>lumayan bantu sayang produk  gambar nya terkadang beda ekspektasi nya indah nyata</t>
+  </si>
+  <si>
+    <t>ya sempurna aja dunia senang shopee tingkat aman nyaman beli terimakasi shopee</t>
+  </si>
+  <si>
+    <t>asalamualikum nanya kalo buka shopee pakai email pasword downlod dijawa soalny downlodmakasih</t>
+  </si>
+  <si>
+    <t>harga murah cepat sampaibanyakin gratis ongkir mahal ongkirnya biar belanja bnyak</t>
+  </si>
+  <si>
+    <t>maaf kak aplikasi shopee bagus banget jasa kirim pakait nya mahal banget harga sampe gitu tolong baik biar langgan maaf ya ucap ganggu aplikasi nya bagus banget</t>
+  </si>
+  <si>
+    <t>bagus kadang suka loading</t>
+  </si>
+  <si>
+    <t>kasih bintang langgan saran sdikit baik lot klau louding shopee laterku nol tgihan ku bayar sblm jtuh tempo koin main tanam ama hari smkin sdkit ongkir lokal gak prnah rp dll</t>
+  </si>
+  <si>
+    <t>kasi bintang ajasoalnya masuk cari produk gd muncultolong baik donk</t>
+  </si>
+  <si>
+    <t>shopee bantu shopee paylater sayang ongkir gerat jarang</t>
+  </si>
+  <si>
+    <t>shopee aplikasi ok sih belanja shopee pas chekout ya kyak nggk rincian belanja gtu</t>
+  </si>
+  <si>
+    <t>bantu kaum mager wkwk</t>
+  </si>
+  <si>
+    <t>pesan bagus mudahn depan layan matang mantap lindung konsumen</t>
+  </si>
+  <si>
+    <t>senang</t>
+  </si>
+  <si>
+    <t>iklan bagus barang nya sesuai pesan</t>
+  </si>
+  <si>
+    <t>alhamdulillah aplikasi amanah</t>
+  </si>
+  <si>
+    <t>alam era new normal seru belanja aplikasi</t>
+  </si>
+  <si>
+    <t>jalan mulusbelum kerugiansemoga depan undi shopee</t>
+  </si>
+  <si>
+    <t>oke deh top</t>
+  </si>
+  <si>
+    <t>keren abis nih</t>
+  </si>
+  <si>
+    <t>langgan belanja</t>
+  </si>
+  <si>
+    <t>moga depa ok</t>
+  </si>
+  <si>
+    <t>saranin bayar</t>
+  </si>
+  <si>
+    <t>aplikasi belanja efektif manfaat</t>
+  </si>
+  <si>
+    <t>tambahin promo min</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasinyatapi masalah mes barang</t>
+  </si>
+  <si>
+    <t>kadang lot banget overall</t>
+  </si>
+  <si>
+    <t>orang tau sophie mudah belanja aman</t>
+  </si>
+  <si>
+    <t>bagus</t>
+  </si>
+  <si>
+    <t>terima kasih bantu</t>
+  </si>
+  <si>
+    <t>aplikasi si oke ya sen lancar aja ko koin hasil belanja tarik spam kasih bintang review jujur bagus bagus ko gin</t>
+  </si>
+  <si>
+    <t>suka</t>
+  </si>
+  <si>
+    <t>asalamualaikum aplikasi bagus banget blom tau hp kentang kalo login nya banget aplikasi nya kaga salah salah hp gw doank thank  you</t>
+  </si>
+  <si>
+    <t>shopee dh bagus gtu koneksi nya skarang bntng dlu yh min</t>
+  </si>
+  <si>
+    <t>layan bagus</t>
+  </si>
+  <si>
+    <t>lumayan okelaa</t>
+  </si>
+  <si>
+    <t>suka pakai shoppepay akun pakai punya yaada yatolong</t>
+  </si>
+  <si>
+    <t>suka banget belanja shopee keluarin voucher gratis ongkir</t>
+  </si>
+  <si>
+    <t>bagus aplikasi nya kadang lelet aja</t>
+  </si>
+  <si>
+    <t>poko suka banget bikin mudah kalo barang bagus zonk ya gantung nya aja nentuin toko ngirim harga kualitas sih inti mah yaa</t>
+  </si>
+  <si>
+    <t>shopee membantuterimaksih shopee moga maju</t>
+  </si>
+  <si>
+    <t>kode pos kota lurah ya</t>
+  </si>
+  <si>
+    <t>puas aplikasi</t>
+  </si>
+  <si>
+    <t>aplikasi bagus pengirimanya cepat akurat tambahin cod bayar bagus makasih shopee</t>
+  </si>
+  <si>
+    <t>kurang shopee shopee update</t>
+  </si>
+  <si>
+    <t>muas</t>
+  </si>
+  <si>
+    <t>shope adakan tabung emas ataw tabung saldo khusu jual dana potong tabung bentuk emas ataw nominal hasil jual selesai jual tabung</t>
+  </si>
+  <si>
+    <t>kena rachun shopee racun shopee tiktokawal ny iseng iseng aja belanja shopee stelah kena rachun diskon ny lohk bikin sedihmasa kaos tie dye harga nya sm lengan rbu shopi mart gak alfa ato iulasan lengkap</t>
+  </si>
+  <si>
+    <t>produk kirim nya sesuai</t>
+  </si>
+  <si>
+    <t>suka coddan barang sesuai gambar pesanno tipu</t>
+  </si>
+  <si>
+    <t>mantap discount  free ongkir</t>
+  </si>
+  <si>
+    <t>belanja onlin mudahbelanja rumah tinggal tunggu rumah harisemoga kilat kirim biar orang suka belanja onlinsukses shopee</t>
+  </si>
+  <si>
+    <t>bagus orang ya</t>
+  </si>
+  <si>
+    <t>belanja shopee alhamdulillah kecewa aplikasinyahanya komplain ekspedisi  balikpapan memberitahukan barang terima barang blm rumah esok diantaritu kali teulasan lengkap</t>
+  </si>
+  <si>
+    <t>mantapbanyakin gratis ongkir</t>
+  </si>
+  <si>
+    <t>love shopee mudah belanja shopee ayok kakak online shopee gratis ongkir voucher casback</t>
+  </si>
+  <si>
+    <t>barang sesuaitapi ongkir mahal kdangan sihtapi puaspengiriman cepat</t>
+  </si>
+  <si>
+    <t>keren dah walupun terkadang shopee pay nya eror</t>
+  </si>
+  <si>
+    <t>bagus banget nget nget ongkir ny suka mahal</t>
+  </si>
+  <si>
+    <t>pagi sms hadiah uang shopee bneran shopee tipu</t>
+  </si>
+  <si>
+    <t>lumayan belanja shopee mudah voucher nya</t>
+  </si>
+  <si>
+    <t>lumayan deh shopee bikin event ya</t>
+  </si>
+  <si>
+    <t>shopee oke pesan cepat</t>
+  </si>
+  <si>
+    <t>lumamayan bantu beli barang pergi tingal pesan sajah kirim cepatt</t>
+  </si>
+  <si>
+    <t>sip pokok shopee</t>
+  </si>
+  <si>
+    <t>aplikasi baik coba deh flash sale dibanyakin stok suka</t>
+  </si>
+  <si>
+    <t>gratis ongkirnya</t>
+  </si>
+  <si>
+    <t>shopee mantap harga turunin</t>
+  </si>
+  <si>
+    <t>belanja ribet shopee ja</t>
+  </si>
+  <si>
+    <t>bagus bangettapi kadang kadang loading</t>
+  </si>
+  <si>
+    <t>aplikasi spay later</t>
+  </si>
+  <si>
+    <t>puas aplikasi shoppe aplikasi juta umat cod ya</t>
+  </si>
+  <si>
+    <t>download shopee baru upload video retur barang</t>
+  </si>
+  <si>
+    <t>kualitas barang</t>
+  </si>
+  <si>
+    <t>mudah pilih butuh gratis ongkiry</t>
+  </si>
+  <si>
+    <t>pakai shopee puas banget tolong shopeepaylaternya huhu</t>
+  </si>
+  <si>
+    <t>voucher gratis ongkirnya bangetdulu bulan voucher</t>
+  </si>
+  <si>
+    <t>gratis ongkir nya</t>
+  </si>
+  <si>
+    <t>bagus mantap</t>
+  </si>
+  <si>
+    <t>kadang suka ngelag rata oke sayang voucher gratis ongkir</t>
+  </si>
+  <si>
+    <t>neng banget belanja shopee rugi deh</t>
+  </si>
+  <si>
+    <t>aplikasi bantu banget rakyat indonesia situasi sperti skg covid- mlanda tetep belanja rumah terimakasih shopee</t>
+  </si>
+  <si>
+    <t>respon cepatongkir murah</t>
+  </si>
+  <si>
+    <t>puas banget</t>
+  </si>
+  <si>
+    <t>langgan setia sampe aplikasi shopee pinjam sayang stelah aju tuju pd aju smpe dana cair minggu complain chat email hasil judul phpin nihh shopee</t>
+  </si>
+  <si>
+    <t>shopee online shop percaya lh pokok</t>
+  </si>
+  <si>
+    <t>loadingnya pakai wifi pakait data</t>
+  </si>
+  <si>
+    <t>mudah belanjasayakn orang jarang mana</t>
+  </si>
+  <si>
+    <t>lumayan bagus buka lambat</t>
+  </si>
+  <si>
+    <t>sebenernya shopee bagus cuman saran aja kembaliin fitur wishlist ketandain biar susah ubah pesan wishlist pas cekout barang cek koin pelit kasih koin rangin mulu sih koin hari</t>
+  </si>
+  <si>
+    <t>belanja nyaman belanja aman</t>
+  </si>
+  <si>
+    <t>bagus mntapi cumannap guna panjang pembayarantiba cancel sndari olh sophee</t>
+  </si>
+  <si>
+    <t>belanja mudah harga saing bnyak voucher free ongkir hrus teliti beli barang murah heheh kualitas sesuai harga</t>
+  </si>
+  <si>
+    <t>suka banget deh</t>
+  </si>
+  <si>
+    <t>bagusuntuk layan puasbarang pesan sesuaicuma sampai estimasi kirim minggu</t>
+  </si>
+  <si>
+    <t>puas belanja shopee</t>
+  </si>
+  <si>
+    <t>suka belanja shopee sih sayang voucher free ongkirnya minimal barang luar jawa otomatis ongkirnya mahal  dibanyakin vouchernya</t>
+  </si>
+  <si>
+    <t>simple kompetitif</t>
+  </si>
+  <si>
+    <t>barang nya baguss</t>
+  </si>
+  <si>
+    <t>langgan puas shopee tolong fitur checkout shopepay saldo kurang bayar cod sekian terimakasih</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi shopee nya</t>
+  </si>
+  <si>
+    <t>harga produk bagus produk original</t>
+  </si>
+  <si>
+    <t>bagus shopee bantu jual online</t>
+  </si>
+  <si>
+    <t>kirim ok kurir ok ok</t>
+  </si>
+  <si>
+    <t>gratis ongkirnya suka hilang hilang suka kasih bintang</t>
+  </si>
+  <si>
+    <t>suku belanja aplikasi kadang kecewa pesan barang sesuai aja konfirmasi suka kirim cepat</t>
+  </si>
+  <si>
+    <t>shopee bantu belanja ribet kualitas produk nya bagus sesuai pict nya</t>
+  </si>
+  <si>
+    <t>bagus sih cuman kendala nya klaim voucher gratis ongkir gabisa pakai voucher nya</t>
+  </si>
+  <si>
+    <t>assalamu alaikum warahmatullahi wa barokatuh nayla kasih bintang shopee foto bel de lengkap</t>
+  </si>
+  <si>
+    <t>senang pakai shopee order barang terima cacat akun nonaktif cod gagal order lapak barang kosong</t>
+  </si>
+  <si>
+    <t>shopee belanja mudahwalaupun kasang ongkos kirim mahal harga barang beli</t>
+  </si>
+  <si>
+    <t>aplikasi online shop bagus sih gratis ongkir sampe rp sayang gak produk sampe segitu ongkirnya jasa kirim shopee express standard nggak cod sayang banget cod ya pakai  ongkirnya mahal banget produk ulas lengkap</t>
+  </si>
+  <si>
+    <t>hasil barang beli bagus layan cepat</t>
+  </si>
+  <si>
+    <t>shopee gratis ongkir shopeepay shopeepay ya nanggung ongkir shopee banget gratis ongkir ubah zaman</t>
+  </si>
+  <si>
+    <t>mudah cepat layan terimakasih shopee</t>
+  </si>
+  <si>
+    <t>tingkat aplikasi bagus</t>
+  </si>
+  <si>
+    <t>mantap shopee baik</t>
+  </si>
+  <si>
+    <t>lumayan cari pengahasilan sinitapi malas ny diperbaruin</t>
+  </si>
+  <si>
+    <t>bantu</t>
+  </si>
+  <si>
+    <t>bagus layan muas</t>
+  </si>
+  <si>
+    <t>shopee keren bantu beli butuh cepat</t>
+  </si>
+  <si>
+    <t>suka belanja dishopee percaya baik deh pokok</t>
+  </si>
+  <si>
+    <t>hai shopee suka banget kamutapi jasa kirim otomatis beli nggak bikin pesan nggak check out dehgimana coba</t>
+  </si>
+  <si>
+    <t>sekian belanja shopee kecewa</t>
+  </si>
+  <si>
+    <t>shopee mantap tahan</t>
+  </si>
+  <si>
+    <t>bagus terimakasih shopee</t>
+  </si>
+  <si>
+    <t>belanja shoppe alhamdulillah barang sesuai tahan tingkat layan moga nyecewain</t>
+  </si>
+  <si>
+    <t>bantu semogaa shopee ny teliti produk jual biar palsu gitu ngerugiin nama shope hhe</t>
+  </si>
+  <si>
+    <t>kualitas produk pngiriman barang aja ongkir mahal</t>
+  </si>
+  <si>
+    <t>pakai shoppe emang mantep pas fitur paylater kagak ya tolong shoppe adain fitur paylater ngebantu usaha moga depan</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi bantu jual ngerti daftar rekening masuk nya sms pemberitahuan kode nya tolong bantu nya</t>
+  </si>
+  <si>
+    <t>walaus bagus jual curang bintang aja</t>
+  </si>
+  <si>
+    <t>bravo shopeeharus profesional pilih prodaks murtagus murah bagus</t>
+  </si>
+  <si>
+    <t>moga amanah</t>
+  </si>
+  <si>
+    <t>produk komplit bonus</t>
+  </si>
+  <si>
+    <t>bagus bantu adik minimal belanja gratis ongkir suka app</t>
+  </si>
+  <si>
+    <t>aplikasi bagus banget pokok nya ok lh nggak gwe ketik aplikasi basgus</t>
+  </si>
+  <si>
+    <t>bantu butuh barang toko slow respon balas</t>
+  </si>
+  <si>
+    <t>respown jual cepat</t>
+  </si>
+  <si>
+    <t>bagus shopee layan</t>
+  </si>
+  <si>
+    <t>responnya cepatbelanja shopee aman mudah</t>
+  </si>
+  <si>
+    <t>muas kecewa</t>
+  </si>
+  <si>
+    <t>aplikasi nya bagus kecewa kali aju pinjam shopee leater sukses aplikasi shopee belanja kecewa hapus akun shopee</t>
+  </si>
+  <si>
+    <t>belanja ribet rumah</t>
+  </si>
+  <si>
+    <t>kirim cepat barang sesuai pesan terimakasih shopee</t>
+  </si>
+  <si>
+    <t>bagus tahan</t>
+  </si>
+  <si>
+    <t>banyakin gratis ongkir ya cod nya kasi minim belanja hehe</t>
+  </si>
+  <si>
+    <t>puas</t>
+  </si>
+  <si>
+    <t>layan bagus seller tipu ya</t>
+  </si>
+  <si>
+    <t>responsif komplain beli</t>
+  </si>
+  <si>
+    <t>mudah belanja</t>
+  </si>
+  <si>
+    <t>puaass belanja shopee</t>
+  </si>
+  <si>
+    <t>naik bintang ulas kasih bintang</t>
+  </si>
+  <si>
+    <t>belanja online percaya moga voucher gratis ongkirnya</t>
+  </si>
+  <si>
+    <t>shopee lbh suruh update terussekarang belanja shopee kadang suka lot akut mo ngelacak lokasi barang sampe manakadang kemas barang kirim penjuallemot banget shopeelama banget tampilin gambar mls duluan mo blisekarang shopee gratis ongkirnya lbh banyakulasan lengkap</t>
+  </si>
+  <si>
+    <t>suka belanja shopee</t>
+  </si>
+  <si>
+    <t>layan ceppat muas</t>
+  </si>
+  <si>
+    <t>belanja online ku shopee aja</t>
+  </si>
+  <si>
+    <t>bagus sih bos nyaman kurang ongkirnya mahal bos bandingin toko sebelahya wlwpun bnyk promonya guna</t>
+  </si>
+  <si>
+    <t>gratis ongkirnya shope pay biar smangat belanja nya</t>
+  </si>
+  <si>
+    <t>transaksi nyaman  aman</t>
+  </si>
+  <si>
+    <t>aplikasi keren hasil uang mudah belanja</t>
+  </si>
+  <si>
+    <t>bagus aplikasi nya racun bikin dompet nang</t>
+  </si>
+  <si>
+    <t>bagus beli komplain barang bela jual</t>
+  </si>
+  <si>
+    <t>barang sesuai pesan pokok</t>
+  </si>
+  <si>
+    <t>mantap free ongkirnya</t>
+  </si>
+  <si>
+    <t>banyakin voucher gratis ongkirnya</t>
+  </si>
+  <si>
+    <t>kalo shopee belanja sepatu ukuranya gaxsoalnya blum prnh pke shope nya pke lazadamudahan ja gampng belanja nyabiar lnggann shope</t>
+  </si>
+  <si>
+    <t>moga bantu orang</t>
+  </si>
+  <si>
+    <t>oke belanja sesuai prosedur shopee biar amanah</t>
+  </si>
+  <si>
+    <t>belanja mudahh</t>
+  </si>
+  <si>
+    <t>promo no kaleng belah</t>
+  </si>
+  <si>
+    <t>bagus muas</t>
+  </si>
+  <si>
+    <t>mantap</t>
+  </si>
+  <si>
+    <t>kualitas barang sesuai</t>
+  </si>
+  <si>
+    <t>kirim percaya moga depa maju gratis ongkirv</t>
+  </si>
+  <si>
+    <t>suka baik</t>
+  </si>
+  <si>
+    <t>belanja shopee kendala apa</t>
+  </si>
+  <si>
+    <t>log in makasih shopeega beli hp pakai hp bisatidak merepotkansemoga ya</t>
+  </si>
+  <si>
+    <t>transaksi ok baik aplikasi butuh kuota daerah sinyal bagus berat lambat</t>
+  </si>
+  <si>
+    <t>lumayan puas seller shopee</t>
+  </si>
+  <si>
+    <t>pokok keren aplikasi</t>
+  </si>
+  <si>
+    <t>belanja shopee bagus sesuai pesan</t>
+  </si>
+  <si>
+    <t>bagus mudah belanja era online spt skg</t>
+  </si>
+  <si>
+    <t>alhamdulillah langgan shopee</t>
+  </si>
+  <si>
+    <t>banget belanja kecewa apa butuh shopee toko jujur jual barang sesuai denga foto pajang sih puas aja pakai aplikasi</t>
+  </si>
+  <si>
+    <t>sukses ya aplikasi</t>
+  </si>
+  <si>
+    <t>baik suka</t>
+  </si>
+  <si>
+    <t>beli lebiih aman percaya</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi nya</t>
+  </si>
+  <si>
+    <t>bagus kak kalo tambahin fitur topup gopay pliss banget</t>
+  </si>
+  <si>
+    <t>aplikasi baik ongkir nya free sippp</t>
+  </si>
+  <si>
+    <t>situs belanja online the baik</t>
+  </si>
+  <si>
+    <t>suka banget</t>
+  </si>
+  <si>
+    <t>aplikasi bagus</t>
+  </si>
+  <si>
+    <t>kirim meleset cepat pasti</t>
+  </si>
+  <si>
+    <t>belanja shopee gratis ongkirnya</t>
+  </si>
+  <si>
+    <t>top shoppee</t>
+  </si>
+  <si>
+    <t>kasih bintang aplikasi shopee nya rekomendasi banget deh kecewa langgan terimakasih shopee tambahin bonus nya ya kak belanja shopee hadiah hp canggih sih kak</t>
+  </si>
+  <si>
+    <t>aplikasi bagus tarik</t>
+  </si>
+  <si>
+    <t>kali download langsung barang gratis</t>
+  </si>
+  <si>
+    <t>puas banget belanja shopee</t>
+  </si>
+  <si>
+    <t>sagat guna lanja onlinepengiriman cepat</t>
+  </si>
+  <si>
+    <t>belanja dishopee mudah cepat sesuai pesan neng dehdah langgan</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi syopi suka banget</t>
+  </si>
+  <si>
+    <t>belanja gampang pilih harga nyaman kantong</t>
+  </si>
+  <si>
+    <t>assalamualaikumak suuukkkkaaa baattt aplikasi</t>
+  </si>
+  <si>
+    <t>pakai shopee untungaplikasi dr sabang meraukeyang laincukup</t>
+  </si>
+  <si>
+    <t>suka aplikasi belanja makasih ya shopee</t>
+  </si>
+  <si>
+    <t>toko online shop muas customer nya layan produk</t>
+  </si>
+  <si>
+    <t>cinta banget sm shopee</t>
+  </si>
+  <si>
+    <t>ongkir nya mahalok kakasemoga big shale barang ori ya ka kw hehe</t>
+  </si>
+  <si>
+    <t>baguss</t>
+  </si>
+  <si>
+    <t>barang sesuai pesan</t>
+  </si>
+  <si>
+    <t>harga jangkau pngriman okkualitas djaga ok</t>
+  </si>
+  <si>
+    <t>aman terpercayaaaa</t>
+  </si>
+  <si>
+    <t>terimakasih shopee belanja aja dishopee ya voucher cod nya shopeepay voucher nya bete dehh tolong tingkat ya shopee terimakasih</t>
+  </si>
+  <si>
+    <t>muas terimakasih sukses shopee</t>
+  </si>
+  <si>
+    <t>mantep dah pkoknya</t>
+  </si>
+  <si>
+    <t>terima kasi shopeee pelayanya</t>
+  </si>
+  <si>
+    <t>suka hyung aplikasi nya mudah belanja rumah diskon voucher gratis ongkir nya harga nya kbnykan murah besttt lahhh pokok nya aplikasi racunn warrrbiasaaa sukaa</t>
+  </si>
+  <si>
+    <t>mudah cari beli barang ter utama barang langka daerah</t>
+  </si>
+  <si>
+    <t>puas shopee belanja murah tampa mana</t>
+  </si>
+  <si>
+    <t>murah cepat</t>
+  </si>
+  <si>
+    <t>belanja mudah harga murah</t>
+  </si>
+  <si>
+    <t>layan bagus kadang dr jual cepat merespon</t>
+  </si>
+  <si>
+    <t>shope percaya promo murahh gratis ongkir the baik</t>
+  </si>
+  <si>
+    <t>senang baja shopee</t>
+  </si>
+  <si>
+    <t>barang shopee bangus real pic layan ramah shopee the baik</t>
+  </si>
+  <si>
+    <t>aplikasi favorit belnja onlen</t>
+  </si>
+  <si>
+    <t>belanja shopee</t>
+  </si>
+  <si>
+    <t>alhamdulillah belanja shopee mantap</t>
+  </si>
+  <si>
+    <t>shopee de besss dahh</t>
+  </si>
+  <si>
+    <t>puas belanja shopee selernya rama chasbek gratis ongkir terimakasih shopee</t>
+  </si>
+  <si>
+    <t>terimakasih shopee shopee cepat kilat barang jangkau hobi barang perkakas kerjakarena pekerjasenang kreasi dunia kerja tunjang alat kerja love shopee</t>
+  </si>
+  <si>
+    <t>bagus banagttt tiada</t>
+  </si>
+  <si>
+    <t>shopee bantu butuh shopee shopee favorit banget</t>
+  </si>
+  <si>
+    <t>bagus suka</t>
+  </si>
+  <si>
+    <t>bagus online shop</t>
+  </si>
+  <si>
+    <t>langgan setia barang trima nya senang makasih shopee moga aplikasi olshop indonesia</t>
+  </si>
+  <si>
+    <t>shopee ok banget</t>
+  </si>
+  <si>
+    <t>senengsaran lbh kin gratis ongkiruntuk guna dagang onlinekeamanan tingkat</t>
+  </si>
+  <si>
+    <t>belanja aman promo</t>
+  </si>
+  <si>
+    <t>shopeepay joss</t>
+  </si>
+  <si>
+    <t>okeh makasih uddah respon gratis ongkir cod nya wlwpun banyak bonus guna shopee pay saran biar kalang pakai shopee bonus cashback beli mode cod terimakasih</t>
+  </si>
+  <si>
+    <t>belanja aman percaya mantul</t>
+  </si>
+  <si>
+    <t>top markotop</t>
+  </si>
+  <si>
+    <t>oke mudahdan bantu apa terwujut mana diam rumah sendirishopi om jinapa ingin penuh</t>
+  </si>
+  <si>
+    <t>semogaaa lancar jayaa</t>
+  </si>
+  <si>
+    <t>emang enak shoping online shopee gratis ongkir barang aman</t>
+  </si>
+  <si>
+    <t>belanja aja mudah belanja shopee</t>
+  </si>
+  <si>
+    <t>suka langgan shopee saldo shopeepayku beku kemarin salah pin tolong aktif lagi belanja lagi</t>
+  </si>
+  <si>
+    <t>kirim cepat muas</t>
+  </si>
+  <si>
+    <t>super duper mantul mah shopee harga murah banget focher suka belanha shopee</t>
+  </si>
+  <si>
+    <t>belanja mudah dtn shopee kupon gratis lagimantaplah</t>
+  </si>
+  <si>
+    <t>trmksih shopee sukapengiriman barang cepatbarang mengecewakanpokoknya the baik shopee</t>
+  </si>
+  <si>
+    <t>shopee ist the baik</t>
+  </si>
+  <si>
+    <t>aplkasi bantu saat pandemi</t>
+  </si>
+  <si>
+    <t>bantu nyari barang variasi banding harga toko jual suka</t>
+  </si>
+  <si>
+    <t>mantap shopee</t>
+  </si>
+  <si>
+    <t>barang aman</t>
+  </si>
+  <si>
+    <t>puas belanja shopee alhamdulillah baik</t>
+  </si>
+  <si>
+    <t>suka banget belanja barang beli rata realpict</t>
+  </si>
+  <si>
+    <t>bagus aplication suka</t>
+  </si>
+  <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>keren poko deh mantap</t>
+  </si>
+  <si>
+    <t>aplikasi bantu</t>
+  </si>
+  <si>
+    <t>mantap kata pokok sukses shopee</t>
+  </si>
+  <si>
+    <t>suka deh shopee belanja aman murah percaya gratis ongkir diskon cashback hehehe</t>
+  </si>
+  <si>
+    <t>shopee bagus</t>
+  </si>
+  <si>
+    <t>manfaat oleh beli jual</t>
+  </si>
+  <si>
+    <t>bagus job</t>
+  </si>
+  <si>
+    <t>shopee emang the baik banget harga jangkau</t>
+  </si>
+  <si>
+    <t>bagus banget terimakasih</t>
+  </si>
+  <si>
+    <t>belanja mudah</t>
+  </si>
+  <si>
+    <t>suka shopping sesuai barang harga</t>
+  </si>
+  <si>
+    <t>bagus pokok</t>
+  </si>
+  <si>
+    <t>muas belanja dishopeeyuk gaes ikut belanja shopee</t>
+  </si>
+  <si>
+    <t>pokok puas belanja shopee sukses shopee</t>
+  </si>
+  <si>
+    <t>bantu aplikasi</t>
+  </si>
+  <si>
+    <t>suka blnja shopee rmh ttinggal sen barang dateng</t>
+  </si>
+  <si>
+    <t>bagus barang  mudah dapat murah bnyak diskon belanja bayar top number thank shopeepaylater</t>
+  </si>
+  <si>
+    <t>mudah sayaa belanja online</t>
+  </si>
+  <si>
+    <t>mantap aplikasi bantu belanja terimakasih</t>
+  </si>
+  <si>
+    <t>shopee baik</t>
+  </si>
+  <si>
+    <t>asyik diskon</t>
+  </si>
+  <si>
+    <t>belanja shophie puas banget</t>
+  </si>
+  <si>
+    <t>bagus cepat percaya</t>
+  </si>
+  <si>
+    <t>belanja puas shopeebarang cepat kualitas barang mantap</t>
+  </si>
+  <si>
+    <t>shopee suka gajelas kadang eror</t>
+  </si>
+  <si>
+    <t>suka banget belanja shopee</t>
+  </si>
+  <si>
+    <t>suka belanja shopee promo free ongkirnya</t>
+  </si>
+  <si>
+    <t>suka belanja shopy diskon shopy pay later cicil</t>
+  </si>
+  <si>
+    <t>belanja mudah percaya</t>
+  </si>
+  <si>
+    <t>suka banget belanja</t>
+  </si>
+  <si>
+    <t>mantap suka</t>
+  </si>
+  <si>
+    <t>keren belanja</t>
+  </si>
+  <si>
+    <t>belanja mudah nggak susah susah</t>
+  </si>
+  <si>
+    <t>shoppy like you aplikasi online nomer</t>
+  </si>
+  <si>
+    <t>no commentgood aplikasi</t>
+  </si>
+  <si>
+    <t>aplikasi bagus banget proses</t>
+  </si>
+  <si>
+    <t>barang bagus</t>
+  </si>
+  <si>
+    <t>puas belanja shopee promonya muas gitu gratis ongkir lagiiterimakasi shopee</t>
+  </si>
+  <si>
+    <t>alam belanja shopee memuaskanbarang jual diskon promoproduk sesuai pesananpengiriman cepat kecewa terima kasih</t>
+  </si>
+  <si>
+    <t>belanja tenang rumah mudah dr shopee</t>
+  </si>
+  <si>
+    <t>shopee ku lancar</t>
+  </si>
+  <si>
+    <t>shopee super mantap</t>
+  </si>
+  <si>
+    <t>bagus aplikasi jarang keluarkarena shopee atar pesan rumah</t>
+  </si>
+  <si>
+    <t>puas layan</t>
+  </si>
+  <si>
+    <t>pakai shopee top banget</t>
+  </si>
+  <si>
+    <t>shopee keren suka shopee</t>
+  </si>
+  <si>
+    <t>mantap ni grastis ongkir muluk sesal deh beli beli</t>
+  </si>
+  <si>
+    <t>alam mesan kali kesan coba produk rp nya beneran loh kirim kemas produk rp nya makasih shopee lirik deh</t>
+  </si>
+  <si>
+    <t>shopee cakep</t>
+  </si>
+  <si>
+    <t>suka shopee</t>
+  </si>
+  <si>
+    <t>pandemi belanja online solusi suka shopee</t>
+  </si>
+  <si>
+    <t>cari aja shopee mudah belanja perlu rumah perlu babanyaku perlu belanja moga depan gratis ongkir harga murah ya hehehe sukses shopee</t>
+  </si>
+  <si>
+    <t>layan ramah lumayan cepat</t>
+  </si>
+  <si>
+    <t>alus pis topplah</t>
+  </si>
+  <si>
+    <t>barang sesuai pesan sesuai foto kasih gratis ongkir suuiiippp</t>
+  </si>
+  <si>
+    <t>aman belanja shopee barang pesan shopee bantuin</t>
+  </si>
+  <si>
+    <t>shopee the baik</t>
+  </si>
+  <si>
+    <t>manfaat</t>
+  </si>
+  <si>
+    <t>bantu berbelanjaa terima kasih</t>
+  </si>
+  <si>
+    <t>dah kasi starselama blnj shopee blm prnh bermasalahshopee shopee shopeesop sapi</t>
+  </si>
+  <si>
+    <t>please shope bikin game hasil koin note shope tanam pas goyang dapat plis bikin game kaya subway surt gimana hasil koin hehe saran moga baca realisasi</t>
+  </si>
+  <si>
+    <t>bagus banget shopee zaman suka aplikasi mohon tingkat mimin aplikasi shopee kembang</t>
+  </si>
+  <si>
+    <t>belanja shopee aman jual amanah so never doubt</t>
+  </si>
+  <si>
+    <t>barang bagus kirim cepat</t>
+  </si>
+  <si>
+    <t>shopee mntaapp</t>
+  </si>
+  <si>
+    <t>mantap mudah pakai</t>
+  </si>
+  <si>
+    <t>alhamdulillah aplikasi shopee bantu transaksi beli serba adakuliatas barang barang terimakasih</t>
+  </si>
+  <si>
+    <t>shopee mantul</t>
+  </si>
+  <si>
+    <t>puas blnja shopee</t>
+  </si>
+  <si>
+    <t>puas belanja dishopeesesuai ekspetasi</t>
+  </si>
+  <si>
+    <t>belanja puasaman nyaman</t>
+  </si>
+  <si>
+    <t>enak nyari barang murah toko belah</t>
+  </si>
+  <si>
+    <t>top baik</t>
+  </si>
+  <si>
+    <t>aplikasi shop bagus</t>
+  </si>
+  <si>
+    <t>kirim nya cepat gratis ongkir nya sukaaaaa</t>
+  </si>
+  <si>
+    <t>bantu cari barang sesuai harap</t>
+  </si>
+  <si>
+    <t>suka banget shopee</t>
+  </si>
+  <si>
+    <t>mudahpraktishemat puas</t>
+  </si>
+  <si>
+    <t>mantap no</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi shopee belanja barang vouchernya main pokok seru deh</t>
+  </si>
+  <si>
+    <t>pengirimanya cepat kualitas baju bagus suka</t>
+  </si>
+  <si>
+    <t>mantap pokok belanja shopee barang sesuai pilih bagusrespon toko kirim cepat</t>
+  </si>
+  <si>
+    <t>harga jangkau pokok jooss</t>
+  </si>
+  <si>
+    <t>mudahsimpledan percaya</t>
+  </si>
+  <si>
+    <t>kualitas bagus kirim bagus harga</t>
+  </si>
+  <si>
+    <t>sukaa puas</t>
+  </si>
+  <si>
+    <t>senang lagan shopee</t>
+  </si>
+  <si>
+    <t>shopee baguskurir nya ramahbanyak diskon meriahharganya jangkau</t>
+  </si>
+  <si>
+    <t>thx shopee sukses jual online</t>
+  </si>
+  <si>
+    <t>aplikasi belanja online baik barang cari sedia lengkap barang elektronik pakai lengkap bangak voucher diskon an</t>
+  </si>
+  <si>
+    <t>shopee solusi</t>
+  </si>
+  <si>
+    <t>kalo tambah bintang nya</t>
+  </si>
+  <si>
+    <t>bagus barang nya cepat nya kecewa belanja shopee</t>
+  </si>
+  <si>
+    <t>nyaman cod</t>
+  </si>
+  <si>
+    <t>mantul mantap</t>
+  </si>
+  <si>
+    <t>murah murah harga barang promo</t>
+  </si>
+  <si>
+    <t>bagus beli apa</t>
+  </si>
+  <si>
+    <t>bantu belanja</t>
+  </si>
+  <si>
+    <t>untung bngt pke shopee</t>
+  </si>
+  <si>
+    <t>aplikasi belanja onlain baik moga discount</t>
+  </si>
+  <si>
+    <t>shopeee oke banget</t>
+  </si>
+  <si>
+    <t>buka aplikasi shoppi susah buka gambar nya sinyal penuh pas buka aplikasi cepett</t>
+  </si>
+  <si>
+    <t>aplikasi mrmbantu mager baget rumah</t>
+  </si>
+  <si>
+    <t>bagus aplikasi mudah bertranksasi</t>
+  </si>
+  <si>
+    <t>diskon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bagus bangaet layan muas pokok baik deh shoppeee belanja online no kualitas bagus murah riah promo gratis ongkirnya the bestttt banget sayang bis milih jasa kirim lagiii tingkt layan bagus jobbb the baik mas brooo </t>
+  </si>
+  <si>
+    <t>thn kenal shopee barang puas beli bom ngerti belanja ngerti barang bagus ulas beli barang bagussaya beli hpsepatutasbajucelana dll shopee mksh shopee jaya seller berkwalitas top deh sukses shopee seller</t>
+  </si>
+  <si>
+    <t>bete cek status beli muncul web dah tf via atm pesan produk cemas gara tf dana eh tau konfirmasi bayang duit angus ngiang kepala syukur alhamdulillaah barang dah dianterin sm kurir trimks shopee maaf yaa dah kasih bintang tgl jan skr ralat nii bintang full bintang shopee</t>
+  </si>
+  <si>
+    <t>alhamdulillah berkat kenal shopee bantu cari barangterus hri kendala buka nya aplikasi shopee shopee tanamshopee laterdll kalo klik aplikasi muluitu ya mindmohon cerah ny nya shopeepay latertakut pas pembayarand sengaja bayar lagipadahal akun nya buka</t>
+  </si>
+  <si>
+    <t>pakai setia shopee hehebanyak program nguntungin banget ken ningkatin member biar promosi sampe ni blm kecewa sih order sistem batal cepat aman respon trimakaaasiihh shoppeee</t>
+  </si>
+  <si>
+    <t>aplikasi mudah pormo tarik jasa kurir pilih timbang rubah opsi kurir guna bebas pilih jasa kirim suka daerah beda cepat kirim</t>
+  </si>
+  <si>
+    <t>puas banget belanja disinisaran belanja pinter nyari voucher yahbiar ongkirnya murahterus jan lupa cari discount gede aku kemaren beli sneakers harga normal keh flashsale doangkece abos dahburuan download shopee beli barang banyak nya biar cepat naek levelbuat apabiar voucher banyak nya</t>
+  </si>
+  <si>
+    <t>mudah beres ribet profesional tanggung cancel an ramah sopan mantapz jaya surabaya sapa josss gandos mesan lancar aman kendali matur suwon alkhamndulillah terima kasih</t>
+  </si>
+  <si>
+    <t>aplikasi bagus transaksi jual beli belanja mudah produk bagus puas layan kerja keras cegah akun curi data terimakasih shopee</t>
+  </si>
+  <si>
+    <t>puas shopee layan selektif sellersehingga konsumen lindung tingkat layan shopee maju sukses kirim lokasi mes seller usaha nyampaimengingat jarak banget</t>
+  </si>
+  <si>
+    <t>aplikasi shopee aplikasi belanja benar nomor tanggung salah toko khilaf terimakasih min shopee belanja pulau nikmat gratis ongkir</t>
+  </si>
+  <si>
+    <t>aplikasi bagus belanja online pakai shopee lancar lancar kendala barang beli sesuai komplai komplainseller shopee fast respon kurir kurir nya ramah cepat ngirim pakait bagus luck shopee nya libat</t>
+  </si>
+  <si>
+    <t>shopee praktismudahkarena seorg wanita butuh apa harga sesuaitinggal masuk keranjang praktislahwalaupun terkadang mndapat barang sesuainamun konsisten</t>
+  </si>
+  <si>
+    <t>belanja shopee aman kecewa layan paylatter nya oke bunga nya relatif mudah nikmat layan spinjam guna terimakasih shopee</t>
+  </si>
+  <si>
+    <t>beli shopee alhamdulilah tipu sihcuma bikin kesel ribet pilih jasa kirim gak kayak dulubiasanya pilih  kalo gantung shopeenyatolong depan baik ya</t>
+  </si>
+  <si>
+    <t>aplikasi no crash bayar gapernah problem pakai metode aneh kadang campur duit aman  aplikasi keren blagi gabagus brarti usernya bijak belanja pilih toko sekian terimakasih</t>
+  </si>
+  <si>
+    <t>belanja mudah rumah spaylatter ringan pembayarnnya cicil terimakasih shopee salam hangat dari setia pakai jasa mu like like like like like like</t>
+  </si>
+  <si>
+    <t>belanja shopee untung segi harga gratis ongkir hari cari barang daerah cari shopee barang tawar trims shopee</t>
+  </si>
+  <si>
+    <t>abis bayar done tinggal tunggu barang sampe bayar pasang timer jam buka aplikasi nya sampe lupa ganti kurir shopee pilih kurir baik dapat kurir blacklist gara layan buruk ulang salah update ko mlh ngerepotin ya moga keluh user shopee kurir jadi masuk update pindah toko belah</t>
+  </si>
+  <si>
+    <t>cinta sm shopeeini tu belanja ter the baik ya akusemua mudahblm gratis ongkir habisnyaditmbh voucher cashbackmau blnja beli pulsa beli token listrik voucher cashback nyayang spectakuller nya shoppe payletter bikin diem kalo liat barang suka gak duit eh tetep belanja donkk yasudah nyaman deh sm shopeeterimakasih shoppeeluv</t>
+  </si>
+  <si>
+    <t>th pakai shopee baja level silver spay leter muncul akun pakai cicil kali ya temen bln muncul spayleter nya ya bintang shoppe</t>
+  </si>
+  <si>
+    <t>maaf ya min stuju prubahan setting jasa kirim bc jawabn mimin ulas ttapi sisi manfaat beli jasa kirim mmg ubah stlh checkout biaya typ plus ribet drpd alas biaya sesuai berat tgs ekspedisi shopee menentukn tombol mngubah jasa kirim trlmbt bhkn muncul ptng ongkr mnml rb lbh dr moga shopee kmbli sprti nyaman beli</t>
+  </si>
+  <si>
+    <t>suka belanja sayang sih jasa kirim dipilihin pilih kayak dlu sih pilih jasa bagus menuruntuku</t>
+  </si>
+  <si>
+    <t>so far shopee super-duper muas voucher ongkir cod recommended bingitsss saran shopee sistem bijak sempit ruang gerak oknum bertanggungjawab memperjual-belikan produk baja buku baja jahat langgar hak cipta rugi milik hak cipta terbit tulis</t>
+  </si>
+  <si>
+    <t>shopee belanja enak lindung shopee patut acung terima kasih shopee shopee mnk kereen yth shopee tolong mohon konfirmasi fihak expedisi  baik jasa pasuruan kecewa pakai jasa kli sich wajar kl pribadi alami kendala alas beda salah kirim tunda barang simpan gudang terima orang dll mohon perhati diperbaikiterima kasih</t>
+  </si>
+  <si>
+    <t>hallo shopee mengucaplikasian terima kasih tanggap masalah alami kemarin masalah selesai bayar spinjam terferivikasi shopee cs nelpon dr shopee sopan banget kemarin nelponnya terima kasih shopee sukses</t>
+  </si>
+  <si>
+    <t>inovasi kembang shopee buka aplikasi mudah cari mudah guna voucher mudah kategori vcr gratis ongkir pot harga ya hihihih dulusukses shopee</t>
+  </si>
+  <si>
+    <t>oke shopee saran sich toko capai batas beli bayar mengunakan shopee pay ongkir aja toko kena ongkir peser mudah transaksi beli mudah</t>
+  </si>
+  <si>
+    <t>barang shopee mantapsemua asli original sesuai gambar sukses tingkat kualitas shopee the baik pakai jasa online shopee terimakasih</t>
+  </si>
+  <si>
+    <t>shoppie membantuaplikasi bagusada spaylaterada spinjamharga terjangkaukualitas terjaminpokoknya shoppie aplikasi pilihansukses shoppiegooooooooooodddddddd</t>
+  </si>
+  <si>
+    <t>overall suka pilih otomatis kurir sedia opsi manual kota ekspedisi pegang rating buruk kirim kasi seller kena maki oknum beli erti komplain kurir ngasih rating jelek toko barang masalah kirim</t>
+  </si>
+  <si>
+    <t>habis diupdate baru shopee tolong baik terimakasih clear cache logout login ulang restart hp uninstall install ulang kak buka game shopee tolong bantu kak terimakasih terimakasih kaka bantu nya aplikasi shopee belanja main game shopee terimakasih respon nya cepat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dear shopee beli nyaman sistem pilih ekspedisi sblmnya pilih nominal ongkirnya ekspedisi shopee banyak extraongkir sdengankn toko langgan pakai tolong tiru lapak belah ntah masuk guna nggak sbg langgan keluh shopee pilih  </t>
+  </si>
+  <si>
+    <t>tingkat awas jual lapak tindak jual produk layak non sni voucher cashback pakai shopeepay</t>
+  </si>
+  <si>
+    <t>terimakasih kk kirim cepat baju bagus baju lampu led mati bagus next order</t>
+  </si>
+  <si>
+    <t>enak belanja pakai shopee</t>
+  </si>
+  <si>
+    <t>aplikasi racun pas tanggal muda but love shopeeselalu mudah belanja</t>
+  </si>
+  <si>
+    <t>suka banget shope bayar pakai shopee pay enak banget gratis ongkir pokok love shopee orang enak enak banget loh belanja shopee baik logout</t>
+  </si>
+  <si>
+    <t>suka belanja dsni lot banget belanja merchant shopee mart mall batal dg alas</t>
+  </si>
+  <si>
+    <t>sungguh sayang aplikasi wilayah jasa kurir grab gosend cek wilayah jadetabek wilayah adil bangetu maaf hny masuk moga kurir rata wilayah</t>
+  </si>
+  <si>
+    <t>suka aplikasi ya verifikasi no telpku gak sms sophee sebbel deh</t>
+  </si>
+  <si>
+    <t>suka bngt belanja disinitapi turun rewardnya belanja plus koin ckup bayar shopeepay dlu enggakintinya aplikasi super pelit</t>
+  </si>
+  <si>
+    <t>suka kirim shopee experss suka nanya alamat marah kasih tau ngeyel mending  ramah</t>
+  </si>
+  <si>
+    <t>shopee nya kadang suka eror banget banget voucher pakai</t>
+  </si>
+  <si>
+    <t>suka kecewa pas gin nunggu nungguin ip nya tau tipu stok abis kecewa banget sumpah</t>
+  </si>
+  <si>
+    <t>kadang suka eror buka ya malam doang</t>
+  </si>
+  <si>
+    <t>pakai voucher gratis ongkir banget baca kode voucher silah masuk voucer voucher nya klaim make gitu kecuali voucher gratis ongkir shopee pay gitu guna gratis ongkir laen</t>
+  </si>
+  <si>
+    <t>banget pilih jasa kirim langsung dapat acak aneh gak suka ribet balikin ky laaah</t>
+  </si>
+  <si>
+    <t>maaf bintang ambil jasa kirim pilih asik banget kayak tokped dirandom gitu kalo sicepat suka banget tolong balikin kayak ubah bintang</t>
+  </si>
+  <si>
+    <t>belanja hemat mantap versi nya ya karenaa gan pilih kurir turun rating nya gold member next belanja bukalapak tokopedia aja suka versi aneh kaya gin saran ya tinggal pakai ulas lengkap</t>
+  </si>
+  <si>
+    <t>suka belanja sayang aplikasi shoppe jrngan nya lelet mohon baik</t>
+  </si>
+  <si>
+    <t>duit shopeepaylaternya masuk otomatis gak enak buka aplikasi takut disalahgunain org dana masuk pas aju aja masuk otomatis suka liat produk gak belanja kadang ujung belanja appnya gw hapus gak enak aja temanulasan lengkap</t>
+  </si>
+  <si>
+    <t>suka main shopee tanam fitur ambil air teman ajar curi teman izin sblmnya bagus siram ajar takut harta kurang games tulasan lengkap</t>
+  </si>
+  <si>
+    <t>gratis ongkir cod pas chekout pakai nyari produk sesuai suka ribet sih abis lot parah sih suka hancur ni aplksi syarat kalo minimal belanja rb sih pakai jasa pengirulasan lengkap</t>
+  </si>
+  <si>
+    <t>beli produk alamat didukungpdahal alamat masuk alamat lengkap tulis karakter jasa kirim sedia beli barang shopee</t>
+  </si>
+  <si>
+    <t>upload produk masuk merk update gabisa mulu please jawab</t>
+  </si>
+  <si>
+    <t>shopee gak nyediain gratis ongkirwaktu shopee asa suka ngasih gratis ongkir jarang belanja mahal ongkir nya aja kali shopee  nyediakan gratis ongkir biar beli gak berat ongkir</t>
+  </si>
+  <si>
+    <t>kenpa suka login eror gak klik</t>
+  </si>
+  <si>
+    <t>transaksi bayar tagih pln banget proses bayar jam sore jam mlm proses bayar keburu mati lampu rumah payah aju kembali dana faedah suka blnja aplikasi alamat uninstall kyak gni</t>
+  </si>
+  <si>
+    <t>cashback  maskimal ribu perak cashback  maskimal edzan emang shopee kasih promo</t>
+  </si>
+  <si>
+    <t>kecewa banget shopeekoin tambah berkurangsusah payah ngumpulin koinsampe rela kuota abis nonton live shopee klaim koin nyaeh tega banget rang enak nya pemberitahuankoin nya ribu tinggal rbudikurangin nya banget sampe ribupadahal pakai koin nyasungguh bener kecewa</t>
+  </si>
+  <si>
+    <t>shopee sih update baru mulu diupdate kmren eh update ttep aja lot abis isi shopeepay pas belanja lola banget pdahal jaring kuota</t>
+  </si>
+  <si>
+    <t>hallo shopee limit shopee paylater turunsy bayar cicil shopee bangkrut dana shopee paylateratau shopee kena corona</t>
+  </si>
+  <si>
+    <t>neng belanja shopee malas voucer gratis ongkir  cashbacknya pakai shopee pay ribet</t>
+  </si>
+  <si>
+    <t>tolong ya min top uo shopeepay tuh gak mesti pke rekening indo alfa gtu</t>
+  </si>
+  <si>
+    <t>lambat banget shopee</t>
+  </si>
+  <si>
+    <t>gak beli diamond huu aplikasi shopee pay gw mao gw tarik gak</t>
+  </si>
+  <si>
+    <t>pas chekout gagal</t>
+  </si>
+  <si>
+    <t>pelit gratis ongkir non shope pay</t>
+  </si>
+  <si>
+    <t>suka aplikasi tidah jaman shopee shopee ramadan</t>
+  </si>
+  <si>
+    <t>belanja bayar kah nya sekolah smp gak pandai tranper uang</t>
+  </si>
+  <si>
+    <t>shopee nggak bener nih kembali dana sulit kasih forum diskusi shopee jelas</t>
+  </si>
+  <si>
+    <t>selamat sore shopee perhati aplikasi update berat gampang praktis buka produk lambat mohon baru mudah penggunaanya fitur sekirany guna hilangkn</t>
+  </si>
+  <si>
+    <t>parah download ulang blank</t>
+  </si>
+  <si>
+    <t>kecewa shopee wktu beli kuota pakait aon gb harga nunggu eh pakait add on gb kampret ajuin kembali dana gak gubris wktu ngisi pulsa smartfren adekk pulsa gak sistem kirim ajuin kembali dana gak gubris parahhhhhh</t>
+  </si>
+  <si>
+    <t>halo shopee akun hack orang kenal iklaskan shopee pay rp harap shopee ketat jaga privasi akun jamin aman akun guna harap akun hack korban lalai shopee terima kasih</t>
+  </si>
+  <si>
+    <t>pakai shopee transaksi dulunya limit shopee pay latter bayar guna rupiah limit sunggu kecewa klau blum limit alih -commerce belah</t>
+  </si>
+  <si>
+    <t>shoppe kirim cepat ongkir nya mhal mahal</t>
+  </si>
+  <si>
+    <t>hadiah main aplikasi curang licik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update gambar produk gabisa beli gtau dah </t>
+  </si>
+  <si>
+    <t>klaim voucher muncul muncul sesuai  sesuai kategori toko ttapi gakbisa</t>
+  </si>
+  <si>
+    <t>jelek produk</t>
+  </si>
+  <si>
+    <t>kesel deh kesini free ongkirnya php anggota platinum ngikutin  kapl nya update mulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tampil hasil mesin cari eror </t>
+  </si>
+  <si>
+    <t>payah aplikasi nya jalan bnyak eventtapi aplikasi susah berjlan pikir untung sematatidak pikir nyaman konsumen gak guna</t>
+  </si>
+  <si>
+    <t>aplikasi transaksi</t>
+  </si>
+  <si>
+    <t>saldo paylater bintang dlu fitur paylatter cicil bunga murahtapi saldo alas pandemi covid belok toko sebelahcari harga murah</t>
+  </si>
+  <si>
+    <t>aplikasi lot banget sinyal full</t>
+  </si>
+  <si>
+    <t>notif nya barang display stok dh lngsng check outsetelah pesan bayar stok kosongalhasil batalin pesan konfirmasi si penjuallamaaa proses nya nunggu shopee buat bmyk</t>
+  </si>
+  <si>
+    <t>ya gak masuktiap kali masuk langsung</t>
+  </si>
+  <si>
+    <t>transaksi indomaret indomaret bukti bayar sukses sophee nya eror pas chat agen nya janji mulu gak tindak benci banget uang ku sophee gak in ya allah ngisi langsung pudar percaya ku sophee</t>
+  </si>
+  <si>
+    <t>lapor jual tipu respon ya uninstal toko online tanggung jual nya</t>
+  </si>
+  <si>
+    <t>shopee capit nya sih baik nggak gue</t>
+  </si>
+  <si>
+    <t>nya belanja shopee gratis ongkir gue belanja gratis gimana ni</t>
+  </si>
+  <si>
+    <t>kaya da dosa terinstall teulang haduh payah kau</t>
+  </si>
+  <si>
+    <t>beli pulsa shoppe batasin sih klaim voucher kalo beli pulsanyaaa</t>
+  </si>
+  <si>
+    <t>kecewa banget aplikasi kembali seribet jual salah kirim barang mohon baik bikin rugi orang aja</t>
+  </si>
+  <si>
+    <t>shopee jelek voucher shopeepay nggak kecewa</t>
+  </si>
+  <si>
+    <t>hati kena tipu oknum data no tlp bocor kesel banget rugi juta shopee nangani kes tau sarain aktifin shopee pay later</t>
+  </si>
+  <si>
+    <t>aplikasi shopee aman tipu ngehack akun shopee oranglain ambil saldo shopeepay akun shopee target yaaa org ngehack batal sen si target uang cair shopeepay langsung ambil org ngehack tipu pokok org nelpon memberitahu hadiah voucher giveaway alamat akun shopee hack tipu akn trjadi sstu akun</t>
+  </si>
+  <si>
+    <t>spam melulu online internet nganggu aja klau mauain internetan modal ya iklan tv</t>
+  </si>
+  <si>
+    <t>terkadang kecewa shopee guna paylater bayar data masuk team shopee tau kasih fitur shopee pinjam liat data bayar situ kecewa moga dengar saran kecewa team shopee</t>
+  </si>
+  <si>
+    <t>mah cuman daftar nomor telepon daftar shopee makan uang</t>
+  </si>
+  <si>
+    <t>bela hak beli bela hak jual order batal pusat diskusi batal jual batal pusat diskusi nya tunggu order enak nya jual batal sajatanpa rugi langgan shopee adil ana tunggu apa</t>
+  </si>
+  <si>
+    <t>ko donglod</t>
+  </si>
+  <si>
+    <t>lot voucher free ongkir tipu pas cek pakai sapipay koin kurang aplikasi pelit</t>
+  </si>
+  <si>
+    <t>ngasih solusi live chet sm agen bikin emosi</t>
+  </si>
+  <si>
+    <t>kecewa beli produk rusak kw tidak ori tolong tumpas toko jual barang palsu fokus layan mending beli lazada gampang kualitas jamin balas diam</t>
+  </si>
+  <si>
+    <t>kecewa shopee top up shopee pay jam terima ditindaklanjuti</t>
+  </si>
+  <si>
+    <t>jijik aplikasi</t>
+  </si>
+  <si>
+    <t>maaf knapa aplikasi paksa suda batal kirim poko batal bayar</t>
+  </si>
+  <si>
+    <t>dongkalaut</t>
+  </si>
+  <si>
+    <t>ah bagus suka ngehang gunain aplikasi</t>
+  </si>
+  <si>
+    <t>dikit perbaruikalau baru gak loeding</t>
+  </si>
+  <si>
+    <t>log in ganti hp log in pakai nomer hp pakai facebook pakai email ribet banget</t>
+  </si>
+  <si>
+    <t>top up ff shopee ketipuu</t>
+  </si>
+  <si>
+    <t>shopee elek donload langsung sen bola kompan pas sampe bola bocor tambal jahit gimana donk tlong shope baik inti nyesel donload aplikasi</t>
+  </si>
+  <si>
+    <t>hapus akun sulit</t>
+  </si>
+  <si>
+    <t>dowload ongkirnya mahal barang rb ongkirnya rb</t>
+  </si>
+  <si>
+    <t>aplikasiya jual terbesartapi masuk login akun susah layan super jelexxx susah kode otapigak ngerti masalahnyaaplikasi parahhhh</t>
+  </si>
+  <si>
+    <t>cs kait pokok jelek banget cs nya</t>
+  </si>
+  <si>
+    <t>kecewa shopeee tipu telpon dr shopeee suruh isi shooppay ribu isi langsung ketika uang hilang akun shopeee nya</t>
+  </si>
+  <si>
+    <t>jijikdah dimasukin kode login kode salah banget si</t>
+  </si>
+  <si>
+    <t>barang nya dateng kena tipu beli mahal mahal nya kena tipu</t>
+  </si>
+  <si>
+    <t>shoper penipuanhati kami sulit ambil kembali danaaplikasi shopee tipu</t>
+  </si>
+  <si>
+    <t>gtwshoppe maksa gw kasi nilaiya gw kasi</t>
+  </si>
+  <si>
+    <t>tipu kedok kode verifikasi tolong tindak lanjut aman shopee</t>
+  </si>
+  <si>
+    <t>kluar akun sandi bner ttep salah trlanjur beli barang gimana sih</t>
+  </si>
+  <si>
+    <t>update fitur fontnya tetep ubah</t>
+  </si>
+  <si>
+    <t>woy shopee gua kirim alamat tulis salah</t>
+  </si>
+  <si>
+    <t>susah tentu alamat</t>
+  </si>
+  <si>
+    <t>pilihanbarang muncul dilayarmohon bantuanyaterimakasih</t>
+  </si>
+  <si>
+    <t>shopeepaylatter muncul</t>
+  </si>
+  <si>
+    <t>order barangmau cancel salah pilih batal tolak barang kirim kecewa kecewa aplikasi</t>
+  </si>
+  <si>
+    <t>gak daper voucher cok</t>
+  </si>
+  <si>
+    <t>ngorder barang</t>
+  </si>
+  <si>
+    <t>akun google gw hilang gara gara daftar shopee</t>
+  </si>
+  <si>
+    <t>puas akun batas aju banding tolak kecewa customer percaya kpd shopee jadi kecewa</t>
+  </si>
+  <si>
+    <t>shoping kadang gk bener sen gak anter</t>
+  </si>
+  <si>
+    <t>knapa ya shopee tdak instal</t>
+  </si>
+  <si>
+    <t>pilih jasa kirim sedih bikin ilfeel tingkat turun standar tinggal ya</t>
+  </si>
+  <si>
+    <t>kecewa shopee opsi kirim kaya ongkir mkain mahal cari laen aja ongkir masuk akal</t>
+  </si>
+  <si>
+    <t>bagus jelek aplikasi</t>
+  </si>
+  <si>
+    <t>maaf bintang bintang tolong kembali pilih pilih jasa kirim</t>
+  </si>
+  <si>
+    <t>pilih jasa kirim jnt sicepat dkk impactnya kirim</t>
+  </si>
+  <si>
+    <t>kemarin kasih pi maaf hapus pilih jasa kirim suka yaa emang mau beli untung sistem lapang beda pi maaf pi lirik kalo rubah jalan tunggu sistem</t>
+  </si>
+  <si>
+    <t>kalo bintang nol kasih bintang nol pi kecewa sistem pilih kurir kurir rumah maanaaaaaa alhasil pakait sklipun kurir lu jutex jutex kage senyum senyum belanja elu nyaman tenang takut pakaitnya seblum lu rubah sistem mnding pindah belah dehbye pee</t>
+  </si>
+  <si>
+    <t>malas shopee seasik free ongkir pakai shopee pay bye ah riba tambah kirim kurir gabisa milih malas belanja online alih si hijau</t>
+  </si>
+  <si>
+    <t>asli ongkirnya gede banget</t>
+  </si>
+  <si>
+    <t>tolong baik performa aplikasi banget gagal proses kembali pilih layan jasa expedisi kirim random shopeenya</t>
+  </si>
+  <si>
+    <t>pakait status gudang kagak gerak</t>
+  </si>
+  <si>
+    <t>tolong kembali pilih jasa kirim</t>
+  </si>
+  <si>
+    <t>tolong iklan lo mulu oi</t>
+  </si>
+  <si>
+    <t>lelet</t>
+  </si>
+  <si>
+    <t>tolong metode batal cepat yc</t>
+  </si>
+  <si>
+    <t>berat banget aplikasi responsif pilih item</t>
+  </si>
+  <si>
+    <t>download isi saldo shopee pay langsung beli item eh tau aplikasi ngrespon pin pilih back screen langsung notifikasi shope pay non aktif hubung cs sampe pulsa abis email respon aplikasi bobrok sistem abal customer nya ribet auto bintang</t>
+  </si>
+  <si>
+    <t>shopee sistem nya cod otak ngatiknya jasa kirim kota bisamohon baik shopee ku</t>
+  </si>
+  <si>
+    <t>aplikasi belanja yh download videokenapah gw masuk sih</t>
+  </si>
+  <si>
+    <t>akun pakai org aku orang shopee kode sms tolong privasi aman akun tipu raja lela salah bertangung</t>
+  </si>
+  <si>
+    <t>jujur aplikasi shopee jelek banget voucher gratis ongkir rebut beda tahun voucher gratis ongkir cuma kita belanja shopee butuh voucher potong ongkir nya bayar cod kalo kaya gitu mah mending pindah lazada voucher gratis ongkir diskon</t>
+  </si>
+  <si>
+    <t>habis afgred lemott banget</t>
+  </si>
+  <si>
+    <t>maaf kena bijak beban bunga cs solusi bijak sesal pakai paylater bunga gajelas telat bayat bunga gajelas malas ribet</t>
+  </si>
+  <si>
+    <t>ovoaku senang pakai ovo</t>
+  </si>
+  <si>
+    <t>aplikasi buruk temuin nya telat kali</t>
+  </si>
+  <si>
+    <t>aplikasi bagus musim corona belanja rumah aja</t>
+  </si>
+  <si>
+    <t>shopee jelek ihh nggak gratis ongkir cod gratis ongkir alfamart indomaret malas beli shopeepay susah aja direstart susah aplikasi daftar spaylater susah banget suruh restar direstart tetep aja nggak malas</t>
+  </si>
+  <si>
+    <t>suka koin kenapaa gitu mu main lagi</t>
+  </si>
+  <si>
+    <t>shopeepay sekarangkok gak top up</t>
+  </si>
+  <si>
+    <t>knapa ongkirnya mahal mahal banget</t>
+  </si>
+  <si>
+    <t>aplikasi akhlakga buka sinyal gw bagus loading isi kuota ttapi aja bisan server gimana sihsama aja kyk aplikasi belah</t>
+  </si>
+  <si>
+    <t>tolong lola aplikasiny</t>
+  </si>
+  <si>
+    <t>aplikasi nya jossss pas verifikasi nomer hp muncul kode emosi</t>
+  </si>
+  <si>
+    <t>gratis ongkirnya banyakin shope pay nggak nibilangnya gratis ongkir guna shope pay longo</t>
+  </si>
+  <si>
+    <t>aplikasi hack shopee pay retasterus nonaktif akun shope digunakanlapor shopee tanggap</t>
+  </si>
+  <si>
+    <t>belanja gratia ongkir dukung shopee</t>
+  </si>
+  <si>
+    <t>shopie nya</t>
+  </si>
+  <si>
+    <t>baik parah hilang uang shopeepay akun ilang gara nungguin</t>
+  </si>
+  <si>
+    <t>cekout aplikasi aneh saldo ilang pas cek gak muncul koin saldo</t>
+  </si>
+  <si>
+    <t>nge-scam tipu bottsssss</t>
+  </si>
+  <si>
+    <t>tolong nih amged dog</t>
+  </si>
+  <si>
+    <t>kecewa nahan ngantuk jam sampe jam flash sale nggak biar barang tulis eror eror eror eror dah lahh begadang nya besok gua ulang terimakasih shopee flash sale zonk nya</t>
+  </si>
+  <si>
+    <t>gilir acara eror mulu check out barang</t>
+  </si>
+  <si>
+    <t>jelek server eror mulu top up gagal pas</t>
+  </si>
+  <si>
+    <t>update masuk keranjang checkout tinggal bayar koneksi putus gw lancar telfonan why</t>
+  </si>
+  <si>
+    <t>aplikasi ngeselin emosi checout guna ya kalo beli checkout skalian bikin event kalo jual hapus aja aplikasi lot ampun update untik kalo aja parah nanggug kemarin eventnya kitin kapasitas halah tes aplikasi aja bnyk bagus kalo bagus pindah aja</t>
+  </si>
+  <si>
+    <t>bigsale apaanmasak voucher diskon juta klik sendiriserver eror lahgak masuk akal tipu</t>
+  </si>
+  <si>
+    <t>payah event server nya nambah buruk boro beli buka aplikasi nya aja susah bangke shopee skr ning lapak ijo</t>
+  </si>
+  <si>
+    <t>balikin saldo shopee pay wngisi shopepay loginket</t>
+  </si>
+  <si>
+    <t>masuk akun shopee gak sistem ganggu tolong baik</t>
+  </si>
+  <si>
+    <t>pepekk kali shopee nihh pesan ukulele cowboy ukulele sen sen</t>
+  </si>
+  <si>
+    <t>coba pakai paylatter nya pas check out biaya tangan eh pas bayar tagih paylatter coba cek</t>
+  </si>
+  <si>
+    <t>potong jual  beli gratis ongkir nyaada gratis ongkir ribetpadahal promosi nya aja bagus sesuai kenyataanpayah</t>
+  </si>
+  <si>
+    <t>free ongkir ya minnnnn</t>
+  </si>
+  <si>
+    <t>assalam ualaikum kanakungedonlot shoppe lamangedonlotnya</t>
+  </si>
+  <si>
+    <t>bug user experience perhati aplikasi berat</t>
+  </si>
+  <si>
+    <t>instal gak</t>
+  </si>
+  <si>
+    <t>jelek  sesuai iklan</t>
+  </si>
+  <si>
+    <t>kecewa shope aktif shopepaymereka kembali dana rekbank bri ajukanmereka maksa usaha aktifasi shopepay daftar shopepay gagal terusjika telpon noshopee kadang ngejawab kadang diempadahaal pulsa uddah makantolong yaaa piihak shope susah tolong dana kembali</t>
+  </si>
+  <si>
+    <t>hbs update upload produk ribet bnget merk suka muncul bikin kesel aj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tolong voucher gratis ongkirnya shopee pay aja guna setia shopee </t>
+  </si>
+  <si>
+    <t>update mulu makan waktupenghapusan cache pengaruhupdate tuh taun mh hambat aja serba nge hang gaa updatetolong konsisten tentu meng update transaksi jual beli ribet</t>
+  </si>
+  <si>
+    <t>payah kali loginnya ni</t>
+  </si>
+  <si>
+    <t>payah daftar akun shope</t>
+  </si>
+  <si>
+    <t>email habis selesai pesan akun hapus salah ya belanja ya lancar kecewa shopee nonaktif akun shopee</t>
+  </si>
+  <si>
+    <t>gak aplikasi dlu ok skarenag gara shopeepaylater orang bayar akun batas beda akun shopee kecewa sih akun batas belanja otomatis akun kalo gaada guna shopee banyak pakai baik nyaman bikin gak nyaman banget ribet gak belanja akun batas uninstal aplikasi langsung</t>
+  </si>
+  <si>
+    <t>order sulit gimana sihha syarat aja</t>
+  </si>
+  <si>
+    <t>kecewa belanja pas harbolnas tiba pesan batal penjualkok shopee respon yasudah gt duit dikrmbalikan kena biaya adm konsumen rugi</t>
+  </si>
+  <si>
+    <t>gratis ongkir rangin aplikasi belah tuh gratis ongkir pakai metode bayar aja ajar aja gratis ongkir pilih pilih yaa min</t>
+  </si>
+  <si>
+    <t>pelit koin dpet gratis ongkir lagi gratis ongkir shopee pay doank huft malas belanja dshopee mnding aplikasi blnja aja gratis ongkirnya</t>
+  </si>
+  <si>
+    <t>download unistal download ya</t>
+  </si>
+  <si>
+    <t>skarenag da bebas ongkir download</t>
+  </si>
+  <si>
+    <t>ingat shopee jangann google ganggu ajaaa download lagu parah aplikasi shopeeee download lagu ingat untukkk tidakk keluarrr googelchromedanbrowserrkalo iklan gamee youtube masalahhh</t>
+  </si>
+  <si>
+    <t>guna shopeesangat kecewa uang shopepay hilang jutadan shopee membantudn bertanggungngapin adain shopepay uang hilangakun bobol tim shopeetibabnyk sms shopee shopee sudh amannbuat datapribadi dimna peduli moga balasannyasudh ikhlaas kn walapun uang arisan orang kasih bintang jha</t>
+  </si>
+  <si>
+    <t>shope lambat ya gw pikir shope cepat ehh lambat ampunn</t>
+  </si>
+  <si>
+    <t>niat instal langgan maka bnyk ngeluh instal nih aplikasi</t>
+  </si>
+  <si>
+    <t>jual amanah tolong tingkat kwalitas jual nakal tolong tindak</t>
+  </si>
+  <si>
+    <t>gratis ongkir</t>
+  </si>
+  <si>
+    <t>shopee ajar alat dj yasar kali pesan ya tanggal sampa peyu</t>
+  </si>
+  <si>
+    <t>klaim voucher gin mudah oi bangon dhuhur</t>
+  </si>
+  <si>
+    <t>sumpah ya shopee gin pakai log in log in capek tau uninstal nich</t>
+  </si>
+  <si>
+    <t>banyak iklan</t>
+  </si>
+  <si>
+    <t>kesellll banget sm aplikasi shopee skarenag loading banget sinyal lancar pakai ytb loading lahh loading detik muncul nyari barang terus muncul alhasil aplikasi shopee dl</t>
+  </si>
+  <si>
+    <t>shoppemohon depan kasih fitur hubung kirim jnt jne pembellian bayar pakait terima orang kirim hubung beli tulis nomer kecewa uang buang sia</t>
+  </si>
+  <si>
+    <t>admin tdi instal ya tdi kaya stak gitu jln jln loh  nya tolong ya prebaikin</t>
+  </si>
+  <si>
+    <t>ribet nyaman transaksi mudah guna shopeepay doang ribet mesti isi saldo</t>
+  </si>
+  <si>
+    <t>pliss lot</t>
+  </si>
+  <si>
+    <t>kirim pilih shopee express sameday sampe belah reguler aj - sampe</t>
+  </si>
+  <si>
+    <t>hay shopeemakin berat aja sih update lemod tolong tolong banget hapus aja deh game update butuh belanja nyaman cepat berat buka aplikasi nya coba bikin shopee lite ringan emang sayang game mu nyaman belanja hp app shopee ngabisin memori buset dah marketapilace fb lite aja kalah ringan banget lot malas update</t>
+  </si>
+  <si>
+    <t>shopee gak baruh gak buka shopeeuntuk cari ap</t>
+  </si>
+  <si>
+    <t>hsgi</t>
+  </si>
+  <si>
+    <t>akun beku salah baik apa baik beku top up shopeepay akun beku mana uang shopee ambil uang konsumen sungguh bertannggung pakai shopee transaksi ulang kali beku aplikasi tanggung</t>
+  </si>
+  <si>
+    <t>ya shopee susah buka</t>
+  </si>
+  <si>
+    <t>mulumau live aja ganggu</t>
+  </si>
+  <si>
+    <t>shoppepay later kunci update info gak telat bayar ub cs ya tentu sesuai ngk buka donk blokir shoppelater</t>
+  </si>
+  <si>
+    <t>parah bnget buka fto dagang nya lot baik aplikasi nya kaya gin</t>
+  </si>
+  <si>
+    <t>cod barang antar kurir jnt shopee sanggup kurir jnt antar pakait cod cod kerjasama kurir kecewa langgan</t>
+  </si>
+  <si>
+    <t>mahal barang</t>
+  </si>
+  <si>
+    <t>gratis ongkir huh nggak</t>
+  </si>
+  <si>
+    <t>lunas saldo spaylater dikembaliin parah si emang</t>
+  </si>
+  <si>
+    <t>voucher gratis ongkir cashback gratis ongkir cashback pilih salah tau doang klik sama</t>
+  </si>
+  <si>
+    <t>ka nge instal kenapaa aplikasi nya muncul hp sayah sayah brulang kali nge instal aplikasi</t>
+  </si>
+  <si>
+    <t>potong rb belanja rb potongn cuman rb</t>
+  </si>
+  <si>
+    <t>vouchernya pakai iklanya menganggu</t>
+  </si>
+  <si>
+    <t>dah malas</t>
+  </si>
+  <si>
+    <t>kirim mahal kayak vouchernya bantu</t>
+  </si>
+  <si>
+    <t>maaf gin ongkir pilih ubah ongkir cek out bayar tau rubah ongkir mana milih ongkir laahh anehh tau exp cepatt langgan biar pilih exp</t>
+  </si>
+  <si>
+    <t>aplikasi gede shopee problem masukin akun gimana belanja iklan mana problem mending kurang budget iklan baik aplikasi nyaa</t>
+  </si>
+  <si>
+    <t>ribet ganti nomer aja ribetapa sekolah hacker biar gampang ganti nomer akun shopee</t>
+  </si>
+  <si>
+    <t>kmrn neng liat aplikasi update gambar gak semangat</t>
+  </si>
+  <si>
+    <t>ganti username hapus akun verifikasi ktapi beda orang ribet</t>
+  </si>
+  <si>
+    <t>bangat ngunduh aplikasi</t>
+  </si>
+  <si>
+    <t>lu cuman aplikasi belanja msak kudu btuh sinyal kuat lancar loading ny dkit psti update</t>
+  </si>
+  <si>
+    <t>shoppe tgl pesan blm sampe pke kurir  expresparah banget kirim belanja shoppepesanan pegang kurir gak sampe</t>
+  </si>
+  <si>
+    <t>jelek banget asli aplikasi nya</t>
+  </si>
+  <si>
+    <t>kasih bintang shopee pay later muncul muncultemen daftar langsung muncul shopee pay later nyapayahh</t>
+  </si>
+  <si>
+    <t>kecewa capek ngumpulin poin game shopee mancing nya hilang</t>
+  </si>
+  <si>
+    <t>beli baju tipu shope tipu</t>
+  </si>
+  <si>
+    <t>nganter nya cuman beli sepatu doang</t>
+  </si>
+  <si>
+    <t>shopee pay later limit bayar telat bayar kecewaaa banget</t>
+  </si>
+  <si>
+    <t>kenapaa ko pilih pengirimny ng  expres lainy ko nga add</t>
+  </si>
+  <si>
+    <t>enak opsi kirim hemat reguler dllribet mahallllllllsy nyaman lamaaaapindah toko ajalahhhh</t>
+  </si>
+  <si>
+    <t>bintang cok update ubah milih kurir jasa pengirimantidak gratis ongkir pilih kurir</t>
+  </si>
+  <si>
+    <t>bintang kemaren</t>
+  </si>
+  <si>
+    <t>jasa kirim kekang</t>
+  </si>
+  <si>
+    <t>hallo min info ig  shopeeid minggu tolong care min customernya tunggu</t>
+  </si>
+  <si>
+    <t>kak daftar susah ya</t>
+  </si>
+  <si>
+    <t>maka aplikasi shopee emas kirim nya cepat emas kirim nya banget voucher jarang guna shopeepay aja</t>
+  </si>
+  <si>
+    <t>orang heboh naik limit gw limit nol semenjak corona why gak prnh telat bayar jiiirrr</t>
+  </si>
+  <si>
+    <t>auto delete kalo secret number kalah vote menit rb voted suka maklum sih brand ambasador nya wkwkwk lol the power of orang mending pakai market place aja lol</t>
+  </si>
+  <si>
+    <t>nya kasi bintang beli barang posisi kerja situ stattus terima nama tolong kasi tau kurir nya titipin kluarga terima nya nama keluarga tetangga buntu nama nya skarenag barang stattus nya terima parah</t>
+  </si>
+  <si>
+    <t>ampas bangetisi saldo shopeepay pay tau masuknyakeburu barang sen abissu asu</t>
+  </si>
+  <si>
+    <t>kesini ongkirnya mahal harga barang ongkirnya mahal ongkirnya  voucher gratis ongkir</t>
+  </si>
+  <si>
+    <t>kaga bagus shopeemasa akun bekuin belanja lagiparah</t>
+  </si>
+  <si>
+    <t>kecewa aplikasi shopee tim shopee lambat selesai kendala konsumen kali konsumen komplen tanggap suka php konsumen konsumen chat komplen chat henti memberitahu mana etika kalai tim shopee</t>
+  </si>
+  <si>
+    <t>paham situasi tolong jasa kirim kaya asu cari nafkah biaya loh sampe lebih barang beli alami lambat - tolong reseller</t>
+  </si>
+  <si>
+    <t>si download aja ngestuck  gajelas kali download aja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buka aplikasi muncul gambar aplikasi shopee ku tutup belanja </t>
+  </si>
+  <si>
+    <t>iklan panjang aplikasi</t>
+  </si>
+  <si>
+    <t>jelek banget aplikasi main aja</t>
+  </si>
+  <si>
+    <t>main candy crusah shopee level gimana cr main nya kunci tolong baik</t>
+  </si>
+  <si>
+    <t>kecewa shopee gratis ongkir pakai ongkirnya tulis aplikasi guna klaim hadiah gratis klaim gabisa alas jaring eror padaha cekout barang aja</t>
+  </si>
+  <si>
+    <t>maap ya pe shopee gin sih masak pilih ekspedisi asli kesel banget ongkir mahal ya untung kalo ketemu jnt ekspress kirim pakaik sicepat lot banget ya gin kalo milih malas order</t>
+  </si>
+  <si>
+    <t>kurir shopeee ngiirim lebh eskpedisi</t>
+  </si>
+  <si>
+    <t>barang free ongkir pakai voucherpas checout free eh gilir checout mlh trnyata ongkir ongkirnya mahal lanjur ngumpulin barang sen ongkirkecewa banget</t>
+  </si>
+  <si>
+    <t>akun jelek vocher guna</t>
+  </si>
+  <si>
+    <t>voucher gratis ongkir update dluudh update gaada gabisa boro klaim voucher nya aja iklan nya gratis ongkir beli voucher nya pakai shopee pay memory gede banget sedih akutu</t>
+  </si>
+  <si>
+    <t>shopee tanam fungsi main hp lag</t>
+  </si>
+  <si>
+    <t>masak cod nya cod tau aneh undi hadiah nya tipu parah</t>
+  </si>
+  <si>
+    <t>hih komunitas shopee nya sabaraan</t>
+  </si>
+  <si>
+    <t>ongkir gratis ongkir gratis nombok rb cancel aja jual drpd nombok</t>
+  </si>
+  <si>
+    <t>shopee sebal update versi baru ttep ajah lola banget gak muncul gambar kesel ka ken order tolong baik kak nnti kasih bintang</t>
+  </si>
+  <si>
+    <t>ksih bintang dlu yaa lihat depan amanah bintang mah gampang lihat kerja depan</t>
+  </si>
+  <si>
+    <t>aplikasi suka ngelag gambar photo fbbrowser lancar sayang neng belanja promo ongkirlama gondok gin</t>
+  </si>
+  <si>
+    <t>batal pesan</t>
+  </si>
+  <si>
+    <t>knapa sih shopee ubah cinta banget huhu cod voucher gratis ongkir sulit banget</t>
+  </si>
+  <si>
+    <t>sehabia update susah login ribet nih aplikasi buka maju login via fb langsung masuk skarenag kode verifikasi tunggu muncul verifikasinyaa</t>
+  </si>
+  <si>
+    <t>hati hati jual eta nomor resi palsu muncul nomor lacak barang blm kirim kemas shopee fasilitas serta fitur batal beli</t>
+  </si>
+  <si>
+    <t>aplk tolol belanja log-in dulupadahal log-in install</t>
+  </si>
+  <si>
+    <t>shope bagus kecewa balikin sistem kyak biar beli ngegunain jasa jnt jne ku kasih bintang yak kalu sistem ku ubah bintang</t>
+  </si>
+  <si>
+    <t>parah tipu toko shope pas beli voucher kirim sesuai bukti pas beli voucher jual kirim bukti transaksi aju kembali shope menang jual jual bukti transaksi kecewa</t>
+  </si>
+  <si>
+    <t>kecewa shopee kecewa milih opsi kirim lama tinggal aplikasi shopee</t>
+  </si>
+  <si>
+    <t>gin ya kalo kirim nya dipilihin shopee pas kena  si cepat alamat pakait hilang jnt rumah si cepat kalo nganter kalo gin deh auto uinstal shopee beli produk anter pakai jne maaf tarik bintang nya gak ngerti ide ngerubah kirim gin selamat tinggal shopee belanja kalo baik salah</t>
+  </si>
+  <si>
+    <t>shopee ngk daftar bener</t>
+  </si>
+  <si>
+    <t>shopee arisan buka stuck layar putih</t>
+  </si>
+  <si>
+    <t>shopee tolong respon dana kembali nunggu shopee proses tolong shopee tingkat kualitas gimana woyy uang gua</t>
+  </si>
+  <si>
+    <t>jelek download</t>
+  </si>
+  <si>
+    <t>buruk barang sampai sblm tgl januari sampai hri tgl januari</t>
+  </si>
+  <si>
+    <t>kembali dana maksimal  jam bohong dana nggak kirim</t>
+  </si>
+  <si>
+    <t>kupon klaim</t>
+  </si>
+  <si>
+    <t>gimana sih shopee koin ilang brusan koin ilang gapaham deh keselll</t>
+  </si>
+  <si>
+    <t>maaf ya bintang kirim lelet</t>
+  </si>
+  <si>
+    <t>pakai shopee express surabaya mojokerto sampai pakai  malam aja barang nggak customerku kecewa layan ya</t>
+  </si>
+  <si>
+    <t>shopee asikk kait jasa kirim pilih shopee tentu kirim lamasolusinya pindah aplikasi</t>
+  </si>
+  <si>
+    <t>bayar ya update install ulang</t>
+  </si>
+  <si>
+    <t>verivikasi no hp gak</t>
+  </si>
+  <si>
+    <t>aplikasi nya jelek nggak kaya bagus</t>
+  </si>
+  <si>
+    <t>gimana si ka download ko pasang ya ulang kalitlng konfirmasi nya</t>
+  </si>
+  <si>
+    <t>aplikasi kopet masak pakai beli pulsa muncul tulis penuh kuota beli har transfer bank ribet ny proses verifikasi lelet ribet dah pakai shopee</t>
+  </si>
+  <si>
+    <t>shopee jelasmana pelit gratis ongkir lagikek nya pindah lapak aja</t>
+  </si>
+  <si>
+    <t>isi pulsa metode bayar transfer bank status mbanking hasil status shopee bayar saldo sengaja sisain bwt isi pulsa sedot</t>
+  </si>
+  <si>
+    <t>berat aja ya</t>
+  </si>
+  <si>
+    <t>performa shopee turun lelet jaring bagus check out aja susah tolong maksimal</t>
+  </si>
+  <si>
+    <t>belum beli pilih ekspedisi sesuai kl spt nentuin paki ekspedisi nikmatin free ongkirnya payah bijak sungguh enak beli</t>
+  </si>
+  <si>
+    <t>top up free fire event seru pas top up ko ilang voucher games nya top up dimanacoba adain</t>
+  </si>
+  <si>
+    <t>shopee tanam tipu ujung nya sruh beli bayar tanam ujung nya duit bayar mending langsung beli aja ngapain tanam asu</t>
+  </si>
+  <si>
+    <t>ahkenapa shopee nunggu kabar kirim pesan tele updatetan yabelum pakaiaplikasi kayak abal dikit upgrade tan sih diupgrade virus tanggulasi pandemi budidaya tunggu bilang operasional corona ya shopee</t>
+  </si>
+  <si>
+    <t>game shopee mancing poin nambah emang bener sih mancing mancing marah</t>
+  </si>
+  <si>
+    <t>tolong jasa layan kirim antaraja buang barang gerak hari customer rugi finansial barang ambil moga shopee perhati jasa kirim barang</t>
+  </si>
+  <si>
+    <t>aplikasi lot banget gabisa login coba pakai line pakai password loading pakai nomer telpon kode gamasuk mau sih tambah kali ngasih ulas aja tulis halaman baik capek tau nulis ulas masak ulang</t>
+  </si>
+  <si>
+    <t>iklan nya mengangu main game</t>
+  </si>
+  <si>
+    <t>metode cod tulis</t>
+  </si>
+  <si>
+    <t>aplikasi shopee tipu saldo shopee pay bobol penjuallb</t>
+  </si>
+  <si>
+    <t>kurir milih make kurir  milih kurir kecewa bangey shopee standar expres sampai hari sampe skrang hari sampe kecewa</t>
+  </si>
+  <si>
+    <t>ribet banget kecewa</t>
+  </si>
+  <si>
+    <t>shopee bagong jasa kirim hilang gratis ongkir shopee pay marah suara langgan sulit</t>
+  </si>
+  <si>
+    <t>ya allah ngerti kemarin zakat via shopee dg timbang himbauan perintah kurang interaksi pilih shopee pakait orang serta nama ya bayar via transfer hasil minggu lebaran chek akun dana nambah shopee payku nila zakat ku telusur dana zakat kembali situ lemes ramadhan keluarga zakat</t>
+  </si>
+  <si>
+    <t>barang diterimatapi aplikasi tunjuk barang dikirimgimna coba bikin pusing ajaribet banget nya tolong baik lagi depa</t>
+  </si>
+  <si>
+    <t>kode kirim ngebug</t>
+  </si>
+  <si>
+    <t>voucher gratis ongkirnya pakai</t>
+  </si>
+  <si>
+    <t>kenapaaa jasa kirim gaada jnt dkk woiii sedih gabisa atur sendiripliss shopee balikin kayak ya</t>
+  </si>
+  <si>
+    <t>kenapasiii jasa kirim pilih sendiriiii maaf ya kasih bintang tolong ubah</t>
+  </si>
+  <si>
+    <t>shopee express standard kirim nggak update</t>
+  </si>
+  <si>
+    <t>update gak jasa kirim tolong perhati beli cari baik jasa kirim  shopecare tlong menu kirim ubah pilih ekspedisi ekspedisi daerh plus minus klau rondom gak tau ekspedisi nya pakai klau pas cocok daerah yaa bagus klau</t>
+  </si>
+  <si>
+    <t>buruk diupdate login jasa kirim otomatis pilih shopee fair gilir beli ubah opsi jasa kirim eh keduluan seller acc jasa kirim ongkir id express cuman semenjak bijak shopee korupsi</t>
+  </si>
+  <si>
+    <t>diapdute ko lihat etalase toko nya yamalah informasi ganggu suruh muat ulang aja liat barang nya</t>
+  </si>
+  <si>
+    <t>akun beku langgar aja telpon atas nama shoppe hadiah tau nama alamat lengkap nomor percaya akun beku akun nge hack</t>
+  </si>
+  <si>
+    <t>tolong mengunduhnyah banget</t>
+  </si>
+  <si>
+    <t>aplikasi bodohgw begadang dapatin diskon alamat gak tera shopee neng diskon bege banget</t>
+  </si>
+  <si>
+    <t>sih gratis ongkirnya pakai tipu pas check out gagal gagal hadeh kalo niat ngasih gratis ongkir yowes usa</t>
+  </si>
+  <si>
+    <t>kecewa respon cs mohon coaching refreshment nama cs anonim rinto gagat atira sangat kecewa</t>
+  </si>
+  <si>
+    <t>download loading sumpah</t>
+  </si>
+  <si>
+    <t>semenjak shopee tanam nyuri air suka shopee panen koin gara maling inimah ngajarin anak orang curi mah nyuri nyiram kebun mending nyuri siram kebun shopee tolong hps fasilitas nyuri air kasih bintang fasilitas nyuri air hapus jarang banget voucher gratis ongkir tunaishopee pelit donk</t>
+  </si>
+  <si>
+    <t>shopee monopoli jasa kirim</t>
+  </si>
+  <si>
+    <t>aduh kesel kalo gin pesan barang bedah bedah expedisi cepat lambat kira nya kalo gin kecewa tolong balikin potong ongkirnya mas bayar sisa</t>
+  </si>
+  <si>
+    <t>ngerti uinstal sih</t>
+  </si>
+  <si>
+    <t>kemarin beli jam tangan aplikasi shopee kirim jam rusak mati gk fungsi harga nya tolong shopee kalo lapak curang gak jujur mending tutup aja akun lapak rugi konsumen beli langgan shopee</t>
+  </si>
+  <si>
+    <t>thr nya cepat kalo instal</t>
+  </si>
+  <si>
+    <t>tolong baik ya susah sms otapi nomor belanja susah gimana</t>
+  </si>
+  <si>
+    <t>aplikasi nya instal coba nunggu nya jam ehh pas suruh instal kuota beli pakai daun</t>
+  </si>
+  <si>
+    <t>aju kembali dana shope aju tuju jual owner tuju  mengahapus aju hilang duit barang kirim beli item barang kecewa</t>
+  </si>
+  <si>
+    <t>buruk masalah mulu</t>
+  </si>
+  <si>
+    <t>aplikasi jual beli online pakai aplikasi shopee shopee lot gambar suka buka update versi baru sinyal lancar ajaa aja buka gambar tolong baik yaa</t>
+  </si>
+  <si>
+    <t>shopeepay nya pakai isi pas shopeepay nya</t>
+  </si>
+  <si>
+    <t>downloadnya banget sih</t>
+  </si>
+  <si>
+    <t>seller distrobdg tipu sen pcs dteng pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopee curi shopee curi keras tolong ilangin fitur curi air nyaaa dongg </t>
+  </si>
+  <si>
+    <t>jelek aplikasi nya</t>
+  </si>
+  <si>
+    <t>langgan setia shopee jasa ekspedisi monopoli jasa ekspedisi shopee express mgkn nama aja express kirim super duper lot alias lamaa poll andai jasa ekspedisi milih bagus</t>
+  </si>
+  <si>
+    <t>update aplikasi playstore</t>
+  </si>
+  <si>
+    <t>turunin bintangsudah shopee paylater gua naek limit nya turun auto pindah toko ijo</t>
+  </si>
+  <si>
+    <t>aplikasi bagus bagus nya</t>
+  </si>
+  <si>
+    <t>barang banget sampe nyakeburu ubah pikir ken beli laenudh gitu ongkir nya gila ribu hh</t>
+  </si>
+  <si>
+    <t>klaim gratis ongkir tolong baik usaha macet</t>
+  </si>
+  <si>
+    <t>aplikasi berat bikin lot hp gak olshop</t>
+  </si>
+  <si>
+    <t>coba dlu bagus bintang nya</t>
+  </si>
+  <si>
+    <t>ke- kali akun blokir shopee proses beli barangsaya hilang barang geblek shopeee gamau tau akun kembali nnti barangsaya lapor</t>
+  </si>
+  <si>
+    <t>bintang bicara verikasi nomer tlp bisarugi data</t>
+  </si>
+  <si>
+    <t>daftar akun aja sulit ampun</t>
+  </si>
+  <si>
+    <t>aplikasi gajelas</t>
+  </si>
+  <si>
+    <t>bayar pending</t>
+  </si>
+  <si>
+    <t>tolong aplikasi baik liat produk susah loading gambar muncul kalo liat flash sale parah loadingnya</t>
+  </si>
+  <si>
+    <t>gak update</t>
+  </si>
+  <si>
+    <t>kasi bintang belanja online cod gak direspon toko tuju</t>
+  </si>
+  <si>
+    <t>iklan nya muncul dmn web aplikasi game gw pusing</t>
+  </si>
+  <si>
+    <t>mohon shopee aju mohon kalo hasil tanam beras jus jambu pas kirim kasih gratis ongkir hrus bayar ongkir tuju nanam beras jus jambu mendatkannya gratis hrus bayar ongkir ya aja beli gratis ongkirnya atas rugi nyiram bayar mohon kabul minta gratis ongkir hasil nanam</t>
+  </si>
+  <si>
+    <t>nang banget kerja totalitas contoh kembali produk bulan padehal bukti video buat bukti seller kurir kirim ganti musti chat shopee chat admin shopee bikin malas tanganin kasus optimal kesini buruk</t>
+  </si>
+  <si>
+    <t>voucher game rbu hoax</t>
+  </si>
+  <si>
+    <t>rangin bintang voucer gratis ongkir codshopeepaya mulu munculpayah cod suka orang lagimungkin shopee turun rating</t>
+  </si>
+  <si>
+    <t>shopee php promo transaksi coba bayar coba kaburr shopee asik ongkir pilih jasa kirim</t>
+  </si>
+  <si>
+    <t>kirim nya banget sih</t>
+  </si>
+  <si>
+    <t>kecewa shopee</t>
+  </si>
+  <si>
+    <t>bobrok top up shopee pay masuk top up aplikasi belah cepat nunggu jam ngalahin isi pls konter aja nih aplikasi pakai shopee pay kalo gin</t>
+  </si>
+  <si>
+    <t>keluh ngeri belanja dapat jual gagal beli uang transfer blm rumit prosedure tari</t>
+  </si>
+  <si>
+    <t>ko shopee gitu jelek layan nya pesan eh muter gitu abis muter aplikasi ny gitu tolomg shopee baik jual mandek</t>
+  </si>
+  <si>
+    <t>tipu voucher cashback pas pakai cashback koin masuk maaf malas pakai</t>
+  </si>
+  <si>
+    <t>lu gw nonton anime muncul mulu donk</t>
+  </si>
+  <si>
+    <t>ku pikir bagus registrasi rekening aja puter sampe kontak bank nya beres shopee layan lapor</t>
+  </si>
+  <si>
+    <t>permisi ganggu shopee akun pakai hilang pakai akun dulupihak shopee tolong kembali akun</t>
+  </si>
+  <si>
+    <t>update terus gagal sinyal bagus memori</t>
+  </si>
+  <si>
+    <t>malam kn pesan barang produk kirim hari doang jam siang tdi notifnya kirim alamat terima cek jam sore tdi notifnya rumah</t>
+  </si>
+  <si>
+    <t>assalamualaikum ko ngedonloud nya sihbisa cepetin nya kuota takut habis beli kemaren</t>
+  </si>
+  <si>
+    <t>login terang jaring masalah</t>
+  </si>
+  <si>
+    <t>lot sih bintang aja bikin bt aj</t>
+  </si>
+  <si>
+    <t>gak instal nang sumpa</t>
+  </si>
+  <si>
+    <t>bksa upload video untjk bukti oengembalian produk</t>
+  </si>
+  <si>
+    <t>sinyal bagus buka shopee susah banget kaya sinyal edge loading barang muncul muncul</t>
+  </si>
+  <si>
+    <t>login ya daftar ulng</t>
+  </si>
+  <si>
+    <t>ngeselin ya nyari barang aja sampe jam saking lot nya suka shopee bilang blom apdet aplikasi ya apdet akutu</t>
+  </si>
+  <si>
+    <t>login daftarkemarin chat nya logout pas login daftar bisaaplikasi updatesudah hapus datahapus cache dllapa pakai aplikasi</t>
+  </si>
+  <si>
+    <t>iklan ganggu</t>
+  </si>
+  <si>
+    <t>ya log in koneksi internet sinyal full banget log in pakai website pakai aplikasi mohon banget benah</t>
+  </si>
+  <si>
+    <t>mimin ngg cek out nihh</t>
+  </si>
+  <si>
+    <t>kecewa shopee pakai shopeepay checkout belanja belanja alfamart pakai shopee pay akun nonaktif isi saldo chekout belanja pakai nggak rugi gitu main nonaktif aja kecewa shopee rugi</t>
+  </si>
+  <si>
+    <t>download instal</t>
+  </si>
+  <si>
+    <t>ya mudah ya murah puas belanja ribet</t>
+  </si>
+  <si>
+    <t>buka shopee tanam tanam siram</t>
+  </si>
+  <si>
+    <t>bergabungsemoga</t>
+  </si>
+  <si>
+    <t>gimana bayar shopeepaylater bisacuma layar putih doangdan limit telat bayar tagih</t>
+  </si>
+  <si>
+    <t>lomba shopee joget poin sll dh mulubnyk curang dr shopee acaraterus suruh maen ngapain kl menang lock kl bkn uang dh shopee pay ku delete nyesel percayasuruh belanja belanja</t>
+  </si>
+  <si>
+    <t>kenapaa akun shopee batas blokparah gw planggan stia shopee gniinmakin ksni parah shopee</t>
+  </si>
+  <si>
+    <t>mahal banget ongkirnyaaku download minggu hapus</t>
+  </si>
+  <si>
+    <t>sih gak gratis ongkir nyesel donlot bikin kaouta ku abis</t>
+  </si>
+  <si>
+    <t>susah bngt masuk shopee</t>
+  </si>
+  <si>
+    <t>pas daftar si tulis jaring masalah</t>
+  </si>
+  <si>
+    <t>belanja lancar belanja aplikasi masalah buka clear chace hapus data uninstall buka nilai belanja ratus ribu saldo shopeepay apes dec update belanja super lot hp aman aman toko belah lancar lancar sajamales dah</t>
+  </si>
+  <si>
+    <t>erorr si pesan gimana</t>
+  </si>
+  <si>
+    <t>nih shoppe yaa belanja masuk keranjang</t>
+  </si>
+  <si>
+    <t>harap pesan sampe saat aplikasi eror nya</t>
+  </si>
+  <si>
+    <t>malas masuk server eror alih deh lazada</t>
+  </si>
+  <si>
+    <t>toko nya tanda seru cok</t>
+  </si>
+  <si>
+    <t>kena tipu uang shopee pay transaksi tagih pulsa gak pencet transaksi telfn shopee tipu</t>
+  </si>
+  <si>
+    <t>kode otapi kirim nggak gunain sampe shopeepay blokir kalo kayak gin rugi guna saldo shopeepay blokir ganti pin ngirim kode otapi kadaluarsa</t>
+  </si>
+  <si>
+    <t>karuan aplikasi nyabeberapa lihat notifikasipesan masukchat tim shopee suruh update clear cache log outsudah update clear cache gilir log in bisaparah parah parahpadalah barang terkirimgimana nasib barang sekarangjika tanggal login shopee hapus</t>
+  </si>
+  <si>
+    <t>knapa login sih ah bngsatt login lwan chrome lwat aplikasi gak</t>
+  </si>
+  <si>
+    <t>telat bayar hari shopeepaylater bunga</t>
+  </si>
+  <si>
+    <t>aplikasi sihkenapa shoppe gratis kirim nya berubahjadi ribetgak ngerti sekalimasih kali belanja shopee aplikasi nya itujadi malas belanja aplikasi</t>
+  </si>
+  <si>
+    <t>belanja terussss shoppepas ganti hp download ulang log in nangiss deh gueh</t>
+  </si>
+  <si>
+    <t>update muncul putih doang handphone masalah selesai servisin tetep aja muncul putih doang</t>
+  </si>
+  <si>
+    <t>sumpah kesel bangedsudah cape instal ulang lot putih polos kalo cekout</t>
+  </si>
+  <si>
+    <t>aplikasi iniselalu update bulan</t>
+  </si>
+  <si>
+    <t>uang kembali  nya robek rusak engga layak pakai</t>
+  </si>
+  <si>
+    <t>salah beli kembali barang dasar aplikasi sampah</t>
+  </si>
+  <si>
+    <t>voucher tanam beliitu usaha pke kouta beli ngratisterus bilang curang adilany</t>
+  </si>
+  <si>
+    <t>shopee skarenag voucher gratis ongkirbisanya pakai shopeepaykenapa kayak lihat live bagiin voucher gratis ongkirndak kayak kesini pelit shopeenya</t>
+  </si>
+  <si>
+    <t>kesini shopee pelit gratis ongkir gitu sekali gratis ongkir shopee pay shopee pay paylater transfer nihil mending alih aplikasi</t>
+  </si>
+  <si>
+    <t>pakai voucher gratis ongkir main shopee tanam biar gratis ongkir eh pas panen voucher nya pakai voucher gratis ongkir pas check out voucher nya --</t>
+  </si>
+  <si>
+    <t>shopee pelit aja nih gratis ongkirnya skarenag shopee minimal belanja rb rb gin malas</t>
+  </si>
+  <si>
+    <t>login chat sm shoppie suruh logout dlu login niy log out log onsebel jaring waepdhal hapus download aplikasi nya tolong solusi</t>
+  </si>
+  <si>
+    <t>bagus banget aplikasi shopee bikin kepala pusing terima kasih ya</t>
+  </si>
+  <si>
+    <t>suka aplikasi shopee shopee tanam kilat menit menit menit logout keburu bin ah</t>
+  </si>
+  <si>
+    <t>kirim mahal</t>
+  </si>
+  <si>
+    <t>dukung wilayah indonesia kecewa</t>
+  </si>
+  <si>
+    <t>kecewaaaaasudah jam status ubah kemaspadahal info jual barang kirim</t>
+  </si>
+  <si>
+    <t>narik dana jual tanggal -- -- masuk rekening bank komplain email tanggap dasar aplikasi buruk</t>
+  </si>
+  <si>
+    <t>kesini buruk aplikasi shopeebaru isi saldo shopeepay langsung aplikasi nya dinonaktifkanjangan download nyesel</t>
+  </si>
+  <si>
+    <t>kenapaa sope pay laternya yaaa punyak padahl da pakai</t>
+  </si>
+  <si>
+    <t>aplikasi shopeenya lot banget</t>
+  </si>
+  <si>
+    <t>aplikasi belanja online buruk download nyesel aplikasi ruwet</t>
+  </si>
+  <si>
+    <t>puas belanja pakai shopee</t>
   </si>
 </sst>
 </file>
@@ -13849,10 +16456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4529"/>
+  <dimension ref="A1:B5424"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5392" workbookViewId="0">
+      <selection activeCell="B4530" sqref="B4530:B5424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50093,6 +52700,7166 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4530" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B4530" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4531" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4531" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4532" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B4532" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4533" t="s">
+        <v>4492</v>
+      </c>
+      <c r="B4533" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4534" t="s">
+        <v>4493</v>
+      </c>
+      <c r="B4534" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4535" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B4535" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4536" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B4536" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4537" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B4537" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4538" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B4538" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4539" t="s">
+        <v>4498</v>
+      </c>
+      <c r="B4539" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4540" t="s">
+        <v>4499</v>
+      </c>
+      <c r="B4540" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4541" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B4541" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4542" t="s">
+        <v>4501</v>
+      </c>
+      <c r="B4542" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4543" t="s">
+        <v>4502</v>
+      </c>
+      <c r="B4543" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4544" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B4544" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4545" t="s">
+        <v>4504</v>
+      </c>
+      <c r="B4545" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4546" t="s">
+        <v>4505</v>
+      </c>
+      <c r="B4546" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4547" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B4547" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4548" t="s">
+        <v>4507</v>
+      </c>
+      <c r="B4548" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4549" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B4549" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4550" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B4550" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4551" t="s">
+        <v>4510</v>
+      </c>
+      <c r="B4551" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4552" t="s">
+        <v>4511</v>
+      </c>
+      <c r="B4552" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4553" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B4553" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4554" t="s">
+        <v>4513</v>
+      </c>
+      <c r="B4554" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4555" t="s">
+        <v>4514</v>
+      </c>
+      <c r="B4555" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4556" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B4556" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4557" t="s">
+        <v>4516</v>
+      </c>
+      <c r="B4557" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4558" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B4558" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4559" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B4559" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4560" t="s">
+        <v>4519</v>
+      </c>
+      <c r="B4560" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4561" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B4561" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4562" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B4562" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4563" t="s">
+        <v>4522</v>
+      </c>
+      <c r="B4563" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4564" t="s">
+        <v>4523</v>
+      </c>
+      <c r="B4564" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4565" t="s">
+        <v>4489</v>
+      </c>
+      <c r="B4565" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4566" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B4566" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4567" t="s">
+        <v>4525</v>
+      </c>
+      <c r="B4567" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4568" t="s">
+        <v>4526</v>
+      </c>
+      <c r="B4568" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4569" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B4569" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4570" t="s">
+        <v>4528</v>
+      </c>
+      <c r="B4570" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4571" t="s">
+        <v>4529</v>
+      </c>
+      <c r="B4571" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4572" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B4572" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4573" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B4573" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4574" t="s">
+        <v>4532</v>
+      </c>
+      <c r="B4574" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4575" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B4575" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4576" t="s">
+        <v>4534</v>
+      </c>
+      <c r="B4576" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4577" t="s">
+        <v>4535</v>
+      </c>
+      <c r="B4577" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4578" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B4578" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4579" t="s">
+        <v>4537</v>
+      </c>
+      <c r="B4579" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4580" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B4580" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4581" t="s">
+        <v>4539</v>
+      </c>
+      <c r="B4581" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4582" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B4582" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4583" t="s">
+        <v>4541</v>
+      </c>
+      <c r="B4583" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4584" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B4584" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4585" t="s">
+        <v>4543</v>
+      </c>
+      <c r="B4585" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4586" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B4586" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4587" t="s">
+        <v>4545</v>
+      </c>
+      <c r="B4587" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4588" t="s">
+        <v>4490</v>
+      </c>
+      <c r="B4588" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4589" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B4589" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4590" t="s">
+        <v>4547</v>
+      </c>
+      <c r="B4590" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4591" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B4591" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4592" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B4592" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4593" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B4593" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4594" t="s">
+        <v>4551</v>
+      </c>
+      <c r="B4594" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4595" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B4595" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4596" t="s">
+        <v>4553</v>
+      </c>
+      <c r="B4596" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4597" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B4597" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4598" t="s">
+        <v>4555</v>
+      </c>
+      <c r="B4598" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4599" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4599" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4600" t="s">
+        <v>4557</v>
+      </c>
+      <c r="B4600" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4601" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B4601" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4602" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B4602" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4603" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B4603" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4604" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B4604" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4605" t="s">
+        <v>4561</v>
+      </c>
+      <c r="B4605" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4606" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B4606" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4607" t="s">
+        <v>4563</v>
+      </c>
+      <c r="B4607" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4608" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B4608" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4609" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B4609" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4610" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B4610" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4611" t="s">
+        <v>4567</v>
+      </c>
+      <c r="B4611" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4612" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B4612" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4613" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B4613" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4614" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B4614" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4615" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B4615" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4616" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B4616" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4617" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4617" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4618" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B4618" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4619" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4619" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4620" t="s">
+        <v>4575</v>
+      </c>
+      <c r="B4620" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4621" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B4621" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4622" t="s">
+        <v>4577</v>
+      </c>
+      <c r="B4622" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4623" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B4623" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4624" t="s">
+        <v>4579</v>
+      </c>
+      <c r="B4624" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4625" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B4625" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4626" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B4626" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4627" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B4627" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4628" t="s">
+        <v>4583</v>
+      </c>
+      <c r="B4628" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4629" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B4629" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4630" t="s">
+        <v>4585</v>
+      </c>
+      <c r="B4630" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4631" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B4631" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4632" t="s">
+        <v>4587</v>
+      </c>
+      <c r="B4632" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4633" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B4633" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4634" t="s">
+        <v>4589</v>
+      </c>
+      <c r="B4634" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4635" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B4635" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4636" t="s">
+        <v>4591</v>
+      </c>
+      <c r="B4636" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4637" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B4637" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4638" t="s">
+        <v>4593</v>
+      </c>
+      <c r="B4638" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4639" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B4639" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4640" t="s">
+        <v>4595</v>
+      </c>
+      <c r="B4640" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4641" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B4641" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4642" t="s">
+        <v>4597</v>
+      </c>
+      <c r="B4642" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4643" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B4643" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4644" t="s">
+        <v>4599</v>
+      </c>
+      <c r="B4644" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4645" t="s">
+        <v>4600</v>
+      </c>
+      <c r="B4645" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4646" t="s">
+        <v>4601</v>
+      </c>
+      <c r="B4646" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4647" t="s">
+        <v>4602</v>
+      </c>
+      <c r="B4647" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4648" t="s">
+        <v>4603</v>
+      </c>
+      <c r="B4648" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4649" t="s">
+        <v>4604</v>
+      </c>
+      <c r="B4649" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4650" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B4650" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4651" t="s">
+        <v>4606</v>
+      </c>
+      <c r="B4651" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4652" t="s">
+        <v>4607</v>
+      </c>
+      <c r="B4652" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4653" t="s">
+        <v>4608</v>
+      </c>
+      <c r="B4653" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4654" t="s">
+        <v>4609</v>
+      </c>
+      <c r="B4654" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4655" t="s">
+        <v>4610</v>
+      </c>
+      <c r="B4655" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4656" t="s">
+        <v>4611</v>
+      </c>
+      <c r="B4656" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4657" t="s">
+        <v>4612</v>
+      </c>
+      <c r="B4657" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4658" t="s">
+        <v>4613</v>
+      </c>
+      <c r="B4658" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4659" t="s">
+        <v>4614</v>
+      </c>
+      <c r="B4659" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4660" t="s">
+        <v>4615</v>
+      </c>
+      <c r="B4660" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4661" t="s">
+        <v>4616</v>
+      </c>
+      <c r="B4661" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4662" t="s">
+        <v>4617</v>
+      </c>
+      <c r="B4662" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4663" t="s">
+        <v>4618</v>
+      </c>
+      <c r="B4663" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4664" t="s">
+        <v>4619</v>
+      </c>
+      <c r="B4664" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4665" t="s">
+        <v>4620</v>
+      </c>
+      <c r="B4665" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4666" t="s">
+        <v>4621</v>
+      </c>
+      <c r="B4666" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4667" t="s">
+        <v>4622</v>
+      </c>
+      <c r="B4667" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4668" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4668" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4669" t="s">
+        <v>4624</v>
+      </c>
+      <c r="B4669" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4670" t="s">
+        <v>4625</v>
+      </c>
+      <c r="B4670" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4671" t="s">
+        <v>4626</v>
+      </c>
+      <c r="B4671" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4672" t="s">
+        <v>4627</v>
+      </c>
+      <c r="B4672" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4673" t="s">
+        <v>4628</v>
+      </c>
+      <c r="B4673" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4674" t="s">
+        <v>4629</v>
+      </c>
+      <c r="B4674" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4675" t="s">
+        <v>4630</v>
+      </c>
+      <c r="B4675" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4676" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4676" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4677" t="s">
+        <v>4631</v>
+      </c>
+      <c r="B4677" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4678" t="s">
+        <v>4632</v>
+      </c>
+      <c r="B4678" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4679" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B4679" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4680" t="s">
+        <v>4634</v>
+      </c>
+      <c r="B4680" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4681" t="s">
+        <v>4635</v>
+      </c>
+      <c r="B4681" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4682" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B4682" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4683" t="s">
+        <v>4637</v>
+      </c>
+      <c r="B4683" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4684" t="s">
+        <v>4638</v>
+      </c>
+      <c r="B4684" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4685" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B4685" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4686" t="s">
+        <v>4640</v>
+      </c>
+      <c r="B4686" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4687" t="s">
+        <v>4641</v>
+      </c>
+      <c r="B4687" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4688" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B4688" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4689" t="s">
+        <v>4643</v>
+      </c>
+      <c r="B4689" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4690" t="s">
+        <v>4644</v>
+      </c>
+      <c r="B4690" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4691" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B4691" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4692" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B4692" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4693" t="s">
+        <v>4647</v>
+      </c>
+      <c r="B4693" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4694" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B4694" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4695" t="s">
+        <v>4649</v>
+      </c>
+      <c r="B4695" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4696" t="s">
+        <v>4650</v>
+      </c>
+      <c r="B4696" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4697" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B4697" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4698" t="s">
+        <v>4652</v>
+      </c>
+      <c r="B4698" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4699" t="s">
+        <v>4653</v>
+      </c>
+      <c r="B4699" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4700" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B4700" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4701" t="s">
+        <v>4655</v>
+      </c>
+      <c r="B4701" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4702" t="s">
+        <v>4656</v>
+      </c>
+      <c r="B4702" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4703" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B4703" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4704" t="s">
+        <v>4658</v>
+      </c>
+      <c r="B4704" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4705" t="s">
+        <v>4659</v>
+      </c>
+      <c r="B4705" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4706" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B4706" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4707" t="s">
+        <v>4661</v>
+      </c>
+      <c r="B4707" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4708" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4708" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4709" t="s">
+        <v>4662</v>
+      </c>
+      <c r="B4709" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4710" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B4710" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4711" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B4711" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4712" t="s">
+        <v>4665</v>
+      </c>
+      <c r="B4712" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4713" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B4713" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4714" t="s">
+        <v>4667</v>
+      </c>
+      <c r="B4714" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4715" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B4715" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4716" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B4716" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4717" t="s">
+        <v>4670</v>
+      </c>
+      <c r="B4717" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4718" t="s">
+        <v>4671</v>
+      </c>
+      <c r="B4718" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4719" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B4719" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4720" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B4720" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4721" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B4721" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4722" t="s">
+        <v>4674</v>
+      </c>
+      <c r="B4722" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4723" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B4723" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4724" t="s">
+        <v>4676</v>
+      </c>
+      <c r="B4724" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4725" t="s">
+        <v>4677</v>
+      </c>
+      <c r="B4725" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4726" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B4726" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4727" t="s">
+        <v>4679</v>
+      </c>
+      <c r="B4727" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4728" t="s">
+        <v>4680</v>
+      </c>
+      <c r="B4728" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4729" t="s">
+        <v>4673</v>
+      </c>
+      <c r="B4729" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4730" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B4730" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4731" t="s">
+        <v>4682</v>
+      </c>
+      <c r="B4731" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4732" t="s">
+        <v>4683</v>
+      </c>
+      <c r="B4732" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4733" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B4733" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4734" t="s">
+        <v>4685</v>
+      </c>
+      <c r="B4734" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4735" t="s">
+        <v>4686</v>
+      </c>
+      <c r="B4735" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4736" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B4736" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4737" t="s">
+        <v>4688</v>
+      </c>
+      <c r="B4737" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4738" t="s">
+        <v>4689</v>
+      </c>
+      <c r="B4738" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4739" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B4739" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4740" t="s">
+        <v>4691</v>
+      </c>
+      <c r="B4740" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4741" t="s">
+        <v>4692</v>
+      </c>
+      <c r="B4741" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4742" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B4742" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4743" t="s">
+        <v>4694</v>
+      </c>
+      <c r="B4743" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4744" t="s">
+        <v>4695</v>
+      </c>
+      <c r="B4744" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4745" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B4745" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4746" t="s">
+        <v>4697</v>
+      </c>
+      <c r="B4746" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4747" t="s">
+        <v>4698</v>
+      </c>
+      <c r="B4747" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4748" t="s">
+        <v>4699</v>
+      </c>
+      <c r="B4748" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4749" t="s">
+        <v>4700</v>
+      </c>
+      <c r="B4749" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4750" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4750" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4751" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B4751" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4752" t="s">
+        <v>4703</v>
+      </c>
+      <c r="B4752" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4753" t="s">
+        <v>4704</v>
+      </c>
+      <c r="B4753" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4754" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B4754" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4755" t="s">
+        <v>4706</v>
+      </c>
+      <c r="B4755" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4756" t="s">
+        <v>4707</v>
+      </c>
+      <c r="B4756" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4757" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B4757" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4758" t="s">
+        <v>4709</v>
+      </c>
+      <c r="B4758" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4759" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B4759" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4760" t="s">
+        <v>4710</v>
+      </c>
+      <c r="B4760" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4761" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B4761" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4762" t="s">
+        <v>4712</v>
+      </c>
+      <c r="B4762" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4763" t="s">
+        <v>4713</v>
+      </c>
+      <c r="B4763" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4764" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B4764" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4765" t="s">
+        <v>4715</v>
+      </c>
+      <c r="B4765" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4766" t="s">
+        <v>4716</v>
+      </c>
+      <c r="B4766" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4767" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B4767" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4768" t="s">
+        <v>4718</v>
+      </c>
+      <c r="B4768" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4769" t="s">
+        <v>4719</v>
+      </c>
+      <c r="B4769" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4770" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B4770" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4771" t="s">
+        <v>4721</v>
+      </c>
+      <c r="B4771" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4772" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B4772" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4773" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B4773" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4774" t="s">
+        <v>4724</v>
+      </c>
+      <c r="B4774" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4775" t="s">
+        <v>4725</v>
+      </c>
+      <c r="B4775" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4776" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B4776" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4777" t="s">
+        <v>4727</v>
+      </c>
+      <c r="B4777" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4778" t="s">
+        <v>4728</v>
+      </c>
+      <c r="B4778" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4779" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B4779" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4780" t="s">
+        <v>4730</v>
+      </c>
+      <c r="B4780" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4781" t="s">
+        <v>4731</v>
+      </c>
+      <c r="B4781" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4782" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B4782" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4783" t="s">
+        <v>4733</v>
+      </c>
+      <c r="B4783" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4784" t="s">
+        <v>4734</v>
+      </c>
+      <c r="B4784" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4785" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B4785" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4786" t="s">
+        <v>4736</v>
+      </c>
+      <c r="B4786" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4787" t="s">
+        <v>4737</v>
+      </c>
+      <c r="B4787" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4788" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B4788" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4789" t="s">
+        <v>4739</v>
+      </c>
+      <c r="B4789" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4790" t="s">
+        <v>4740</v>
+      </c>
+      <c r="B4790" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4791" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B4791" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4792" t="s">
+        <v>4495</v>
+      </c>
+      <c r="B4792" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4793" t="s">
+        <v>4742</v>
+      </c>
+      <c r="B4793" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4794" t="s">
+        <v>4743</v>
+      </c>
+      <c r="B4794" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4795" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B4795" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4796" t="s">
+        <v>4745</v>
+      </c>
+      <c r="B4796" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4797" t="s">
+        <v>4746</v>
+      </c>
+      <c r="B4797" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4798" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B4798" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4799" t="s">
+        <v>4748</v>
+      </c>
+      <c r="B4799" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4800" t="s">
+        <v>4749</v>
+      </c>
+      <c r="B4800" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4801" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B4801" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4802" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B4802" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4803" t="s">
+        <v>4559</v>
+      </c>
+      <c r="B4803" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4804" t="s">
+        <v>4751</v>
+      </c>
+      <c r="B4804" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4805" t="s">
+        <v>4752</v>
+      </c>
+      <c r="B4805" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4806" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B4806" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4807" t="s">
+        <v>4754</v>
+      </c>
+      <c r="B4807" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4808" t="s">
+        <v>4755</v>
+      </c>
+      <c r="B4808" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4809" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B4809" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4810" t="s">
+        <v>4623</v>
+      </c>
+      <c r="B4810" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4811" t="s">
+        <v>4757</v>
+      </c>
+      <c r="B4811" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4812" t="s">
+        <v>4758</v>
+      </c>
+      <c r="B4812" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4813" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B4813" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4814" t="s">
+        <v>4760</v>
+      </c>
+      <c r="B4814" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4815" t="s">
+        <v>4761</v>
+      </c>
+      <c r="B4815" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4816" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B4816" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4817" t="s">
+        <v>4763</v>
+      </c>
+      <c r="B4817" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4818" t="s">
+        <v>4605</v>
+      </c>
+      <c r="B4818" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4819" t="s">
+        <v>4764</v>
+      </c>
+      <c r="B4819" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4820" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B4820" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4821" t="s">
+        <v>4766</v>
+      </c>
+      <c r="B4821" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4822" t="s">
+        <v>4767</v>
+      </c>
+      <c r="B4822" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4823" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B4823" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4824" t="s">
+        <v>4769</v>
+      </c>
+      <c r="B4824" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4825" t="s">
+        <v>4770</v>
+      </c>
+      <c r="B4825" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4826" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B4826" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4827" t="s">
+        <v>4772</v>
+      </c>
+      <c r="B4827" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4828" t="s">
+        <v>4773</v>
+      </c>
+      <c r="B4828" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4829" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B4829" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4830" t="s">
+        <v>4775</v>
+      </c>
+      <c r="B4830" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4831" t="s">
+        <v>4776</v>
+      </c>
+      <c r="B4831" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4832" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B4832" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4833" t="s">
+        <v>4778</v>
+      </c>
+      <c r="B4833" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4834" t="s">
+        <v>4779</v>
+      </c>
+      <c r="B4834" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4835" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B4835" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4836" t="s">
+        <v>4781</v>
+      </c>
+      <c r="B4836" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4837" t="s">
+        <v>4782</v>
+      </c>
+      <c r="B4837" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4838" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B4838" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4839" t="s">
+        <v>4784</v>
+      </c>
+      <c r="B4839" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4840" t="s">
+        <v>4785</v>
+      </c>
+      <c r="B4840" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4841" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B4841" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4842" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4842" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B4842" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4843" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4843" t="s">
+        <v>4788</v>
+      </c>
+      <c r="B4843" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4844" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4844" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4844" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4845" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4845" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B4845" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4846" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4846" t="s">
+        <v>4790</v>
+      </c>
+      <c r="B4846" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4847" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4847" t="s">
+        <v>4791</v>
+      </c>
+      <c r="B4847" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4848" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4848" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B4848" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4849" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4849" t="s">
+        <v>4793</v>
+      </c>
+      <c r="B4849" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4850" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4850" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B4850" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4851" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B4851" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4852" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4852" t="s">
+        <v>4796</v>
+      </c>
+      <c r="B4852" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4853" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4853" t="s">
+        <v>4797</v>
+      </c>
+      <c r="B4853" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4854" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4854" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4854" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4855" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4855" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B4855" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4856" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4856" t="s">
+        <v>4799</v>
+      </c>
+      <c r="B4856" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4857" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4857" t="s">
+        <v>4800</v>
+      </c>
+      <c r="B4857" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4858" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4858" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B4858" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4859" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4859" t="s">
+        <v>4701</v>
+      </c>
+      <c r="B4859" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4860" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4860" t="s">
+        <v>4802</v>
+      </c>
+      <c r="B4860" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4861" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4861" t="s">
+        <v>4803</v>
+      </c>
+      <c r="B4861" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4862" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4862" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B4862" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4863" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4863" t="s">
+        <v>4805</v>
+      </c>
+      <c r="B4863" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4864" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4864" t="s">
+        <v>4806</v>
+      </c>
+      <c r="B4864" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4865" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4865" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B4865" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4866" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4866" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B4866" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4867" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4867" t="s">
+        <v>4809</v>
+      </c>
+      <c r="B4867" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4868" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4868" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B4868" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4869" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4869" t="s">
+        <v>4811</v>
+      </c>
+      <c r="B4869" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4870" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4870" t="s">
+        <v>4794</v>
+      </c>
+      <c r="B4870" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4871" t="s">
+        <v>4812</v>
+      </c>
+      <c r="B4871" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4872" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B4872" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4873" t="s">
+        <v>4814</v>
+      </c>
+      <c r="B4873" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4874" t="s">
+        <v>4815</v>
+      </c>
+      <c r="B4874" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4875" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B4875" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4876" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4876" t="s">
+        <v>4817</v>
+      </c>
+      <c r="B4876" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4877" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4877" t="s">
+        <v>4818</v>
+      </c>
+      <c r="B4877" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4878" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4878" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B4878" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4879" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4879" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B4879" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4880" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4880" t="s">
+        <v>4821</v>
+      </c>
+      <c r="B4880" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4881" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4881" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B4881" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4882" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4882" t="s">
+        <v>4823</v>
+      </c>
+      <c r="B4882" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4883" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4883" t="s">
+        <v>4824</v>
+      </c>
+      <c r="B4883" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4884" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4884" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B4884" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4885" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4885" t="s">
+        <v>4826</v>
+      </c>
+      <c r="B4885" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4886" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4886" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B4886" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4887" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4887" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B4887" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4888" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4888" t="s">
+        <v>4508</v>
+      </c>
+      <c r="B4888" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4889" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4889" t="s">
+        <v>4829</v>
+      </c>
+      <c r="B4889" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4890" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4890" t="s">
+        <v>4830</v>
+      </c>
+      <c r="B4890" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4891" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4891" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B4891" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4892" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4892" t="s">
+        <v>4832</v>
+      </c>
+      <c r="B4892" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4893" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4893" t="s">
+        <v>4833</v>
+      </c>
+      <c r="B4893" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4894" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4894" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B4894" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4895" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4895" t="s">
+        <v>4835</v>
+      </c>
+      <c r="B4895" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4896" t="s">
+        <v>4836</v>
+      </c>
+      <c r="B4896" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4897" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B4897" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4898" t="s">
+        <v>4838</v>
+      </c>
+      <c r="B4898" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4899" t="s">
+        <v>4839</v>
+      </c>
+      <c r="B4899" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4900" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B4900" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4901" t="s">
+        <v>4841</v>
+      </c>
+      <c r="B4901" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4902" t="s">
+        <v>4842</v>
+      </c>
+      <c r="B4902" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4903" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4903" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4904" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B4904" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4905" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4905" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4906" t="s">
+        <v>4844</v>
+      </c>
+      <c r="B4906" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4907" t="s">
+        <v>4845</v>
+      </c>
+      <c r="B4907" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4908" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B4908" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4909" t="s">
+        <v>4847</v>
+      </c>
+      <c r="B4909" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4910" t="s">
+        <v>4848</v>
+      </c>
+      <c r="B4910" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4911" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B4911" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4912" t="s">
+        <v>4850</v>
+      </c>
+      <c r="B4912" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4913" t="s">
+        <v>4851</v>
+      </c>
+      <c r="B4913" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4914" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4914" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B4914" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4915" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4915" t="s">
+        <v>4853</v>
+      </c>
+      <c r="B4915" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4916" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4916" t="s">
+        <v>4854</v>
+      </c>
+      <c r="B4916" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4917" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4917" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B4917" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4918" t="s">
+        <v>4856</v>
+      </c>
+      <c r="B4918" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4919" t="s">
+        <v>4857</v>
+      </c>
+      <c r="B4919" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4920" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B4920" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4921" t="s">
+        <v>4859</v>
+      </c>
+      <c r="B4921" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4922" t="s">
+        <v>4860</v>
+      </c>
+      <c r="B4922" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4923" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B4923" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4924" t="s">
+        <v>4862</v>
+      </c>
+      <c r="B4924" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4925" t="s">
+        <v>4863</v>
+      </c>
+      <c r="B4925" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4926" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B4926" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4927" t="s">
+        <v>4865</v>
+      </c>
+      <c r="B4927" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4928" t="s">
+        <v>4866</v>
+      </c>
+      <c r="B4928" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4929" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B4929" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4930" t="s">
+        <v>4868</v>
+      </c>
+      <c r="B4930" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4931" t="s">
+        <v>4869</v>
+      </c>
+      <c r="B4931" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4932" t="s">
+        <v>4646</v>
+      </c>
+      <c r="B4932" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4933" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B4933" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4934" t="s">
+        <v>4871</v>
+      </c>
+      <c r="B4934" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4935" t="s">
+        <v>4872</v>
+      </c>
+      <c r="B4935" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4936" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B4936" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4937" t="s">
+        <v>4874</v>
+      </c>
+      <c r="B4937" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4938" t="s">
+        <v>4875</v>
+      </c>
+      <c r="B4938" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4939" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B4939" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4940" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4940" t="s">
+        <v>4877</v>
+      </c>
+      <c r="B4940" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4941" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4941" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B4941" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4942" t="s">
+        <v>4787</v>
+      </c>
+      <c r="B4942" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4943" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B4943" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4944" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B4944" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4945" t="s">
+        <v>4880</v>
+      </c>
+      <c r="B4945" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4946" t="s">
+        <v>4722</v>
+      </c>
+      <c r="B4946" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4947" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B4947" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4948" t="s">
+        <v>4882</v>
+      </c>
+      <c r="B4948" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4949" t="s">
+        <v>4883</v>
+      </c>
+      <c r="B4949" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4950" t="s">
+        <v>4884</v>
+      </c>
+      <c r="B4950" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4951" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B4951" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4952" t="s">
+        <v>4886</v>
+      </c>
+      <c r="B4952" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4953" t="s">
+        <v>4887</v>
+      </c>
+      <c r="B4953" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4954" t="s">
+        <v>4888</v>
+      </c>
+      <c r="B4954" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4955" t="s">
+        <v>4889</v>
+      </c>
+      <c r="B4955" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4956" t="s">
+        <v>4890</v>
+      </c>
+      <c r="B4956" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4957" t="s">
+        <v>4891</v>
+      </c>
+      <c r="B4957" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4958" t="s">
+        <v>4892</v>
+      </c>
+      <c r="B4958" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4959" t="s">
+        <v>4893</v>
+      </c>
+      <c r="B4959" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4960" t="s">
+        <v>4894</v>
+      </c>
+      <c r="B4960" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4961" t="s">
+        <v>4895</v>
+      </c>
+      <c r="B4961" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4962" t="s">
+        <v>4896</v>
+      </c>
+      <c r="B4962" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4963" t="s">
+        <v>4897</v>
+      </c>
+      <c r="B4963" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4964" t="s">
+        <v>4898</v>
+      </c>
+      <c r="B4964" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4965" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4965" t="s">
+        <v>4899</v>
+      </c>
+      <c r="B4965" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4966" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4966" t="s">
+        <v>4900</v>
+      </c>
+      <c r="B4966" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4967" t="s">
+        <v>4901</v>
+      </c>
+      <c r="B4967" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4968" t="s">
+        <v>4902</v>
+      </c>
+      <c r="B4968" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4969" t="s">
+        <v>4903</v>
+      </c>
+      <c r="B4969" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4970" t="s">
+        <v>4904</v>
+      </c>
+      <c r="B4970" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4971" t="s">
+        <v>4905</v>
+      </c>
+      <c r="B4971" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4972" t="s">
+        <v>4906</v>
+      </c>
+      <c r="B4972" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4973" t="s">
+        <v>4907</v>
+      </c>
+      <c r="B4973" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4974" t="s">
+        <v>4908</v>
+      </c>
+      <c r="B4974" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4975" t="s">
+        <v>4909</v>
+      </c>
+      <c r="B4975" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4976" t="s">
+        <v>4910</v>
+      </c>
+      <c r="B4976" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4977" t="s">
+        <v>4911</v>
+      </c>
+      <c r="B4977" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4978" t="s">
+        <v>4912</v>
+      </c>
+      <c r="B4978" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4979" t="s">
+        <v>4913</v>
+      </c>
+      <c r="B4979" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4980" t="s">
+        <v>4914</v>
+      </c>
+      <c r="B4980" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4981" t="s">
+        <v>4915</v>
+      </c>
+      <c r="B4981" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4982" t="s">
+        <v>4916</v>
+      </c>
+      <c r="B4982" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4983" t="s">
+        <v>4917</v>
+      </c>
+      <c r="B4983" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4984" t="s">
+        <v>4918</v>
+      </c>
+      <c r="B4984" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4985" t="s">
+        <v>4919</v>
+      </c>
+      <c r="B4985" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4986" t="s">
+        <v>4920</v>
+      </c>
+      <c r="B4986" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4987" t="s">
+        <v>4921</v>
+      </c>
+      <c r="B4987" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4988" t="s">
+        <v>4922</v>
+      </c>
+      <c r="B4988" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4989" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4989" t="s">
+        <v>4923</v>
+      </c>
+      <c r="B4989" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4990" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4990" t="s">
+        <v>4924</v>
+      </c>
+      <c r="B4990" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4991" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4991" t="s">
+        <v>4925</v>
+      </c>
+      <c r="B4991" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4992" t="s">
+        <v>4926</v>
+      </c>
+      <c r="B4992" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4993" t="s">
+        <v>4927</v>
+      </c>
+      <c r="B4993" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4994" t="s">
+        <v>4928</v>
+      </c>
+      <c r="B4994" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4995" t="s">
+        <v>4929</v>
+      </c>
+      <c r="B4995" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4996" t="s">
+        <v>4930</v>
+      </c>
+      <c r="B4996" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4997" t="s">
+        <v>4931</v>
+      </c>
+      <c r="B4997" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4998" t="s">
+        <v>4932</v>
+      </c>
+      <c r="B4998" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4999" t="s">
+        <v>4933</v>
+      </c>
+      <c r="B4999" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5000" t="s">
+        <v>4934</v>
+      </c>
+      <c r="B5000" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5001" t="s">
+        <v>4935</v>
+      </c>
+      <c r="B5001" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5002" t="s">
+        <v>4936</v>
+      </c>
+      <c r="B5002" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5003" t="s">
+        <v>4937</v>
+      </c>
+      <c r="B5003" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5004" t="s">
+        <v>4938</v>
+      </c>
+      <c r="B5004" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5005" t="s">
+        <v>4939</v>
+      </c>
+      <c r="B5005" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5006" t="s">
+        <v>4940</v>
+      </c>
+      <c r="B5006" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5007" t="s">
+        <v>4941</v>
+      </c>
+      <c r="B5007" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5008" t="s">
+        <v>4942</v>
+      </c>
+      <c r="B5008" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5009" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B5009" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5010" t="s">
+        <v>4944</v>
+      </c>
+      <c r="B5010" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5011" t="s">
+        <v>4945</v>
+      </c>
+      <c r="B5011" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5012" t="s">
+        <v>4946</v>
+      </c>
+      <c r="B5012" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5013" t="s">
+        <v>4947</v>
+      </c>
+      <c r="B5013" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5014" t="s">
+        <v>4948</v>
+      </c>
+      <c r="B5014" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5015" t="s">
+        <v>4949</v>
+      </c>
+      <c r="B5015" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5016" t="s">
+        <v>4950</v>
+      </c>
+      <c r="B5016" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5017" t="s">
+        <v>4951</v>
+      </c>
+      <c r="B5017" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5018" t="s">
+        <v>4952</v>
+      </c>
+      <c r="B5018" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5019" t="s">
+        <v>4953</v>
+      </c>
+      <c r="B5019" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5020" t="s">
+        <v>4954</v>
+      </c>
+      <c r="B5020" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5021" t="s">
+        <v>4955</v>
+      </c>
+      <c r="B5021" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5022" t="s">
+        <v>4956</v>
+      </c>
+      <c r="B5022" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5023" t="s">
+        <v>4957</v>
+      </c>
+      <c r="B5023" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5024" t="s">
+        <v>4958</v>
+      </c>
+      <c r="B5024" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5025" t="s">
+        <v>4959</v>
+      </c>
+      <c r="B5025" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5026" t="s">
+        <v>4960</v>
+      </c>
+      <c r="B5026" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5027" t="s">
+        <v>4961</v>
+      </c>
+      <c r="B5027" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5028" t="s">
+        <v>4962</v>
+      </c>
+      <c r="B5028" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5029" t="s">
+        <v>4963</v>
+      </c>
+      <c r="B5029" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5030" t="s">
+        <v>4964</v>
+      </c>
+      <c r="B5030" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5031" t="s">
+        <v>4965</v>
+      </c>
+      <c r="B5031" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5032" t="s">
+        <v>4966</v>
+      </c>
+      <c r="B5032" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5033" t="s">
+        <v>4967</v>
+      </c>
+      <c r="B5033" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5034" t="s">
+        <v>4968</v>
+      </c>
+      <c r="B5034" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5035" t="s">
+        <v>4969</v>
+      </c>
+      <c r="B5035" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5036" t="s">
+        <v>4970</v>
+      </c>
+      <c r="B5036" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5037" t="s">
+        <v>4971</v>
+      </c>
+      <c r="B5037" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5038" t="s">
+        <v>4972</v>
+      </c>
+      <c r="B5038" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5039" t="s">
+        <v>4973</v>
+      </c>
+      <c r="B5039" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5040" t="s">
+        <v>4974</v>
+      </c>
+      <c r="B5040" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5041" t="s">
+        <v>4975</v>
+      </c>
+      <c r="B5041" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5042" t="s">
+        <v>4976</v>
+      </c>
+      <c r="B5042" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5043" t="s">
+        <v>4977</v>
+      </c>
+      <c r="B5043" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5044" t="s">
+        <v>4978</v>
+      </c>
+      <c r="B5044" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5045" t="s">
+        <v>4979</v>
+      </c>
+      <c r="B5045" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5046" t="s">
+        <v>4980</v>
+      </c>
+      <c r="B5046" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5047" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5047" t="s">
+        <v>4981</v>
+      </c>
+      <c r="B5047" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5048" t="s">
+        <v>4982</v>
+      </c>
+      <c r="B5048" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5049" t="s">
+        <v>4983</v>
+      </c>
+      <c r="B5049" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5050" t="s">
+        <v>4984</v>
+      </c>
+      <c r="B5050" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5051" t="s">
+        <v>4985</v>
+      </c>
+      <c r="B5051" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5052" t="s">
+        <v>4986</v>
+      </c>
+      <c r="B5052" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5053" t="s">
+        <v>4987</v>
+      </c>
+      <c r="B5053" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5054" t="s">
+        <v>4988</v>
+      </c>
+      <c r="B5054" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5055" t="s">
+        <v>4989</v>
+      </c>
+      <c r="B5055" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5056" t="s">
+        <v>4990</v>
+      </c>
+      <c r="B5056" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5057" t="s">
+        <v>4991</v>
+      </c>
+      <c r="B5057" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5058" t="s">
+        <v>4992</v>
+      </c>
+      <c r="B5058" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5059" t="s">
+        <v>4993</v>
+      </c>
+      <c r="B5059" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5060" t="s">
+        <v>4994</v>
+      </c>
+      <c r="B5060" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5061" t="s">
+        <v>4995</v>
+      </c>
+      <c r="B5061" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5062" t="s">
+        <v>4996</v>
+      </c>
+      <c r="B5062" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5063" t="s">
+        <v>4997</v>
+      </c>
+      <c r="B5063" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5064" t="s">
+        <v>4998</v>
+      </c>
+      <c r="B5064" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5065" t="s">
+        <v>4999</v>
+      </c>
+      <c r="B5065" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5066" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B5066" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5067" t="s">
+        <v>5001</v>
+      </c>
+      <c r="B5067" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5068" t="s">
+        <v>5002</v>
+      </c>
+      <c r="B5068" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5069" t="s">
+        <v>5003</v>
+      </c>
+      <c r="B5069" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5070" t="s">
+        <v>5004</v>
+      </c>
+      <c r="B5070" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5071" t="s">
+        <v>5005</v>
+      </c>
+      <c r="B5071" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5072" t="s">
+        <v>5006</v>
+      </c>
+      <c r="B5072" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5073" t="s">
+        <v>5007</v>
+      </c>
+      <c r="B5073" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5074" t="s">
+        <v>5008</v>
+      </c>
+      <c r="B5074" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5075" t="s">
+        <v>5009</v>
+      </c>
+      <c r="B5075" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5076" t="s">
+        <v>5010</v>
+      </c>
+      <c r="B5076" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5077" t="s">
+        <v>5011</v>
+      </c>
+      <c r="B5077" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5078" t="s">
+        <v>5012</v>
+      </c>
+      <c r="B5078" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5079" t="s">
+        <v>5013</v>
+      </c>
+      <c r="B5079" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5080" t="s">
+        <v>5014</v>
+      </c>
+      <c r="B5080" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5081" t="s">
+        <v>5015</v>
+      </c>
+      <c r="B5081" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5082" t="s">
+        <v>5016</v>
+      </c>
+      <c r="B5082" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5083" t="s">
+        <v>5017</v>
+      </c>
+      <c r="B5083" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5084" t="s">
+        <v>5018</v>
+      </c>
+      <c r="B5084" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5085" t="s">
+        <v>5019</v>
+      </c>
+      <c r="B5085" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5086" t="s">
+        <v>5020</v>
+      </c>
+      <c r="B5086" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5087" t="s">
+        <v>5021</v>
+      </c>
+      <c r="B5087" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5088" t="s">
+        <v>5022</v>
+      </c>
+      <c r="B5088" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5089" t="s">
+        <v>5023</v>
+      </c>
+      <c r="B5089" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5090" t="s">
+        <v>5024</v>
+      </c>
+      <c r="B5090" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5091" t="s">
+        <v>5025</v>
+      </c>
+      <c r="B5091" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5092" t="s">
+        <v>5026</v>
+      </c>
+      <c r="B5092" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5093" t="s">
+        <v>5027</v>
+      </c>
+      <c r="B5093" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5094" t="s">
+        <v>5028</v>
+      </c>
+      <c r="B5094" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5095" t="s">
+        <v>5029</v>
+      </c>
+      <c r="B5095" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5096" t="s">
+        <v>5030</v>
+      </c>
+      <c r="B5096" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5097" t="s">
+        <v>5031</v>
+      </c>
+      <c r="B5097" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5098" t="s">
+        <v>5032</v>
+      </c>
+      <c r="B5098" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5099" t="s">
+        <v>5033</v>
+      </c>
+      <c r="B5099" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5100" t="s">
+        <v>5034</v>
+      </c>
+      <c r="B5100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5101" t="s">
+        <v>5035</v>
+      </c>
+      <c r="B5101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5102" t="s">
+        <v>5036</v>
+      </c>
+      <c r="B5102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5103" t="s">
+        <v>5037</v>
+      </c>
+      <c r="B5103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5104" t="s">
+        <v>5038</v>
+      </c>
+      <c r="B5104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5105" t="s">
+        <v>5039</v>
+      </c>
+      <c r="B5105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5106" t="s">
+        <v>5040</v>
+      </c>
+      <c r="B5106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5107" t="s">
+        <v>5041</v>
+      </c>
+      <c r="B5107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5108" t="s">
+        <v>5042</v>
+      </c>
+      <c r="B5108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5109" t="s">
+        <v>5043</v>
+      </c>
+      <c r="B5109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5110" t="s">
+        <v>5044</v>
+      </c>
+      <c r="B5110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5111" t="s">
+        <v>5045</v>
+      </c>
+      <c r="B5111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5112" t="s">
+        <v>5046</v>
+      </c>
+      <c r="B5112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5113" t="s">
+        <v>5047</v>
+      </c>
+      <c r="B5113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5114" t="s">
+        <v>5048</v>
+      </c>
+      <c r="B5114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5115" t="s">
+        <v>5049</v>
+      </c>
+      <c r="B5115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5116" t="s">
+        <v>5050</v>
+      </c>
+      <c r="B5116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5117" t="s">
+        <v>5051</v>
+      </c>
+      <c r="B5117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5118" t="s">
+        <v>5052</v>
+      </c>
+      <c r="B5118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5119" t="s">
+        <v>5053</v>
+      </c>
+      <c r="B5119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5120" t="s">
+        <v>5054</v>
+      </c>
+      <c r="B5120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5121" t="s">
+        <v>5055</v>
+      </c>
+      <c r="B5121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5122" t="s">
+        <v>5056</v>
+      </c>
+      <c r="B5122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5123" t="s">
+        <v>5057</v>
+      </c>
+      <c r="B5123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5124" t="s">
+        <v>5058</v>
+      </c>
+      <c r="B5124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5125" t="s">
+        <v>5059</v>
+      </c>
+      <c r="B5125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5126" t="s">
+        <v>5060</v>
+      </c>
+      <c r="B5126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5127" t="s">
+        <v>5061</v>
+      </c>
+      <c r="B5127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5128" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B5128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5129" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B5129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5130" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B5130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5131" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B5131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5132" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B5132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5133" t="s">
+        <v>5067</v>
+      </c>
+      <c r="B5133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5134" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B5134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5135" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B5135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5136" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B5136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5137" t="s">
+        <v>5071</v>
+      </c>
+      <c r="B5137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5138" t="s">
+        <v>5072</v>
+      </c>
+      <c r="B5138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5139" t="s">
+        <v>5073</v>
+      </c>
+      <c r="B5139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5140" t="s">
+        <v>5074</v>
+      </c>
+      <c r="B5140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5141" t="s">
+        <v>5075</v>
+      </c>
+      <c r="B5141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5142" t="s">
+        <v>5076</v>
+      </c>
+      <c r="B5142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5143" t="s">
+        <v>5077</v>
+      </c>
+      <c r="B5143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5144" t="s">
+        <v>5078</v>
+      </c>
+      <c r="B5144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5145" t="s">
+        <v>5079</v>
+      </c>
+      <c r="B5145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5146" t="s">
+        <v>5080</v>
+      </c>
+      <c r="B5146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5147" t="s">
+        <v>5081</v>
+      </c>
+      <c r="B5147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5148" t="s">
+        <v>5082</v>
+      </c>
+      <c r="B5148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5149" t="s">
+        <v>5083</v>
+      </c>
+      <c r="B5149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5150" t="s">
+        <v>5084</v>
+      </c>
+      <c r="B5150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5151" t="s">
+        <v>5085</v>
+      </c>
+      <c r="B5151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5152" t="s">
+        <v>5086</v>
+      </c>
+      <c r="B5152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5153" t="s">
+        <v>5087</v>
+      </c>
+      <c r="B5153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5154" t="s">
+        <v>5088</v>
+      </c>
+      <c r="B5154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5155" t="s">
+        <v>5089</v>
+      </c>
+      <c r="B5155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5156" t="s">
+        <v>5090</v>
+      </c>
+      <c r="B5156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5157" t="s">
+        <v>5091</v>
+      </c>
+      <c r="B5157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5158" t="s">
+        <v>5092</v>
+      </c>
+      <c r="B5158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5159" t="s">
+        <v>5093</v>
+      </c>
+      <c r="B5159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5160" t="s">
+        <v>5094</v>
+      </c>
+      <c r="B5160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5161" t="s">
+        <v>5095</v>
+      </c>
+      <c r="B5161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5162" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B5162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5163" t="s">
+        <v>5097</v>
+      </c>
+      <c r="B5163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5164" t="s">
+        <v>5098</v>
+      </c>
+      <c r="B5164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5165" t="s">
+        <v>5099</v>
+      </c>
+      <c r="B5165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5166" t="s">
+        <v>5100</v>
+      </c>
+      <c r="B5166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5167" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B5167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5168" t="s">
+        <v>5102</v>
+      </c>
+      <c r="B5168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5169" t="s">
+        <v>5103</v>
+      </c>
+      <c r="B5169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5170" t="s">
+        <v>5104</v>
+      </c>
+      <c r="B5170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5171" t="s">
+        <v>5105</v>
+      </c>
+      <c r="B5171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5172" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B5172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5173" t="s">
+        <v>5107</v>
+      </c>
+      <c r="B5173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5174" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B5174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5175" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B5175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5176" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B5176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5177" t="s">
+        <v>5111</v>
+      </c>
+      <c r="B5177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5178" t="s">
+        <v>5112</v>
+      </c>
+      <c r="B5178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5179" t="s">
+        <v>5113</v>
+      </c>
+      <c r="B5179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5180" t="s">
+        <v>5114</v>
+      </c>
+      <c r="B5180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5181" t="s">
+        <v>5115</v>
+      </c>
+      <c r="B5181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5182" t="s">
+        <v>5116</v>
+      </c>
+      <c r="B5182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5183" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B5183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5184" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B5184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5185" t="s">
+        <v>5119</v>
+      </c>
+      <c r="B5185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5186" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B5186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5187" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B5187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5188" t="s">
+        <v>4573</v>
+      </c>
+      <c r="B5188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5189" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B5189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5190" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B5190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5191" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B5191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5192" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B5192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5193" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B5193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5194" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B5194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5195" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B5195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5196" t="s">
+        <v>5129</v>
+      </c>
+      <c r="B5196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5197" t="s">
+        <v>5130</v>
+      </c>
+      <c r="B5197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5198" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B5198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5199" t="s">
+        <v>5132</v>
+      </c>
+      <c r="B5199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5200" t="s">
+        <v>5133</v>
+      </c>
+      <c r="B5200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5201" t="s">
+        <v>5134</v>
+      </c>
+      <c r="B5201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5202" t="s">
+        <v>5135</v>
+      </c>
+      <c r="B5202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5203" t="s">
+        <v>5136</v>
+      </c>
+      <c r="B5203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5204" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B5204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5205" t="s">
+        <v>5138</v>
+      </c>
+      <c r="B5205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5206" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B5206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5207" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B5207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5208" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B5208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5209" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B5209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5210" t="s">
+        <v>5143</v>
+      </c>
+      <c r="B5210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5211" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B5211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5212" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B5212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5213" t="s">
+        <v>5146</v>
+      </c>
+      <c r="B5213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5214" t="s">
+        <v>5147</v>
+      </c>
+      <c r="B5214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5215" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B5215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5216" t="s">
+        <v>5149</v>
+      </c>
+      <c r="B5216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5217" t="s">
+        <v>5150</v>
+      </c>
+      <c r="B5217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5218" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B5218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5219" t="s">
+        <v>5152</v>
+      </c>
+      <c r="B5219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5220" t="s">
+        <v>5153</v>
+      </c>
+      <c r="B5220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5221" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B5221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5222" t="s">
+        <v>5155</v>
+      </c>
+      <c r="B5222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5223" t="s">
+        <v>5156</v>
+      </c>
+      <c r="B5223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5224" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B5224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5225" t="s">
+        <v>5158</v>
+      </c>
+      <c r="B5225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5226" t="s">
+        <v>5159</v>
+      </c>
+      <c r="B5226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5227" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B5227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5228" t="s">
+        <v>5161</v>
+      </c>
+      <c r="B5228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5229" t="s">
+        <v>5162</v>
+      </c>
+      <c r="B5229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5230" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B5230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5231" t="s">
+        <v>5164</v>
+      </c>
+      <c r="B5231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5232" t="s">
+        <v>5165</v>
+      </c>
+      <c r="B5232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5233" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B5233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5234" t="s">
+        <v>5167</v>
+      </c>
+      <c r="B5234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5235" t="s">
+        <v>5168</v>
+      </c>
+      <c r="B5235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5236" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B5236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5237" t="s">
+        <v>5170</v>
+      </c>
+      <c r="B5237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5238" t="s">
+        <v>5171</v>
+      </c>
+      <c r="B5238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5239" t="s">
+        <v>5172</v>
+      </c>
+      <c r="B5239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5240" t="s">
+        <v>5173</v>
+      </c>
+      <c r="B5240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5241" t="s">
+        <v>5174</v>
+      </c>
+      <c r="B5241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5242" t="s">
+        <v>5175</v>
+      </c>
+      <c r="B5242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5243" t="s">
+        <v>5176</v>
+      </c>
+      <c r="B5243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5244" t="s">
+        <v>5177</v>
+      </c>
+      <c r="B5244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5245" t="s">
+        <v>5178</v>
+      </c>
+      <c r="B5245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5246" t="s">
+        <v>5179</v>
+      </c>
+      <c r="B5246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5247" t="s">
+        <v>5180</v>
+      </c>
+      <c r="B5247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5248" t="s">
+        <v>5181</v>
+      </c>
+      <c r="B5248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5249" t="s">
+        <v>5182</v>
+      </c>
+      <c r="B5249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5250" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B5250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5251" t="s">
+        <v>5184</v>
+      </c>
+      <c r="B5251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5252" t="s">
+        <v>5185</v>
+      </c>
+      <c r="B5252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5253" t="s">
+        <v>5186</v>
+      </c>
+      <c r="B5253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5254" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B5254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5255" t="s">
+        <v>5188</v>
+      </c>
+      <c r="B5255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5256" t="s">
+        <v>5189</v>
+      </c>
+      <c r="B5256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5257" t="s">
+        <v>5190</v>
+      </c>
+      <c r="B5257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5258" t="s">
+        <v>5191</v>
+      </c>
+      <c r="B5258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5259" t="s">
+        <v>5192</v>
+      </c>
+      <c r="B5259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5260" t="s">
+        <v>5193</v>
+      </c>
+      <c r="B5260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5261" t="s">
+        <v>5194</v>
+      </c>
+      <c r="B5261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5262" t="s">
+        <v>5195</v>
+      </c>
+      <c r="B5262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5263" t="s">
+        <v>5196</v>
+      </c>
+      <c r="B5263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5264" t="s">
+        <v>5197</v>
+      </c>
+      <c r="B5264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5265" t="s">
+        <v>5198</v>
+      </c>
+      <c r="B5265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5266" t="s">
+        <v>5199</v>
+      </c>
+      <c r="B5266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5267" t="s">
+        <v>5200</v>
+      </c>
+      <c r="B5267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5268" t="s">
+        <v>5201</v>
+      </c>
+      <c r="B5268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5269" t="s">
+        <v>5202</v>
+      </c>
+      <c r="B5269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5270" t="s">
+        <v>5203</v>
+      </c>
+      <c r="B5270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5271" t="s">
+        <v>5204</v>
+      </c>
+      <c r="B5271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5272" t="s">
+        <v>5205</v>
+      </c>
+      <c r="B5272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5273" t="s">
+        <v>5206</v>
+      </c>
+      <c r="B5273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5274" t="s">
+        <v>5207</v>
+      </c>
+      <c r="B5274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5275" t="s">
+        <v>5208</v>
+      </c>
+      <c r="B5275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5276" t="s">
+        <v>5209</v>
+      </c>
+      <c r="B5276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5277" t="s">
+        <v>5210</v>
+      </c>
+      <c r="B5277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5278" t="s">
+        <v>5211</v>
+      </c>
+      <c r="B5278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5279" t="s">
+        <v>5212</v>
+      </c>
+      <c r="B5279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5280" t="s">
+        <v>5213</v>
+      </c>
+      <c r="B5280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5281" t="s">
+        <v>5214</v>
+      </c>
+      <c r="B5281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5282" t="s">
+        <v>5215</v>
+      </c>
+      <c r="B5282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5283" t="s">
+        <v>5216</v>
+      </c>
+      <c r="B5283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5284" t="s">
+        <v>5217</v>
+      </c>
+      <c r="B5284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5285" t="s">
+        <v>5218</v>
+      </c>
+      <c r="B5285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5286" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B5286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5287" t="s">
+        <v>5220</v>
+      </c>
+      <c r="B5287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5288" t="s">
+        <v>5221</v>
+      </c>
+      <c r="B5288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5289" t="s">
+        <v>5222</v>
+      </c>
+      <c r="B5289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5290" t="s">
+        <v>5223</v>
+      </c>
+      <c r="B5290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5291" t="s">
+        <v>5224</v>
+      </c>
+      <c r="B5291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5292" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B5292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5293" t="s">
+        <v>5226</v>
+      </c>
+      <c r="B5293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5294" t="s">
+        <v>5227</v>
+      </c>
+      <c r="B5294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5295" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B5295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5296" t="s">
+        <v>5229</v>
+      </c>
+      <c r="B5296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5297" t="s">
+        <v>5230</v>
+      </c>
+      <c r="B5297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5298" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B5298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5299" t="s">
+        <v>5232</v>
+      </c>
+      <c r="B5299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5300" t="s">
+        <v>5233</v>
+      </c>
+      <c r="B5300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5301" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B5301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5302" t="s">
+        <v>5235</v>
+      </c>
+      <c r="B5302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5303" t="s">
+        <v>5236</v>
+      </c>
+      <c r="B5303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5304" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B5304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5305" t="s">
+        <v>5238</v>
+      </c>
+      <c r="B5305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5306" t="s">
+        <v>5239</v>
+      </c>
+      <c r="B5306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5307" t="s">
+        <v>5240</v>
+      </c>
+      <c r="B5307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5308" t="s">
+        <v>5241</v>
+      </c>
+      <c r="B5308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5309" t="s">
+        <v>5242</v>
+      </c>
+      <c r="B5309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5310" t="s">
+        <v>5243</v>
+      </c>
+      <c r="B5310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5311" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B5311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5312" t="s">
+        <v>5245</v>
+      </c>
+      <c r="B5312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5313" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B5313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5314" t="s">
+        <v>5247</v>
+      </c>
+      <c r="B5314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5315" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B5315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5316" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B5316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5317" t="s">
+        <v>5250</v>
+      </c>
+      <c r="B5317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5318" t="s">
+        <v>5251</v>
+      </c>
+      <c r="B5318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5319" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B5319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5320" t="s">
+        <v>5253</v>
+      </c>
+      <c r="B5320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5321" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B5321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5322" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B5322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5323" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B5323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5324" t="s">
+        <v>5257</v>
+      </c>
+      <c r="B5324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5325" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B5325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5326" t="s">
+        <v>5259</v>
+      </c>
+      <c r="B5326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5327" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B5327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5328" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B5328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5329" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B5329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5330" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B5330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5331" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B5331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5332" t="s">
+        <v>5265</v>
+      </c>
+      <c r="B5332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5333" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B5333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5334" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B5334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5335" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B5335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5336" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B5336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5337" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B5337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5338" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B5338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5339" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B5339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5340" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B5340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5341" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B5341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5342" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B5342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5343" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B5343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5344" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B5344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5345" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B5345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5346" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B5346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5347" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B5347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5348" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B5348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5349" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B5349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5350" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B5350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5351" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B5351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5352" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B5352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5353" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B5353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5354" t="s">
+        <v>5287</v>
+      </c>
+      <c r="B5354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5355" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B5355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5356" t="s">
+        <v>5289</v>
+      </c>
+      <c r="B5356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5357" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B5357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5358" t="s">
+        <v>5291</v>
+      </c>
+      <c r="B5358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5359" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B5359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5360" t="s">
+        <v>5293</v>
+      </c>
+      <c r="B5360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5361" t="s">
+        <v>5294</v>
+      </c>
+      <c r="B5361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5362" t="s">
+        <v>5295</v>
+      </c>
+      <c r="B5362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5363" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B5363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5364" t="s">
+        <v>5297</v>
+      </c>
+      <c r="B5364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5365" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B5365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5366" t="s">
+        <v>5299</v>
+      </c>
+      <c r="B5366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5367" t="s">
+        <v>5300</v>
+      </c>
+      <c r="B5367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5368" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B5368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5369" t="s">
+        <v>5302</v>
+      </c>
+      <c r="B5369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5370" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B5370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5371" t="s">
+        <v>5304</v>
+      </c>
+      <c r="B5371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5372" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B5372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5373" t="s">
+        <v>5306</v>
+      </c>
+      <c r="B5373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5374" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B5374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5375" t="s">
+        <v>5308</v>
+      </c>
+      <c r="B5375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5376" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B5376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5377" t="s">
+        <v>5310</v>
+      </c>
+      <c r="B5377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5378" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B5378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5379" t="s">
+        <v>5312</v>
+      </c>
+      <c r="B5379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5380" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B5380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5381" t="s">
+        <v>5314</v>
+      </c>
+      <c r="B5381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5382" t="s">
+        <v>5315</v>
+      </c>
+      <c r="B5382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5383" t="s">
+        <v>5316</v>
+      </c>
+      <c r="B5383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5384" t="s">
+        <v>5317</v>
+      </c>
+      <c r="B5384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5385" t="s">
+        <v>5318</v>
+      </c>
+      <c r="B5385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5386" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B5386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5387" t="s">
+        <v>5320</v>
+      </c>
+      <c r="B5387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5388" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B5388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5389" t="s">
+        <v>5322</v>
+      </c>
+      <c r="B5389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5390" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B5390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5391" t="s">
+        <v>5324</v>
+      </c>
+      <c r="B5391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5392" t="s">
+        <v>5325</v>
+      </c>
+      <c r="B5392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5393" t="s">
+        <v>5326</v>
+      </c>
+      <c r="B5393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5394" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5394" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B5394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5395" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5395" t="s">
+        <v>5328</v>
+      </c>
+      <c r="B5395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5396" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B5396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5397" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5397" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B5397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5398" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5398" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B5398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5399" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5399" t="s">
+        <v>5332</v>
+      </c>
+      <c r="B5399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5400" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5400" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B5400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5401" t="s">
+        <v>5334</v>
+      </c>
+      <c r="B5401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5402" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B5402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5403" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B5403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5404" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B5404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5405" t="s">
+        <v>5338</v>
+      </c>
+      <c r="B5405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5406" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B5406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5407" t="s">
+        <v>5340</v>
+      </c>
+      <c r="B5407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5408" t="s">
+        <v>5341</v>
+      </c>
+      <c r="B5408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5409" t="s">
+        <v>5342</v>
+      </c>
+      <c r="B5409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5410" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B5410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5411" t="s">
+        <v>5344</v>
+      </c>
+      <c r="B5411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5412" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B5412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5413" t="s">
+        <v>5346</v>
+      </c>
+      <c r="B5413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5414" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B5414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5415" t="s">
+        <v>5348</v>
+      </c>
+      <c r="B5415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5416" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B5416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5417" t="s">
+        <v>5350</v>
+      </c>
+      <c r="B5417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5418" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B5418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5419" t="s">
+        <v>5352</v>
+      </c>
+      <c r="B5419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5420" t="s">
+        <v>5353</v>
+      </c>
+      <c r="B5420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5421" t="s">
+        <v>5354</v>
+      </c>
+      <c r="B5421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5422" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B5422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5423" t="s">
+        <v>5356</v>
+      </c>
+      <c r="B5423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5424" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B5424" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
